--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440418243408</t>
+    <t xml:space="preserve">13.8440427780151</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711782455444</t>
+    <t xml:space="preserve">13.7711772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651536941528</t>
+    <t xml:space="preserve">13.4651546478271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797248840332</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154079437256</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068613052368</t>
+    <t xml:space="preserve">13.4068603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081228256226</t>
+    <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.7510900497437</t>
@@ -68,16 +68,16 @@
     <t xml:space="preserve">12.3867750167847</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091436386108</t>
+    <t xml:space="preserve">11.7091445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752334594727</t>
+    <t xml:space="preserve">11.0752325057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830289840698</t>
+    <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655548095703</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651893615723</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950838088989</t>
+    <t xml:space="preserve">10.9950828552246</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295063018799</t>
+    <t xml:space="preserve">10.9295072555542</t>
   </si>
   <si>
     <t xml:space="preserve">11.148097038269</t>
@@ -104,49 +104,49 @@
     <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865362167358</t>
+    <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581401824951</t>
+    <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.920449256897</t>
+    <t xml:space="preserve">11.9204502105713</t>
   </si>
   <si>
     <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292308807373</t>
+    <t xml:space="preserve">12.729229927063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219467163086</t>
+    <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061130523682</t>
+    <t xml:space="preserve">13.0061111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611331939697</t>
+    <t xml:space="preserve">13.2611322402954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.552586555481</t>
+    <t xml:space="preserve">13.5525875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882724761963</t>
+    <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968200683594</t>
+    <t xml:space="preserve">12.8968181610107</t>
   </si>
   <si>
     <t xml:space="preserve">12.6199369430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742097854614</t>
+    <t xml:space="preserve">12.4742116928101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.313907623291</t>
+    <t xml:space="preserve">12.3139114379883</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907917022705</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698993682861</t>
+    <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048398971558</t>
+    <t xml:space="preserve">12.5048389434814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.466944694519</t>
   </si>
   <si>
     <t xml:space="preserve">12.3229513168335</t>
@@ -182,28 +182,28 @@
     <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364376068115</t>
+    <t xml:space="preserve">11.9364366531372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016916275024</t>
+    <t xml:space="preserve">12.2016906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290533065796</t>
+    <t xml:space="preserve">12.4290542602539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911590576172</t>
+    <t xml:space="preserve">12.3911600112915</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5806264877319</t>
+    <t xml:space="preserve">12.5806255340576</t>
   </si>
   <si>
     <t xml:space="preserve">12.6564140319824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7321996688843</t>
+    <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
     <t xml:space="preserve">12.7700939178467</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">12.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957851409912</t>
+    <t xml:space="preserve">12.5957832336426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761940002441</t>
+    <t xml:space="preserve">12.8761959075928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353488922119</t>
+    <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
     <t xml:space="preserve">13.1111354827881</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582761764526</t>
+    <t xml:space="preserve">13.558277130127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.376389503479</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
     <t xml:space="preserve">13.5885915756226</t>
@@ -239,106 +239,106 @@
     <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142847061157</t>
+    <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690042495728</t>
+    <t xml:space="preserve">13.8690052032471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447908401489</t>
+    <t xml:space="preserve">13.9447898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.096363067627</t>
+    <t xml:space="preserve">14.0963649749756</t>
   </si>
   <si>
     <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357370376587</t>
+    <t xml:space="preserve">14.0357341766357</t>
   </si>
   <si>
     <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584688186646</t>
+    <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721525192261</t>
+    <t xml:space="preserve">14.1721515655518</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100458145142</t>
+    <t xml:space="preserve">14.2100467681885</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134259223938</t>
+    <t xml:space="preserve">14.1342601776123</t>
   </si>
   <si>
     <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812063217163</t>
+    <t xml:space="preserve">14.0812072753906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736284255981</t>
+    <t xml:space="preserve">14.0736293792725</t>
   </si>
   <si>
-    <t xml:space="preserve">13.831109046936</t>
+    <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418380737305</t>
+    <t xml:space="preserve">14.1418361663818</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538484573364</t>
+    <t xml:space="preserve">13.8538475036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900712966919</t>
+    <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174310684204</t>
+    <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203847885132</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553234100342</t>
+    <t xml:space="preserve">13.7553224563599</t>
   </si>
   <si>
     <t xml:space="preserve">13.4521760940552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477436065674</t>
+    <t xml:space="preserve">13.747745513916</t>
   </si>
   <si>
     <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340656280518</t>
+    <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551298141479</t>
+    <t xml:space="preserve">13.2551307678223</t>
   </si>
   <si>
     <t xml:space="preserve">12.8231449127197</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776718139648</t>
+    <t xml:space="preserve">12.7776708602905</t>
   </si>
   <si>
     <t xml:space="preserve">12.497260093689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867294311523</t>
+    <t xml:space="preserve">12.686728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412563323975</t>
+    <t xml:space="preserve">12.6412572860718</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185207366943</t>
+    <t xml:space="preserve">12.6185188293457</t>
   </si>
   <si>
     <t xml:space="preserve">12.4063177108765</t>
@@ -347,22 +347,22 @@
     <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578908920288</t>
+    <t xml:space="preserve">12.5578918457031</t>
   </si>
   <si>
     <t xml:space="preserve">12.565468788147</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124158859253</t>
+    <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473583221436</t>
+    <t xml:space="preserve">12.7473564147949</t>
   </si>
   <si>
     <t xml:space="preserve">12.5199956893921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351533889771</t>
+    <t xml:space="preserve">12.5351543426514</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427312850952</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079843521118</t>
+    <t xml:space="preserve">12.8079872131348</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004093170166</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">12.8868455886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654235839844</t>
+    <t xml:space="preserve">12.9654216766357</t>
   </si>
   <si>
     <t xml:space="preserve">12.7061128616333</t>
@@ -395,13 +395,13 @@
     <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118192672729</t>
+    <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.894700050354</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047121047974</t>
+    <t xml:space="preserve">13.0047101974487</t>
   </si>
   <si>
     <t xml:space="preserve">13.1697254180908</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354898452759</t>
+    <t xml:space="preserve">13.7354879379272</t>
   </si>
   <si>
     <t xml:space="preserve">13.5940494537354</t>
@@ -422,64 +422,64 @@
     <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783348083496</t>
+    <t xml:space="preserve">13.5783338546753</t>
   </si>
   <si>
     <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512035369873</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761829376221</t>
+    <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526090621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.7276306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119169235229</t>
+    <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869394302368</t>
+    <t xml:space="preserve">13.9869403839111</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083642959595</t>
+    <t xml:space="preserve">13.9083623886108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655193328857</t>
+    <t xml:space="preserve">14.0655174255371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148189544678</t>
+    <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833848953247</t>
+    <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
     <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590618133545</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576620101929</t>
+    <t xml:space="preserve">14.0576610565186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297843933105</t>
+    <t xml:space="preserve">13.8297853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262308120728</t>
+    <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048078536987</t>
+    <t xml:space="preserve">14.104808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476499557495</t>
+    <t xml:space="preserve">13.9476518630981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690738677979</t>
+    <t xml:space="preserve">13.8690748214722</t>
   </si>
   <si>
     <t xml:space="preserve">13.7904939651489</t>
@@ -491,94 +491,94 @@
     <t xml:space="preserve">14.3012523651123</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619667053223</t>
+    <t xml:space="preserve">14.2619638442993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584102630615</t>
+    <t xml:space="preserve">14.4584093093872</t>
   </si>
   <si>
     <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.733434677124</t>
+    <t xml:space="preserve">14.7334365844727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405437469482</t>
+    <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933940887451</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498018264771</t>
+    <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155652999878</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941471099854</t>
+    <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
     <t xml:space="preserve">14.0969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812339782715</t>
+    <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
     <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.322772026062</t>
+    <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770269393921</t>
+    <t xml:space="preserve">14.9770259857178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070583343506</t>
+    <t xml:space="preserve">15.3070573806763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856344223022</t>
+    <t xml:space="preserve">15.3856372833252</t>
   </si>
   <si>
     <t xml:space="preserve">15.7078046798706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156648635864</t>
+    <t xml:space="preserve">15.7156620025635</t>
   </si>
   <si>
     <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842336654663</t>
+    <t xml:space="preserve">15.6842346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763744354248</t>
+    <t xml:space="preserve">15.6763753890991</t>
   </si>
   <si>
     <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977954864502</t>
+    <t xml:space="preserve">15.5977964401245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306293487549</t>
+    <t xml:space="preserve">15.3306312561035</t>
   </si>
   <si>
-    <t xml:space="preserve">15.872820854187</t>
+    <t xml:space="preserve">15.8728199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442878723145</t>
+    <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871337890625</t>
+    <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
     <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300735473633</t>
+    <t xml:space="preserve">17.130069732666</t>
   </si>
   <si>
     <t xml:space="preserve">17.4443874359131</t>
@@ -593,43 +593,43 @@
     <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587032318115</t>
+    <t xml:space="preserve">17.7587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872295379639</t>
+    <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
     <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729156494141</t>
+    <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
     <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345634460449</t>
+    <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112678527832</t>
+    <t xml:space="preserve">16.8112697601318</t>
   </si>
   <si>
     <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.679741859436</t>
+    <t xml:space="preserve">15.6797409057617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263301849365</t>
+    <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646842956543</t>
+    <t xml:space="preserve">16.1646823883057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879779815674</t>
+    <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962093353271</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729194641113</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413896560669</t>
+    <t xml:space="preserve">15.8413887023926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605657577515</t>
+    <t xml:space="preserve">15.7605667114258</t>
   </si>
   <si>
     <t xml:space="preserve">15.3564491271973</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331535339355</t>
+    <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
     <t xml:space="preserve">15.1139802932739</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255456924438</t>
   </si>
   <si>
     <t xml:space="preserve">14.5901403427124</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385848999023</t>
+    <t xml:space="preserve">14.338586807251</t>
   </si>
   <si>
     <t xml:space="preserve">14.8416948318481</t>
@@ -686,34 +686,34 @@
     <t xml:space="preserve">14.1708831787109</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739931106567</t>
+    <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354787826538</t>
+    <t xml:space="preserve">13.8354768753052</t>
   </si>
   <si>
     <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
     <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031824111938</t>
+    <t xml:space="preserve">14.0031805038452</t>
   </si>
   <si>
     <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677761077881</t>
+    <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839233398438</t>
+    <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.500072479248</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.332368850708</t>
+    <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808143615723</t>
+    <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485179901123</t>
+    <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969635009766</t>
+    <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938554763794</t>
+    <t xml:space="preserve">12.4938564300537</t>
   </si>
   <si>
     <t xml:space="preserve">12.242301940918</t>
@@ -743,16 +743,16 @@
     <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131126403809</t>
+    <t xml:space="preserve">12.9131116867065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615581512451</t>
+    <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553411483765</t>
+    <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
     <t xml:space="preserve">11.8230447769165</t>
@@ -764,25 +764,25 @@
     <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745992660522</t>
+    <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068956375122</t>
+    <t xml:space="preserve">11.9068965911865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391939163208</t>
+    <t xml:space="preserve">11.7391920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876394271851</t>
+    <t xml:space="preserve">11.4876384735107</t>
   </si>
   <si>
     <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.152232170105</t>
+    <t xml:space="preserve">11.1522340774536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168277740479</t>
+    <t xml:space="preserve">10.8168287277222</t>
   </si>
   <si>
     <t xml:space="preserve">10.9845314025879</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329778671265</t>
+    <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
     <t xml:space="preserve">10.4814233779907</t>
@@ -800,10 +800,10 @@
     <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261528015137</t>
+    <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777072906494</t>
+    <t xml:space="preserve">12.5777063369751</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2330751419067</t>
+    <t xml:space="preserve">12.2330741882324</t>
   </si>
   <si>
-    <t xml:space="preserve">12.495210647583</t>
+    <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
     <t xml:space="preserve">12.7573499679565</t>
@@ -833,46 +833,46 @@
     <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5437631607056</t>
+    <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680360794067</t>
+    <t xml:space="preserve">14.0680370330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.631139755249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690032958984</t>
+    <t xml:space="preserve">13.3690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661026000977</t>
+    <t xml:space="preserve">15.4661016464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039642333984</t>
+    <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534811019897</t>
+    <t xml:space="preserve">15.5534820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165866851807</t>
+    <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156185150146</t>
+    <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
     <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282400131226</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787221908569</t>
+    <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
     <t xml:space="preserve">15.2913427352905</t>
@@ -884,31 +884,31 @@
     <t xml:space="preserve">14.8544502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796913146973</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4175539016724</t>
+    <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
     <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418287277222</t>
+    <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
     <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786977767944</t>
+    <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
     <t xml:space="preserve">14.9174470901489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909473419189</t>
+    <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
     <t xml:space="preserve">14.6541996002197</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929460525513</t>
+    <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
     <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296966552734</t>
+    <t xml:space="preserve">14.8296976089478</t>
   </si>
   <si>
     <t xml:space="preserve">14.3031978607178</t>
@@ -935,70 +935,70 @@
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561944961548</t>
+    <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806936264038</t>
+    <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
     <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439449310303</t>
+    <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
     <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826951980591</t>
+    <t xml:space="preserve">15.8826942443848</t>
   </si>
   <si>
     <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459407806396</t>
+    <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704446792603</t>
+    <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949447631836</t>
+    <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.3214435577393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091930389404</t>
+    <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
     <t xml:space="preserve">16.6724395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601909637451</t>
+    <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479385375977</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0485134124756</t>
+    <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573421478271</t>
+    <t xml:space="preserve">16.9573440551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8661727905273</t>
+    <t xml:space="preserve">16.866174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750034332275</t>
+    <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838340759277</t>
+    <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1019,25 +1019,25 @@
     <t xml:space="preserve">17.1396789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3220176696777</t>
+    <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
     <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043544769287</t>
+    <t xml:space="preserve">17.5043525695801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955200195312</t>
+    <t xml:space="preserve">17.5955219268799</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778587341309</t>
+    <t xml:space="preserve">17.7778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453876495361</t>
+    <t xml:space="preserve">19.1453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277244567871</t>
+    <t xml:space="preserve">19.3277225494385</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423099517822</t>
+    <t xml:space="preserve">19.3423118591309</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734184265137</t>
+    <t xml:space="preserve">18.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993412017822</t>
+    <t xml:space="preserve">18.2993431091309</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148983001709</t>
+    <t xml:space="preserve">18.0148963928223</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.351188659668</t>
+    <t xml:space="preserve">17.3511905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1097145080566</t>
+    <t xml:space="preserve">18.109712600708</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0667457580566</t>
+    <t xml:space="preserve">17.066743850708</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1130,16 +1130,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356372833252</t>
+    <t xml:space="preserve">17.6356353759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615619659424</t>
+    <t xml:space="preserve">17.1615600585938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030361175537</t>
+    <t xml:space="preserve">16.4030380249023</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911796569824</t>
+    <t xml:space="preserve">14.7911787033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9808101654053</t>
+    <t xml:space="preserve">14.980809211731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.032657623291</t>
+    <t xml:space="preserve">14.0326566696167</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -57284,7 +57284,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.649537037</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>1776</v>
@@ -57305,6 +57305,32 @@
         <v>411</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.5490393519</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>635</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>13.8000001907349</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440437316895</t>
+    <t xml:space="preserve">13.8440418243408</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711782455444</t>
+    <t xml:space="preserve">13.7711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651508331299</t>
+    <t xml:space="preserve">13.4651536941528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797248840332</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154098510742</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068603515625</t>
+    <t xml:space="preserve">13.4068622589111</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081218719482</t>
+    <t xml:space="preserve">13.1081209182739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510900497437</t>
+    <t xml:space="preserve">12.751091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
     <t xml:space="preserve">11.0752334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830318450928</t>
+    <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651884078979</t>
+    <t xml:space="preserve">10.5651903152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983531951904</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
     <t xml:space="preserve">11.0023698806763</t>
@@ -92,31 +92,31 @@
     <t xml:space="preserve">10.9950828552246</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295053482056</t>
+    <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
     <t xml:space="preserve">11.1480979919434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209606170654</t>
+    <t xml:space="preserve">11.2209596633911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938222885132</t>
+    <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581401824951</t>
+    <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
     <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827573776245</t>
+    <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523496627808</t>
+    <t xml:space="preserve">12.4523506164551</t>
   </si>
   <si>
     <t xml:space="preserve">12.7292318344116</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">13.0061120986938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.261134147644</t>
+    <t xml:space="preserve">13.2611351013184</t>
   </si>
   <si>
     <t xml:space="preserve">13.552586555481</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968200683594</t>
+    <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
     <t xml:space="preserve">12.6199369430542</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">12.5907917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.2774791717529</t>
   </si>
   <si>
     <t xml:space="preserve">12.550311088562</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">12.4669456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229513168335</t>
+    <t xml:space="preserve">12.3229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501184463501</t>
+    <t xml:space="preserve">12.0501174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259050369263</t>
+    <t xml:space="preserve">12.1259059906006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880117416382</t>
+    <t xml:space="preserve">12.0880126953125</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364385604858</t>
@@ -188,25 +188,25 @@
     <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290523529053</t>
+    <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911590576172</t>
+    <t xml:space="preserve">12.3911600112915</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564149856567</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7321996688843</t>
+    <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770092010498</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837747573853</t>
+    <t xml:space="preserve">12.8837738037109</t>
   </si>
   <si>
     <t xml:space="preserve">12.5957841873169</t>
@@ -215,46 +215,46 @@
     <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353469848633</t>
+    <t xml:space="preserve">13.0353488922119</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111354827881</t>
+    <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627077102661</t>
+    <t xml:space="preserve">13.2627086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.558277130127</t>
+    <t xml:space="preserve">13.5582780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763914108276</t>
+    <t xml:space="preserve">13.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885915756226</t>
+    <t xml:space="preserve">13.5885906219482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658559799194</t>
+    <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142847061157</t>
+    <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690042495728</t>
+    <t xml:space="preserve">13.8690023422241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447898864746</t>
+    <t xml:space="preserve">13.9447917938232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.096363067627</t>
+    <t xml:space="preserve">14.0963640213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205783843994</t>
+    <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357360839844</t>
+    <t xml:space="preserve">14.0357351303101</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887870788574</t>
+    <t xml:space="preserve">14.0887861251831</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584697723389</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">14.1721515655518</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100429534912</t>
+    <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948881149292</t>
@@ -272,49 +272,49 @@
     <t xml:space="preserve">14.134259223938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826860427856</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.081205368042</t>
+    <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736293792725</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311080932617</t>
+    <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418371200562</t>
+    <t xml:space="preserve">14.1418361663818</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538446426392</t>
+    <t xml:space="preserve">13.8538455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900693893433</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174291610718</t>
+    <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203847885132</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416444778442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553243637085</t>
+    <t xml:space="preserve">13.7553224563599</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521741867065</t>
+    <t xml:space="preserve">13.4521760940552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.747745513916</t>
+    <t xml:space="preserve">13.7477436065674</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460750579834</t>
+    <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340646743774</t>
+    <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551298141479</t>
@@ -326,28 +326,28 @@
     <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.497260093689</t>
+    <t xml:space="preserve">12.4972620010376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867294311523</t>
+    <t xml:space="preserve">12.686728477478</t>
   </si>
   <si>
     <t xml:space="preserve">12.6412572860718</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185188293457</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
     <t xml:space="preserve">12.4063158035278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488351821899</t>
+    <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578918457031</t>
+    <t xml:space="preserve">12.5578899383545</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654706954956</t>
+    <t xml:space="preserve">12.565468788147</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124168395996</t>
@@ -359,76 +359,76 @@
     <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351552963257</t>
+    <t xml:space="preserve">12.5351543426514</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.315372467041</t>
+    <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246208190918</t>
+    <t xml:space="preserve">12.7246198654175</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079853057861</t>
+    <t xml:space="preserve">12.8079843521118</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296857833862</t>
+    <t xml:space="preserve">12.7296876907349</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654235839844</t>
+    <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061128616333</t>
+    <t xml:space="preserve">12.706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732799530029</t>
+    <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118202209473</t>
+    <t xml:space="preserve">12.6118192672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947019577026</t>
+    <t xml:space="preserve">12.894702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">13.004711151123</t>
+    <t xml:space="preserve">13.0047101974487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697254180908</t>
+    <t xml:space="preserve">13.1697273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368934631348</t>
+    <t xml:space="preserve">13.4368906021118</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354879379272</t>
+    <t xml:space="preserve">13.7354898452759</t>
   </si>
   <si>
     <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861902236938</t>
+    <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
     <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783338546753</t>
+    <t xml:space="preserve">13.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547571182251</t>
+    <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
     <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761819839478</t>
+    <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526081085205</t>
@@ -437,40 +437,40 @@
     <t xml:space="preserve">13.727632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119150161743</t>
+    <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869403839111</t>
+    <t xml:space="preserve">13.9869413375854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083652496338</t>
+    <t xml:space="preserve">13.9083633422852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655193328857</t>
+    <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148189544678</t>
+    <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833848953247</t>
+    <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
     <t xml:space="preserve">13.861216545105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590627670288</t>
+    <t xml:space="preserve">13.7590637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576610565186</t>
+    <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
     <t xml:space="preserve">13.8297834396362</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262289047241</t>
+    <t xml:space="preserve">14.0262269973755</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048078536987</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
     <t xml:space="preserve">13.9476509094238</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">13.8690748214722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904939651489</t>
+    <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440982818604</t>
+    <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
     <t xml:space="preserve">14.3012533187866</t>
@@ -491,91 +491,91 @@
     <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584102630615</t>
+    <t xml:space="preserve">14.4584112167358</t>
   </si>
   <si>
-    <t xml:space="preserve">14.222674369812</t>
+    <t xml:space="preserve">14.2226762771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334327697754</t>
+    <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405408859253</t>
+    <t xml:space="preserve">14.3405418395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933940887451</t>
+    <t xml:space="preserve">14.2933950424194</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498027801514</t>
+    <t xml:space="preserve">14.0498046875</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941452026367</t>
+    <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
     <t xml:space="preserve">14.0969505310059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812368392944</t>
+    <t xml:space="preserve">14.0812339782715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505548477173</t>
+    <t xml:space="preserve">14.4505519866943</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.322772026062</t>
+    <t xml:space="preserve">15.3227701187134</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770278930664</t>
+    <t xml:space="preserve">14.977029800415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070573806763</t>
+    <t xml:space="preserve">15.307056427002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856344223022</t>
+    <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078037261963</t>
+    <t xml:space="preserve">15.7078065872192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156648635864</t>
+    <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999483108521</t>
+    <t xml:space="preserve">15.6999473571777</t>
   </si>
   <si>
     <t xml:space="preserve">15.6842336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763753890991</t>
+    <t xml:space="preserve">15.6763763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384876251221</t>
+    <t xml:space="preserve">15.3384857177734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977935791016</t>
+    <t xml:space="preserve">15.5977964401245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306322097778</t>
+    <t xml:space="preserve">15.3306303024292</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728199005127</t>
+    <t xml:space="preserve">15.8728189468384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871356964111</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
     <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300735473633</t>
+    <t xml:space="preserve">17.1300754547119</t>
   </si>
   <si>
     <t xml:space="preserve">17.4443855285645</t>
@@ -584,25 +584,25 @@
     <t xml:space="preserve">18.5444850921631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730133056641</t>
+    <t xml:space="preserve">18.0730113983154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158554077148</t>
+    <t xml:space="preserve">17.9158592224121</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587013244629</t>
+    <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872314453125</t>
+    <t xml:space="preserve">17.2872333526611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015434265137</t>
+    <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
+    <t xml:space="preserve">16.9729156494141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157615661621</t>
+    <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345634460449</t>
@@ -614,52 +614,52 @@
     <t xml:space="preserve">17.4578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.679741859436</t>
+    <t xml:space="preserve">15.6797428131104</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646823883057</t>
+    <t xml:space="preserve">16.1646862030029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879760742188</t>
+    <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
     <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195049285889</t>
+    <t xml:space="preserve">17.6195030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6496238708496</t>
+    <t xml:space="preserve">16.649621963501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413877487183</t>
+    <t xml:space="preserve">15.8413887023926</t>
   </si>
   <si>
     <t xml:space="preserve">15.7605638504028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564481735229</t>
+    <t xml:space="preserve">15.3564491271973</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030345916748</t>
+    <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331544876099</t>
+    <t xml:space="preserve">15.0331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139793395996</t>
+    <t xml:space="preserve">15.1139783859253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482149124146</t>
+    <t xml:space="preserve">14.5482158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255447387695</t>
+    <t xml:space="preserve">14.9255466461182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901403427124</t>
+    <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
@@ -668,43 +668,43 @@
     <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385858535767</t>
+    <t xml:space="preserve">14.3385848999023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416938781738</t>
   </si>
   <si>
     <t xml:space="preserve">14.254734992981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708822250366</t>
+    <t xml:space="preserve">14.1708831787109</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739921569824</t>
+    <t xml:space="preserve">14.6739912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062885284424</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354778289795</t>
+    <t xml:space="preserve">13.8354787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193296432495</t>
+    <t xml:space="preserve">13.9193286895752</t>
   </si>
   <si>
     <t xml:space="preserve">15.0932502746582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578439712524</t>
+    <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
     <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516288757324</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677742004395</t>
+    <t xml:space="preserve">13.6677761077881</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839233398438</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">13.5000715255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162216186523</t>
+    <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808143615723</t>
+    <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485189437866</t>
+    <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">12.4938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423009872437</t>
+    <t xml:space="preserve">12.242301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646671295166</t>
+    <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131126403809</t>
+    <t xml:space="preserve">12.9131135940552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615591049194</t>
+    <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553421020508</t>
+    <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
     <t xml:space="preserve">11.8230447769165</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584501266479</t>
+    <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
     <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068956375122</t>
+    <t xml:space="preserve">11.9068965911865</t>
   </si>
   <si>
     <t xml:space="preserve">11.7391939163208</t>
@@ -770,34 +770,34 @@
     <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714902877808</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.152232170105</t>
+    <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
     <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845294952393</t>
+    <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
     <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329759597778</t>
+    <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814224243164</t>
+    <t xml:space="preserve">10.4814233779907</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491250991821</t>
+    <t xml:space="preserve">10.6491260528564</t>
   </si>
   <si>
     <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777072906494</t>
+    <t xml:space="preserve">12.5777082443237</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
-    <t xml:space="preserve">12.932107925415</t>
+    <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340433120728</t>
+    <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
     <t xml:space="preserve">12.2330751419067</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068658828735</t>
+    <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5437612533569</t>
+    <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680351257324</t>
+    <t xml:space="preserve">14.0680360794067</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
@@ -845,22 +845,22 @@
     <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661026000977</t>
+    <t xml:space="preserve">15.466103553772</t>
   </si>
   <si>
     <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534791946411</t>
+    <t xml:space="preserve">15.5534801483154</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.116584777832</t>
   </si>
   <si>
     <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408615112305</t>
+    <t xml:space="preserve">15.6408624649048</t>
   </si>
   <si>
     <t xml:space="preserve">15.7282409667969</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913436889648</t>
+    <t xml:space="preserve">15.2913427352905</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0292053222656</t>
+    <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
     <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796894073486</t>
+    <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3301753997803</t>
+    <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
     <t xml:space="preserve">14.417552947998</t>
@@ -890,31 +890,31 @@
     <t xml:space="preserve">14.2427949905396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418268203735</t>
+    <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154502868652</t>
+    <t xml:space="preserve">14.2154493331909</t>
   </si>
   <si>
     <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174461364746</t>
+    <t xml:space="preserve">14.9174451828003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909473419189</t>
+    <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541976928711</t>
+    <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664491653442</t>
+    <t xml:space="preserve">14.5664472579956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929460525513</t>
+    <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684469223022</t>
+    <t xml:space="preserve">15.2684459686279</t>
   </si>
   <si>
     <t xml:space="preserve">14.8296957015991</t>
@@ -926,19 +926,19 @@
     <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051965713501</t>
+    <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316963195801</t>
+    <t xml:space="preserve">15.5316953659058</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806945800781</t>
+    <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071933746338</t>
+    <t xml:space="preserve">15.7071924209595</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
@@ -950,25 +950,25 @@
     <t xml:space="preserve">15.8826932907104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581912994385</t>
+    <t xml:space="preserve">16.0581932067871</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459407806396</t>
+    <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704427719116</t>
+    <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.794942855835</t>
+    <t xml:space="preserve">15.7949419021606</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214435577393</t>
+    <t xml:space="preserve">16.3214416503906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091930389404</t>
+    <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724414825439</t>
+    <t xml:space="preserve">16.6724433898926</t>
   </si>
   <si>
     <t xml:space="preserve">16.7601909637451</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926704406738</t>
+    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131851196289</t>
+    <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043563842773</t>
+    <t xml:space="preserve">17.5043525695801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955200195312</t>
+    <t xml:space="preserve">17.5955219268799</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778587341309</t>
+    <t xml:space="preserve">17.7778606414795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160404205322</t>
+    <t xml:space="preserve">18.4160385131836</t>
   </si>
   <si>
     <t xml:space="preserve">19.5100593566895</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453876495361</t>
+    <t xml:space="preserve">19.1453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277244567871</t>
+    <t xml:space="preserve">19.3277225494385</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7807121276855</t>
+    <t xml:space="preserve">18.7807140350342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1425323486328</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423099517822</t>
+    <t xml:space="preserve">19.3423118591309</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734184265137</t>
+    <t xml:space="preserve">18.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993412017822</t>
+    <t xml:space="preserve">18.2993431091309</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148983001709</t>
+    <t xml:space="preserve">18.0148963928223</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.351188659668</t>
+    <t xml:space="preserve">17.3511905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1097145080566</t>
+    <t xml:space="preserve">18.109712600708</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1112,10 +1112,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0667457580566</t>
+    <t xml:space="preserve">17.066743850708</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1127,16 +1124,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356372833252</t>
+    <t xml:space="preserve">17.6356353759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615619659424</t>
+    <t xml:space="preserve">17.1615600585938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030361175537</t>
+    <t xml:space="preserve">16.4030380249023</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1154,13 +1151,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911796569824</t>
+    <t xml:space="preserve">14.7911787033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9808101654053</t>
+    <t xml:space="preserve">14.980809211731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.032657623291</t>
+    <t xml:space="preserve">14.0326566696167</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -44666,7 +44663,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44692,7 +44689,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44744,7 +44741,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44770,7 +44767,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44796,7 +44793,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44822,7 +44819,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44848,7 +44845,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44874,7 +44871,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44900,7 +44897,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44926,7 +44923,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44952,7 +44949,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44978,7 +44975,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45004,7 +45001,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45030,7 +45027,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45056,7 +45053,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45082,7 +45079,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45108,7 +45105,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45134,7 +45131,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45160,7 +45157,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45186,7 +45183,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45212,7 +45209,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45238,7 +45235,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45264,7 +45261,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45290,7 +45287,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45342,7 +45339,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45368,7 +45365,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45628,7 +45625,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45862,7 +45859,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45888,7 +45885,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45914,7 +45911,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45940,7 +45937,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45966,7 +45963,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -45992,7 +45989,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46018,7 +46015,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46044,7 +46041,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46070,7 +46067,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46096,7 +46093,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46122,7 +46119,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46148,7 +46145,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46174,7 +46171,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46252,7 +46249,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46278,7 +46275,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46460,7 +46457,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46486,7 +46483,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46512,7 +46509,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46538,7 +46535,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46564,7 +46561,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46590,7 +46587,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46616,7 +46613,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46642,7 +46639,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46668,7 +46665,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46694,7 +46691,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46720,7 +46717,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46746,7 +46743,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46772,7 +46769,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46798,7 +46795,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46824,7 +46821,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46850,7 +46847,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46876,7 +46873,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46902,7 +46899,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46928,7 +46925,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46954,7 +46951,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46980,7 +46977,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47032,7 +47029,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47058,7 +47055,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47084,7 +47081,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47110,7 +47107,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47136,7 +47133,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47162,7 +47159,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47188,7 +47185,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47214,7 +47211,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47240,7 +47237,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47266,7 +47263,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47292,7 +47289,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47318,7 +47315,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47422,7 +47419,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47448,7 +47445,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47474,7 +47471,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47500,7 +47497,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47526,7 +47523,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47552,7 +47549,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47578,7 +47575,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47604,7 +47601,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47630,7 +47627,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47682,7 +47679,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47708,7 +47705,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47734,7 +47731,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47760,7 +47757,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47786,7 +47783,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47812,7 +47809,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47838,7 +47835,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47916,7 +47913,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47942,7 +47939,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47968,7 +47965,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -47994,7 +47991,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48020,7 +48017,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48046,7 +48043,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48072,7 +48069,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48098,7 +48095,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48150,7 +48147,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48176,7 +48173,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48202,7 +48199,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48254,7 +48251,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48514,7 +48511,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48540,7 +48537,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48566,7 +48563,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48592,7 +48589,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48618,7 +48615,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48644,7 +48641,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48670,7 +48667,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48696,7 +48693,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48722,7 +48719,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48748,7 +48745,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48774,7 +48771,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48800,7 +48797,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48826,7 +48823,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48852,7 +48849,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48878,7 +48875,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48904,7 +48901,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48930,7 +48927,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48956,7 +48953,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48982,7 +48979,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49008,7 +49005,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49034,7 +49031,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49060,7 +49057,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49086,7 +49083,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49112,7 +49109,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49138,7 +49135,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49164,7 +49161,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49190,7 +49187,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49216,7 +49213,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49242,7 +49239,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49268,7 +49265,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49294,7 +49291,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49320,7 +49317,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49346,7 +49343,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49372,7 +49369,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49398,7 +49395,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49424,7 +49421,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49450,7 +49447,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49476,7 +49473,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49502,7 +49499,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49528,7 +49525,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49554,7 +49551,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49580,7 +49577,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49606,7 +49603,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49632,7 +49629,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49658,7 +49655,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49684,7 +49681,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49710,7 +49707,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49736,7 +49733,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49762,7 +49759,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49788,7 +49785,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49814,7 +49811,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49840,7 +49837,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49866,7 +49863,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49892,7 +49889,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49918,7 +49915,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49944,7 +49941,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49970,7 +49967,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -49996,7 +49993,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50022,7 +50019,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50048,7 +50045,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50074,7 +50071,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50100,7 +50097,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50126,7 +50123,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50152,7 +50149,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50178,7 +50175,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50204,7 +50201,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50230,7 +50227,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50256,7 +50253,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50282,7 +50279,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50308,7 +50305,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50334,7 +50331,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50360,7 +50357,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50386,7 +50383,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50412,7 +50409,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50438,7 +50435,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50464,7 +50461,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50490,7 +50487,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50516,7 +50513,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50542,7 +50539,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50568,7 +50565,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50594,7 +50591,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50620,7 +50617,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50646,7 +50643,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50672,7 +50669,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50698,7 +50695,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50724,7 +50721,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50750,7 +50747,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50776,7 +50773,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50802,7 +50799,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50828,7 +50825,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50854,7 +50851,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50880,7 +50877,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50906,7 +50903,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50932,7 +50929,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50958,7 +50955,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50984,7 +50981,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51010,7 +51007,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51036,7 +51033,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51062,7 +51059,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51088,7 +51085,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51114,7 +51111,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51140,7 +51137,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51166,7 +51163,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51192,7 +51189,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51218,7 +51215,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51244,7 +51241,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51270,7 +51267,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51296,7 +51293,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51322,7 +51319,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51348,7 +51345,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51374,7 +51371,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51400,7 +51397,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51426,7 +51423,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51452,7 +51449,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51478,7 +51475,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51504,7 +51501,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51530,7 +51527,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51556,7 +51553,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51582,7 +51579,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51608,7 +51605,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51634,7 +51631,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51660,7 +51657,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51686,7 +51683,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51712,7 +51709,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51738,7 +51735,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51764,7 +51761,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51790,7 +51787,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51816,7 +51813,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51842,7 +51839,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51868,7 +51865,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51894,7 +51891,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51920,7 +51917,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51946,7 +51943,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51972,7 +51969,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -51998,7 +51995,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52024,7 +52021,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52050,7 +52047,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52076,7 +52073,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52102,7 +52099,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52128,7 +52125,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52154,7 +52151,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52180,7 +52177,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52206,7 +52203,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52232,7 +52229,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52258,7 +52255,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52284,7 +52281,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52310,7 +52307,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52336,7 +52333,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52362,7 +52359,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52388,7 +52385,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52414,7 +52411,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52440,7 +52437,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52466,7 +52463,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52492,7 +52489,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52518,7 +52515,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52544,7 +52541,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52570,7 +52567,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52596,7 +52593,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52622,7 +52619,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52648,7 +52645,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52674,7 +52671,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52700,7 +52697,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52726,7 +52723,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52752,7 +52749,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52778,7 +52775,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52804,7 +52801,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52830,7 +52827,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52856,7 +52853,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52882,7 +52879,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52908,7 +52905,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52934,7 +52931,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52960,7 +52957,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -52986,7 +52983,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53012,7 +53009,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53038,7 +53035,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53064,7 +53061,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53090,7 +53087,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53116,7 +53113,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53142,7 +53139,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53168,7 +53165,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53194,7 +53191,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53220,7 +53217,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53246,7 +53243,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53272,7 +53269,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53298,7 +53295,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53324,7 +53321,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53350,7 +53347,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53376,7 +53373,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53402,7 +53399,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53428,7 +53425,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53454,7 +53451,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53480,7 +53477,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53506,7 +53503,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53532,7 +53529,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53558,7 +53555,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53584,7 +53581,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53610,7 +53607,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53636,7 +53633,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53662,7 +53659,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53688,7 +53685,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53714,7 +53711,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53740,7 +53737,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53766,7 +53763,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53792,7 +53789,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53818,7 +53815,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53844,7 +53841,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53870,7 +53867,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53896,7 +53893,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53922,7 +53919,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53948,7 +53945,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53974,7 +53971,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54000,7 +53997,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54026,7 +54023,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54052,7 +54049,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54078,7 +54075,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54104,7 +54101,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54130,7 +54127,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54156,7 +54153,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54182,7 +54179,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54208,7 +54205,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54234,7 +54231,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54260,7 +54257,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54286,7 +54283,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54312,7 +54309,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54338,7 +54335,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54364,7 +54361,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54390,7 +54387,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54416,7 +54413,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54442,7 +54439,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54468,7 +54465,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54494,7 +54491,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54520,7 +54517,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54546,7 +54543,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54572,7 +54569,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54598,7 +54595,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54624,7 +54621,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54650,7 +54647,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54676,7 +54673,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54702,7 +54699,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54728,7 +54725,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54754,7 +54751,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54780,7 +54777,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54806,7 +54803,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54832,7 +54829,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54858,7 +54855,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54884,7 +54881,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54910,7 +54907,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54936,7 +54933,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54962,7 +54959,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -54988,7 +54985,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55014,7 +55011,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55040,7 +55037,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55066,7 +55063,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55092,7 +55089,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55118,7 +55115,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55144,7 +55141,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55170,7 +55167,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55196,7 +55193,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55222,7 +55219,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55248,7 +55245,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55274,7 +55271,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55300,7 +55297,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55326,7 +55323,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55352,7 +55349,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55378,7 +55375,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55404,7 +55401,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55430,7 +55427,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55456,7 +55453,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55482,7 +55479,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55508,7 +55505,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55534,7 +55531,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55560,7 +55557,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55586,7 +55583,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55612,7 +55609,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55638,7 +55635,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55664,7 +55661,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55690,7 +55687,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55716,7 +55713,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55742,7 +55739,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55768,7 +55765,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55794,7 +55791,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55820,7 +55817,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55846,7 +55843,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55872,7 +55869,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55898,7 +55895,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55924,7 +55921,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55950,7 +55947,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55976,7 +55973,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56002,7 +55999,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56028,7 +56025,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56054,7 +56051,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56080,7 +56077,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56106,7 +56103,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56132,7 +56129,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56158,7 +56155,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56184,7 +56181,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56210,7 +56207,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56236,7 +56233,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56262,7 +56259,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56288,7 +56285,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56314,7 +56311,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56340,7 +56337,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56366,7 +56363,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56392,7 +56389,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56418,7 +56415,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56444,7 +56441,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56470,7 +56467,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56496,7 +56493,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56522,7 +56519,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56548,7 +56545,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56574,7 +56571,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56600,7 +56597,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56626,7 +56623,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56652,7 +56649,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56678,7 +56675,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56704,7 +56701,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56730,7 +56727,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56756,7 +56753,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56782,7 +56779,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56808,7 +56805,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56834,7 +56831,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56860,7 +56857,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56886,7 +56883,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56912,7 +56909,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56938,7 +56935,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56964,7 +56961,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -56990,7 +56987,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57016,7 +57013,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57042,7 +57039,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57068,7 +57065,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57094,7 +57091,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57120,7 +57117,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57146,7 +57143,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57172,7 +57169,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57198,7 +57195,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57224,7 +57221,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57250,7 +57247,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57276,7 +57273,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57302,7 +57299,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57328,7 +57325,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57354,7 +57351,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57380,7 +57377,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57406,7 +57403,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57432,7 +57429,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57458,7 +57455,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2149" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,142 +44,142 @@
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711763381958</t>
+    <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651536941528</t>
+    <t xml:space="preserve">13.4651508331299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797239303589</t>
+    <t xml:space="preserve">13.4797248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154088973999</t>
+    <t xml:space="preserve">13.1154079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068622589111</t>
+    <t xml:space="preserve">13.4068593978882</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081209182739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.751091003418</t>
+    <t xml:space="preserve">12.7510890960693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867740631104</t>
+    <t xml:space="preserve">12.3867750167847</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091455459595</t>
+    <t xml:space="preserve">11.7091445922852</t>
   </si>
   <si>
     <t xml:space="preserve">11.0752334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830308914185</t>
+    <t xml:space="preserve">10.3830318450928</t>
   </si>
   <si>
     <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651903152466</t>
+    <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
     <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023698806763</t>
+    <t xml:space="preserve">11.002368927002</t>
   </si>
   <si>
     <t xml:space="preserve">10.9950828552246</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295063018799</t>
+    <t xml:space="preserve">10.9295053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480979919434</t>
+    <t xml:space="preserve">11.1480960845947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209596633911</t>
+    <t xml:space="preserve">11.2209587097168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938232421875</t>
+    <t xml:space="preserve">11.2938222885132</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581411361694</t>
+    <t xml:space="preserve">11.6581401824951</t>
   </si>
   <si>
     <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827554702759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523496627808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292318344116</t>
+    <t xml:space="preserve">12.729229927063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219467163086</t>
+    <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061120986938</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611351013184</t>
+    <t xml:space="preserve">13.261134147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.552586555481</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882705688477</t>
+    <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742097854614</t>
+    <t xml:space="preserve">12.4742107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3139085769653</t>
+    <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774791717529</t>
+    <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.550311088562</t>
+    <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698993682861</t>
+    <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048398971558</t>
+    <t xml:space="preserve">12.5048389434814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229503631592</t>
+    <t xml:space="preserve">12.3229522705078</t>
   </si>
   <si>
     <t xml:space="preserve">12.0501174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259059906006</t>
+    <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227567672729</t>
+    <t xml:space="preserve">11.8227577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880126953125</t>
+    <t xml:space="preserve">12.0880117416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364385604858</t>
@@ -188,67 +188,67 @@
     <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290533065796</t>
+    <t xml:space="preserve">12.4290523529053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911581039429</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564149856567</t>
+    <t xml:space="preserve">12.6564130783081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700929641724</t>
+    <t xml:space="preserve">12.770092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837738037109</t>
+    <t xml:space="preserve">12.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957841873169</t>
+    <t xml:space="preserve">12.5957832336426</t>
   </si>
   <si>
     <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353488922119</t>
+    <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111345291138</t>
+    <t xml:space="preserve">13.1111354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627086639404</t>
+    <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582780838013</t>
+    <t xml:space="preserve">13.558277130127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763885498047</t>
+    <t xml:space="preserve">13.3763914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885906219482</t>
+    <t xml:space="preserve">13.5885925292969</t>
   </si>
   <si>
     <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142837524414</t>
+    <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690023422241</t>
+    <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
     <t xml:space="preserve">13.9447917938232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963640213013</t>
+    <t xml:space="preserve">14.096363067627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205774307251</t>
+    <t xml:space="preserve">14.0205764770508</t>
   </si>
   <si>
     <t xml:space="preserve">14.0357351303101</t>
@@ -260,25 +260,25 @@
     <t xml:space="preserve">14.0584697723389</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721515655518</t>
+    <t xml:space="preserve">14.1721534729004</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100448608398</t>
+    <t xml:space="preserve">14.2100458145142</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134259223938</t>
+    <t xml:space="preserve">14.1342573165894</t>
   </si>
   <si>
     <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812063217163</t>
+    <t xml:space="preserve">14.081205368042</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736293792725</t>
+    <t xml:space="preserve">14.0736303329468</t>
   </si>
   <si>
     <t xml:space="preserve">13.8311100006104</t>
@@ -287,79 +287,79 @@
     <t xml:space="preserve">14.1418361663818</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538446426392</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900684356689</t>
+    <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
     <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203838348389</t>
+    <t xml:space="preserve">13.5203857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416444778442</t>
+    <t xml:space="preserve">13.6416425704956</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553224563599</t>
+    <t xml:space="preserve">13.7553243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521760940552</t>
+    <t xml:space="preserve">13.4521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477436065674</t>
+    <t xml:space="preserve">13.747745513916</t>
   </si>
   <si>
     <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340637207031</t>
+    <t xml:space="preserve">13.6340656280518</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231449127197</t>
+    <t xml:space="preserve">12.823145866394</t>
   </si>
   <si>
     <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972620010376</t>
+    <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686728477478</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412572860718</t>
+    <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
     <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063158035278</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
     <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578899383545</t>
+    <t xml:space="preserve">12.5578918457031</t>
   </si>
   <si>
-    <t xml:space="preserve">12.565468788147</t>
+    <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473564147949</t>
+    <t xml:space="preserve">12.7473583221436</t>
   </si>
   <si>
     <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427322387695</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246198654175</t>
+    <t xml:space="preserve">12.7246208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079843521118</t>
+    <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296876907349</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868446350098</t>
@@ -386,94 +386,94 @@
     <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.706111907959</t>
+    <t xml:space="preserve">12.7061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732789993286</t>
+    <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118192672729</t>
+    <t xml:space="preserve">12.6118211746216</t>
   </si>
   <si>
-    <t xml:space="preserve">12.894702911377</t>
+    <t xml:space="preserve">12.8947010040283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047101974487</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697273254395</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368906021118</t>
+    <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354898452759</t>
+    <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
     <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861911773682</t>
+    <t xml:space="preserve">13.5861930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783348083496</t>
+    <t xml:space="preserve">13.5783357620239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.554759979248</t>
+    <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
     <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761829376221</t>
+    <t xml:space="preserve">13.4761810302734</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526081085205</t>
+    <t xml:space="preserve">13.4526100158691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.727632522583</t>
+    <t xml:space="preserve">13.7276315689087</t>
   </si>
   <si>
     <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869413375854</t>
+    <t xml:space="preserve">13.9869403839111</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083633422852</t>
+    <t xml:space="preserve">13.9083623886108</t>
   </si>
   <si>
     <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148170471191</t>
+    <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833868026733</t>
+    <t xml:space="preserve">14.1833848953247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.861216545105</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590618133545</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576601028442</t>
+    <t xml:space="preserve">14.0576610565186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297834396362</t>
+    <t xml:space="preserve">13.8297824859619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262269973755</t>
+    <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048097610474</t>
+    <t xml:space="preserve">14.104808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476509094238</t>
+    <t xml:space="preserve">13.9476518630981</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690748214722</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584112167358</t>
+    <t xml:space="preserve">14.4584121704102</t>
   </si>
   <si>
     <t xml:space="preserve">14.2226762771606</t>
@@ -500,73 +500,73 @@
     <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405418395996</t>
+    <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
     <t xml:space="preserve">14.2933950424194</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498046875</t>
+    <t xml:space="preserve">14.0498027801514</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.694146156311</t>
+    <t xml:space="preserve">14.6941471099854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969505310059</t>
+    <t xml:space="preserve">14.0969514846802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812339782715</t>
+    <t xml:space="preserve">14.0812368392944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505519866943</t>
+    <t xml:space="preserve">14.4505558013916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705722808838</t>
+    <t xml:space="preserve">14.6705713272095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227701187134</t>
+    <t xml:space="preserve">15.322772026062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.977029800415</t>
+    <t xml:space="preserve">14.9770278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.307056427002</t>
+    <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856353759766</t>
+    <t xml:space="preserve">15.3856344223022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156639099121</t>
+    <t xml:space="preserve">15.7156629562378</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999473571777</t>
+    <t xml:space="preserve">15.6999464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842336654663</t>
+    <t xml:space="preserve">15.6842346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763763427734</t>
+    <t xml:space="preserve">15.6763753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384857177734</t>
+    <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977964401245</t>
+    <t xml:space="preserve">15.5977935791016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306303024292</t>
+    <t xml:space="preserve">15.3306322097778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728189468384</t>
+    <t xml:space="preserve">15.8728199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442916870117</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
     <t xml:space="preserve">16.1871337890625</t>
@@ -581,103 +581,103 @@
     <t xml:space="preserve">17.4443855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444850921631</t>
+    <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730113983154</t>
+    <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158592224121</t>
+    <t xml:space="preserve">17.9158573150635</t>
   </si>
   <si>
     <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872333526611</t>
+    <t xml:space="preserve">17.2872295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015453338623</t>
+    <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729156494141</t>
+    <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157596588135</t>
+    <t xml:space="preserve">16.8157577514648</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112697601318</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797428131104</t>
+    <t xml:space="preserve">15.679741859436</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646862030029</t>
+    <t xml:space="preserve">16.1646823883057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879779815674</t>
+    <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962093353271</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195030212402</t>
+    <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.649621963501</t>
+    <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413887023926</t>
+    <t xml:space="preserve">15.8413896560669</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605638504028</t>
+    <t xml:space="preserve">15.7605657577515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564481735229</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331563949585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139783859253</t>
+    <t xml:space="preserve">15.1139793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482158660889</t>
+    <t xml:space="preserve">14.5482139587402</t>
   </si>
   <si>
     <t xml:space="preserve">14.9255466461182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901393890381</t>
+    <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224367141724</t>
+    <t xml:space="preserve">14.4224376678467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870323181152</t>
+    <t xml:space="preserve">14.0870313644409</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385848999023</t>
+    <t xml:space="preserve">14.338586807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416938781738</t>
+    <t xml:space="preserve">14.8416948318481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.254734992981</t>
+    <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708831787109</t>
+    <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
     <t xml:space="preserve">14.6739912033081</t>
@@ -686,82 +686,82 @@
     <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354787826538</t>
+    <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
     <t xml:space="preserve">13.9193286895752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932483673096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578430175781</t>
+    <t xml:space="preserve">14.7578420639038</t>
   </si>
   <si>
     <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516269683838</t>
+    <t xml:space="preserve">13.7516279220581</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677761077881</t>
+    <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5000715255737</t>
+    <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.416220664978</t>
+    <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.332368850708</t>
+    <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485179901123</t>
+    <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938554763794</t>
+    <t xml:space="preserve">12.4938545227051</t>
   </si>
   <si>
     <t xml:space="preserve">12.242301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646661758423</t>
+    <t xml:space="preserve">13.1646671295166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131135940552</t>
+    <t xml:space="preserve">12.9131126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615581512451</t>
+    <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454109191895</t>
+    <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553430557251</t>
+    <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
     <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907464981079</t>
+    <t xml:space="preserve">11.9907474517822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584491729736</t>
+    <t xml:space="preserve">12.1584501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745983123779</t>
+    <t xml:space="preserve">12.0745992660522</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068965911865</t>
+    <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
     <t xml:space="preserve">11.7391939163208</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329769134521</t>
+    <t xml:space="preserve">10.7329759597778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814233779907</t>
+    <t xml:space="preserve">10.4814214706421</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491260528564</t>
+    <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
     <t xml:space="preserve">12.326153755188</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9321088790894</t>
+    <t xml:space="preserve">12.932107925415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340423583984</t>
+    <t xml:space="preserve">11.5340433120728</t>
   </si>
   <si>
     <t xml:space="preserve">12.2330751419067</t>
@@ -821,10 +821,10 @@
     <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0194873809814</t>
+    <t xml:space="preserve">13.0194864273071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068668365479</t>
+    <t xml:space="preserve">13.1068658828735</t>
   </si>
   <si>
     <t xml:space="preserve">13.5437622070312</t>
@@ -839,28 +839,28 @@
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.6311416625977</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.466103553772</t>
+    <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
     <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534801483154</t>
+    <t xml:space="preserve">15.5534811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.116584777832</t>
+    <t xml:space="preserve">15.116587638855</t>
   </si>
   <si>
     <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408624649048</t>
+    <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
     <t xml:space="preserve">15.7282409667969</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913427352905</t>
+    <t xml:space="preserve">15.2913417816162</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0292062759399</t>
+    <t xml:space="preserve">15.0292053222656</t>
   </si>
   <si>
     <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796894073486</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
@@ -887,94 +887,94 @@
     <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427949905396</t>
+    <t xml:space="preserve">14.2427959442139</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418277740479</t>
+    <t xml:space="preserve">14.9418287277222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786977767944</t>
+    <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174451828003</t>
+    <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909482955933</t>
+    <t xml:space="preserve">14.3909473419189</t>
   </si>
   <si>
     <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664472579956</t>
+    <t xml:space="preserve">14.5664491653442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929470062256</t>
+    <t xml:space="preserve">15.0929479598999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684459686279</t>
+    <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
     <t xml:space="preserve">14.8296957015991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031988143921</t>
+    <t xml:space="preserve">14.3031978607178</t>
   </si>
   <si>
     <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051975250244</t>
+    <t xml:space="preserve">15.0051984786987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561964035034</t>
+    <t xml:space="preserve">15.3561944961548</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806955337524</t>
+    <t xml:space="preserve">15.1806945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071924209595</t>
+    <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194438934326</t>
+    <t xml:space="preserve">15.619441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826932907104</t>
+    <t xml:space="preserve">15.8826951980591</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581932067871</t>
+    <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459426879883</t>
+    <t xml:space="preserve">16.1459407806396</t>
   </si>
   <si>
     <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949419021606</t>
+    <t xml:space="preserve">15.794942855835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.3214435577393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091911315918</t>
+    <t xml:space="preserve">16.4091930389404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724433898926</t>
+    <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
     <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479423522949</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926685333252</t>
+    <t xml:space="preserve">16.5926704406738</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131870269775</t>
+    <t xml:space="preserve">17.4131851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043525695801</t>
+    <t xml:space="preserve">17.5043563842773</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955219268799</t>
+    <t xml:space="preserve">17.5955200195312</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778606414795</t>
+    <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160385131836</t>
+    <t xml:space="preserve">18.4160404205322</t>
   </si>
   <si>
     <t xml:space="preserve">19.5100593566895</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453857421875</t>
+    <t xml:space="preserve">19.1453876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277225494385</t>
+    <t xml:space="preserve">19.3277244567871</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7807140350342</t>
+    <t xml:space="preserve">18.7807121276855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1425323486328</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423118591309</t>
+    <t xml:space="preserve">19.3423099517822</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734203338623</t>
+    <t xml:space="preserve">18.7734184265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993431091309</t>
+    <t xml:space="preserve">18.2993412017822</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148963928223</t>
+    <t xml:space="preserve">18.0148983001709</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3511905670166</t>
+    <t xml:space="preserve">17.351188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.109712600708</t>
+    <t xml:space="preserve">18.1097145080566</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1112,7 +1112,10 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.066743850708</t>
+    <t xml:space="preserve">16.5926685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0667457580566</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1124,16 +1127,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356353759766</t>
+    <t xml:space="preserve">17.6356372833252</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615600585938</t>
+    <t xml:space="preserve">17.1615619659424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030380249023</t>
+    <t xml:space="preserve">16.4030361175537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1151,13 +1154,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911787033081</t>
+    <t xml:space="preserve">14.7911796569824</t>
   </si>
   <si>
-    <t xml:space="preserve">14.980809211731</t>
+    <t xml:space="preserve">14.9808101654053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0326566696167</t>
+    <t xml:space="preserve">14.032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -44663,7 +44666,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44689,7 +44692,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44741,7 +44744,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44767,7 +44770,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44793,7 +44796,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44819,7 +44822,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44845,7 +44848,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44871,7 +44874,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44897,7 +44900,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44923,7 +44926,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44949,7 +44952,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44975,7 +44978,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45001,7 +45004,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45027,7 +45030,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45053,7 +45056,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45079,7 +45082,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45105,7 +45108,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45131,7 +45134,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45157,7 +45160,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45183,7 +45186,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45209,7 +45212,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45235,7 +45238,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45261,7 +45264,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45287,7 +45290,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45339,7 +45342,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45365,7 +45368,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45625,7 +45628,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45859,7 +45862,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45885,7 +45888,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45911,7 +45914,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45937,7 +45940,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45963,7 +45966,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -45989,7 +45992,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46015,7 +46018,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46041,7 +46044,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46067,7 +46070,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46093,7 +46096,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46119,7 +46122,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46145,7 +46148,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46171,7 +46174,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46249,7 +46252,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46275,7 +46278,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46457,7 +46460,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46483,7 +46486,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46509,7 +46512,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46535,7 +46538,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46561,7 +46564,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46587,7 +46590,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46613,7 +46616,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46639,7 +46642,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46665,7 +46668,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46691,7 +46694,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46717,7 +46720,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46743,7 +46746,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46769,7 +46772,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46795,7 +46798,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46821,7 +46824,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46847,7 +46850,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46873,7 +46876,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46899,7 +46902,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46925,7 +46928,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46951,7 +46954,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46977,7 +46980,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47029,7 +47032,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47055,7 +47058,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47081,7 +47084,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47107,7 +47110,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47133,7 +47136,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47159,7 +47162,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47185,7 +47188,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47211,7 +47214,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47237,7 +47240,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47263,7 +47266,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47289,7 +47292,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47315,7 +47318,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47419,7 +47422,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47445,7 +47448,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47471,7 +47474,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47497,7 +47500,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47523,7 +47526,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47549,7 +47552,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47575,7 +47578,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47601,7 +47604,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47627,7 +47630,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47679,7 +47682,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47705,7 +47708,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47731,7 +47734,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47757,7 +47760,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47783,7 +47786,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47809,7 +47812,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47835,7 +47838,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47913,7 +47916,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47939,7 +47942,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47965,7 +47968,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -47991,7 +47994,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48017,7 +48020,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48043,7 +48046,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48069,7 +48072,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48095,7 +48098,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48147,7 +48150,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48173,7 +48176,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48199,7 +48202,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48251,7 +48254,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48511,7 +48514,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48537,7 +48540,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48563,7 +48566,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48589,7 +48592,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48615,7 +48618,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48641,7 +48644,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48667,7 +48670,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48693,7 +48696,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48719,7 +48722,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48745,7 +48748,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48771,7 +48774,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48797,7 +48800,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48823,7 +48826,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48849,7 +48852,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48875,7 +48878,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48901,7 +48904,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48927,7 +48930,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48953,7 +48956,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48979,7 +48982,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49005,7 +49008,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49031,7 +49034,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49057,7 +49060,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49083,7 +49086,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49109,7 +49112,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49135,7 +49138,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49161,7 +49164,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49187,7 +49190,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49213,7 +49216,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49239,7 +49242,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49265,7 +49268,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49291,7 +49294,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49317,7 +49320,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49343,7 +49346,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49369,7 +49372,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49395,7 +49398,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49421,7 +49424,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49447,7 +49450,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49473,7 +49476,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49499,7 +49502,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49525,7 +49528,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49551,7 +49554,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49577,7 +49580,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49603,7 +49606,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49629,7 +49632,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49655,7 +49658,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49681,7 +49684,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49707,7 +49710,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49733,7 +49736,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49759,7 +49762,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49785,7 +49788,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49811,7 +49814,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49837,7 +49840,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49863,7 +49866,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49889,7 +49892,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49915,7 +49918,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49941,7 +49944,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49967,7 +49970,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -49993,7 +49996,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50019,7 +50022,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50045,7 +50048,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50071,7 +50074,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50097,7 +50100,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50123,7 +50126,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50149,7 +50152,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50175,7 +50178,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50201,7 +50204,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50227,7 +50230,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50253,7 +50256,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50279,7 +50282,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50305,7 +50308,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50331,7 +50334,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50357,7 +50360,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50383,7 +50386,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50409,7 +50412,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50435,7 +50438,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50461,7 +50464,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50487,7 +50490,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50513,7 +50516,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50539,7 +50542,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50565,7 +50568,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50591,7 +50594,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50617,7 +50620,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50643,7 +50646,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50669,7 +50672,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50695,7 +50698,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50721,7 +50724,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50747,7 +50750,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50773,7 +50776,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50799,7 +50802,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50825,7 +50828,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50851,7 +50854,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50877,7 +50880,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50903,7 +50906,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50929,7 +50932,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50955,7 +50958,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50981,7 +50984,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51007,7 +51010,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51033,7 +51036,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51059,7 +51062,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51085,7 +51088,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51111,7 +51114,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51137,7 +51140,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51163,7 +51166,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51189,7 +51192,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51215,7 +51218,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51241,7 +51244,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51267,7 +51270,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51293,7 +51296,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51319,7 +51322,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51345,7 +51348,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51371,7 +51374,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51397,7 +51400,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51423,7 +51426,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51449,7 +51452,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51475,7 +51478,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51501,7 +51504,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51527,7 +51530,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51553,7 +51556,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51579,7 +51582,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51605,7 +51608,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51631,7 +51634,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51657,7 +51660,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51683,7 +51686,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51709,7 +51712,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51735,7 +51738,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51761,7 +51764,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51787,7 +51790,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51813,7 +51816,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51839,7 +51842,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51865,7 +51868,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51891,7 +51894,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51917,7 +51920,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51943,7 +51946,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51969,7 +51972,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -51995,7 +51998,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52021,7 +52024,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52047,7 +52050,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52073,7 +52076,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52099,7 +52102,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52125,7 +52128,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52151,7 +52154,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52177,7 +52180,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52203,7 +52206,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52229,7 +52232,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52255,7 +52258,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52281,7 +52284,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52307,7 +52310,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52333,7 +52336,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52359,7 +52362,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52385,7 +52388,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52411,7 +52414,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52437,7 +52440,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52463,7 +52466,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52489,7 +52492,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52515,7 +52518,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52541,7 +52544,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52567,7 +52570,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52593,7 +52596,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52619,7 +52622,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52645,7 +52648,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52671,7 +52674,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52697,7 +52700,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52723,7 +52726,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52749,7 +52752,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52775,7 +52778,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52801,7 +52804,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52827,7 +52830,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52853,7 +52856,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52879,7 +52882,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52905,7 +52908,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52931,7 +52934,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52957,7 +52960,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -52983,7 +52986,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53009,7 +53012,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53035,7 +53038,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53061,7 +53064,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53087,7 +53090,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53113,7 +53116,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53139,7 +53142,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53165,7 +53168,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53191,7 +53194,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53217,7 +53220,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53243,7 +53246,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53269,7 +53272,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53295,7 +53298,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53321,7 +53324,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53347,7 +53350,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53373,7 +53376,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53399,7 +53402,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53425,7 +53428,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53451,7 +53454,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53477,7 +53480,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53503,7 +53506,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53529,7 +53532,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53555,7 +53558,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53581,7 +53584,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53607,7 +53610,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53633,7 +53636,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53659,7 +53662,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53685,7 +53688,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53711,7 +53714,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53737,7 +53740,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53763,7 +53766,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53789,7 +53792,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53815,7 +53818,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53841,7 +53844,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53867,7 +53870,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53893,7 +53896,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53919,7 +53922,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53945,7 +53948,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53971,7 +53974,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -53997,7 +54000,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54023,7 +54026,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54049,7 +54052,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54075,7 +54078,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54101,7 +54104,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54127,7 +54130,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54153,7 +54156,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54179,7 +54182,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54205,7 +54208,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54231,7 +54234,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54257,7 +54260,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54283,7 +54286,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54309,7 +54312,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54335,7 +54338,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54361,7 +54364,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54387,7 +54390,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54413,7 +54416,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54439,7 +54442,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54465,7 +54468,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54491,7 +54494,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54517,7 +54520,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54543,7 +54546,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54569,7 +54572,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54595,7 +54598,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54621,7 +54624,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54647,7 +54650,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54673,7 +54676,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54699,7 +54702,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54725,7 +54728,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54751,7 +54754,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54777,7 +54780,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54803,7 +54806,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54829,7 +54832,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54855,7 +54858,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54881,7 +54884,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54907,7 +54910,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54933,7 +54936,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54959,7 +54962,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -54985,7 +54988,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55011,7 +55014,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55037,7 +55040,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55063,7 +55066,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55089,7 +55092,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55115,7 +55118,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55141,7 +55144,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55167,7 +55170,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55193,7 +55196,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55219,7 +55222,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55245,7 +55248,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55271,7 +55274,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55297,7 +55300,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55323,7 +55326,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55349,7 +55352,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55375,7 +55378,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55401,7 +55404,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55427,7 +55430,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55453,7 +55456,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55479,7 +55482,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55505,7 +55508,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55531,7 +55534,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55557,7 +55560,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55583,7 +55586,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55609,7 +55612,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55635,7 +55638,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55661,7 +55664,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55687,7 +55690,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55713,7 +55716,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55739,7 +55742,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55765,7 +55768,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55791,7 +55794,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55817,7 +55820,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55843,7 +55846,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55869,7 +55872,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55895,7 +55898,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55921,7 +55924,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55947,7 +55950,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55973,7 +55976,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -55999,7 +56002,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56025,7 +56028,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56051,7 +56054,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56077,7 +56080,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56103,7 +56106,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56129,7 +56132,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56155,7 +56158,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56181,7 +56184,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56207,7 +56210,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56233,7 +56236,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56259,7 +56262,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56285,7 +56288,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56311,7 +56314,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56337,7 +56340,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56363,7 +56366,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56389,7 +56392,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56415,7 +56418,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56441,7 +56444,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56467,7 +56470,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56493,7 +56496,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56519,7 +56522,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56545,7 +56548,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56571,7 +56574,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56597,7 +56600,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56623,7 +56626,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56649,7 +56652,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56675,7 +56678,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56701,7 +56704,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56727,7 +56730,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56753,7 +56756,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56779,7 +56782,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56805,7 +56808,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56831,7 +56834,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56857,7 +56860,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56883,7 +56886,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56909,7 +56912,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56935,7 +56938,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56961,7 +56964,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -56987,7 +56990,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57013,7 +57016,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57039,7 +57042,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57065,7 +57068,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57091,7 +57094,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57117,7 +57120,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57143,7 +57146,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57169,7 +57172,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57195,7 +57198,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57221,7 +57224,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57247,7 +57250,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57273,7 +57276,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57299,7 +57302,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57325,7 +57328,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57351,7 +57354,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57377,7 +57380,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57403,7 +57406,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57429,7 +57432,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57437,27 +57440,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6146643519</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>537</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>14.1999998092651</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>14.1999998092651</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>1531</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>14.3000001907349</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>13.8000001907349</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>14</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>14.3000001907349</v>
       </c>
-      <c r="G2149" t="s">
-        <v>411</v>
-      </c>
-      <c r="H2149" t="s">
+      <c r="G2150" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.5804861111</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>870</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440427780151</t>
+    <t xml:space="preserve">13.8440418243408</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711791992188</t>
+    <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
     <t xml:space="preserve">13.4651527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797239303589</t>
+    <t xml:space="preserve">13.4797229766846</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154069900513</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068603515625</t>
+    <t xml:space="preserve">13.4068613052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081218719482</t>
+    <t xml:space="preserve">13.1081228256226</t>
   </si>
   <si>
-    <t xml:space="preserve">12.751091003418</t>
+    <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.386773109436</t>
+    <t xml:space="preserve">12.3867750167847</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752334594727</t>
+    <t xml:space="preserve">11.075234413147</t>
   </si>
   <si>
     <t xml:space="preserve">10.3830299377441</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983512878418</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023708343506</t>
+    <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
     <t xml:space="preserve">10.9950838088989</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480960845947</t>
   </si>
   <si>
     <t xml:space="preserve">11.2209606170654</t>
@@ -104,22 +104,22 @@
     <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865362167358</t>
+    <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
     <t xml:space="preserve">11.6581392288208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204502105713</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827554702759</t>
+    <t xml:space="preserve">12.1827583312988</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292308807373</t>
+    <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
     <t xml:space="preserve">12.7219457626343</t>
@@ -128,58 +128,58 @@
     <t xml:space="preserve">13.0061111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611322402954</t>
+    <t xml:space="preserve">13.2611351013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525884628296</t>
+    <t xml:space="preserve">13.5525875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882696151733</t>
+    <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199398040771</t>
+    <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742097854614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3139095306396</t>
+    <t xml:space="preserve">12.3139085769653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907917022705</t>
+    <t xml:space="preserve">12.5907926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
     <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698993682861</t>
+    <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048408508301</t>
+    <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
     <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229513168335</t>
+    <t xml:space="preserve">12.3229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501174926758</t>
+    <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259059906006</t>
+    <t xml:space="preserve">12.125904083252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227567672729</t>
+    <t xml:space="preserve">11.8227577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880126953125</t>
+    <t xml:space="preserve">12.0880117416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364366531372</t>
@@ -188,7 +188,10 @@
     <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290542602539</t>
+    <t xml:space="preserve">12.2774772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
     <t xml:space="preserve">12.3911600112915</t>
@@ -200,10 +203,10 @@
     <t xml:space="preserve">12.6564140319824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7321996688843</t>
+    <t xml:space="preserve">12.7322015762329</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700929641724</t>
+    <t xml:space="preserve">12.770092010498</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837747573853</t>
@@ -221,109 +224,109 @@
     <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627058029175</t>
+    <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582761764526</t>
+    <t xml:space="preserve">13.558277130127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.376389503479</t>
+    <t xml:space="preserve">13.3763914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885925292969</t>
+    <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658540725708</t>
+    <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142847061157</t>
+    <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447908401489</t>
+    <t xml:space="preserve">13.9447917938232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963640213013</t>
+    <t xml:space="preserve">14.096363067627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205764770508</t>
+    <t xml:space="preserve">14.0205755233765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357370376587</t>
+    <t xml:space="preserve">14.0357351303101</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887870788574</t>
+    <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721525192261</t>
+    <t xml:space="preserve">14.1721506118774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100448608398</t>
+    <t xml:space="preserve">14.2100439071655</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948871612549</t>
+    <t xml:space="preserve">14.1948890686035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134259223938</t>
+    <t xml:space="preserve">14.1342582702637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812063217163</t>
+    <t xml:space="preserve">14.0812082290649</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736284255981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311100006104</t>
+    <t xml:space="preserve">13.8311109542847</t>
   </si>
   <si>
     <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538465499878</t>
+    <t xml:space="preserve">13.8538475036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900712966919</t>
+    <t xml:space="preserve">13.4900703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174310684204</t>
+    <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553224563599</t>
+    <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521760940552</t>
+    <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477436065674</t>
+    <t xml:space="preserve">13.7477464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460731506348</t>
+    <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340646743774</t>
+    <t xml:space="preserve">13.6340656280518</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551288604736</t>
+    <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231449127197</t>
+    <t xml:space="preserve">12.823145866394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776708602905</t>
+    <t xml:space="preserve">12.7776699066162</t>
   </si>
   <si>
     <t xml:space="preserve">12.497260093689</t>
@@ -338,13 +341,13 @@
     <t xml:space="preserve">12.6185207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063167572021</t>
+    <t xml:space="preserve">12.4063158035278</t>
   </si>
   <si>
     <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578899383545</t>
+    <t xml:space="preserve">12.5578908920288</t>
   </si>
   <si>
     <t xml:space="preserve">12.565468788147</t>
@@ -359,7 +362,7 @@
     <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427322387695</t>
@@ -368,58 +371,58 @@
     <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246227264404</t>
+    <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
     <t xml:space="preserve">12.8079853057861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004093170166</t>
+    <t xml:space="preserve">12.8004102706909</t>
   </si>
   <si>
     <t xml:space="preserve">12.7296876907349</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868446350098</t>
+    <t xml:space="preserve">12.8868455886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061138153076</t>
+    <t xml:space="preserve">12.7061147689819</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732789993286</t>
+    <t xml:space="preserve">12.9732809066772</t>
   </si>
   <si>
     <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947019577026</t>
+    <t xml:space="preserve">12.8947010040283</t>
   </si>
   <si>
     <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697254180908</t>
+    <t xml:space="preserve">13.1697263717651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368925094604</t>
+    <t xml:space="preserve">13.4368915557861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354888916016</t>
+    <t xml:space="preserve">13.7354879379272</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5940504074097</t>
+    <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861911773682</t>
+    <t xml:space="preserve">13.5861892700195</t>
   </si>
   <si>
     <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783348083496</t>
+    <t xml:space="preserve">13.5783338546753</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547590255737</t>
@@ -431,34 +434,34 @@
     <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526081085205</t>
+    <t xml:space="preserve">13.4526090621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276306152344</t>
+    <t xml:space="preserve">13.727632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119169235229</t>
+    <t xml:space="preserve">13.7119150161743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869413375854</t>
+    <t xml:space="preserve">13.9869403839111</t>
   </si>
   <si>
     <t xml:space="preserve">13.9083633422852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655174255371</t>
+    <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148189544678</t>
+    <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833848953247</t>
+    <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.8612146377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
     <t xml:space="preserve">14.0576601028442</t>
@@ -470,61 +473,61 @@
     <t xml:space="preserve">14.0262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104808807373</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
     <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690719604492</t>
+    <t xml:space="preserve">13.8690748214722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904939651489</t>
+    <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.144097328186</t>
+    <t xml:space="preserve">14.1440992355347</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012523651123</t>
+    <t xml:space="preserve">14.3012542724609</t>
   </si>
   <si>
     <t xml:space="preserve">14.2619657516479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584093093872</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
     <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334337234497</t>
+    <t xml:space="preserve">14.733434677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405427932739</t>
+    <t xml:space="preserve">14.3405447006226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933950424194</t>
+    <t xml:space="preserve">14.2933969497681</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498046875</t>
+    <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941471099854</t>
+    <t xml:space="preserve">14.6941452026367</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969505310059</t>
+    <t xml:space="preserve">14.0969495773315</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812358856201</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505529403687</t>
+    <t xml:space="preserve">14.4505519866943</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705703735352</t>
   </si>
   <si>
     <t xml:space="preserve">15.322772026062</t>
@@ -533,10 +536,10 @@
     <t xml:space="preserve">14.9770269393921</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070554733276</t>
+    <t xml:space="preserve">15.3070573806763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856353759766</t>
+    <t xml:space="preserve">15.3856344223022</t>
   </si>
   <si>
     <t xml:space="preserve">15.7078065872192</t>
@@ -545,7 +548,7 @@
     <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999473571777</t>
+    <t xml:space="preserve">15.6999483108521</t>
   </si>
   <si>
     <t xml:space="preserve">15.684232711792</t>
@@ -554,22 +557,22 @@
     <t xml:space="preserve">15.6763753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384885787964</t>
+    <t xml:space="preserve">15.3384895324707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977964401245</t>
+    <t xml:space="preserve">15.5977954864502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306293487549</t>
+    <t xml:space="preserve">15.3306283950806</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728218078613</t>
+    <t xml:space="preserve">15.872820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442859649658</t>
+    <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871337890625</t>
+    <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
     <t xml:space="preserve">16.5014495849609</t>
@@ -581,58 +584,55 @@
     <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444869995117</t>
+    <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730152130127</t>
+    <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158573150635</t>
+    <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7586994171143</t>
+    <t xml:space="preserve">17.7587032318115</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872295379639</t>
+    <t xml:space="preserve">17.2872276306152</t>
   </si>
   <si>
     <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729156494141</t>
+    <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157615661621</t>
+    <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112659454346</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.457857131958</t>
+    <t xml:space="preserve">17.4578609466553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797409057617</t>
+    <t xml:space="preserve">15.679741859436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263301849365</t>
+    <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
     <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879779815674</t>
+    <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
     <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6195030212402</t>
+    <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
     <t xml:space="preserve">16.6496238708496</t>
@@ -641,31 +641,31 @@
     <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605667114258</t>
+    <t xml:space="preserve">15.7605657577515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030364990234</t>
+    <t xml:space="preserve">16.0030326843262</t>
   </si>
   <si>
     <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139802932739</t>
+    <t xml:space="preserve">15.1139783859253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482149124146</t>
+    <t xml:space="preserve">14.5482168197632</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255456924438</t>
+    <t xml:space="preserve">14.9255475997925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901403427124</t>
+    <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224376678467</t>
+    <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
     <t xml:space="preserve">14.0870323181152</t>
@@ -680,22 +680,22 @@
     <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708822250366</t>
+    <t xml:space="preserve">14.1708831787109</t>
   </si>
   <si>
     <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062885284424</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354778289795</t>
+    <t xml:space="preserve">13.8354787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193296432495</t>
+    <t xml:space="preserve">13.9193305969238</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932512283325</t>
   </si>
   <si>
     <t xml:space="preserve">14.7578439712524</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">13.7516279220581</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677761077881</t>
+    <t xml:space="preserve">13.6677742004395</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500072479248</t>
+    <t xml:space="preserve">13.5000715255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162216186523</t>
+    <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
     <t xml:space="preserve">13.3323698043823</t>
@@ -731,37 +731,37 @@
     <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938564300537</t>
+    <t xml:space="preserve">12.4938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423009872437</t>
+    <t xml:space="preserve">12.242301940918</t>
   </si>
   <si>
     <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131116867065</t>
+    <t xml:space="preserve">12.9131126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615581512451</t>
+    <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454109191895</t>
+    <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553430557251</t>
+    <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230457305908</t>
+    <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
     <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584491729736</t>
+    <t xml:space="preserve">12.1584501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745992660522</t>
+    <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068965911865</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714912414551</t>
+    <t xml:space="preserve">11.5714902877808</t>
   </si>
   <si>
     <t xml:space="preserve">11.1522340774536</t>
@@ -782,22 +782,22 @@
     <t xml:space="preserve">10.8168287277222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845304489136</t>
+    <t xml:space="preserve">10.9845314025879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006795883179</t>
+    <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
     <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814233779907</t>
+    <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
     <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261528015137</t>
+    <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
     <t xml:space="preserve">12.5777063369751</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942453384399</t>
+    <t xml:space="preserve">13.1942462921143</t>
   </si>
   <si>
     <t xml:space="preserve">12.932107925415</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680370330811</t>
+    <t xml:space="preserve">14.0680360794067</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
@@ -848,16 +848,16 @@
     <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661016464233</t>
+    <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039651870728</t>
+    <t xml:space="preserve">15.2039642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534820556641</t>
+    <t xml:space="preserve">15.5534830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.1165866851807</t>
   </si>
   <si>
     <t xml:space="preserve">15.8156185150146</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282409667969</t>
+    <t xml:space="preserve">15.7282419204712</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787240982056</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">14.4175539016724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427949905396</t>
+    <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
     <t xml:space="preserve">14.9418268203735</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174451828003</t>
+    <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909482955933</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">14.6541996002197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664491653442</t>
+    <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
     <t xml:space="preserve">15.0929460525513</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">14.8296966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031978607178</t>
+    <t xml:space="preserve">14.3031988143921</t>
   </si>
   <si>
     <t xml:space="preserve">14.1276988983154</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561954498291</t>
+    <t xml:space="preserve">15.3561944961548</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316963195801</t>
+    <t xml:space="preserve">15.5316953659058</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806955337524</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439458847046</t>
+    <t xml:space="preserve">15.4439449310303</t>
   </si>
   <si>
     <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826923370361</t>
+    <t xml:space="preserve">15.8826932907104</t>
   </si>
   <si>
     <t xml:space="preserve">16.0581912994385</t>
@@ -959,22 +959,22 @@
     <t xml:space="preserve">16.1459407806396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704427719116</t>
+    <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949419021606</t>
+    <t xml:space="preserve">15.794942855835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.321439743042</t>
   </si>
   <si>
     <t xml:space="preserve">16.4091930389404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724395751953</t>
+    <t xml:space="preserve">16.6724376678467</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601909637451</t>
+    <t xml:space="preserve">16.7601890563965</t>
   </si>
   <si>
     <t xml:space="preserve">16.8479404449463</t>
@@ -4467,7 +4467,7 @@
         <v>16.1315841674805</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
@@ -4493,7 +4493,7 @@
         <v>16.1315841674805</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H112" t="s">
         <v>9</v>
@@ -4545,7 +4545,7 @@
         <v>16.1315841674805</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
@@ -4597,7 +4597,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H116" t="s">
         <v>9</v>
@@ -4623,7 +4623,7 @@
         <v>16.2809524536133</v>
       </c>
       <c r="G117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
@@ -4649,7 +4649,7 @@
         <v>16.2809524536133</v>
       </c>
       <c r="G118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -4675,7 +4675,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -4701,7 +4701,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -4727,7 +4727,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -4753,7 +4753,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -4779,7 +4779,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -4805,7 +4805,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -4831,7 +4831,7 @@
         <v>16.5298957824707</v>
       </c>
       <c r="G125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -4857,7 +4857,7 @@
         <v>16.5298957824707</v>
       </c>
       <c r="G126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -4883,7 +4883,7 @@
         <v>16.5298957824707</v>
       </c>
       <c r="G127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -4909,7 +4909,7 @@
         <v>16.5298957824707</v>
       </c>
       <c r="G128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -4935,7 +4935,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -4961,7 +4961,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -4987,7 +4987,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5013,7 +5013,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -5039,7 +5039,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -5065,7 +5065,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -5091,7 +5091,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -5117,7 +5117,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -5143,7 +5143,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -5169,7 +5169,7 @@
         <v>16.7290515899658</v>
       </c>
       <c r="G138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -5195,7 +5195,7 @@
         <v>16.7290515899658</v>
       </c>
       <c r="G139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -5221,7 +5221,7 @@
         <v>16.7290515899658</v>
       </c>
       <c r="G140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -5247,7 +5247,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -5273,7 +5273,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -5299,7 +5299,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -5325,7 +5325,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -5351,7 +5351,7 @@
         <v>16.9282073974609</v>
       </c>
       <c r="G145" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5377,7 +5377,7 @@
         <v>16.9282073974609</v>
       </c>
       <c r="G146" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5403,7 +5403,7 @@
         <v>16.5498123168945</v>
       </c>
       <c r="G147" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5429,7 +5429,7 @@
         <v>16.918249130249</v>
       </c>
       <c r="G148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5455,7 +5455,7 @@
         <v>16.918249130249</v>
       </c>
       <c r="G149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5481,7 +5481,7 @@
         <v>16.918249130249</v>
       </c>
       <c r="G150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5507,7 +5507,7 @@
         <v>16.918249130249</v>
       </c>
       <c r="G151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5533,7 +5533,7 @@
         <v>17.1273612976074</v>
       </c>
       <c r="G152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5559,7 +5559,7 @@
         <v>17.1273612976074</v>
       </c>
       <c r="G153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5585,7 +5585,7 @@
         <v>17.1273612976074</v>
       </c>
       <c r="G154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5611,7 +5611,7 @@
         <v>17.2269401550293</v>
       </c>
       <c r="G155" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5637,7 +5637,7 @@
         <v>17.4260940551758</v>
       </c>
       <c r="G156" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5663,7 +5663,7 @@
         <v>17.8144474029541</v>
       </c>
       <c r="G157" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5689,7 +5689,7 @@
         <v>17.5754623413086</v>
       </c>
       <c r="G158" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5715,7 +5715,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G159" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5741,7 +5741,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G160" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5767,7 +5767,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G161" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -5793,7 +5793,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G162" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -5819,7 +5819,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G163" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -5845,7 +5845,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G164" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -5871,7 +5871,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G165" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -5897,7 +5897,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G166" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -5923,7 +5923,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G167" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -5949,7 +5949,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G168" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -5975,7 +5975,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G169" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6001,7 +6001,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -6027,7 +6027,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G171" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -6053,7 +6053,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G172" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -6079,7 +6079,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G173" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -6105,7 +6105,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G174" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -6131,7 +6131,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G175" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6157,7 +6157,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G176" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6183,7 +6183,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G177" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -6209,7 +6209,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G178" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6235,7 +6235,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G179" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6261,7 +6261,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G180" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6287,7 +6287,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G181" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6313,7 +6313,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G182" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6339,7 +6339,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G183" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6365,7 +6365,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G184" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6391,7 +6391,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G185" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6417,7 +6417,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G186" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6443,7 +6443,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G187" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6469,7 +6469,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G188" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6495,7 +6495,7 @@
         <v>18.4417877197266</v>
       </c>
       <c r="G189" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6521,7 +6521,7 @@
         <v>18.4417877197266</v>
       </c>
       <c r="G190" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6547,7 +6547,7 @@
         <v>18.4417877197266</v>
       </c>
       <c r="G191" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6573,7 +6573,7 @@
         <v>18.4417877197266</v>
       </c>
       <c r="G192" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6599,7 +6599,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G193" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6625,7 +6625,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G194" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6651,7 +6651,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G195" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6677,7 +6677,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G196" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6703,7 +6703,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G197" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6729,7 +6729,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G198" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6755,7 +6755,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G199" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -6781,7 +6781,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G200" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -6807,7 +6807,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G201" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -6833,7 +6833,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G202" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -6859,7 +6859,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G203" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -6885,7 +6885,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G204" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -6911,7 +6911,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G205" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -6937,7 +6937,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G206" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -6963,7 +6963,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G207" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -6989,7 +6989,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G208" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7015,7 +7015,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G209" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G210" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7067,7 +7067,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G211" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7093,7 +7093,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G212" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7119,7 +7119,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G213" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7145,7 +7145,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G214" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7171,7 +7171,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G215" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7197,7 +7197,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G216" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7223,7 +7223,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G217" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7249,7 +7249,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G218" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7275,7 +7275,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G219" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7301,7 +7301,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G220" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7327,7 +7327,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G221" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G222" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G223" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G224" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7431,7 +7431,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G225" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7457,7 +7457,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G226" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7483,7 +7483,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G227" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G228" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7535,7 +7535,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G229" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G230" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7587,7 +7587,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G231" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7613,7 +7613,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G232" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G233" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7665,7 +7665,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G234" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7691,7 +7691,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G235" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7717,7 +7717,7 @@
         <v>18.5712394714355</v>
       </c>
       <c r="G236" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7743,7 +7743,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G237" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7769,7 +7769,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G238" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -7795,7 +7795,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G239" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -7821,7 +7821,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G240" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -7847,7 +7847,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G241" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
         <v>18.5015335083008</v>
       </c>
       <c r="G242" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -7899,7 +7899,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G243" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -7925,7 +7925,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G244" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -7951,7 +7951,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G245" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G246" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8003,7 +8003,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G247" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8029,7 +8029,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G248" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8055,7 +8055,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G249" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G250" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8107,7 +8107,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G251" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8133,7 +8133,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G252" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8159,7 +8159,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G253" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>18.5712394714355</v>
       </c>
       <c r="G254" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8211,7 +8211,7 @@
         <v>18.5712394714355</v>
       </c>
       <c r="G255" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8237,7 +8237,7 @@
         <v>18.1729278564453</v>
       </c>
       <c r="G256" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8263,7 +8263,7 @@
         <v>18.5811977386475</v>
       </c>
       <c r="G257" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8289,7 +8289,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G258" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G259" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8341,7 +8341,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G260" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8367,7 +8367,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G261" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8393,7 +8393,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G262" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8419,7 +8419,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G263" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8445,7 +8445,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G264" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8471,7 +8471,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G265" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8497,7 +8497,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G266" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8523,7 +8523,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G267" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8549,7 +8549,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G268" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G269" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8601,7 +8601,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G270" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8627,7 +8627,7 @@
         <v>18.2028007507324</v>
       </c>
       <c r="G271" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G272" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>18.0235614776611</v>
       </c>
       <c r="G273" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8705,7 +8705,7 @@
         <v>18.1729278564453</v>
       </c>
       <c r="G274" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8731,7 +8731,7 @@
         <v>18.1729278564453</v>
       </c>
       <c r="G275" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8757,7 +8757,7 @@
         <v>17.7646598815918</v>
       </c>
       <c r="G276" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G277" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -8809,7 +8809,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G278" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -8835,7 +8835,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G279" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -8861,7 +8861,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G280" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G281" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G282" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -8939,7 +8939,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G283" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -8965,7 +8965,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G284" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -8991,7 +8991,7 @@
         <v>18.0235614776611</v>
       </c>
       <c r="G285" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9017,7 +9017,7 @@
         <v>18.0235614776611</v>
       </c>
       <c r="G286" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G287" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9069,7 +9069,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G288" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9095,7 +9095,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G289" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9121,7 +9121,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G290" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G291" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G292" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9199,7 +9199,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G293" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9225,7 +9225,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G294" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G295" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9277,7 +9277,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G296" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9303,7 +9303,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G297" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>18.0633926391602</v>
       </c>
       <c r="G298" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G299" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G300" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9407,7 +9407,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G301" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
         <v>17.5356311798096</v>
       </c>
       <c r="G302" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9459,7 +9459,7 @@
         <v>17.914026260376</v>
       </c>
       <c r="G303" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9485,7 +9485,7 @@
         <v>17.914026260376</v>
       </c>
       <c r="G304" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9511,7 +9511,7 @@
         <v>17.914026260376</v>
       </c>
       <c r="G305" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9537,7 +9537,7 @@
         <v>17.5754623413086</v>
       </c>
       <c r="G306" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9563,7 +9563,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G307" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G308" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9615,7 +9615,7 @@
         <v>17.4161376953125</v>
       </c>
       <c r="G309" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9641,7 +9641,7 @@
         <v>17.2269401550293</v>
       </c>
       <c r="G310" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9667,7 +9667,7 @@
         <v>16.8485450744629</v>
       </c>
       <c r="G311" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9719,7 +9719,7 @@
         <v>16.78879737854</v>
       </c>
       <c r="G313" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9745,7 +9745,7 @@
         <v>16.4203605651855</v>
       </c>
       <c r="G314" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9797,7 +9797,7 @@
         <v>16.6693058013916</v>
       </c>
       <c r="G316" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -9823,7 +9823,7 @@
         <v>16.6095581054688</v>
       </c>
       <c r="G317" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>16.5796852111816</v>
       </c>
       <c r="G318" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -9875,7 +9875,7 @@
         <v>16.3008670806885</v>
       </c>
       <c r="G319" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -9901,7 +9901,7 @@
         <v>16.6195163726807</v>
       </c>
       <c r="G320" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -9927,7 +9927,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G321" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -9953,7 +9953,7 @@
         <v>16.5000228881836</v>
       </c>
       <c r="G322" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -9979,7 +9979,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G323" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10005,7 +10005,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G324" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10031,7 +10031,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G325" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10057,7 +10057,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G326" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10083,7 +10083,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G327" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10109,7 +10109,7 @@
         <v>16.4402751922607</v>
       </c>
       <c r="G328" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
         <v>16.748966217041</v>
       </c>
       <c r="G332" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10239,7 +10239,7 @@
         <v>16.6693058013916</v>
       </c>
       <c r="G333" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10265,7 +10265,7 @@
         <v>16.5796852111816</v>
       </c>
       <c r="G334" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10291,7 +10291,7 @@
         <v>16.5796852111816</v>
       </c>
       <c r="G335" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10317,7 +10317,7 @@
         <v>16.4502334594727</v>
       </c>
       <c r="G336" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10343,7 +10343,7 @@
         <v>16.4701499938965</v>
       </c>
       <c r="G337" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10369,7 +10369,7 @@
         <v>16.4801063537598</v>
       </c>
       <c r="G338" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
         <v>16.4801063537598</v>
       </c>
       <c r="G339" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10447,7 +10447,7 @@
         <v>16.1813735961914</v>
       </c>
       <c r="G341" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10473,7 +10473,7 @@
         <v>16.7190933227539</v>
       </c>
       <c r="G342" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10499,7 +10499,7 @@
         <v>16.8286285400391</v>
       </c>
       <c r="G343" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10525,7 +10525,7 @@
         <v>16.8186721801758</v>
       </c>
       <c r="G344" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10551,7 +10551,7 @@
         <v>16.1315841674805</v>
       </c>
       <c r="G345" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10577,7 +10577,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G346" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10603,7 +10603,7 @@
         <v>16.4303188323975</v>
       </c>
       <c r="G347" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10629,7 +10629,7 @@
         <v>16.4303188323975</v>
       </c>
       <c r="G348" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10655,7 +10655,7 @@
         <v>16.1017112731934</v>
       </c>
       <c r="G349" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10681,7 +10681,7 @@
         <v>16.4303188323975</v>
       </c>
       <c r="G350" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10707,7 +10707,7 @@
         <v>16.4402751922607</v>
       </c>
       <c r="G351" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10733,7 +10733,7 @@
         <v>16.4303188323975</v>
       </c>
       <c r="G352" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10759,7 +10759,7 @@
         <v>15.9822187423706</v>
       </c>
       <c r="G353" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -10785,7 +10785,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G354" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -10811,7 +10811,7 @@
         <v>15.9822187423706</v>
       </c>
       <c r="G355" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -10837,7 +10837,7 @@
         <v>16.3406982421875</v>
       </c>
       <c r="G356" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -10863,7 +10863,7 @@
         <v>16.4801063537598</v>
       </c>
       <c r="G357" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -10889,7 +10889,7 @@
         <v>16.6892204284668</v>
       </c>
       <c r="G358" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -10915,7 +10915,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G359" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -10941,7 +10941,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G360" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -10967,7 +10967,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G361" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -10993,7 +10993,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G362" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11019,7 +11019,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G363" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11045,7 +11045,7 @@
         <v>17.4061794281006</v>
       </c>
       <c r="G364" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11071,7 +11071,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G365" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11097,7 +11097,7 @@
         <v>17.2269401550293</v>
       </c>
       <c r="G366" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11123,7 +11123,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G367" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11149,7 +11149,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G368" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11175,7 +11175,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G369" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11201,7 +11201,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G370" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G371" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11253,7 +11253,7 @@
         <v>16.838586807251</v>
       </c>
       <c r="G372" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11279,7 +11279,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G373" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11305,7 +11305,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G374" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>17.2070255279541</v>
       </c>
       <c r="G375" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11357,7 +11357,7 @@
         <v>17.1771507263184</v>
       </c>
       <c r="G376" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11383,7 +11383,7 @@
         <v>17.1771507263184</v>
       </c>
       <c r="G377" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11409,7 +11409,7 @@
         <v>17.1771507263184</v>
       </c>
       <c r="G378" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
         <v>17.4260940551758</v>
       </c>
       <c r="G379" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11461,7 +11461,7 @@
         <v>17.0775737762451</v>
       </c>
       <c r="G380" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11487,7 +11487,7 @@
         <v>17.047700881958</v>
       </c>
       <c r="G381" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11513,7 +11513,7 @@
         <v>17.047700881958</v>
       </c>
       <c r="G382" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>17.0775737762451</v>
       </c>
       <c r="G383" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11565,7 +11565,7 @@
         <v>17.4061794281006</v>
       </c>
       <c r="G384" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11591,7 +11591,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G385" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G386" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11643,7 +11643,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G387" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G388" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11695,7 +11695,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G389" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11721,7 +11721,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G390" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11747,7 +11747,7 @@
         <v>17.3763065338135</v>
       </c>
       <c r="G391" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G392" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G393" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -11825,7 +11825,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G394" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -11851,7 +11851,7 @@
         <v>18.0136032104492</v>
       </c>
       <c r="G395" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -11877,7 +11877,7 @@
         <v>17.9737720489502</v>
       </c>
       <c r="G396" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -11903,7 +11903,7 @@
         <v>17.5655040740967</v>
       </c>
       <c r="G397" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -11929,7 +11929,7 @@
         <v>17.5655040740967</v>
       </c>
       <c r="G398" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -11955,7 +11955,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G399" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -11981,7 +11981,7 @@
         <v>17.8144474029541</v>
       </c>
       <c r="G400" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12007,7 +12007,7 @@
         <v>17.5256729125977</v>
       </c>
       <c r="G401" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12033,7 +12033,7 @@
         <v>17.5256729125977</v>
       </c>
       <c r="G402" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12059,7 +12059,7 @@
         <v>17.7746162414551</v>
       </c>
       <c r="G403" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>17.874195098877</v>
       </c>
       <c r="G404" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G405" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12137,7 +12137,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G406" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G407" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12189,7 +12189,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G408" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12215,7 +12215,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G409" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G410" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G411" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12293,7 +12293,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G412" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12319,7 +12319,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G413" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12345,7 +12345,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G414" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G415" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12397,7 +12397,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G416" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12423,7 +12423,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G417" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12449,7 +12449,7 @@
         <v>17.5754623413086</v>
       </c>
       <c r="G418" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12475,7 +12475,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G419" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12501,7 +12501,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G420" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G421" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12553,7 +12553,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G422" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12579,7 +12579,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G423" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12605,7 +12605,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G424" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12631,7 +12631,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G425" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G426" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12683,7 +12683,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G427" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12709,7 +12709,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G428" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12735,7 +12735,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G429" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G430" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -12787,7 +12787,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G431" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G432" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -12839,7 +12839,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G433" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -12865,7 +12865,7 @@
         <v>17.4758834838867</v>
       </c>
       <c r="G434" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G435" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G436" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G437" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G438" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -12995,7 +12995,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G439" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G440" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G441" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G442" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G443" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G444" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13151,7 +13151,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G445" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13177,7 +13177,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G446" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G447" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>17.874195098877</v>
       </c>
       <c r="G448" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G449" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13281,7 +13281,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G450" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13307,7 +13307,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G451" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13333,7 +13333,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G452" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13359,7 +13359,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G453" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G454" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G455" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G456" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13463,7 +13463,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G457" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>18.0235614776611</v>
       </c>
       <c r="G458" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G459" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13541,7 +13541,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G460" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13567,7 +13567,7 @@
         <v>18.1729278564453</v>
       </c>
       <c r="G461" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G462" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13619,7 +13619,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G463" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13645,7 +13645,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G464" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13671,7 +13671,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G465" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>18.1131801605225</v>
       </c>
       <c r="G466" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>17.8044910430908</v>
       </c>
       <c r="G467" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13749,7 +13749,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G468" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13775,7 +13775,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G469" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -13801,7 +13801,7 @@
         <v>17.9737720489502</v>
       </c>
       <c r="G470" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -13827,7 +13827,7 @@
         <v>17.7746162414551</v>
       </c>
       <c r="G471" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -13853,7 +13853,7 @@
         <v>17.9737720489502</v>
       </c>
       <c r="G472" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -13879,7 +13879,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G473" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -13905,7 +13905,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G474" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G475" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -13957,7 +13957,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G476" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -13983,7 +13983,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G477" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14009,7 +14009,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G478" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14035,7 +14035,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G479" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14061,7 +14061,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G480" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14087,7 +14087,7 @@
         <v>17.864236831665</v>
       </c>
       <c r="G481" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14113,7 +14113,7 @@
         <v>17.864236831665</v>
       </c>
       <c r="G482" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14139,7 +14139,7 @@
         <v>17.8443222045898</v>
       </c>
       <c r="G483" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14165,7 +14165,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G484" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14191,7 +14191,7 @@
         <v>17.7746162414551</v>
       </c>
       <c r="G485" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14217,7 +14217,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G486" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14243,7 +14243,7 @@
         <v>18.3123378753662</v>
       </c>
       <c r="G487" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14269,7 +14269,7 @@
         <v>18.5911540985107</v>
       </c>
       <c r="G488" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14295,7 +14295,7 @@
         <v>19.4176483154297</v>
       </c>
       <c r="G489" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14321,7 +14321,7 @@
         <v>18.9795074462891</v>
       </c>
       <c r="G490" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
         <v>19.3977336883545</v>
       </c>
       <c r="G491" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14373,7 +14373,7 @@
         <v>19.4973106384277</v>
       </c>
       <c r="G492" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14399,7 +14399,7 @@
         <v>19.9055805206299</v>
       </c>
       <c r="G493" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14425,7 +14425,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G494" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14451,7 +14451,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G495" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14477,7 +14477,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G496" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14503,7 +14503,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G497" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14529,7 +14529,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G498" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14555,7 +14555,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G499" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14581,7 +14581,7 @@
         <v>19.8757076263428</v>
       </c>
       <c r="G500" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14607,7 +14607,7 @@
         <v>19.8757076263428</v>
       </c>
       <c r="G501" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14633,7 +14633,7 @@
         <v>19.8657493591309</v>
       </c>
       <c r="G502" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14659,7 +14659,7 @@
         <v>19.8657493591309</v>
       </c>
       <c r="G503" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14685,7 +14685,7 @@
         <v>19.4375648498535</v>
       </c>
       <c r="G504" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14711,7 +14711,7 @@
         <v>19.4375648498535</v>
       </c>
       <c r="G505" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14737,7 +14737,7 @@
         <v>19.766170501709</v>
       </c>
       <c r="G506" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14763,7 +14763,7 @@
         <v>19.9055805206299</v>
       </c>
       <c r="G507" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -14789,7 +14789,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G508" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -14815,7 +14815,7 @@
         <v>19.4276065826416</v>
       </c>
       <c r="G509" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -14841,7 +14841,7 @@
         <v>19.4276065826416</v>
       </c>
       <c r="G510" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -14867,7 +14867,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G511" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -14893,7 +14893,7 @@
         <v>19.766170501709</v>
       </c>
       <c r="G512" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -14919,7 +14919,7 @@
         <v>19.4176483154297</v>
       </c>
       <c r="G513" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -14945,7 +14945,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G514" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -14971,7 +14971,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G515" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -14997,7 +14997,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G516" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15023,7 +15023,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G517" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15049,7 +15049,7 @@
         <v>20.5130043029785</v>
       </c>
       <c r="G518" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15075,7 +15075,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G519" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15101,7 +15101,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G520" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15127,7 +15127,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G521" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15153,7 +15153,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G522" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15179,7 +15179,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G523" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15205,7 +15205,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G524" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15231,7 +15231,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G525" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15257,7 +15257,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G526" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15283,7 +15283,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G527" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15309,7 +15309,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G528" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15335,7 +15335,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G529" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15361,7 +15361,7 @@
         <v>23.5003356933594</v>
       </c>
       <c r="G530" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15387,7 +15387,7 @@
         <v>22.902868270874</v>
       </c>
       <c r="G531" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15413,7 +15413,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G532" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15439,7 +15439,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G533" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15465,7 +15465,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G534" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15491,7 +15491,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G535" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15517,7 +15517,7 @@
         <v>22.5045585632324</v>
       </c>
       <c r="G536" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15543,7 +15543,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G537" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15569,7 +15569,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G538" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15595,7 +15595,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G539" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15621,7 +15621,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G540" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15647,7 +15647,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G541" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15673,7 +15673,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G542" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15699,7 +15699,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G543" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15725,7 +15725,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G544" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15751,7 +15751,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G545" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15777,7 +15777,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G546" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -15803,7 +15803,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G547" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -15829,7 +15829,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G548" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -15855,7 +15855,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G549" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -15881,7 +15881,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G550" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -15907,7 +15907,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G551" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -15933,7 +15933,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G552" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -15959,7 +15959,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G553" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -15985,7 +15985,7 @@
         <v>22.5045585632324</v>
       </c>
       <c r="G554" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16011,7 +16011,7 @@
         <v>22.5045585632324</v>
       </c>
       <c r="G555" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16037,7 +16037,7 @@
         <v>22.5045585632324</v>
       </c>
       <c r="G556" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16063,7 +16063,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G557" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16089,7 +16089,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G558" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16115,7 +16115,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G559" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16141,7 +16141,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G560" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16167,7 +16167,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G561" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16193,7 +16193,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G562" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16219,7 +16219,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G563" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16245,7 +16245,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G564" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16271,7 +16271,7 @@
         <v>22.902868270874</v>
       </c>
       <c r="G565" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16297,7 +16297,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G566" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16323,7 +16323,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G567" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16349,7 +16349,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G568" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16375,7 +16375,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G569" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16401,7 +16401,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G570" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16427,7 +16427,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G571" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G572" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16479,7 +16479,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G573" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16505,7 +16505,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G574" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16531,7 +16531,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G575" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16557,7 +16557,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G576" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G577" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16609,7 +16609,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G578" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16635,7 +16635,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G579" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16661,7 +16661,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G580" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16687,7 +16687,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G581" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16713,7 +16713,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G582" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16739,7 +16739,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G583" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16765,7 +16765,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G584" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -16791,7 +16791,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G585" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -16817,7 +16817,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G586" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -16843,7 +16843,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G587" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -16869,7 +16869,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G588" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -16895,7 +16895,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G589" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -16921,7 +16921,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G590" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -16947,7 +16947,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G591" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -16973,7 +16973,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G592" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -16999,7 +16999,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G593" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G594" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17051,7 +17051,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G595" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17077,7 +17077,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G596" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17103,7 +17103,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G597" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17129,7 +17129,7 @@
         <v>21.1104698181152</v>
       </c>
       <c r="G598" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17155,7 +17155,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G599" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17181,7 +17181,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G600" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17207,7 +17207,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G601" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17233,7 +17233,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G602" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17259,7 +17259,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G603" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17285,7 +17285,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G604" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17311,7 +17311,7 @@
         <v>21.1104698181152</v>
       </c>
       <c r="G605" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17337,7 +17337,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G606" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17363,7 +17363,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G607" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17389,7 +17389,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G608" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17415,7 +17415,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G609" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17441,7 +17441,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G610" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17467,7 +17467,7 @@
         <v>20.3138484954834</v>
       </c>
       <c r="G611" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17493,7 +17493,7 @@
         <v>20.3138484954834</v>
       </c>
       <c r="G612" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17519,7 +17519,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G613" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17545,7 +17545,7 @@
         <v>20.3138484954834</v>
       </c>
       <c r="G614" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17571,7 +17571,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G615" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17597,7 +17597,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G616" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17623,7 +17623,7 @@
         <v>21.1104698181152</v>
       </c>
       <c r="G617" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17649,7 +17649,7 @@
         <v>21.1104698181152</v>
       </c>
       <c r="G618" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17675,7 +17675,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G619" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17701,7 +17701,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G620" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17727,7 +17727,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G621" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17753,7 +17753,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G622" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -17779,7 +17779,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G623" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -17805,7 +17805,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G624" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18091,7 +18091,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G635" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18117,7 +18117,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G636" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18143,7 +18143,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G637" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18169,7 +18169,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G638" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18195,7 +18195,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G639" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18221,7 +18221,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G640" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18247,7 +18247,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G641" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18273,7 +18273,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G642" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18299,7 +18299,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G643" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18325,7 +18325,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G644" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18351,7 +18351,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G645" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18377,7 +18377,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G646" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18403,7 +18403,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G647" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18429,7 +18429,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G648" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18455,7 +18455,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G649" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18481,7 +18481,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G650" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18507,7 +18507,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G651" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -18533,7 +18533,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G652" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -18559,7 +18559,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G653" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -18585,7 +18585,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G654" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -18611,7 +18611,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G655" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -18637,7 +18637,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G656" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -18663,7 +18663,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G657" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -18689,7 +18689,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G658" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -18715,7 +18715,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G659" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -18741,7 +18741,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G660" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -18767,7 +18767,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G661" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -18793,7 +18793,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G662" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -18819,7 +18819,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G663" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -18845,7 +18845,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G664" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G665" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -18897,7 +18897,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G666" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -18923,7 +18923,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G667" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -18949,7 +18949,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G668" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G669" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19001,7 +19001,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G670" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19027,7 +19027,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G671" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19053,7 +19053,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G672" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G673" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19105,7 +19105,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G674" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19131,7 +19131,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G675" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19157,7 +19157,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G676" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19183,7 +19183,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G677" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19209,7 +19209,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G678" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19287,7 +19287,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G681" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19313,7 +19313,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G682" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19339,7 +19339,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G683" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19365,7 +19365,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G684" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19391,7 +19391,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G685" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19417,7 +19417,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G686" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19443,7 +19443,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G687" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19469,7 +19469,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G688" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19495,7 +19495,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G689" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -19521,7 +19521,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G690" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -19547,7 +19547,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G691" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -19573,7 +19573,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G692" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -19599,7 +19599,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G693" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -19625,7 +19625,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G694" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -19651,7 +19651,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G695" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -19677,7 +19677,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G696" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -19703,7 +19703,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G697" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -19729,7 +19729,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G698" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -19755,7 +19755,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G699" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -19781,7 +19781,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G700" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -19807,7 +19807,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G701" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -19885,7 +19885,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G704" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -19989,7 +19989,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G708" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20015,7 +20015,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G709" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20093,7 +20093,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G712" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20119,7 +20119,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G713" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20145,7 +20145,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G714" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20171,7 +20171,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G715" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20223,7 +20223,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G717" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20249,7 +20249,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G718" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20275,7 +20275,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G719" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20353,7 +20353,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G722" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20379,7 +20379,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G723" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20405,7 +20405,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G724" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20431,7 +20431,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G725" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20457,7 +20457,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G726" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20483,7 +20483,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G727" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -57515,7 +57515,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6496296296</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>1234</v>
@@ -57527,7 +57527,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="E2152" t="n">
-        <v>14.1000003814697</v>
+        <v>13.8000001907349</v>
       </c>
       <c r="F2152" t="n">
         <v>14.3000001907349</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440418243408</t>
+    <t xml:space="preserve">13.8440427780151</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711782455444</t>
+    <t xml:space="preserve">13.7711772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651527404785</t>
+    <t xml:space="preserve">13.4651517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797229766846</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154088973999</t>
+    <t xml:space="preserve">13.1154079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068613052368</t>
+    <t xml:space="preserve">13.4068603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081228256226</t>
+    <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510900497437</t>
+    <t xml:space="preserve">12.7510890960693</t>
   </si>
   <si>
     <t xml:space="preserve">12.3867750167847</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091455459595</t>
+    <t xml:space="preserve">11.7091426849365</t>
   </si>
   <si>
     <t xml:space="preserve">11.075234413147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830299377441</t>
+    <t xml:space="preserve">10.3830318450928</t>
   </si>
   <si>
     <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651893615723</t>
+    <t xml:space="preserve">10.5651884078979</t>
   </si>
   <si>
     <t xml:space="preserve">10.7983522415161</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950838088989</t>
+    <t xml:space="preserve">10.9950847625732</t>
   </si>
   <si>
     <t xml:space="preserve">10.9295063018799</t>
@@ -101,40 +101,40 @@
     <t xml:space="preserve">11.2209606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938232421875</t>
+    <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581392288208</t>
+    <t xml:space="preserve">11.6581401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">11.920449256897</t>
+    <t xml:space="preserve">11.9204483032227</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827583312988</t>
+    <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523515701294</t>
+    <t xml:space="preserve">12.4523506164551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292318344116</t>
+    <t xml:space="preserve">12.729229927063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219457626343</t>
+    <t xml:space="preserve">12.7219467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061111450195</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611351013184</t>
+    <t xml:space="preserve">13.2611360549927</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525875091553</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882705688477</t>
+    <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968191146851</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5503120422363</t>
+    <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
     <t xml:space="preserve">12.2699003219604</t>
@@ -164,25 +164,25 @@
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669466018677</t>
+    <t xml:space="preserve">12.4669456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229503631592</t>
+    <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501184463501</t>
+    <t xml:space="preserve">12.0501174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.125904083252</t>
+    <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880117416382</t>
+    <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364366531372</t>
+    <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
     <t xml:space="preserve">12.2016916275024</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">12.2774772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290533065796</t>
+    <t xml:space="preserve">12.4290542602539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911609649658</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
@@ -203,10 +203,10 @@
     <t xml:space="preserve">12.6564140319824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322015762329</t>
+    <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770092010498</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837747573853</t>
@@ -224,19 +224,19 @@
     <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627077102661</t>
+    <t xml:space="preserve">13.2627067565918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.558277130127</t>
+    <t xml:space="preserve">13.5582780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763914108276</t>
+    <t xml:space="preserve">13.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885915756226</t>
+    <t xml:space="preserve">13.5885925292969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658559799194</t>
+    <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
     <t xml:space="preserve">13.4142837524414</t>
@@ -245,106 +245,106 @@
     <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447917938232</t>
+    <t xml:space="preserve">13.9447898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.096363067627</t>
+    <t xml:space="preserve">14.0963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205755233765</t>
+    <t xml:space="preserve">14.0205764770508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357351303101</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887851715088</t>
+    <t xml:space="preserve">14.0887861251831</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721506118774</t>
+    <t xml:space="preserve">14.1721515655518</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100439071655</t>
+    <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948890686035</t>
+    <t xml:space="preserve">14.1948900222778</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342582702637</t>
+    <t xml:space="preserve">14.1342601776123</t>
   </si>
   <si>
     <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812082290649</t>
+    <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736284255981</t>
+    <t xml:space="preserve">14.0736274719238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311109542847</t>
+    <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418380737305</t>
+    <t xml:space="preserve">14.1418371200562</t>
   </si>
   <si>
     <t xml:space="preserve">13.8538475036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900703430176</t>
+    <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
     <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203838348389</t>
+    <t xml:space="preserve">13.5203847885132</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553234100342</t>
+    <t xml:space="preserve">13.7553243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521741867065</t>
+    <t xml:space="preserve">13.4521760940552</t>
   </si>
   <si>
     <t xml:space="preserve">13.7477464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460750579834</t>
+    <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340656280518</t>
+    <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551298141479</t>
+    <t xml:space="preserve">13.2551288604736</t>
   </si>
   <si>
     <t xml:space="preserve">12.823145866394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776699066162</t>
+    <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
     <t xml:space="preserve">12.497260093689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686728477478</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412572860718</t>
+    <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185207366943</t>
+    <t xml:space="preserve">12.6185216903687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063158035278</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488342285156</t>
+    <t xml:space="preserve">12.6488351821899</t>
   </si>
   <si>
     <t xml:space="preserve">12.5578908920288</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">12.5124177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473564147949</t>
+    <t xml:space="preserve">12.7473573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199966430664</t>
+    <t xml:space="preserve">12.5199956893921</t>
   </si>
   <si>
     <t xml:space="preserve">12.5351552963257</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">12.5427322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3153715133667</t>
+    <t xml:space="preserve">12.3153705596924</t>
   </si>
   <si>
     <t xml:space="preserve">12.7246217727661</t>
@@ -377,46 +377,46 @@
     <t xml:space="preserve">12.8079853057861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004102706909</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296876907349</t>
+    <t xml:space="preserve">12.7296857833862</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868455886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654226303101</t>
+    <t xml:space="preserve">12.9654216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061147689819</t>
+    <t xml:space="preserve">12.7061128616333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732809066772</t>
+    <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118202209473</t>
+    <t xml:space="preserve">12.6118211746216</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947010040283</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
     <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697263717651</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368915557861</t>
+    <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354879379272</t>
+    <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
     <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861892700195</t>
+    <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
     <t xml:space="preserve">13.2875928878784</t>
@@ -428,43 +428,43 @@
     <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512044906616</t>
+    <t xml:space="preserve">13.7512054443359</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761819839478</t>
+    <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526090621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.727632522583</t>
+    <t xml:space="preserve">13.7276315689087</t>
   </si>
   <si>
     <t xml:space="preserve">13.7119150161743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869403839111</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083633422852</t>
+    <t xml:space="preserve">13.9083642959595</t>
   </si>
   <si>
     <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148180007935</t>
+    <t xml:space="preserve">14.2148189544678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612146377563</t>
+    <t xml:space="preserve">13.861216545105</t>
   </si>
   <si>
     <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576601028442</t>
+    <t xml:space="preserve">14.0576591491699</t>
   </si>
   <si>
     <t xml:space="preserve">13.8297843933105</t>
@@ -473,25 +473,25 @@
     <t xml:space="preserve">14.0262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048097610474</t>
+    <t xml:space="preserve">14.104808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476509094238</t>
+    <t xml:space="preserve">13.9476518630981</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690748214722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904949188232</t>
+    <t xml:space="preserve">13.7904930114746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440992355347</t>
+    <t xml:space="preserve">14.1440963745117</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619657516479</t>
+    <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
     <t xml:space="preserve">14.4584102630615</t>
@@ -500,73 +500,73 @@
     <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.733434677124</t>
+    <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405447006226</t>
+    <t xml:space="preserve">14.3405418395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933969497681</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498037338257</t>
+    <t xml:space="preserve">14.0498046875</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941452026367</t>
+    <t xml:space="preserve">14.6941471099854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969495773315</t>
+    <t xml:space="preserve">14.0969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812358856201</t>
+    <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505519866943</t>
+    <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705703735352</t>
+    <t xml:space="preserve">14.6705713272095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.322772026062</t>
+    <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770269393921</t>
+    <t xml:space="preserve">14.9770288467407</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070573806763</t>
+    <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856344223022</t>
+    <t xml:space="preserve">15.3856334686279</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078084945679</t>
   </si>
   <si>
     <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999483108521</t>
+    <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.684232711792</t>
+    <t xml:space="preserve">15.6842308044434</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763753890991</t>
+    <t xml:space="preserve">15.6763772964478</t>
   </si>
   <si>
     <t xml:space="preserve">15.3384895324707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977954864502</t>
+    <t xml:space="preserve">15.5977964401245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306283950806</t>
+    <t xml:space="preserve">15.3306312561035</t>
   </si>
   <si>
-    <t xml:space="preserve">15.872820854187</t>
+    <t xml:space="preserve">15.8728218078613</t>
   </si>
   <si>
     <t xml:space="preserve">16.3442897796631</t>
@@ -578,10 +578,10 @@
     <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300716400146</t>
+    <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443874359131</t>
+    <t xml:space="preserve">17.4443893432617</t>
   </si>
   <si>
     <t xml:space="preserve">18.5444831848145</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587032318115</t>
+    <t xml:space="preserve">17.7587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872276306152</t>
+    <t xml:space="preserve">17.2872295379639</t>
   </si>
   <si>
     <t xml:space="preserve">17.6015434265137</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157596588135</t>
+    <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345634460449</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578609466553</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.679741859436</t>
+    <t xml:space="preserve">15.6797409057617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263282775879</t>
+    <t xml:space="preserve">16.3263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646842956543</t>
+    <t xml:space="preserve">16.1646823883057</t>
   </si>
   <si>
     <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962093353271</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195049285889</t>
+    <t xml:space="preserve">17.6195068359375</t>
   </si>
   <si>
     <t xml:space="preserve">16.6496238708496</t>
@@ -641,31 +641,31 @@
     <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605657577515</t>
+    <t xml:space="preserve">15.7605648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564481735229</t>
+    <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030326843262</t>
+    <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331544876099</t>
+    <t xml:space="preserve">15.0331535339355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139783859253</t>
+    <t xml:space="preserve">15.1139812469482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482168197632</t>
+    <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255475997925</t>
+    <t xml:space="preserve">14.9255456924438</t>
   </si>
   <si>
     <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224367141724</t>
+    <t xml:space="preserve">14.4224376678467</t>
   </si>
   <si>
     <t xml:space="preserve">14.0870323181152</t>
@@ -674,64 +674,64 @@
     <t xml:space="preserve">14.3385858535767</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416967391968</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547359466553</t>
+    <t xml:space="preserve">14.2547340393066</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708831787109</t>
+    <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739902496338</t>
+    <t xml:space="preserve">14.6739912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062894821167</t>
+    <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354787826538</t>
+    <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193305969238</t>
+    <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932512283325</t>
+    <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578439712524</t>
+    <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031824111938</t>
+    <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516279220581</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677742004395</t>
+    <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839223861694</t>
+    <t xml:space="preserve">13.5839233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5000715255737</t>
+    <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485189437866</t>
+    <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938554763794</t>
+    <t xml:space="preserve">12.4938564300537</t>
   </si>
   <si>
     <t xml:space="preserve">12.242301940918</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
     <t xml:space="preserve">11.6553421020508</t>
@@ -758,10 +758,10 @@
     <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584501266479</t>
+    <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745983123779</t>
+    <t xml:space="preserve">12.0745992660522</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068965911865</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714902877808</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522340774536</t>
+    <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168287277222</t>
+    <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845314025879</t>
+    <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
     <t xml:space="preserve">10.9006786346436</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777063369751</t>
+    <t xml:space="preserve">12.5777072906494</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2330751419067</t>
+    <t xml:space="preserve">12.2330741882324</t>
   </si>
   <si>
     <t xml:space="preserve">12.4952116012573</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068658828735</t>
+    <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
     <t xml:space="preserve">13.5437622070312</t>
@@ -836,40 +836,40 @@
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680360794067</t>
+    <t xml:space="preserve">14.0680370330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.631139755249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690032958984</t>
+    <t xml:space="preserve">13.3690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661026000977</t>
+    <t xml:space="preserve">15.4661016464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039642333984</t>
+    <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534830093384</t>
+    <t xml:space="preserve">15.5534820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165866851807</t>
+    <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156185150146</t>
+    <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
     <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282419204712</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787240982056</t>
+    <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
     <t xml:space="preserve">15.2913427352905</t>
@@ -881,28 +881,28 @@
     <t xml:space="preserve">14.8544502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3301753997803</t>
+    <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4175539016724</t>
+    <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
     <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418268203735</t>
+    <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
     <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174461364746</t>
+    <t xml:space="preserve">14.9174470901489</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909482955933</t>
@@ -914,28 +914,28 @@
     <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929460525513</t>
+    <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
     <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296966552734</t>
+    <t xml:space="preserve">14.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031988143921</t>
+    <t xml:space="preserve">14.3031978607178</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1276988983154</t>
+    <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561944961548</t>
+    <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806955337524</t>
@@ -944,64 +944,64 @@
     <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439449310303</t>
+    <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
     <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826932907104</t>
+    <t xml:space="preserve">15.8826942443848</t>
   </si>
   <si>
     <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459407806396</t>
+    <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704446792603</t>
+    <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
-    <t xml:space="preserve">15.794942855835</t>
+    <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.321439743042</t>
+    <t xml:space="preserve">16.3214435577393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091930389404</t>
+    <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724376678467</t>
+    <t xml:space="preserve">16.6724395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601890563965</t>
+    <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479385375977</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0485134124756</t>
+    <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573421478271</t>
+    <t xml:space="preserve">16.9573440551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8661727905273</t>
+    <t xml:space="preserve">16.866174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750034332275</t>
+    <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
     <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014991760254</t>
+    <t xml:space="preserve">16.501501083374</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4103298187256</t>
+    <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
     <t xml:space="preserve">16.5926685333252</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131851196289</t>
+    <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043544769287</t>
+    <t xml:space="preserve">17.5043525695801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1034,22 +1034,22 @@
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778587341309</t>
+    <t xml:space="preserve">17.7778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5100612640381</t>
+    <t xml:space="preserve">19.5100593566895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9630508422852</t>
+    <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453876495361</t>
+    <t xml:space="preserve">19.1453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277244567871</t>
+    <t xml:space="preserve">19.3277225494385</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1068,6 +1068,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
     <t xml:space="preserve">18.6786060333252</t>
@@ -43519,7 +43522,7 @@
         <v>20</v>
       </c>
       <c r="G1613" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43545,7 +43548,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43597,7 +43600,7 @@
         <v>20</v>
       </c>
       <c r="G1616" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43623,7 +43626,7 @@
         <v>20</v>
       </c>
       <c r="G1617" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43649,7 +43652,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43675,7 +43678,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43701,7 +43704,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43727,7 +43730,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1621" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43753,7 +43756,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43779,7 +43782,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1623" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43805,7 +43808,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43831,7 +43834,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43857,7 +43860,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1626" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43883,7 +43886,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1627" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43909,7 +43912,7 @@
         <v>20</v>
       </c>
       <c r="G1628" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43935,7 +43938,7 @@
         <v>20</v>
       </c>
       <c r="G1629" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -43961,7 +43964,7 @@
         <v>20</v>
       </c>
       <c r="G1630" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -43987,7 +43990,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1631" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44013,7 +44016,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44039,7 +44042,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44065,7 +44068,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44091,7 +44094,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44117,7 +44120,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44143,7 +44146,7 @@
         <v>19.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44169,7 +44172,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44195,7 +44198,7 @@
         <v>19.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44221,7 +44224,7 @@
         <v>19</v>
       </c>
       <c r="G1640" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44247,7 +44250,7 @@
         <v>19</v>
       </c>
       <c r="G1641" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44273,7 +44276,7 @@
         <v>19</v>
       </c>
       <c r="G1642" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44299,7 +44302,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44325,7 +44328,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1644" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44351,7 +44354,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1645" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44377,7 +44380,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44403,7 +44406,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44429,7 +44432,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44455,7 +44458,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44481,7 +44484,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44507,7 +44510,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44533,7 +44536,7 @@
         <v>19</v>
       </c>
       <c r="G1652" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44559,7 +44562,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44585,7 +44588,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44611,7 +44614,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44637,7 +44640,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44689,7 +44692,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44715,7 +44718,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44741,7 +44744,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44767,7 +44770,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44793,7 +44796,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44819,7 +44822,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44845,7 +44848,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44871,7 +44874,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44897,7 +44900,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44923,7 +44926,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44949,7 +44952,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44975,7 +44978,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45001,7 +45004,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45027,7 +45030,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45053,7 +45056,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45079,7 +45082,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45105,7 +45108,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45131,7 +45134,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45157,7 +45160,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45183,7 +45186,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45209,7 +45212,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45235,7 +45238,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45261,7 +45264,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45287,7 +45290,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45313,7 +45316,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1682" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45339,7 +45342,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45365,7 +45368,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45391,7 +45394,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45417,7 +45420,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45443,7 +45446,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1687" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45469,7 +45472,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1688" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45495,7 +45498,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45521,7 +45524,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45547,7 +45550,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45573,7 +45576,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1692" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45599,7 +45602,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45625,7 +45628,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45651,7 +45654,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45677,7 +45680,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1696" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45703,7 +45706,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1697" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45729,7 +45732,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45755,7 +45758,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45781,7 +45784,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45807,7 +45810,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45833,7 +45836,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45859,7 +45862,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45885,7 +45888,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45911,7 +45914,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45937,7 +45940,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45963,7 +45966,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -45989,7 +45992,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46015,7 +46018,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46041,7 +46044,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46067,7 +46070,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46093,7 +46096,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46119,7 +46122,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46145,7 +46148,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46171,7 +46174,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46197,7 +46200,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1716" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46223,7 +46226,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1717" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46249,7 +46252,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46275,7 +46278,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46301,7 +46304,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46327,7 +46330,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46353,7 +46356,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46379,7 +46382,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46405,7 +46408,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46431,7 +46434,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46457,7 +46460,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46483,7 +46486,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46509,7 +46512,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46535,7 +46538,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46561,7 +46564,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46587,7 +46590,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46613,7 +46616,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46639,7 +46642,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46665,7 +46668,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46691,7 +46694,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46717,7 +46720,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46743,7 +46746,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46769,7 +46772,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46795,7 +46798,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46821,7 +46824,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46847,7 +46850,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46873,7 +46876,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46899,7 +46902,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46925,7 +46928,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46951,7 +46954,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46977,7 +46980,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47003,7 +47006,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47029,7 +47032,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47055,7 +47058,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47081,7 +47084,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47107,7 +47110,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47133,7 +47136,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47159,7 +47162,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47185,7 +47188,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47211,7 +47214,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47237,7 +47240,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47263,7 +47266,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47289,7 +47292,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47315,7 +47318,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47341,7 +47344,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47367,7 +47370,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47393,7 +47396,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47419,7 +47422,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47445,7 +47448,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47471,7 +47474,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47497,7 +47500,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47523,7 +47526,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47549,7 +47552,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47575,7 +47578,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47601,7 +47604,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47627,7 +47630,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47653,7 +47656,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47679,7 +47682,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47705,7 +47708,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47731,7 +47734,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47757,7 +47760,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47783,7 +47786,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47809,7 +47812,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47835,7 +47838,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47861,7 +47864,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47887,7 +47890,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47913,7 +47916,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47939,7 +47942,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47965,7 +47968,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -47991,7 +47994,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48017,7 +48020,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48043,7 +48046,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48069,7 +48072,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48095,7 +48098,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48121,7 +48124,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1790" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48173,7 +48176,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48199,7 +48202,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48225,7 +48228,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48251,7 +48254,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48277,7 +48280,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48303,7 +48306,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48329,7 +48332,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1798" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48355,7 +48358,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48381,7 +48384,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48407,7 +48410,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48433,7 +48436,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48459,7 +48462,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48485,7 +48488,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48511,7 +48514,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48537,7 +48540,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48563,7 +48566,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48589,7 +48592,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48615,7 +48618,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48641,7 +48644,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48693,7 +48696,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48719,7 +48722,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48745,7 +48748,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48771,7 +48774,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48797,7 +48800,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48823,7 +48826,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48849,7 +48852,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48875,7 +48878,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48901,7 +48904,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48927,7 +48930,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48953,7 +48956,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48979,7 +48982,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49005,7 +49008,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49031,7 +49034,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49057,7 +49060,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49083,7 +49086,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49109,7 +49112,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49135,7 +49138,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49161,7 +49164,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49187,7 +49190,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49213,7 +49216,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49239,7 +49242,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49265,7 +49268,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49291,7 +49294,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49317,7 +49320,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49343,7 +49346,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49369,7 +49372,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49395,7 +49398,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49421,7 +49424,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49447,7 +49450,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49473,7 +49476,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49499,7 +49502,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49525,7 +49528,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49551,7 +49554,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49577,7 +49580,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49603,7 +49606,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49629,7 +49632,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49655,7 +49658,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49681,7 +49684,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49707,7 +49710,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49733,7 +49736,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49759,7 +49762,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49785,7 +49788,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49811,7 +49814,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49837,7 +49840,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49863,7 +49866,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49889,7 +49892,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49915,7 +49918,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49941,7 +49944,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49967,7 +49970,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -49993,7 +49996,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50019,7 +50022,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50045,7 +50048,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50071,7 +50074,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50097,7 +50100,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50123,7 +50126,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50149,7 +50152,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50175,7 +50178,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50201,7 +50204,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50227,7 +50230,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50253,7 +50256,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50279,7 +50282,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50305,7 +50308,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50331,7 +50334,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50357,7 +50360,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50383,7 +50386,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50409,7 +50412,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50435,7 +50438,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50461,7 +50464,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50487,7 +50490,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50513,7 +50516,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50539,7 +50542,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50565,7 +50568,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50591,7 +50594,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50617,7 +50620,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50643,7 +50646,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50669,7 +50672,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50695,7 +50698,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50721,7 +50724,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50747,7 +50750,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50773,7 +50776,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50799,7 +50802,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50825,7 +50828,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50851,7 +50854,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50877,7 +50880,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50903,7 +50906,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50929,7 +50932,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50955,7 +50958,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50981,7 +50984,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51007,7 +51010,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51033,7 +51036,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51059,7 +51062,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51085,7 +51088,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51111,7 +51114,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51137,7 +51140,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51163,7 +51166,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51189,7 +51192,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51215,7 +51218,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51241,7 +51244,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51267,7 +51270,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51293,7 +51296,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51319,7 +51322,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51345,7 +51348,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51371,7 +51374,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51397,7 +51400,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51423,7 +51426,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51449,7 +51452,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51475,7 +51478,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51501,7 +51504,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51527,7 +51530,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51553,7 +51556,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51579,7 +51582,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51605,7 +51608,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51631,7 +51634,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51657,7 +51660,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51683,7 +51686,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51709,7 +51712,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51735,7 +51738,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51761,7 +51764,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51787,7 +51790,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51813,7 +51816,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51839,7 +51842,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51865,7 +51868,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51891,7 +51894,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51917,7 +51920,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51943,7 +51946,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51969,7 +51972,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -51995,7 +51998,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52021,7 +52024,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52047,7 +52050,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52073,7 +52076,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52099,7 +52102,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52125,7 +52128,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52151,7 +52154,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52177,7 +52180,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52203,7 +52206,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52229,7 +52232,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52255,7 +52258,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52281,7 +52284,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52307,7 +52310,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52333,7 +52336,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52359,7 +52362,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52385,7 +52388,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52411,7 +52414,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52437,7 +52440,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52463,7 +52466,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52489,7 +52492,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52515,7 +52518,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52541,7 +52544,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52567,7 +52570,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52593,7 +52596,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52619,7 +52622,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52645,7 +52648,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52671,7 +52674,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52697,7 +52700,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52723,7 +52726,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52749,7 +52752,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52775,7 +52778,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52801,7 +52804,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52827,7 +52830,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52853,7 +52856,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52879,7 +52882,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52905,7 +52908,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52931,7 +52934,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52957,7 +52960,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -52983,7 +52986,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53009,7 +53012,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53035,7 +53038,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53061,7 +53064,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53087,7 +53090,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53113,7 +53116,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53139,7 +53142,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53165,7 +53168,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53191,7 +53194,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53217,7 +53220,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53243,7 +53246,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53269,7 +53272,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53295,7 +53298,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53321,7 +53324,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53347,7 +53350,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53373,7 +53376,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53399,7 +53402,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53425,7 +53428,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53451,7 +53454,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53477,7 +53480,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53503,7 +53506,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53529,7 +53532,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53555,7 +53558,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53581,7 +53584,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53607,7 +53610,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53633,7 +53636,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53659,7 +53662,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53685,7 +53688,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53711,7 +53714,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53737,7 +53740,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53763,7 +53766,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53789,7 +53792,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53815,7 +53818,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53841,7 +53844,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53867,7 +53870,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53893,7 +53896,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53919,7 +53922,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53945,7 +53948,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53971,7 +53974,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -53997,7 +54000,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54023,7 +54026,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54049,7 +54052,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54075,7 +54078,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54101,7 +54104,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54127,7 +54130,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54153,7 +54156,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54179,7 +54182,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54205,7 +54208,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54231,7 +54234,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54257,7 +54260,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54283,7 +54286,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54309,7 +54312,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54335,7 +54338,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54361,7 +54364,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54387,7 +54390,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54413,7 +54416,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54439,7 +54442,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54465,7 +54468,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54491,7 +54494,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54517,7 +54520,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54543,7 +54546,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54569,7 +54572,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54595,7 +54598,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54621,7 +54624,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54647,7 +54650,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54673,7 +54676,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54699,7 +54702,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54725,7 +54728,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54751,7 +54754,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54777,7 +54780,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54803,7 +54806,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54829,7 +54832,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54855,7 +54858,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54881,7 +54884,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54907,7 +54910,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54933,7 +54936,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54959,7 +54962,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -54985,7 +54988,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55011,7 +55014,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55037,7 +55040,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55063,7 +55066,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55089,7 +55092,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55115,7 +55118,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55141,7 +55144,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55167,7 +55170,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55193,7 +55196,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55219,7 +55222,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55245,7 +55248,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55271,7 +55274,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55297,7 +55300,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55323,7 +55326,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55349,7 +55352,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55375,7 +55378,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55401,7 +55404,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55427,7 +55430,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55453,7 +55456,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55479,7 +55482,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55505,7 +55508,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55531,7 +55534,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55557,7 +55560,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55583,7 +55586,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55609,7 +55612,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55635,7 +55638,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55661,7 +55664,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55687,7 +55690,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55713,7 +55716,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55739,7 +55742,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55765,7 +55768,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55791,7 +55794,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55817,7 +55820,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55843,7 +55846,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55869,7 +55872,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55895,7 +55898,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55921,7 +55924,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55947,7 +55950,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55973,7 +55976,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -55999,7 +56002,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56025,7 +56028,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56051,7 +56054,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56077,7 +56080,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56103,7 +56106,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56129,7 +56132,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56155,7 +56158,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56181,7 +56184,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56207,7 +56210,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56233,7 +56236,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56259,7 +56262,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56285,7 +56288,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56311,7 +56314,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56337,7 +56340,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56363,7 +56366,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56389,7 +56392,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56415,7 +56418,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56441,7 +56444,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56467,7 +56470,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56493,7 +56496,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56519,7 +56522,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56545,7 +56548,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56571,7 +56574,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56597,7 +56600,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56623,7 +56626,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56649,7 +56652,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56675,7 +56678,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56701,7 +56704,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56727,7 +56730,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56753,7 +56756,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56779,7 +56782,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56805,7 +56808,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56831,7 +56834,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56857,7 +56860,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56883,7 +56886,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56909,7 +56912,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56935,7 +56938,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56961,7 +56964,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -56987,7 +56990,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57013,7 +57016,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57039,7 +57042,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57065,7 +57068,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57091,7 +57094,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57117,7 +57120,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57143,7 +57146,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57169,7 +57172,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57195,7 +57198,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57221,7 +57224,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57247,7 +57250,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57273,7 +57276,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57299,7 +57302,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57325,7 +57328,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57351,7 +57354,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57377,7 +57380,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57403,7 +57406,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57429,7 +57432,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57455,7 +57458,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57481,7 +57484,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57507,7 +57510,7 @@
         <v>14</v>
       </c>
       <c r="G2151" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57533,9 +57536,35 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2152" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440418243408</t>
+    <t xml:space="preserve">13.8440437316895</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711772918701</t>
+    <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651517868042</t>
+    <t xml:space="preserve">13.4651527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797229766846</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
     <t xml:space="preserve">13.1154088973999</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
     <t xml:space="preserve">11.0752334594727</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">10.3830299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651893615723</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">11.0023708343506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950838088989</t>
+    <t xml:space="preserve">10.9950847625732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295072555542</t>
+    <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
     <t xml:space="preserve">11.1480960845947</t>
@@ -101,61 +101,61 @@
     <t xml:space="preserve">11.2209606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938232421875</t>
+    <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581401824951</t>
+    <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204483032227</t>
+    <t xml:space="preserve">11.9204502105713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292308807373</t>
+    <t xml:space="preserve">12.7292327880859</t>
   </si>
   <si>
-    <t xml:space="preserve">12.72194480896</t>
+    <t xml:space="preserve">12.7219467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061111450195</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.261134147644</t>
+    <t xml:space="preserve">13.2611351013184</t>
   </si>
   <si>
     <t xml:space="preserve">13.5525875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882724761963</t>
+    <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968181610107</t>
+    <t xml:space="preserve">12.8968172073364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742097854614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3139095306396</t>
+    <t xml:space="preserve">12.3139085769653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907926559448</t>
+    <t xml:space="preserve">12.5907936096191</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5503120422363</t>
+    <t xml:space="preserve">12.5503129959106</t>
   </si>
   <si>
     <t xml:space="preserve">12.2699012756348</t>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229522705078</t>
+    <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.0501184463501</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880098342896</t>
+    <t xml:space="preserve">12.0880126953125</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364376068115</t>
@@ -188,22 +188,22 @@
     <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.27747631073</t>
   </si>
   <si>
     <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911590576172</t>
+    <t xml:space="preserve">12.3911581039429</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564130783081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
     <t xml:space="preserve">12.7700929641724</t>
@@ -218,22 +218,22 @@
     <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353469848633</t>
+    <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111354827881</t>
+    <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
     <t xml:space="preserve">13.2627067565918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.558277130127</t>
+    <t xml:space="preserve">13.5582761764526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763885498047</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885944366455</t>
+    <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
     <t xml:space="preserve">13.5658550262451</t>
@@ -245,106 +245,106 @@
     <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447908401489</t>
+    <t xml:space="preserve">13.9447917938232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.096363067627</t>
+    <t xml:space="preserve">14.0963640213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205764770508</t>
+    <t xml:space="preserve">14.0205755233765</t>
   </si>
   <si>
     <t xml:space="preserve">14.0357351303101</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887861251831</t>
+    <t xml:space="preserve">14.0887870788574</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584688186646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721534729004</t>
+    <t xml:space="preserve">14.1721515655518</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100448608398</t>
+    <t xml:space="preserve">14.2100458145142</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948871612549</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342582702637</t>
+    <t xml:space="preserve">14.1342573165894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.9826831817627</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736303329468</t>
+    <t xml:space="preserve">14.0736293792725</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311100006104</t>
+    <t xml:space="preserve">13.8311109542847</t>
   </si>
   <si>
     <t xml:space="preserve">14.1418371200562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538465499878</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900703430176</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174291610718</t>
+    <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203847885132</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416425704956</t>
+    <t xml:space="preserve">13.6416444778442</t>
   </si>
   <si>
     <t xml:space="preserve">13.7553243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521760940552</t>
+    <t xml:space="preserve">13.4521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.747745513916</t>
+    <t xml:space="preserve">13.7477464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460721969604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340646743774</t>
+    <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551298141479</t>
+    <t xml:space="preserve">13.2551307678223</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231439590454</t>
+    <t xml:space="preserve">12.823145866394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776727676392</t>
+    <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972591400146</t>
+    <t xml:space="preserve">12.497260093689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867275238037</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412572860718</t>
+    <t xml:space="preserve">12.6412563323975</t>
   </si>
   <si>
-    <t xml:space="preserve">12.61851978302</t>
+    <t xml:space="preserve">12.6185216903687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063158035278</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488351821899</t>
+    <t xml:space="preserve">12.6488332748413</t>
   </si>
   <si>
     <t xml:space="preserve">12.5578899383545</t>
@@ -353,28 +353,28 @@
     <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124177932739</t>
+    <t xml:space="preserve">12.5124158859253</t>
   </si>
   <si>
     <t xml:space="preserve">12.7473573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199966430664</t>
+    <t xml:space="preserve">12.5199956893921</t>
   </si>
   <si>
     <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427312850952</t>
+    <t xml:space="preserve">12.5427331924438</t>
   </si>
   <si>
     <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246227264404</t>
+    <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079862594604</t>
+    <t xml:space="preserve">12.8079853057861</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004093170166</t>
@@ -383,52 +383,52 @@
     <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868455886841</t>
+    <t xml:space="preserve">12.8868446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654216766357</t>
+    <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
     <t xml:space="preserve">12.7061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732799530029</t>
+    <t xml:space="preserve">12.9732780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118192672729</t>
+    <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.894702911377</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047101974487</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697263717651</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368925094604</t>
+    <t xml:space="preserve">13.4368934631348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354888916016</t>
+    <t xml:space="preserve">13.7354898452759</t>
   </si>
   <si>
     <t xml:space="preserve">13.5940504074097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861911773682</t>
+    <t xml:space="preserve">13.5861921310425</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783348083496</t>
+    <t xml:space="preserve">13.5783367156982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.554759979248</t>
+    <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512035369873</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
     <t xml:space="preserve">13.4761819839478</t>
@@ -437,43 +437,43 @@
     <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276306152344</t>
+    <t xml:space="preserve">13.727632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119150161743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869422912598</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083633422852</t>
+    <t xml:space="preserve">13.9083623886108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655183792114</t>
+    <t xml:space="preserve">14.0655174255371</t>
   </si>
   <si>
     <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.861213684082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590618133545</t>
+    <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576601028442</t>
+    <t xml:space="preserve">14.0576591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297853469849</t>
+    <t xml:space="preserve">13.8297834396362</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262289047241</t>
+    <t xml:space="preserve">14.0262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048069000244</t>
+    <t xml:space="preserve">14.104808807373</t>
   </si>
   <si>
     <t xml:space="preserve">13.9476509094238</t>
@@ -485,106 +485,106 @@
     <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.144097328186</t>
+    <t xml:space="preserve">14.1440982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012552261353</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619657516479</t>
+    <t xml:space="preserve">14.2619667053223</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584102630615</t>
+    <t xml:space="preserve">14.4584093093872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.222674369812</t>
+    <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.733434677124</t>
+    <t xml:space="preserve">14.7334365844727</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405427932739</t>
+    <t xml:space="preserve">14.3405437469482</t>
   </si>
   <si>
     <t xml:space="preserve">14.2933950424194</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498037338257</t>
+    <t xml:space="preserve">14.0498027801514</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155662536621</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.694149017334</t>
+    <t xml:space="preserve">14.6941452026367</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969505310059</t>
+    <t xml:space="preserve">14.0969495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812339782715</t>
+    <t xml:space="preserve">14.0812358856201</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505558013916</t>
+    <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705732345581</t>
+    <t xml:space="preserve">14.6705751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227710723877</t>
+    <t xml:space="preserve">15.322772026062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770259857178</t>
+    <t xml:space="preserve">14.9770288467407</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070573806763</t>
+    <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
     <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078084945679</t>
+    <t xml:space="preserve">15.7078065872192</t>
   </si>
   <si>
     <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999492645264</t>
+    <t xml:space="preserve">15.6999473571777</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842346191406</t>
+    <t xml:space="preserve">15.684232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763734817505</t>
+    <t xml:space="preserve">15.6763753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384876251221</t>
+    <t xml:space="preserve">15.3384885787964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977945327759</t>
+    <t xml:space="preserve">15.5977926254272</t>
   </si>
   <si>
     <t xml:space="preserve">15.3306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728179931641</t>
+    <t xml:space="preserve">15.8728218078613</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
     <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014514923096</t>
+    <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
     <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443893432617</t>
+    <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444831848145</t>
+    <t xml:space="preserve">18.5444850921631</t>
   </si>
   <si>
     <t xml:space="preserve">18.0730133056641</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.601541519165</t>
+    <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
+    <t xml:space="preserve">16.9729156494141</t>
   </si>
   <si>
     <t xml:space="preserve">16.8157615661621</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112697601318</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.457857131958</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962093353271</t>
   </si>
   <si>
     <t xml:space="preserve">17.6195049285889</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413887023926</t>
+    <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
     <t xml:space="preserve">15.7605667114258</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030345916748</t>
+    <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
     <t xml:space="preserve">15.1139783859253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482149124146</t>
+    <t xml:space="preserve">14.5482158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255456924438</t>
+    <t xml:space="preserve">14.9255437850952</t>
   </si>
   <si>
     <t xml:space="preserve">14.5901403427124</t>
@@ -671,16 +671,16 @@
     <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.338586807251</t>
+    <t xml:space="preserve">14.3385877609253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416967391968</t>
+    <t xml:space="preserve">14.8416948318481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.254734992981</t>
+    <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708831787109</t>
+    <t xml:space="preserve">14.1708812713623</t>
   </si>
   <si>
     <t xml:space="preserve">14.6739902496338</t>
@@ -689,25 +689,25 @@
     <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354768753052</t>
+    <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193296432495</t>
+    <t xml:space="preserve">13.9193286895752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932493209839</t>
+    <t xml:space="preserve">15.0932502746582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578430175781</t>
+    <t xml:space="preserve">14.7578420639038</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031805038452</t>
+    <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516279220581</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677751541138</t>
+    <t xml:space="preserve">13.6677761077881</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839223861694</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.416220664978</t>
+    <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
     <t xml:space="preserve">13.332368850708</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969644546509</t>
+    <t xml:space="preserve">12.9969654083252</t>
   </si>
   <si>
     <t xml:space="preserve">12.4938564300537</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">12.9131116867065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615591049194</t>
+    <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
     <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553421020508</t>
+    <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
     <t xml:space="preserve">11.8230447769165</t>
@@ -758,34 +758,34 @@
     <t xml:space="preserve">11.9907455444336</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584491729736</t>
+    <t xml:space="preserve">12.1584501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745983123779</t>
+    <t xml:space="preserve">12.0746002197266</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068965911865</t>
+    <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391920089722</t>
+    <t xml:space="preserve">11.7391929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876394271851</t>
+    <t xml:space="preserve">11.4876384735107</t>
   </si>
   <si>
     <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522331237793</t>
+    <t xml:space="preserve">11.1522340774536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168277740479</t>
+    <t xml:space="preserve">10.8168287277222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845314025879</t>
+    <t xml:space="preserve">10.9845294952393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006786346436</t>
+    <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
     <t xml:space="preserve">10.7329769134521</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261547088623</t>
+    <t xml:space="preserve">12.3261528015137</t>
   </si>
   <si>
     <t xml:space="preserve">12.5777072906494</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942462921143</t>
+    <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
     <t xml:space="preserve">12.932107925415</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2330741882324</t>
+    <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4952116012573</t>
+    <t xml:space="preserve">12.495210647583</t>
   </si>
   <si>
     <t xml:space="preserve">12.7573499679565</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5437622070312</t>
+    <t xml:space="preserve">13.5437631607056</t>
   </si>
   <si>
     <t xml:space="preserve">13.8058996200562</t>
@@ -842,10 +842,10 @@
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.631139755249</t>
+    <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690042495728</t>
+    <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
     <t xml:space="preserve">15.4661016464233</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534820556641</t>
+    <t xml:space="preserve">15.5534801483154</t>
   </si>
   <si>
     <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156175613403</t>
+    <t xml:space="preserve">15.8156185150146</t>
   </si>
   <si>
     <t xml:space="preserve">15.6408596038818</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787231445312</t>
+    <t xml:space="preserve">15.3787221908569</t>
   </si>
   <si>
     <t xml:space="preserve">15.2913427352905</t>
@@ -881,19 +881,19 @@
     <t xml:space="preserve">14.8544502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796913146973</t>
+    <t xml:space="preserve">14.6796894073486</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.417552947998</t>
+    <t xml:space="preserve">14.4175539016724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427940368652</t>
+    <t xml:space="preserve">14.2427949905396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418277740479</t>
+    <t xml:space="preserve">14.9418287277222</t>
   </si>
   <si>
     <t xml:space="preserve">14.2154502868652</t>
@@ -911,19 +911,19 @@
     <t xml:space="preserve">14.6541996002197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664482116699</t>
+    <t xml:space="preserve">14.5664491653442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929470062256</t>
+    <t xml:space="preserve">15.0929460525513</t>
   </si>
   <si>
     <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296976089478</t>
+    <t xml:space="preserve">14.8296966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031978607178</t>
+    <t xml:space="preserve">14.3031969070435</t>
   </si>
   <si>
     <t xml:space="preserve">14.1276998519897</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561964035034</t>
+    <t xml:space="preserve">15.3561954498291</t>
   </si>
   <si>
     <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806955337524</t>
+    <t xml:space="preserve">15.1806936264038</t>
   </si>
   <si>
     <t xml:space="preserve">15.7071933746338</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">15.8826942443848</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581912994385</t>
+    <t xml:space="preserve">16.0581893920898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459426879883</t>
+    <t xml:space="preserve">16.1459407806396</t>
   </si>
   <si>
     <t xml:space="preserve">15.9704427719116</t>
@@ -965,37 +965,37 @@
     <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214435577393</t>
+    <t xml:space="preserve">16.3214416503906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091911315918</t>
+    <t xml:space="preserve">16.4091930389404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724395751953</t>
+    <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
     <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479385375977</t>
+    <t xml:space="preserve">16.8479404449463</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.048511505127</t>
+    <t xml:space="preserve">17.0485134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573440551758</t>
+    <t xml:space="preserve">16.9573421478271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.866174697876</t>
+    <t xml:space="preserve">16.8661727905273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750053405762</t>
+    <t xml:space="preserve">16.7750034332275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838359832764</t>
+    <t xml:space="preserve">16.6838340759277</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">17.1396789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3220157623291</t>
+    <t xml:space="preserve">17.3220176696777</t>
   </si>
   <si>
     <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043525695801</t>
+    <t xml:space="preserve">17.5043544769287</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955219268799</t>
+    <t xml:space="preserve">17.5955200195312</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778606414795</t>
+    <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453857421875</t>
+    <t xml:space="preserve">19.1453876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277225494385</t>
+    <t xml:space="preserve">19.3277244567871</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423118591309</t>
+    <t xml:space="preserve">19.3423099517822</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734203338623</t>
+    <t xml:space="preserve">18.7734184265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993431091309</t>
+    <t xml:space="preserve">18.2993412017822</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148963928223</t>
+    <t xml:space="preserve">18.0148983001709</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3511905670166</t>
+    <t xml:space="preserve">17.351188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.109712600708</t>
+    <t xml:space="preserve">18.1097145080566</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.066743850708</t>
+    <t xml:space="preserve">17.0667457580566</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356353759766</t>
+    <t xml:space="preserve">17.6356372833252</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615600585938</t>
+    <t xml:space="preserve">17.1615619659424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030380249023</t>
+    <t xml:space="preserve">16.4030361175537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911787033081</t>
+    <t xml:space="preserve">14.7911796569824</t>
   </si>
   <si>
-    <t xml:space="preserve">14.980809211731</t>
+    <t xml:space="preserve">14.9808101654053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0326566696167</t>
+    <t xml:space="preserve">14.032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -57622,7 +57622,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.29375</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>220</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711791992188</t>
+    <t xml:space="preserve">13.7711772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651527404785</t>
+    <t xml:space="preserve">13.4651517868042</t>
   </si>
   <si>
     <t xml:space="preserve">13.4797248840332</t>
@@ -56,49 +56,49 @@
     <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068613052368</t>
+    <t xml:space="preserve">13.4068603515625</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.751088142395</t>
+    <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091436386108</t>
+    <t xml:space="preserve">11.7091445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.075234413147</t>
+    <t xml:space="preserve">11.0752325057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830308914185</t>
+    <t xml:space="preserve">10.3830299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655643463135</t>
+    <t xml:space="preserve">9.83655548095703</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983512878418</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023708343506</t>
+    <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950838088989</t>
+    <t xml:space="preserve">10.9950847625732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295053482056</t>
+    <t xml:space="preserve">10.9295072555542</t>
   </si>
   <si>
     <t xml:space="preserve">11.148097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209596633911</t>
+    <t xml:space="preserve">11.2209606170654</t>
   </si>
   <si>
     <t xml:space="preserve">11.2938232421875</t>
@@ -107,88 +107,88 @@
     <t xml:space="preserve">11.2865381240845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581420898438</t>
+    <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204502105713</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827573776245</t>
   </si>
   <si>
     <t xml:space="preserve">12.4523506164551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292308807373</t>
+    <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219467163086</t>
+    <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061111450195</t>
+    <t xml:space="preserve">13.0061101913452</t>
   </si>
   <si>
     <t xml:space="preserve">13.2611351013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525875091553</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882705688477</t>
+    <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968191146851</t>
+    <t xml:space="preserve">12.8968200683594</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742097854614</t>
+    <t xml:space="preserve">12.4742107391357</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907936096191</t>
+    <t xml:space="preserve">12.5907917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.27747631073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.550311088562</t>
+    <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
     <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048408508301</t>
+    <t xml:space="preserve">12.5048389434814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.466944694519</t>
+    <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
     <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501174926758</t>
+    <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
     <t xml:space="preserve">12.1259059906006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
     <t xml:space="preserve">12.0880117416382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364376068115</t>
+    <t xml:space="preserve">11.9364385604858</t>
   </si>
   <si>
     <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774791717529</t>
+    <t xml:space="preserve">12.2774772644043</t>
   </si>
   <si>
     <t xml:space="preserve">12.4290533065796</t>
@@ -200,52 +200,52 @@
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564149856567</t>
+    <t xml:space="preserve">12.6564140319824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322015762329</t>
+    <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770092010498</t>
+    <t xml:space="preserve">12.7700910568237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837747573853</t>
+    <t xml:space="preserve">12.8837738037109</t>
   </si>
   <si>
     <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761949539185</t>
+    <t xml:space="preserve">12.8761959075928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353498458862</t>
+    <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111345291138</t>
+    <t xml:space="preserve">13.1111335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627058029175</t>
+    <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582780838013</t>
+    <t xml:space="preserve">13.5582752227783</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763885498047</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885915756226</t>
+    <t xml:space="preserve">13.5885925292969</t>
   </si>
   <si>
     <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142837524414</t>
+    <t xml:space="preserve">13.4142847061157</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690032958984</t>
+    <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447908401489</t>
+    <t xml:space="preserve">13.9447898864746</t>
   </si>
   <si>
     <t xml:space="preserve">14.0963649749756</t>
@@ -257,88 +257,88 @@
     <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887880325317</t>
+    <t xml:space="preserve">14.0887861251831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584688186646</t>
+    <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721515655518</t>
+    <t xml:space="preserve">14.1721506118774</t>
   </si>
   <si>
     <t xml:space="preserve">14.2100439071655</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948890686035</t>
+    <t xml:space="preserve">14.1948852539062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342601776123</t>
+    <t xml:space="preserve">14.1342582702637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826860427856</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736274719238</t>
+    <t xml:space="preserve">14.0736293792725</t>
   </si>
   <si>
-    <t xml:space="preserve">13.831109046936</t>
+    <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418380737305</t>
+    <t xml:space="preserve">14.1418371200562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538465499878</t>
+    <t xml:space="preserve">13.8538446426392</t>
   </si>
   <si>
     <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174301147461</t>
+    <t xml:space="preserve">13.7174310684204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203838348389</t>
+    <t xml:space="preserve">13.5203828811646</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416444778442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553243637085</t>
+    <t xml:space="preserve">13.7553253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521741867065</t>
+    <t xml:space="preserve">13.4521760940552</t>
   </si>
   <si>
     <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
     <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551288604736</t>
+    <t xml:space="preserve">13.2551307678223</t>
   </si>
   <si>
-    <t xml:space="preserve">12.823145866394</t>
+    <t xml:space="preserve">12.8231430053711</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776699066162</t>
+    <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
     <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867294311523</t>
+    <t xml:space="preserve">12.6867303848267</t>
   </si>
   <si>
     <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.61851978302</t>
+    <t xml:space="preserve">12.6185207366943</t>
   </si>
   <si>
     <t xml:space="preserve">12.4063167572021</t>
@@ -347,10 +347,10 @@
     <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578908920288</t>
+    <t xml:space="preserve">12.5578899383545</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654697418213</t>
+    <t xml:space="preserve">12.565468788147</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124177932739</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427322387695</t>
+    <t xml:space="preserve">12.5427312850952</t>
   </si>
   <si>
     <t xml:space="preserve">12.315372467041</t>
@@ -374,214 +374,214 @@
     <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079862594604</t>
+    <t xml:space="preserve">12.8079853057861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004093170166</t>
+    <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
     <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868446350098</t>
+    <t xml:space="preserve">12.8868455886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654226303101</t>
+    <t xml:space="preserve">12.9654235839844</t>
   </si>
   <si>
-    <t xml:space="preserve">12.706111907959</t>
+    <t xml:space="preserve">12.7061128616333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732799530029</t>
+    <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118192672729</t>
+    <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
     <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047101974487</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
     <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368934631348</t>
+    <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354879379272</t>
+    <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594048500061</t>
+    <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861902236938</t>
+    <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
     <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.578332901001</t>
+    <t xml:space="preserve">13.5783348083496</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547580718994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512054443359</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761819839478</t>
+    <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526090621948</t>
+    <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
     <t xml:space="preserve">13.7276315689087</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119169235229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869394302368</t>
+    <t xml:space="preserve">13.9869413375854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083633422852</t>
+    <t xml:space="preserve">13.9083642959595</t>
   </si>
   <si>
     <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148180007935</t>
+    <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
     <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612146377563</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590618133545</t>
+    <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576601028442</t>
+    <t xml:space="preserve">14.0576591491699</t>
   </si>
   <si>
     <t xml:space="preserve">13.8297843933105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262289047241</t>
+    <t xml:space="preserve">14.0262279510498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048097610474</t>
+    <t xml:space="preserve">14.104808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476490020752</t>
+    <t xml:space="preserve">13.9476499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690757751465</t>
+    <t xml:space="preserve">13.8690748214722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904949188232</t>
+    <t xml:space="preserve">13.7904958724976</t>
   </si>
   <si>
     <t xml:space="preserve">14.1440992355347</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012533187866</t>
+    <t xml:space="preserve">14.3012542724609</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619657516479</t>
+    <t xml:space="preserve">14.2619676589966</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584083557129</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226753234863</t>
+    <t xml:space="preserve">14.2226762771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334337234497</t>
+    <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
     <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933940887451</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498037338257</t>
+    <t xml:space="preserve">14.0498027801514</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155672073364</t>
+    <t xml:space="preserve">14.6155681610107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941471099854</t>
+    <t xml:space="preserve">14.6941452026367</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969505310059</t>
+    <t xml:space="preserve">14.0969495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812349319458</t>
+    <t xml:space="preserve">14.0812339782715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.450553894043</t>
+    <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705732345581</t>
+    <t xml:space="preserve">14.6705713272095</t>
   </si>
   <si>
     <t xml:space="preserve">15.322772026062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770288467407</t>
+    <t xml:space="preserve">14.9770278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.307056427002</t>
+    <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
     <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078084945679</t>
   </si>
   <si>
     <t xml:space="preserve">15.7156658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999492645264</t>
+    <t xml:space="preserve">15.6999473571777</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842317581177</t>
+    <t xml:space="preserve">15.684232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763744354248</t>
+    <t xml:space="preserve">15.6763772964478</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384876251221</t>
+    <t xml:space="preserve">15.3384866714478</t>
   </si>
   <si>
     <t xml:space="preserve">15.5977945327759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306322097778</t>
+    <t xml:space="preserve">15.3306283950806</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728189468384</t>
+    <t xml:space="preserve">15.8728199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
     <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014514923096</t>
+    <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300735473633</t>
+    <t xml:space="preserve">17.1300716400146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443855285645</t>
+    <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
     <t xml:space="preserve">18.5444850921631</t>
@@ -593,46 +593,46 @@
     <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587013244629</t>
+    <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872314453125</t>
+    <t xml:space="preserve">17.2872295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015453338623</t>
+    <t xml:space="preserve">17.601541519165</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157596588135</t>
+    <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345653533936</t>
+    <t xml:space="preserve">17.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112678527832</t>
+    <t xml:space="preserve">16.8112697601318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797428131104</t>
+    <t xml:space="preserve">15.6797409057617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263301849365</t>
+    <t xml:space="preserve">16.3263263702393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646842956543</t>
+    <t xml:space="preserve">16.1646823883057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879760742188</t>
+    <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962093353271</t>
+    <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195030212402</t>
+    <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
     <t xml:space="preserve">16.6496238708496</t>
@@ -641,58 +641,58 @@
     <t xml:space="preserve">15.8413887023926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605657577515</t>
+    <t xml:space="preserve">15.7605648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564500808716</t>
+    <t xml:space="preserve">15.3564481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030364990234</t>
+    <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331535339355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139793395996</t>
+    <t xml:space="preserve">15.1139783859253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482149124146</t>
+    <t xml:space="preserve">14.5482158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255437850952</t>
+    <t xml:space="preserve">14.9255466461182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901412963867</t>
+    <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870313644409</t>
+    <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385858535767</t>
+    <t xml:space="preserve">14.338586807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416938781738</t>
+    <t xml:space="preserve">14.8416957855225</t>
   </si>
   <si>
     <t xml:space="preserve">14.254734992981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708822250366</t>
+    <t xml:space="preserve">14.1708831787109</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739912033081</t>
+    <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354778289795</t>
+    <t xml:space="preserve">13.8354768753052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193286895752</t>
+    <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
     <t xml:space="preserve">15.0932493209839</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031814575195</t>
+    <t xml:space="preserve">14.0031805038452</t>
   </si>
   <si>
     <t xml:space="preserve">13.7516279220581</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839233398438</t>
+    <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.5000715255737</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808143615723</t>
+    <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485189437866</t>
+    <t xml:space="preserve">13.2485198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969635009766</t>
+    <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938554763794</t>
+    <t xml:space="preserve">12.4938564300537</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423009872437</t>
+    <t xml:space="preserve">12.2423000335693</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646671295166</t>
+    <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
     <t xml:space="preserve">12.9131126403809</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553421020508</t>
+    <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230457305908</t>
+    <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
     <t xml:space="preserve">11.9907464981079</t>
@@ -764,10 +764,10 @@
     <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068965911865</t>
+    <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391939163208</t>
+    <t xml:space="preserve">11.7391920089722</t>
   </si>
   <si>
     <t xml:space="preserve">11.4876394271851</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">11.5714902877808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.152232170105</t>
+    <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
     <t xml:space="preserve">10.8168277740479</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006805419922</t>
+    <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329769134521</t>
+    <t xml:space="preserve">10.7329778671265</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814224243164</t>
+    <t xml:space="preserve">10.4814233779907</t>
   </si>
   <si>
     <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.326153755188</t>
+    <t xml:space="preserve">12.3261547088623</t>
   </si>
   <si>
     <t xml:space="preserve">12.5777072906494</t>
@@ -806,13 +806,13 @@
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942453384399</t>
+    <t xml:space="preserve">13.1942462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.932107925415</t>
+    <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340433120728</t>
+    <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
     <t xml:space="preserve">12.2330751419067</t>
@@ -821,22 +821,22 @@
     <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573499679565</t>
+    <t xml:space="preserve">12.7573490142822</t>
   </si>
   <si>
     <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068658828735</t>
+    <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5437612533569</t>
+    <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8058996200562</t>
+    <t xml:space="preserve">13.8059005737305</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680351257324</t>
+    <t xml:space="preserve">14.0680370330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
@@ -845,85 +845,85 @@
     <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690032958984</t>
+    <t xml:space="preserve">13.3690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661026000977</t>
+    <t xml:space="preserve">15.466103553772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039651870728</t>
+    <t xml:space="preserve">15.2039642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534791946411</t>
+    <t xml:space="preserve">15.5534820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.1165866851807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156175613403</t>
+    <t xml:space="preserve">15.8156185150146</t>
   </si>
   <si>
     <t xml:space="preserve">15.6408615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282409667969</t>
+    <t xml:space="preserve">15.7282390594482</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913436889648</t>
+    <t xml:space="preserve">15.2913427352905</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0292053222656</t>
+    <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
     <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796894073486</t>
+    <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3301753997803</t>
+    <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
     <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427949905396</t>
+    <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418268203735</t>
+    <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154502868652</t>
+    <t xml:space="preserve">14.2154493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786977767944</t>
+    <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174461364746</t>
+    <t xml:space="preserve">14.9174470901489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909473419189</t>
+    <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541976928711</t>
+    <t xml:space="preserve">14.6541996002197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664491653442</t>
+    <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929460525513</t>
+    <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684469223022</t>
+    <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296957015991</t>
+    <t xml:space="preserve">14.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031988143921</t>
+    <t xml:space="preserve">14.3031978607178</t>
   </si>
   <si>
     <t xml:space="preserve">14.1276998519897</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">15.0051965713501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561964035034</t>
+    <t xml:space="preserve">15.3561973571777</t>
   </si>
   <si>
     <t xml:space="preserve">15.5316963195801</t>
@@ -944,37 +944,37 @@
     <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439458847046</t>
+    <t xml:space="preserve">15.443943977356</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194438934326</t>
+    <t xml:space="preserve">15.6194448471069</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826932907104</t>
+    <t xml:space="preserve">15.8826942443848</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581912994385</t>
+    <t xml:space="preserve">16.0581932067871</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459407806396</t>
+    <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
     <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
-    <t xml:space="preserve">15.794942855835</t>
+    <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214435577393</t>
+    <t xml:space="preserve">16.3214416503906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091930389404</t>
+    <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724414825439</t>
+    <t xml:space="preserve">16.6724395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601909637451</t>
+    <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
     <t xml:space="preserve">16.8479404449463</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573440551758</t>
+    <t xml:space="preserve">16.9573421478271</t>
   </si>
   <si>
     <t xml:space="preserve">16.866174697876</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838359832764</t>
+    <t xml:space="preserve">16.683837890625</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926704406738</t>
+    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1019,16 +1019,16 @@
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131851196289</t>
+    <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043563842773</t>
+    <t xml:space="preserve">17.5043544769287</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955200195312</t>
+    <t xml:space="preserve">17.5955219268799</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160404205322</t>
+    <t xml:space="preserve">18.4160385131836</t>
   </si>
   <si>
     <t xml:space="preserve">19.5100593566895</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453876495361</t>
+    <t xml:space="preserve">19.1453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277244567871</t>
+    <t xml:space="preserve">19.3277225494385</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1113,9 +1113,6 @@
   </si>
   <si>
     <t xml:space="preserve">16.8771133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.0667457580566</t>
@@ -44669,7 +44666,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44695,7 +44692,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44747,7 +44744,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44773,7 +44770,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44799,7 +44796,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44825,7 +44822,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44851,7 +44848,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44877,7 +44874,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44903,7 +44900,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44929,7 +44926,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44955,7 +44952,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44981,7 +44978,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45007,7 +45004,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45033,7 +45030,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45059,7 +45056,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45085,7 +45082,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45111,7 +45108,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45137,7 +45134,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45163,7 +45160,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45189,7 +45186,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45215,7 +45212,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45241,7 +45238,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45267,7 +45264,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45293,7 +45290,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45345,7 +45342,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45371,7 +45368,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45631,7 +45628,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45865,7 +45862,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45891,7 +45888,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45917,7 +45914,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45943,7 +45940,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45969,7 +45966,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -45995,7 +45992,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46021,7 +46018,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46047,7 +46044,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46073,7 +46070,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46099,7 +46096,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46125,7 +46122,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46151,7 +46148,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46177,7 +46174,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46255,7 +46252,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46281,7 +46278,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46463,7 +46460,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46489,7 +46486,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46515,7 +46512,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46541,7 +46538,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46567,7 +46564,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46593,7 +46590,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46619,7 +46616,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46645,7 +46642,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46671,7 +46668,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46697,7 +46694,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46723,7 +46720,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46749,7 +46746,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46775,7 +46772,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46801,7 +46798,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46827,7 +46824,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46853,7 +46850,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46879,7 +46876,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46905,7 +46902,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46931,7 +46928,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46957,7 +46954,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46983,7 +46980,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47035,7 +47032,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47061,7 +47058,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47087,7 +47084,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47113,7 +47110,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47139,7 +47136,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47165,7 +47162,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47191,7 +47188,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47217,7 +47214,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47243,7 +47240,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47269,7 +47266,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47295,7 +47292,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47321,7 +47318,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47425,7 +47422,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47451,7 +47448,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47477,7 +47474,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47503,7 +47500,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47529,7 +47526,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47555,7 +47552,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47581,7 +47578,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47607,7 +47604,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47633,7 +47630,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47685,7 +47682,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47711,7 +47708,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47737,7 +47734,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47763,7 +47760,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47789,7 +47786,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47815,7 +47812,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47841,7 +47838,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47919,7 +47916,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47945,7 +47942,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47971,7 +47968,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -47997,7 +47994,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48023,7 +48020,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48049,7 +48046,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48075,7 +48072,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48101,7 +48098,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48153,7 +48150,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48179,7 +48176,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48205,7 +48202,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48257,7 +48254,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48517,7 +48514,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48543,7 +48540,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48569,7 +48566,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48595,7 +48592,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48621,7 +48618,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48647,7 +48644,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48673,7 +48670,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48699,7 +48696,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48725,7 +48722,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48751,7 +48748,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48777,7 +48774,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48803,7 +48800,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48829,7 +48826,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48855,7 +48852,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48881,7 +48878,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48907,7 +48904,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48933,7 +48930,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48959,7 +48956,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48985,7 +48982,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49011,7 +49008,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49037,7 +49034,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49063,7 +49060,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49089,7 +49086,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49115,7 +49112,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49141,7 +49138,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49167,7 +49164,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49193,7 +49190,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49219,7 +49216,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49245,7 +49242,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49271,7 +49268,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49297,7 +49294,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49323,7 +49320,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49349,7 +49346,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49375,7 +49372,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49401,7 +49398,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49427,7 +49424,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49453,7 +49450,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49479,7 +49476,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49505,7 +49502,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49531,7 +49528,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49557,7 +49554,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49583,7 +49580,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49609,7 +49606,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49635,7 +49632,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49661,7 +49658,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49687,7 +49684,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49713,7 +49710,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49739,7 +49736,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49765,7 +49762,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49791,7 +49788,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49817,7 +49814,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49843,7 +49840,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49869,7 +49866,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49895,7 +49892,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49921,7 +49918,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49947,7 +49944,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49973,7 +49970,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -49999,7 +49996,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50025,7 +50022,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50051,7 +50048,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50077,7 +50074,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50103,7 +50100,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50129,7 +50126,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50155,7 +50152,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50181,7 +50178,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50207,7 +50204,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50233,7 +50230,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50259,7 +50256,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50285,7 +50282,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50311,7 +50308,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50337,7 +50334,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50363,7 +50360,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50389,7 +50386,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50415,7 +50412,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50441,7 +50438,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50467,7 +50464,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50493,7 +50490,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50519,7 +50516,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50545,7 +50542,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50571,7 +50568,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50597,7 +50594,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50623,7 +50620,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50649,7 +50646,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50675,7 +50672,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50701,7 +50698,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50727,7 +50724,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50753,7 +50750,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50779,7 +50776,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50805,7 +50802,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50831,7 +50828,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50857,7 +50854,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50883,7 +50880,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50909,7 +50906,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50935,7 +50932,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50961,7 +50958,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50987,7 +50984,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51013,7 +51010,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51039,7 +51036,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51065,7 +51062,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51091,7 +51088,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51117,7 +51114,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51143,7 +51140,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51169,7 +51166,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51195,7 +51192,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51221,7 +51218,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51247,7 +51244,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51273,7 +51270,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51299,7 +51296,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51325,7 +51322,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51351,7 +51348,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51377,7 +51374,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51403,7 +51400,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51429,7 +51426,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51455,7 +51452,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51481,7 +51478,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51507,7 +51504,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51533,7 +51530,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51559,7 +51556,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51585,7 +51582,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51611,7 +51608,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51637,7 +51634,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51663,7 +51660,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51689,7 +51686,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51715,7 +51712,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51741,7 +51738,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51767,7 +51764,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51793,7 +51790,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51819,7 +51816,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51845,7 +51842,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51871,7 +51868,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51897,7 +51894,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51923,7 +51920,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51949,7 +51946,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51975,7 +51972,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52001,7 +51998,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52027,7 +52024,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52053,7 +52050,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52079,7 +52076,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52105,7 +52102,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52131,7 +52128,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52157,7 +52154,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52183,7 +52180,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52209,7 +52206,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52235,7 +52232,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52261,7 +52258,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52287,7 +52284,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52313,7 +52310,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52339,7 +52336,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52365,7 +52362,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52391,7 +52388,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52417,7 +52414,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52443,7 +52440,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52469,7 +52466,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52495,7 +52492,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52521,7 +52518,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52547,7 +52544,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52573,7 +52570,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52599,7 +52596,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52625,7 +52622,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52651,7 +52648,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52677,7 +52674,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52703,7 +52700,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52729,7 +52726,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52755,7 +52752,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52781,7 +52778,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52807,7 +52804,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52833,7 +52830,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52859,7 +52856,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52885,7 +52882,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52911,7 +52908,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52937,7 +52934,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52963,7 +52960,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -52989,7 +52986,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53015,7 +53012,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53041,7 +53038,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53067,7 +53064,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53093,7 +53090,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53119,7 +53116,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53145,7 +53142,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53171,7 +53168,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53197,7 +53194,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53223,7 +53220,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53249,7 +53246,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53275,7 +53272,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53301,7 +53298,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53327,7 +53324,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53353,7 +53350,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53379,7 +53376,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53405,7 +53402,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53431,7 +53428,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53457,7 +53454,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53483,7 +53480,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53509,7 +53506,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53535,7 +53532,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53561,7 +53558,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53587,7 +53584,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53613,7 +53610,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53639,7 +53636,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53665,7 +53662,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53691,7 +53688,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53717,7 +53714,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53743,7 +53740,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53769,7 +53766,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53795,7 +53792,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53821,7 +53818,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53847,7 +53844,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53873,7 +53870,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53899,7 +53896,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53925,7 +53922,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53951,7 +53948,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53977,7 +53974,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54003,7 +54000,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54029,7 +54026,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54055,7 +54052,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54081,7 +54078,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54107,7 +54104,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54133,7 +54130,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54159,7 +54156,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54185,7 +54182,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54211,7 +54208,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54237,7 +54234,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54263,7 +54260,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54289,7 +54286,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54315,7 +54312,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54341,7 +54338,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54367,7 +54364,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54393,7 +54390,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54419,7 +54416,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54445,7 +54442,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54471,7 +54468,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54497,7 +54494,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54523,7 +54520,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54549,7 +54546,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54575,7 +54572,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54601,7 +54598,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54627,7 +54624,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54653,7 +54650,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54679,7 +54676,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54705,7 +54702,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54731,7 +54728,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54757,7 +54754,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54783,7 +54780,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54809,7 +54806,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54835,7 +54832,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54861,7 +54858,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54887,7 +54884,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54913,7 +54910,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54939,7 +54936,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54965,7 +54962,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -54991,7 +54988,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55017,7 +55014,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55043,7 +55040,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55069,7 +55066,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55095,7 +55092,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55121,7 +55118,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55147,7 +55144,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55173,7 +55170,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55199,7 +55196,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55225,7 +55222,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55251,7 +55248,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55277,7 +55274,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55303,7 +55300,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55329,7 +55326,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55355,7 +55352,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55381,7 +55378,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55407,7 +55404,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55433,7 +55430,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55459,7 +55456,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55485,7 +55482,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55511,7 +55508,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55537,7 +55534,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55563,7 +55560,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55589,7 +55586,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55615,7 +55612,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55641,7 +55638,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55667,7 +55664,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55693,7 +55690,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55719,7 +55716,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55745,7 +55742,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55771,7 +55768,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55797,7 +55794,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55823,7 +55820,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55849,7 +55846,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55875,7 +55872,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55901,7 +55898,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55927,7 +55924,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55953,7 +55950,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55979,7 +55976,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56005,7 +56002,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56031,7 +56028,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56057,7 +56054,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56083,7 +56080,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56109,7 +56106,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56135,7 +56132,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56161,7 +56158,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56187,7 +56184,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56213,7 +56210,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56239,7 +56236,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56265,7 +56262,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56291,7 +56288,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56317,7 +56314,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56343,7 +56340,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56369,7 +56366,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56395,7 +56392,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56421,7 +56418,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56447,7 +56444,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56473,7 +56470,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56499,7 +56496,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56525,7 +56522,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56551,7 +56548,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56577,7 +56574,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56603,7 +56600,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56629,7 +56626,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56655,7 +56652,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56681,7 +56678,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56707,7 +56704,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56733,7 +56730,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56759,7 +56756,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56785,7 +56782,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56811,7 +56808,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56837,7 +56834,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56863,7 +56860,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56889,7 +56886,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56915,7 +56912,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56941,7 +56938,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56967,7 +56964,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -56993,7 +56990,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57019,7 +57016,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57045,7 +57042,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57071,7 +57068,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57097,7 +57094,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57123,7 +57120,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57149,7 +57146,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57175,7 +57172,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57201,7 +57198,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57227,7 +57224,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57253,7 +57250,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57279,7 +57276,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57305,7 +57302,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57331,7 +57328,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57357,7 +57354,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57383,7 +57380,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57409,7 +57406,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57435,7 +57432,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57461,7 +57458,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57487,7 +57484,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57513,7 +57510,7 @@
         <v>14</v>
       </c>
       <c r="G2151" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57539,7 +57536,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2152" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57565,7 +57562,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57591,7 +57588,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57617,7 +57614,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57643,7 +57640,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57669,7 +57666,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57695,7 +57692,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2158" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57721,7 +57718,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57729,7 +57726,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6278009259</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>1800</v>
@@ -57747,7 +57744,7 @@
         <v>14</v>
       </c>
       <c r="G2160" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440427780151</t>
+    <t xml:space="preserve">13.8440418243408</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711772918701</t>
+    <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651517868042</t>
+    <t xml:space="preserve">13.4651527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797248840332</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
     <t xml:space="preserve">13.1154088973999</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510900497437</t>
+    <t xml:space="preserve">12.751091003418</t>
   </si>
   <si>
     <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752325057983</t>
+    <t xml:space="preserve">11.0752334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830299377441</t>
+    <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
     <t xml:space="preserve">9.83655548095703</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023698806763</t>
+    <t xml:space="preserve">11.002368927002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950847625732</t>
+    <t xml:space="preserve">10.9950838088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295072555542</t>
+    <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
     <t xml:space="preserve">11.148097038269</t>
@@ -101,22 +101,22 @@
     <t xml:space="preserve">11.2209606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938232421875</t>
+    <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865381240845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581411361694</t>
+    <t xml:space="preserve">11.6581401824951</t>
   </si>
   <si>
     <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827573776245</t>
+    <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
     <t xml:space="preserve">12.7292318344116</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061101913452</t>
+    <t xml:space="preserve">13.0061111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611351013184</t>
+    <t xml:space="preserve">13.261134147644</t>
   </si>
   <si>
     <t xml:space="preserve">13.5525884628296</t>
@@ -140,31 +140,31 @@
     <t xml:space="preserve">12.8968200683594</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199378967285</t>
+    <t xml:space="preserve">12.6199369430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742116928101</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907917022705</t>
+    <t xml:space="preserve">12.5907926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.27747631073</t>
+    <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5503120422363</t>
+    <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699003219604</t>
+    <t xml:space="preserve">12.2698993682861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048389434814</t>
+    <t xml:space="preserve">12.5048408508301</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669466018677</t>
+    <t xml:space="preserve">12.466944694519</t>
   </si>
   <si>
     <t xml:space="preserve">12.3229513168335</t>
@@ -173,58 +173,58 @@
     <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259059906006</t>
+    <t xml:space="preserve">12.125904083252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227567672729</t>
+    <t xml:space="preserve">11.8227577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880117416382</t>
+    <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364385604858</t>
+    <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016916275024</t>
+    <t xml:space="preserve">12.2016906738281</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290533065796</t>
+    <t xml:space="preserve">12.4290542602539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564149856567</t>
   </si>
   <si>
     <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700910568237</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837738037109</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957841873169</t>
+    <t xml:space="preserve">12.5957832336426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761959075928</t>
+    <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353479385376</t>
+    <t xml:space="preserve">13.0353469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111335754395</t>
+    <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627077102661</t>
+    <t xml:space="preserve">13.2627086639404</t>
   </si>
   <si>
     <t xml:space="preserve">13.5582752227783</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885925292969</t>
+    <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658559799194</t>
+    <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
     <t xml:space="preserve">13.4142847061157</t>
@@ -254,31 +254,31 @@
     <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357360839844</t>
+    <t xml:space="preserve">14.0357341766357</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887861251831</t>
+    <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721506118774</t>
+    <t xml:space="preserve">14.1721515655518</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100439071655</t>
+    <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948852539062</t>
+    <t xml:space="preserve">14.1948862075806</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342582702637</t>
+    <t xml:space="preserve">14.1342611312866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.982684135437</t>
+    <t xml:space="preserve">13.9826831817627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812063217163</t>
+    <t xml:space="preserve">14.0812072753906</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736293792725</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">14.1418371200562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538446426392</t>
+    <t xml:space="preserve">13.8538455963135</t>
   </si>
   <si>
     <t xml:space="preserve">13.4900693893433</t>
@@ -299,19 +299,19 @@
     <t xml:space="preserve">13.7174310684204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416444778442</t>
+    <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
     <t xml:space="preserve">13.7553253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521760940552</t>
+    <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477445602417</t>
+    <t xml:space="preserve">13.747745513916</t>
   </si>
   <si>
     <t xml:space="preserve">13.3460750579834</t>
@@ -320,46 +320,46 @@
     <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551307678223</t>
+    <t xml:space="preserve">13.2551288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231430053711</t>
+    <t xml:space="preserve">12.8231449127197</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776718139648</t>
+    <t xml:space="preserve">12.7776708602905</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972610473633</t>
+    <t xml:space="preserve">12.4972591400146</t>
   </si>
   <si>
     <t xml:space="preserve">12.6867303848267</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412553787231</t>
+    <t xml:space="preserve">12.6412563323975</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185207366943</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063167572021</t>
+    <t xml:space="preserve">12.4063186645508</t>
   </si>
   <si>
     <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578899383545</t>
+    <t xml:space="preserve">12.5578908920288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.565468788147</t>
+    <t xml:space="preserve">12.5654678344727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124177932739</t>
+    <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473564147949</t>
+    <t xml:space="preserve">12.7473573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199966430664</t>
+    <t xml:space="preserve">12.5199956893921</t>
   </si>
   <si>
     <t xml:space="preserve">12.5351552963257</t>
@@ -368,19 +368,19 @@
     <t xml:space="preserve">12.5427312850952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.315372467041</t>
+    <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246217727661</t>
+    <t xml:space="preserve">12.7246198654175</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079853057861</t>
+    <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296867370605</t>
+    <t xml:space="preserve">12.7296857833862</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868455886841</t>
@@ -395,25 +395,25 @@
     <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118202209473</t>
+    <t xml:space="preserve">12.6118211746216</t>
   </si>
   <si>
     <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.004711151123</t>
+    <t xml:space="preserve">13.0047101974487</t>
   </si>
   <si>
     <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368925094604</t>
+    <t xml:space="preserve">13.4368915557861</t>
   </si>
   <si>
     <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5940494537354</t>
+    <t xml:space="preserve">13.594048500061</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861911773682</t>
@@ -425,52 +425,52 @@
     <t xml:space="preserve">13.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547580718994</t>
+    <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512044906616</t>
+    <t xml:space="preserve">13.7512054443359</t>
   </si>
   <si>
     <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526081085205</t>
+    <t xml:space="preserve">13.4526090621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.727632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119169235229</t>
+    <t xml:space="preserve">13.7119150161743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869413375854</t>
+    <t xml:space="preserve">13.9869403839111</t>
   </si>
   <si>
     <t xml:space="preserve">13.9083642959595</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655183792114</t>
+    <t xml:space="preserve">14.0655174255371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148170471191</t>
+    <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.861216545105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590627670288</t>
+    <t xml:space="preserve">13.7590637207031</t>
   </si>
   <si>
     <t xml:space="preserve">14.0576591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297843933105</t>
+    <t xml:space="preserve">13.8297853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262279510498</t>
+    <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
     <t xml:space="preserve">14.104808807373</t>
@@ -482,25 +482,25 @@
     <t xml:space="preserve">13.8690748214722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904958724976</t>
+    <t xml:space="preserve">13.7904939651489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440992355347</t>
+    <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
     <t xml:space="preserve">14.3012542724609</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619676589966</t>
+    <t xml:space="preserve">14.2619667053223</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584102630615</t>
+    <t xml:space="preserve">14.4584093093872</t>
   </si>
   <si>
     <t xml:space="preserve">14.2226762771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334356307983</t>
+    <t xml:space="preserve">14.733434677124</t>
   </si>
   <si>
     <t xml:space="preserve">14.3405427932739</t>
@@ -509,19 +509,19 @@
     <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498027801514</t>
+    <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155681610107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941452026367</t>
+    <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969495773315</t>
+    <t xml:space="preserve">14.0969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812339782715</t>
+    <t xml:space="preserve">14.0812358856201</t>
   </si>
   <si>
     <t xml:space="preserve">14.4505529403687</t>
@@ -530,16 +530,16 @@
     <t xml:space="preserve">14.6705713272095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.322772026062</t>
+    <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770278930664</t>
+    <t xml:space="preserve">14.9770288467407</t>
   </si>
   <si>
     <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856353759766</t>
+    <t xml:space="preserve">15.3856334686279</t>
   </si>
   <si>
     <t xml:space="preserve">15.7078084945679</t>
@@ -548,22 +548,22 @@
     <t xml:space="preserve">15.7156658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999473571777</t>
+    <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.684232711792</t>
+    <t xml:space="preserve">15.6842346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763772964478</t>
+    <t xml:space="preserve">15.6763753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384866714478</t>
+    <t xml:space="preserve">15.3384895324707</t>
   </si>
   <si>
     <t xml:space="preserve">15.5977945327759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306283950806</t>
+    <t xml:space="preserve">15.3306312561035</t>
   </si>
   <si>
     <t xml:space="preserve">15.8728199005127</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871356964111</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
     <t xml:space="preserve">16.5014476776123</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444850921631</t>
+    <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
     <t xml:space="preserve">18.0730133056641</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7586994171143</t>
+    <t xml:space="preserve">17.7587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872295379639</t>
+    <t xml:space="preserve">17.2872333526611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.601541519165</t>
+    <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
+    <t xml:space="preserve">16.9729194641113</t>
   </si>
   <si>
     <t xml:space="preserve">16.8157615661621</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797409057617</t>
+    <t xml:space="preserve">15.679741859436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263263702393</t>
+    <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
     <t xml:space="preserve">16.1646823883057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879779815674</t>
+    <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
     <t xml:space="preserve">17.2962112426758</t>
@@ -638,34 +638,34 @@
     <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413887023926</t>
+    <t xml:space="preserve">15.8413867950439</t>
   </si>
   <si>
     <t xml:space="preserve">15.7605648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564481735229</t>
+    <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331535339355</t>
+    <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139783859253</t>
+    <t xml:space="preserve">15.1139802932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482158660889</t>
+    <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255456924438</t>
   </si>
   <si>
     <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224367141724</t>
+    <t xml:space="preserve">14.4224376678467</t>
   </si>
   <si>
     <t xml:space="preserve">14.0870323181152</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">14.338586807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416957855225</t>
+    <t xml:space="preserve">14.8416948318481</t>
   </si>
   <si>
     <t xml:space="preserve">14.254734992981</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062885284424</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
     <t xml:space="preserve">13.8354768753052</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">14.0031805038452</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516279220581</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
     <t xml:space="preserve">13.6677751541138</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5000715255737</t>
+    <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162216186523</t>
+    <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.332368850708</t>
+    <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485198974609</t>
+    <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">12.4938564300537</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423000335693</t>
+    <t xml:space="preserve">12.242301940918</t>
   </si>
   <si>
     <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131126403809</t>
+    <t xml:space="preserve">12.9131116867065</t>
   </si>
   <si>
     <t xml:space="preserve">12.6615591049194</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553430557251</t>
+    <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
     <t xml:space="preserve">11.8230447769165</t>
@@ -758,37 +758,37 @@
     <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584501266479</t>
+    <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
     <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068956375122</t>
+    <t xml:space="preserve">11.9068965911865</t>
   </si>
   <si>
     <t xml:space="preserve">11.7391920089722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876394271851</t>
+    <t xml:space="preserve">11.4876384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714902877808</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522331237793</t>
+    <t xml:space="preserve">11.1522340774536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168277740479</t>
+    <t xml:space="preserve">10.8168287277222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845304489136</t>
+    <t xml:space="preserve">10.9845314025879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006795883179</t>
+    <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329778671265</t>
+    <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
     <t xml:space="preserve">10.4814233779907</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261547088623</t>
+    <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777072906494</t>
+    <t xml:space="preserve">12.5777063369751</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -809,19 +809,19 @@
     <t xml:space="preserve">13.1942462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9321088790894</t>
+    <t xml:space="preserve">12.932107925415</t>
   </si>
   <si>
     <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2330751419067</t>
+    <t xml:space="preserve">12.2330741882324</t>
   </si>
   <si>
     <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573490142822</t>
+    <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
     <t xml:space="preserve">13.0194873809814</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8059005737305</t>
+    <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
     <t xml:space="preserve">14.0680370330811</t>
@@ -842,31 +842,31 @@
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.631139755249</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.466103553772</t>
+    <t xml:space="preserve">15.4661016464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039642333984</t>
+    <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
     <t xml:space="preserve">15.5534820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165866851807</t>
+    <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156185150146</t>
+    <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408615112305</t>
+    <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282390594482</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787231445312</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8544492721558</t>
+    <t xml:space="preserve">14.8544502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796913146973</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
     <t xml:space="preserve">14.4786987304688</t>
@@ -929,31 +929,31 @@
     <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051965713501</t>
+    <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561973571777</t>
+    <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
     <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806945800781</t>
+    <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
     <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.443943977356</t>
+    <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194448471069</t>
+    <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
     <t xml:space="preserve">15.8826942443848</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581932067871</t>
+    <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
     <t xml:space="preserve">16.1459426879883</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.3214435577393</t>
   </si>
   <si>
     <t xml:space="preserve">16.4091911315918</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479385375977</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573421478271</t>
+    <t xml:space="preserve">16.9573440551758</t>
   </si>
   <si>
     <t xml:space="preserve">16.866174697876</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.683837890625</t>
+    <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043544769287</t>
+    <t xml:space="preserve">17.5043525695801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778587341309</t>
+    <t xml:space="preserve">17.7778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">18.5983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7807121276855</t>
+    <t xml:space="preserve">18.7807140350342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1425323486328</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423099517822</t>
+    <t xml:space="preserve">19.3423118591309</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734184265137</t>
+    <t xml:space="preserve">18.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993412017822</t>
+    <t xml:space="preserve">18.2993431091309</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148983001709</t>
+    <t xml:space="preserve">18.0148963928223</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.351188659668</t>
+    <t xml:space="preserve">17.3511905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1097145080566</t>
+    <t xml:space="preserve">18.109712600708</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0667457580566</t>
+    <t xml:space="preserve">17.066743850708</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356372833252</t>
+    <t xml:space="preserve">17.6356353759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615619659424</t>
+    <t xml:space="preserve">17.1615600585938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030361175537</t>
+    <t xml:space="preserve">16.4030380249023</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911796569824</t>
+    <t xml:space="preserve">14.7911787033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9808101654053</t>
+    <t xml:space="preserve">14.980809211731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.032657623291</t>
+    <t xml:space="preserve">14.0326566696167</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -57750,6 +57750,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.2916666667</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440427780151</t>
+    <t xml:space="preserve">13.8440418243408</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">13.7711791992188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651508331299</t>
+    <t xml:space="preserve">13.4651517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797248840332</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
     <t xml:space="preserve">13.1154098510742</t>
@@ -62,76 +62,76 @@
     <t xml:space="preserve">13.1081199645996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510890960693</t>
+    <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.386773109436</t>
   </si>
   <si>
     <t xml:space="preserve">11.7091445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752325057983</t>
+    <t xml:space="preserve">11.0752334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830318450928</t>
+    <t xml:space="preserve">10.3830299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983503341675</t>
+    <t xml:space="preserve">10.7983531951904</t>
   </si>
   <si>
     <t xml:space="preserve">11.0023708343506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950828552246</t>
+    <t xml:space="preserve">10.9950838088989</t>
   </si>
   <si>
     <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480979919434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209606170654</t>
+    <t xml:space="preserve">11.2209596633911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938222885132</t>
+    <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581401824951</t>
+    <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204502105713</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
     <t xml:space="preserve">12.1827554702759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523487091064</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292308807373</t>
+    <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
     <t xml:space="preserve">12.7219467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061111450195</t>
+    <t xml:space="preserve">13.0061120986938</t>
   </si>
   <si>
     <t xml:space="preserve">13.2611322402954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525884628296</t>
+    <t xml:space="preserve">13.552586555481</t>
   </si>
   <si>
     <t xml:space="preserve">13.188271522522</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742126464844</t>
   </si>
   <si>
     <t xml:space="preserve">12.313910484314</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699012756348</t>
+    <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
@@ -170,49 +170,49 @@
     <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501174926758</t>
+    <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259059906006</t>
+    <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227558135986</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880117416382</t>
+    <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016916275024</t>
+    <t xml:space="preserve">12.2016906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290523529053</t>
+    <t xml:space="preserve">12.4290542602539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564130783081</t>
+    <t xml:space="preserve">12.6564149856567</t>
   </si>
   <si>
     <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700939178467</t>
+    <t xml:space="preserve">12.770092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837738037109</t>
+    <t xml:space="preserve">12.8837747573853</t>
   </si>
   <si>
     <t xml:space="preserve">12.5957832336426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761949539185</t>
+    <t xml:space="preserve">12.8761930465698</t>
   </si>
   <si>
     <t xml:space="preserve">13.0353469848633</t>
@@ -221,82 +221,82 @@
     <t xml:space="preserve">13.1111354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627067565918</t>
+    <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582761764526</t>
+    <t xml:space="preserve">13.558274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763875961304</t>
+    <t xml:space="preserve">13.3763885498047</t>
   </si>
   <si>
     <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658550262451</t>
+    <t xml:space="preserve">13.5658569335938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142837524414</t>
+    <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690042495728</t>
+    <t xml:space="preserve">13.8690052032471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447898864746</t>
+    <t xml:space="preserve">13.9447917938232</t>
   </si>
   <si>
     <t xml:space="preserve">14.0963640213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205793380737</t>
+    <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357370376587</t>
+    <t xml:space="preserve">14.0357351303101</t>
   </si>
   <si>
     <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584707260132</t>
+    <t xml:space="preserve">14.0584716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721525192261</t>
+    <t xml:space="preserve">14.1721515655518</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100429534912</t>
+    <t xml:space="preserve">14.2100458145142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948890686035</t>
+    <t xml:space="preserve">14.1948862075806</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134259223938</t>
+    <t xml:space="preserve">14.1342573165894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826822280884</t>
+    <t xml:space="preserve">13.9826850891113</t>
   </si>
   <si>
-    <t xml:space="preserve">14.081205368042</t>
+    <t xml:space="preserve">14.0812072753906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736274719238</t>
+    <t xml:space="preserve">14.0736303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311109542847</t>
+    <t xml:space="preserve">13.831109046936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418371200562</t>
+    <t xml:space="preserve">14.1418361663818</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538465499878</t>
   </si>
   <si>
     <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174310684204</t>
+    <t xml:space="preserve">13.7174291610718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203838348389</t>
+    <t xml:space="preserve">13.5203847885132</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416444778442</t>
@@ -305,79 +305,79 @@
     <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521760940552</t>
+    <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
     <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
     <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551307678223</t>
+    <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231449127197</t>
+    <t xml:space="preserve">12.8231439590454</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776727676392</t>
+    <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972610473633</t>
+    <t xml:space="preserve">12.497260093689</t>
   </si>
   <si>
     <t xml:space="preserve">12.686728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412544250488</t>
+    <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
     <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063158035278</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488342285156</t>
+    <t xml:space="preserve">12.6488351821899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578918457031</t>
+    <t xml:space="preserve">12.5578908920288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.565468788147</t>
+    <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473573684692</t>
+    <t xml:space="preserve">12.7473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199956893921</t>
+    <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427331924438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3153715133667</t>
+    <t xml:space="preserve">12.315372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246217727661</t>
+    <t xml:space="preserve">12.7246208190918</t>
   </si>
   <si>
     <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004083633423</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296857833862</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868455886841</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061138153076</t>
+    <t xml:space="preserve">12.7061147689819</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732809066772</t>
+    <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118192672729</t>
+    <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
     <t xml:space="preserve">12.8947019577026</t>
@@ -401,13 +401,13 @@
     <t xml:space="preserve">13.0047121047974</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697244644165</t>
+    <t xml:space="preserve">13.1697263717651</t>
   </si>
   <si>
     <t xml:space="preserve">13.4368915557861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354898452759</t>
+    <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
     <t xml:space="preserve">13.5940494537354</t>
@@ -416,34 +416,34 @@
     <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875947952271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783348083496</t>
+    <t xml:space="preserve">13.5783338546753</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547580718994</t>
+    <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512035369873</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761819839478</t>
+    <t xml:space="preserve">13.4761810302734</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.727632522583</t>
+    <t xml:space="preserve">13.7276306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119178771973</t>
   </si>
   <si>
     <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083633422852</t>
+    <t xml:space="preserve">13.9083623886108</t>
   </si>
   <si>
     <t xml:space="preserve">14.0655193328857</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833848953247</t>
+    <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
     <t xml:space="preserve">13.8612155914307</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576610565186</t>
+    <t xml:space="preserve">14.0576581954956</t>
   </si>
   <si>
     <t xml:space="preserve">13.8297834396362</t>
@@ -470,10 +470,10 @@
     <t xml:space="preserve">14.0262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104808807373</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476509094238</t>
+    <t xml:space="preserve">13.9476499557495</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690729141235</t>
@@ -485,28 +485,28 @@
     <t xml:space="preserve">14.1440982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012523651123</t>
+    <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619657516479</t>
+    <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584102630615</t>
+    <t xml:space="preserve">14.4584112167358</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226762771606</t>
+    <t xml:space="preserve">14.222674369812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334337234497</t>
+    <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405437469482</t>
+    <t xml:space="preserve">14.3405418395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933940887451</t>
+    <t xml:space="preserve">14.2933950424194</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498027801514</t>
+    <t xml:space="preserve">14.0498046875</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155662536621</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969486236572</t>
+    <t xml:space="preserve">14.0969505310059</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812339782715</t>
@@ -524,58 +524,58 @@
     <t xml:space="preserve">14.450553894043</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227739334106</t>
+    <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770288467407</t>
+    <t xml:space="preserve">14.9770278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.307056427002</t>
+    <t xml:space="preserve">15.3070583343506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856363296509</t>
+    <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078056335449</t>
+    <t xml:space="preserve">15.7078075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156629562378</t>
+    <t xml:space="preserve">15.7156620025635</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999502182007</t>
+    <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842336654663</t>
+    <t xml:space="preserve">15.684232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763734817505</t>
+    <t xml:space="preserve">15.6763744354248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384857177734</t>
+    <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977973937988</t>
+    <t xml:space="preserve">15.5977964401245</t>
   </si>
   <si>
     <t xml:space="preserve">15.3306303024292</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728199005127</t>
+    <t xml:space="preserve">15.8728227615356</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442878723145</t>
+    <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871337890625</t>
+    <t xml:space="preserve">16.1871318817139</t>
   </si>
   <si>
     <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300754547119</t>
+    <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
     <t xml:space="preserve">17.4443855285645</t>
@@ -584,25 +584,25 @@
     <t xml:space="preserve">18.5444850921631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730113983154</t>
+    <t xml:space="preserve">18.0730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158554077148</t>
+    <t xml:space="preserve">17.9158573150635</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587013244629</t>
+    <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872295379639</t>
+    <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015434265137</t>
+    <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
+    <t xml:space="preserve">16.9729156494141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157615661621</t>
+    <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345634460449</t>
@@ -614,70 +614,70 @@
     <t xml:space="preserve">17.4578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797437667847</t>
+    <t xml:space="preserve">15.679741859436</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646823883057</t>
+    <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">16.487979888916</t>
+    <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962131500244</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729194641113</t>
+    <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195049285889</t>
+    <t xml:space="preserve">17.6195030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.649621963501</t>
+    <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413896560669</t>
+    <t xml:space="preserve">15.8413867950439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605676651001</t>
+    <t xml:space="preserve">15.7605638504028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564481735229</t>
+    <t xml:space="preserve">15.3564491271973</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030364990234</t>
+    <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331544876099</t>
+    <t xml:space="preserve">15.0331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139802932739</t>
+    <t xml:space="preserve">15.1139783859253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482149124146</t>
+    <t xml:space="preserve">14.5482158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255447387695</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901403427124</t>
+    <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870323181152</t>
+    <t xml:space="preserve">14.0870313644409</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385848999023</t>
+    <t xml:space="preserve">14.3385858535767</t>
   </si>
   <si>
     <t xml:space="preserve">14.8416938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">14.254734992981</t>
+    <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
     <t xml:space="preserve">14.1708831787109</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">14.6739912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062894821167</t>
+    <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354787826538</t>
+    <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193286895752</t>
+    <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932493209839</t>
+    <t xml:space="preserve">15.0932502746582</t>
   </si>
   <si>
     <t xml:space="preserve">14.7578430175781</t>
@@ -704,31 +704,31 @@
     <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516269683838</t>
+    <t xml:space="preserve">13.7516279220581</t>
   </si>
   <si>
     <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839223861694</t>
+    <t xml:space="preserve">13.5839233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500072479248</t>
+    <t xml:space="preserve">13.5000705718994</t>
   </si>
   <si>
     <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.332368850708</t>
+    <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808153152466</t>
+    <t xml:space="preserve">13.0808143615723</t>
   </si>
   <si>
     <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969635009766</t>
+    <t xml:space="preserve">12.9969654083252</t>
   </si>
   <si>
     <t xml:space="preserve">12.4938554763794</t>
@@ -746,22 +746,22 @@
     <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454109191895</t>
+    <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553421020508</t>
+    <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230438232422</t>
+    <t xml:space="preserve">11.8230457305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907474517822</t>
+    <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584501266479</t>
+    <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745992660522</t>
+    <t xml:space="preserve">12.0745973587036</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068965911865</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714902877808</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
     <t xml:space="preserve">11.1522331237793</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491260528564</t>
+    <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
     <t xml:space="preserve">12.326153755188</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">12.5777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4563817977905</t>
+    <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
     <t xml:space="preserve">13.1942453384399</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340433120728</t>
+    <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
     <t xml:space="preserve">12.2330751419067</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573509216309</t>
+    <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
     <t xml:space="preserve">13.0194873809814</t>
@@ -842,28 +842,28 @@
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.631139755249</t>
+    <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661026000977</t>
+    <t xml:space="preserve">15.466103553772</t>
   </si>
   <si>
     <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534811019897</t>
+    <t xml:space="preserve">15.5534801483154</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.116584777832</t>
   </si>
   <si>
     <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408615112305</t>
+    <t xml:space="preserve">15.6408624649048</t>
   </si>
   <si>
     <t xml:space="preserve">15.7282409667969</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">15.2913427352905</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0292053222656</t>
+    <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
     <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796894073486</t>
+    <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
@@ -896,22 +896,22 @@
     <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154502868652</t>
+    <t xml:space="preserve">14.2154493331909</t>
   </si>
   <si>
     <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174461364746</t>
+    <t xml:space="preserve">14.9174451828003</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541976928711</t>
+    <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664482116699</t>
+    <t xml:space="preserve">14.5664472579956</t>
   </si>
   <si>
     <t xml:space="preserve">15.0929470062256</t>
@@ -929,19 +929,19 @@
     <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051965713501</t>
+    <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316963195801</t>
+    <t xml:space="preserve">15.5316953659058</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071914672852</t>
+    <t xml:space="preserve">15.7071924209595</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949409484863</t>
+    <t xml:space="preserve">15.7949419021606</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214416503906</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724414825439</t>
+    <t xml:space="preserve">16.6724433898926</t>
   </si>
   <si>
     <t xml:space="preserve">16.7601909637451</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573421478271</t>
+    <t xml:space="preserve">16.9573440551758</t>
   </si>
   <si>
     <t xml:space="preserve">16.866174697876</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.683837890625</t>
+    <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043544769287</t>
+    <t xml:space="preserve">17.5043525695801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778587341309</t>
+    <t xml:space="preserve">17.7778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">18.5983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7807121276855</t>
+    <t xml:space="preserve">18.7807140350342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1425323486328</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423099517822</t>
+    <t xml:space="preserve">19.3423118591309</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734184265137</t>
+    <t xml:space="preserve">18.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993412017822</t>
+    <t xml:space="preserve">18.2993431091309</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148983001709</t>
+    <t xml:space="preserve">18.0148963928223</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.351188659668</t>
+    <t xml:space="preserve">17.3511905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1097145080566</t>
+    <t xml:space="preserve">18.109712600708</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0667457580566</t>
+    <t xml:space="preserve">17.066743850708</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356372833252</t>
+    <t xml:space="preserve">17.6356353759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615619659424</t>
+    <t xml:space="preserve">17.1615600585938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030361175537</t>
+    <t xml:space="preserve">16.4030380249023</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911796569824</t>
+    <t xml:space="preserve">14.7911787033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9808101654053</t>
+    <t xml:space="preserve">14.980809211731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.032657623291</t>
+    <t xml:space="preserve">14.0326566696167</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -57880,6 +57880,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.2916666667</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.3848032407</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440418243408</t>
+    <t xml:space="preserve">13.8440437316895</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
@@ -53,40 +53,40 @@
     <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154098510742</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
     <t xml:space="preserve">13.4068613052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081199645996</t>
+    <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510900497437</t>
+    <t xml:space="preserve">12.7510890960693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.386773109436</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091436386108</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752334594727</t>
+    <t xml:space="preserve">11.075234413147</t>
   </si>
   <si>
     <t xml:space="preserve">10.3830299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655643463135</t>
+    <t xml:space="preserve">9.83655548095703</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983531951904</t>
+    <t xml:space="preserve">10.7983503341675</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023708343506</t>
+    <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
     <t xml:space="preserve">10.9950838088989</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480979919434</t>
+    <t xml:space="preserve">11.1480960845947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209596633911</t>
+    <t xml:space="preserve">11.2209587097168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938232421875</t>
+    <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865371704102</t>
+    <t xml:space="preserve">11.2865362167358</t>
   </si>
   <si>
     <t xml:space="preserve">11.6581411361694</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">12.7219467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061120986938</t>
+    <t xml:space="preserve">13.0061111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611322402954</t>
+    <t xml:space="preserve">13.261134147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.552586555481</t>
+    <t xml:space="preserve">13.5525894165039</t>
   </si>
   <si>
     <t xml:space="preserve">13.188271522522</t>
@@ -140,28 +140,28 @@
     <t xml:space="preserve">12.8968200683594</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199378967285</t>
+    <t xml:space="preserve">12.6199369430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742126464844</t>
+    <t xml:space="preserve">12.4742097854614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.313910484314</t>
+    <t xml:space="preserve">12.3139085769653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907917022705</t>
+    <t xml:space="preserve">12.5907936096191</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.550311088562</t>
+    <t xml:space="preserve">12.5503101348877</t>
   </si>
   <si>
     <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048398971558</t>
+    <t xml:space="preserve">12.5048408508301</t>
   </si>
   <si>
     <t xml:space="preserve">12.4669456481934</t>
@@ -170,16 +170,16 @@
     <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501184463501</t>
+    <t xml:space="preserve">12.0501165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259050369263</t>
+    <t xml:space="preserve">12.1259059906006</t>
   </si>
   <si>
     <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880107879639</t>
+    <t xml:space="preserve">12.0880117416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364376068115</t>
@@ -188,34 +188,34 @@
     <t xml:space="preserve">12.2016906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290542602539</t>
+    <t xml:space="preserve">12.4290523529053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911590576172</t>
+    <t xml:space="preserve">12.3911600112915</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564149856567</t>
+    <t xml:space="preserve">12.6564130783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770092010498</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957832336426</t>
+    <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761930465698</t>
+    <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353469848633</t>
+    <t xml:space="preserve">13.0353488922119</t>
   </si>
   <si>
     <t xml:space="preserve">13.1111354827881</t>
@@ -224,22 +224,22 @@
     <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.558274269104</t>
+    <t xml:space="preserve">13.558277130127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763885498047</t>
+    <t xml:space="preserve">13.376389503479</t>
   </si>
   <si>
     <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658569335938</t>
+    <t xml:space="preserve">13.5658540725708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142827987671</t>
+    <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690052032471</t>
+    <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
     <t xml:space="preserve">13.9447917938232</t>
@@ -251,220 +251,220 @@
     <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357351303101</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887851715088</t>
+    <t xml:space="preserve">14.0887870788574</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584716796875</t>
+    <t xml:space="preserve">14.0584688186646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721515655518</t>
+    <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
     <t xml:space="preserve">14.2100458145142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948862075806</t>
+    <t xml:space="preserve">14.1948871612549</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342573165894</t>
+    <t xml:space="preserve">14.134259223938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.9826860427856</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812072753906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736303329468</t>
+    <t xml:space="preserve">14.0736293792725</t>
   </si>
   <si>
     <t xml:space="preserve">13.831109046936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418361663818</t>
+    <t xml:space="preserve">14.1418371200562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538465499878</t>
+    <t xml:space="preserve">13.8538455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900684356689</t>
+    <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174291610718</t>
+    <t xml:space="preserve">13.7174310684204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203847885132</t>
+    <t xml:space="preserve">13.5203828811646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416444778442</t>
+    <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553234100342</t>
+    <t xml:space="preserve">13.7553224563599</t>
   </si>
   <si>
     <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477445602417</t>
+    <t xml:space="preserve">13.7477436065674</t>
   </si>
   <si>
     <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340637207031</t>
+    <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551298141479</t>
+    <t xml:space="preserve">13.2551288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231439590454</t>
+    <t xml:space="preserve">12.823145866394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776718139648</t>
+    <t xml:space="preserve">12.7776708602905</t>
   </si>
   <si>
     <t xml:space="preserve">12.497260093689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686728477478</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412553787231</t>
+    <t xml:space="preserve">12.6412563323975</t>
   </si>
   <si>
     <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063167572021</t>
+    <t xml:space="preserve">12.4063158035278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488351821899</t>
+    <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
     <t xml:space="preserve">12.5578908920288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654697418213</t>
+    <t xml:space="preserve">12.5654678344727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124177932739</t>
+    <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473564147949</t>
+    <t xml:space="preserve">12.7473573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199966430664</t>
+    <t xml:space="preserve">12.5199956893921</t>
   </si>
   <si>
     <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427331924438</t>
+    <t xml:space="preserve">12.5427303314209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.315372467041</t>
+    <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246208190918</t>
+    <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079862594604</t>
+    <t xml:space="preserve">12.8079853057861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004093170166</t>
+    <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296867370605</t>
+    <t xml:space="preserve">12.7296857833862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868455886841</t>
+    <t xml:space="preserve">12.8868446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654226303101</t>
+    <t xml:space="preserve">12.9654235839844</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061147689819</t>
+    <t xml:space="preserve">12.7061128616333</t>
   </si>
   <si>
     <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118202209473</t>
+    <t xml:space="preserve">12.6118192672729</t>
   </si>
   <si>
     <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047121047974</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
     <t xml:space="preserve">13.1697263717651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368915557861</t>
+    <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354888916016</t>
+    <t xml:space="preserve">13.7354879379272</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5940494537354</t>
+    <t xml:space="preserve">13.5940504074097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861911773682</t>
+    <t xml:space="preserve">13.5861902236938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875947952271</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783338546753</t>
+    <t xml:space="preserve">13.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.554759979248</t>
+    <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512044906616</t>
+    <t xml:space="preserve">13.7512063980103</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761810302734</t>
+    <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276306152344</t>
+    <t xml:space="preserve">13.7276315689087</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119178771973</t>
+    <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869394302368</t>
+    <t xml:space="preserve">13.9869413375854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083623886108</t>
+    <t xml:space="preserve">13.9083642959595</t>
   </si>
   <si>
     <t xml:space="preserve">14.0655193328857</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148170471191</t>
+    <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
     <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.861216545105</t>
   </si>
   <si>
     <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576581954956</t>
+    <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297834396362</t>
+    <t xml:space="preserve">13.8297853469849</t>
   </si>
   <si>
     <t xml:space="preserve">14.0262298583984</t>
@@ -473,43 +473,43 @@
     <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476499557495</t>
+    <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690729141235</t>
+    <t xml:space="preserve">13.8690738677979</t>
   </si>
   <si>
     <t xml:space="preserve">13.7904939651489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440982818604</t>
+    <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012533187866</t>
+    <t xml:space="preserve">14.301251411438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619647979736</t>
+    <t xml:space="preserve">14.2619667053223</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584112167358</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.222674369812</t>
+    <t xml:space="preserve">14.2226762771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334356307983</t>
+    <t xml:space="preserve">14.733434677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405418395996</t>
+    <t xml:space="preserve">14.3405447006226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933950424194</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
     <t xml:space="preserve">14.0498046875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155662536621</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
     <t xml:space="preserve">14.694146156311</t>
@@ -518,91 +518,91 @@
     <t xml:space="preserve">14.0969505310059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812339782715</t>
+    <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.450553894043</t>
+    <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705722808838</t>
+    <t xml:space="preserve">14.6705732345581</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227710723877</t>
+    <t xml:space="preserve">15.3227701187134</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070583343506</t>
+    <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856353759766</t>
+    <t xml:space="preserve">15.3856344223022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078075408936</t>
+    <t xml:space="preserve">15.7078065872192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156620025635</t>
+    <t xml:space="preserve">15.7156658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999492645264</t>
+    <t xml:space="preserve">15.6999483108521</t>
   </si>
   <si>
     <t xml:space="preserve">15.684232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763744354248</t>
+    <t xml:space="preserve">15.6763734817505</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384876251221</t>
+    <t xml:space="preserve">15.3384885787964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977964401245</t>
+    <t xml:space="preserve">15.5977954864502</t>
   </si>
   <si>
     <t xml:space="preserve">15.3306303024292</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728227615356</t>
+    <t xml:space="preserve">15.8728189468384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871318817139</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014495849609</t>
+    <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
     <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443855285645</t>
+    <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444850921631</t>
+    <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730152130127</t>
+    <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158573150635</t>
+    <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7586994171143</t>
+    <t xml:space="preserve">17.7587032318115</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872314453125</t>
+    <t xml:space="preserve">17.2872295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015453338623</t>
+    <t xml:space="preserve">17.601541519165</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729156494141</t>
+    <t xml:space="preserve">16.9729194641113</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157596588135</t>
+    <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345634460449</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.4578609466553</t>
   </si>
   <si>
     <t xml:space="preserve">15.679741859436</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646842956543</t>
+    <t xml:space="preserve">16.1646862030029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879760742188</t>
+    <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962131500244</t>
+    <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729175567627</t>
@@ -635,31 +635,31 @@
     <t xml:space="preserve">17.6195030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6496238708496</t>
+    <t xml:space="preserve">16.649621963501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413867950439</t>
+    <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
     <t xml:space="preserve">15.7605638504028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030345916748</t>
+    <t xml:space="preserve">16.0030326843262</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139783859253</t>
+    <t xml:space="preserve">15.1139793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482158660889</t>
+    <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255447387695</t>
+    <t xml:space="preserve">14.9255437850952</t>
   </si>
   <si>
     <t xml:space="preserve">14.5901393890381</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870313644409</t>
+    <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
     <t xml:space="preserve">14.3385858535767</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416938781738</t>
+    <t xml:space="preserve">14.8416948318481</t>
   </si>
   <si>
     <t xml:space="preserve">14.2547359466553</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
     <t xml:space="preserve">14.7578430175781</t>
@@ -707,34 +707,34 @@
     <t xml:space="preserve">13.7516279220581</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677751541138</t>
+    <t xml:space="preserve">13.6677742004395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839233398438</t>
+    <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.5000705718994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162216186523</t>
+    <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.3323707580566</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485179901123</t>
+    <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969654083252</t>
+    <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
     <t xml:space="preserve">12.4938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.242301940918</t>
+    <t xml:space="preserve">12.2423028945923</t>
   </si>
   <si>
     <t xml:space="preserve">13.1646671295166</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553430557251</t>
+    <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230457305908</t>
+    <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907464981079</t>
+    <t xml:space="preserve">11.9907455444336</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584491729736</t>
+    <t xml:space="preserve">12.1584510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745973587036</t>
+    <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068965911865</t>
+    <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391939163208</t>
+    <t xml:space="preserve">11.7391929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876394271851</t>
+    <t xml:space="preserve">11.4876403808594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714912414551</t>
+    <t xml:space="preserve">11.5714902877808</t>
   </si>
   <si>
     <t xml:space="preserve">11.1522331237793</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777082443237</t>
+    <t xml:space="preserve">12.5777072906494</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340423583984</t>
+    <t xml:space="preserve">11.5340433120728</t>
   </si>
   <si>
     <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4952116012573</t>
+    <t xml:space="preserve">12.495210647583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573499679565</t>
+    <t xml:space="preserve">12.7573509216309</t>
   </si>
   <si>
     <t xml:space="preserve">13.0194873809814</t>
@@ -836,43 +836,43 @@
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680360794067</t>
+    <t xml:space="preserve">14.0680351257324</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.631139755249</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.466103553772</t>
+    <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039651870728</t>
+    <t xml:space="preserve">15.2039642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534801483154</t>
+    <t xml:space="preserve">15.5534791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">15.116584777832</t>
+    <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156175613403</t>
+    <t xml:space="preserve">15.815616607666</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408624649048</t>
+    <t xml:space="preserve">15.6408615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282409667969</t>
+    <t xml:space="preserve">15.7282400131226</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913427352905</t>
+    <t xml:space="preserve">15.2913436889648</t>
   </si>
   <si>
     <t xml:space="preserve">15.0292062759399</t>
@@ -884,37 +884,37 @@
     <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.330174446106</t>
+    <t xml:space="preserve">14.3301753997803</t>
   </si>
   <si>
     <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427949905396</t>
+    <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418277740479</t>
+    <t xml:space="preserve">14.9418268203735</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
     <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174451828003</t>
+    <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909482955933</t>
+    <t xml:space="preserve">14.3909473419189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541986465454</t>
+    <t xml:space="preserve">14.6541976928711</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664472579956</t>
+    <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929470062256</t>
+    <t xml:space="preserve">15.0929460525513</t>
   </si>
   <si>
     <t xml:space="preserve">15.2684459686279</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">14.3031988143921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1276998519897</t>
+    <t xml:space="preserve">14.1277008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051975250244</t>
+    <t xml:space="preserve">15.0051965713501</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561964035034</t>
@@ -938,43 +938,43 @@
     <t xml:space="preserve">15.5316953659058</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806955337524</t>
+    <t xml:space="preserve">15.1806945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071924209595</t>
+    <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194438934326</t>
+    <t xml:space="preserve">15.6194448471069</t>
   </si>
   <si>
     <t xml:space="preserve">15.8826932907104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581932067871</t>
+    <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459426879883</t>
+    <t xml:space="preserve">16.1459407806396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704446792603</t>
+    <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949419021606</t>
+    <t xml:space="preserve">15.794942855835</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214416503906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091911315918</t>
+    <t xml:space="preserve">16.4091930389404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724433898926</t>
+    <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601909637451</t>
+    <t xml:space="preserve">16.7601890563965</t>
   </si>
   <si>
     <t xml:space="preserve">16.8479404449463</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.048511505127</t>
+    <t xml:space="preserve">17.0485134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573440551758</t>
+    <t xml:space="preserve">16.9573421478271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.866174697876</t>
+    <t xml:space="preserve">16.8661727905273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750053405762</t>
+    <t xml:space="preserve">16.7750034332275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838359832764</t>
+    <t xml:space="preserve">16.6838340759277</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">17.1396789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3220157623291</t>
+    <t xml:space="preserve">17.3220176696777</t>
   </si>
   <si>
     <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043525695801</t>
+    <t xml:space="preserve">17.5043544769287</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955219268799</t>
+    <t xml:space="preserve">17.5955200195312</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778606414795</t>
+    <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453857421875</t>
+    <t xml:space="preserve">19.1453876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277225494385</t>
+    <t xml:space="preserve">19.3277244567871</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423118591309</t>
+    <t xml:space="preserve">19.3423099517822</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734203338623</t>
+    <t xml:space="preserve">18.7734184265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993431091309</t>
+    <t xml:space="preserve">18.2993412017822</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148963928223</t>
+    <t xml:space="preserve">18.0148983001709</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3511905670166</t>
+    <t xml:space="preserve">17.351188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.109712600708</t>
+    <t xml:space="preserve">18.1097145080566</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.066743850708</t>
+    <t xml:space="preserve">17.0667457580566</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356353759766</t>
+    <t xml:space="preserve">17.6356372833252</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615600585938</t>
+    <t xml:space="preserve">17.1615619659424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030380249023</t>
+    <t xml:space="preserve">16.4030361175537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911787033081</t>
+    <t xml:space="preserve">14.7911796569824</t>
   </si>
   <si>
-    <t xml:space="preserve">14.980809211731</t>
+    <t xml:space="preserve">14.9808101654053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0326566696167</t>
+    <t xml:space="preserve">14.032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -57908,7 +57908,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.3848032407</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>100</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440418243408</t>
+    <t xml:space="preserve">13.8440408706665</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711791992188</t>
+    <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
     <t xml:space="preserve">13.4651527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797248840332</t>
+    <t xml:space="preserve">13.4797229766846</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154088973999</t>
+    <t xml:space="preserve">13.1154079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068593978882</t>
+    <t xml:space="preserve">13.4068632125854</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081209182739</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
     <t xml:space="preserve">11.0752334594727</t>
@@ -83,25 +83,25 @@
     <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983512878418</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
     <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950819015503</t>
+    <t xml:space="preserve">10.9950838088989</t>
   </si>
   <si>
     <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480960845947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209596633911</t>
+    <t xml:space="preserve">11.2209606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938241958618</t>
+    <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865381240845</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">11.9204502105713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827573776245</t>
   </si>
   <si>
     <t xml:space="preserve">12.4523496627808</t>
@@ -122,22 +122,22 @@
     <t xml:space="preserve">12.7292308807373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.72194480896</t>
+    <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061101913452</t>
+    <t xml:space="preserve">13.0061111450195</t>
   </si>
   <si>
     <t xml:space="preserve">13.261134147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525894165039</t>
+    <t xml:space="preserve">13.552586555481</t>
   </si>
   <si>
     <t xml:space="preserve">13.1882724761963</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968172073364</t>
+    <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
     <t xml:space="preserve">12.6199369430542</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">12.4742107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.313910484314</t>
+    <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774801254272</t>
+    <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5503101348877</t>
+    <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699003219604</t>
+    <t xml:space="preserve">12.2698993682861</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
@@ -170,61 +170,58 @@
     <t xml:space="preserve">12.3229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501184463501</t>
+    <t xml:space="preserve">12.0501174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259059906006</t>
+    <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
     <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880107879639</t>
+    <t xml:space="preserve">12.0880117416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016916275024</t>
+    <t xml:space="preserve">12.2016906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290552139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564149856567</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.73219871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770094871521</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837747573853</t>
+    <t xml:space="preserve">12.8837728500366</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957851409912</t>
+    <t xml:space="preserve">12.5957832336426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761959075928</t>
+    <t xml:space="preserve">12.8761968612671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353488922119</t>
+    <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111345291138</t>
+    <t xml:space="preserve">13.1111335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627067565918</t>
+    <t xml:space="preserve">13.2627096176147</t>
   </si>
   <si>
     <t xml:space="preserve">13.5582761764526</t>
@@ -236,13 +233,13 @@
     <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658559799194</t>
+    <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142818450928</t>
+    <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690042495728</t>
+    <t xml:space="preserve">13.8690013885498</t>
   </si>
   <si>
     <t xml:space="preserve">13.9447898864746</t>
@@ -254,145 +251,145 @@
     <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357351303101</t>
+    <t xml:space="preserve">14.0357332229614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887832641602</t>
+    <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584707260132</t>
+    <t xml:space="preserve">14.0584697723389</t>
   </si>
   <si>
     <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100467681885</t>
+    <t xml:space="preserve">14.2100458145142</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134259223938</t>
+    <t xml:space="preserve">14.1342582702637</t>
   </si>
   <si>
     <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812072753906</t>
+    <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736293792725</t>
+    <t xml:space="preserve">14.0736312866211</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311109542847</t>
+    <t xml:space="preserve">13.831109046936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418380737305</t>
+    <t xml:space="preserve">14.1418361663818</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538475036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900703430176</t>
+    <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
     <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203819274902</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416444778442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553234100342</t>
+    <t xml:space="preserve">13.7553243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521760940552</t>
+    <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477445602417</t>
+    <t xml:space="preserve">13.7477436065674</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460750579834</t>
+    <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340656280518</t>
+    <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231439590454</t>
+    <t xml:space="preserve">12.8231449127197</t>
   </si>
   <si>
     <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972610473633</t>
+    <t xml:space="preserve">12.4972620010376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867275238037</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412553787231</t>
+    <t xml:space="preserve">12.6412563323975</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185188293457</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063158035278</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488342285156</t>
+    <t xml:space="preserve">12.6488332748413</t>
   </si>
   <si>
     <t xml:space="preserve">12.5578899383545</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654706954956</t>
+    <t xml:space="preserve">12.565468788147</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473573684692</t>
+    <t xml:space="preserve">12.7473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199956893921</t>
+    <t xml:space="preserve">12.5199975967407</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351552963257</t>
+    <t xml:space="preserve">12.5351543426514</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3153705596924</t>
+    <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
     <t xml:space="preserve">12.7246208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079872131348</t>
+    <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004102706909</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296857833862</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868455886841</t>
+    <t xml:space="preserve">12.8868446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654235839844</t>
+    <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
     <t xml:space="preserve">12.7061128616333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732799530029</t>
+    <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
     <t xml:space="preserve">12.6118192672729</t>
@@ -404,16 +401,16 @@
     <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697254180908</t>
+    <t xml:space="preserve">13.1697263717651</t>
   </si>
   <si>
     <t xml:space="preserve">13.4368915557861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354898452759</t>
+    <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594048500061</t>
+    <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861902236938</t>
@@ -422,25 +419,25 @@
     <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783338546753</t>
+    <t xml:space="preserve">13.5783357620239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547590255737</t>
+    <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512044906616</t>
+    <t xml:space="preserve">13.7512063980103</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761819839478</t>
+    <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526090621948</t>
+    <t xml:space="preserve">13.4526100158691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276306152344</t>
+    <t xml:space="preserve">13.727632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119150161743</t>
   </si>
   <si>
     <t xml:space="preserve">13.9869413375854</t>
@@ -449,79 +446,79 @@
     <t xml:space="preserve">13.9083633422852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655183792114</t>
+    <t xml:space="preserve">14.0655174255371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148180007935</t>
+    <t xml:space="preserve">14.2148189544678</t>
   </si>
   <si>
     <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612146377563</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590627670288</t>
+    <t xml:space="preserve">13.7590637207031</t>
   </si>
   <si>
     <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297853469849</t>
+    <t xml:space="preserve">13.8297843933105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262269973755</t>
+    <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104808807373</t>
+    <t xml:space="preserve">14.1048107147217</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476518630981</t>
+    <t xml:space="preserve">13.9476499557495</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904939651489</t>
+    <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
     <t xml:space="preserve">14.1440982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
     <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584093093872</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226753234863</t>
+    <t xml:space="preserve">14.2226762771606</t>
   </si>
   <si>
     <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405437469482</t>
+    <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
     <t xml:space="preserve">14.2933950424194</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498027801514</t>
+    <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155672073364</t>
+    <t xml:space="preserve">14.6155662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.694146156311</t>
+    <t xml:space="preserve">14.6941471099854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969505310059</t>
+    <t xml:space="preserve">14.0969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812349319458</t>
+    <t xml:space="preserve">14.0812358856201</t>
   </si>
   <si>
     <t xml:space="preserve">14.450553894043</t>
@@ -533,67 +530,67 @@
     <t xml:space="preserve">15.322772026062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770269393921</t>
+    <t xml:space="preserve">14.9770278930664</t>
   </si>
   <si>
     <t xml:space="preserve">15.3070583343506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856334686279</t>
+    <t xml:space="preserve">15.3856344223022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078046798706</t>
+    <t xml:space="preserve">15.7078065872192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156648635864</t>
+    <t xml:space="preserve">15.7156658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999473571777</t>
+    <t xml:space="preserve">15.6999454498291</t>
   </si>
   <si>
     <t xml:space="preserve">15.6842336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763744354248</t>
+    <t xml:space="preserve">15.6763763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384895324707</t>
+    <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977954864502</t>
+    <t xml:space="preserve">15.5977964401245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306312561035</t>
+    <t xml:space="preserve">15.3306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.872820854187</t>
+    <t xml:space="preserve">15.8728189468384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871318817139</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
     <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300716400146</t>
+    <t xml:space="preserve">17.1300754547119</t>
   </si>
   <si>
     <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444831848145</t>
+    <t xml:space="preserve">18.5444850921631</t>
   </si>
   <si>
     <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158573150635</t>
+    <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587032318115</t>
+    <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
     <t xml:space="preserve">17.2872314453125</t>
@@ -602,37 +599,40 @@
     <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
+    <t xml:space="preserve">16.9729156494141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157615661621</t>
+    <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345615386963</t>
+    <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
     <t xml:space="preserve">16.8112697601318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797428131104</t>
+    <t xml:space="preserve">15.6797409057617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263301849365</t>
+    <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646842956543</t>
+    <t xml:space="preserve">16.1646862030029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879760742188</t>
+    <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962093353271</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195030212402</t>
+    <t xml:space="preserve">16.9729175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
     <t xml:space="preserve">16.649621963501</t>
@@ -644,25 +644,25 @@
     <t xml:space="preserve">15.7605657577515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564481735229</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331535339355</t>
   </si>
   <si>
     <t xml:space="preserve">15.1139793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482158660889</t>
+    <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
     <t xml:space="preserve">14.9255466461182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901412963867</t>
+    <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
@@ -671,31 +671,31 @@
     <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385848999023</t>
+    <t xml:space="preserve">14.3385858535767</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">14.254734992981</t>
+    <t xml:space="preserve">14.2547340393066</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708831787109</t>
+    <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739902496338</t>
+    <t xml:space="preserve">14.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062885284424</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
     <t xml:space="preserve">13.8354787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193296432495</t>
+    <t xml:space="preserve">13.9193286895752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
     <t xml:space="preserve">14.7578439712524</t>
@@ -704,31 +704,31 @@
     <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516279220581</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677751541138</t>
+    <t xml:space="preserve">13.6677742004395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839223861694</t>
+    <t xml:space="preserve">13.5839233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500072479248</t>
+    <t xml:space="preserve">13.5000715255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.416220664978</t>
+    <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808143615723</t>
+    <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485189437866</t>
+    <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969654083252</t>
+    <t xml:space="preserve">12.9969635009766</t>
   </si>
   <si>
     <t xml:space="preserve">12.4938554763794</t>
@@ -737,61 +737,61 @@
     <t xml:space="preserve">12.2423009872437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.164665222168</t>
+    <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131126403809</t>
+    <t xml:space="preserve">12.9131135940552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615581512451</t>
+    <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454109191895</t>
+    <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553430557251</t>
+    <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230457305908</t>
+    <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
     <t xml:space="preserve">11.9907474517822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584491729736</t>
+    <t xml:space="preserve">12.1584501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745973587036</t>
+    <t xml:space="preserve">12.0745992660522</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068965911865</t>
+    <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391939163208</t>
+    <t xml:space="preserve">11.7391929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876403808594</t>
+    <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
     <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.152232170105</t>
+    <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
     <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845314025879</t>
+    <t xml:space="preserve">10.9845294952393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006786346436</t>
+    <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
     <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814233779907</t>
+    <t xml:space="preserve">10.4814214706421</t>
   </si>
   <si>
     <t xml:space="preserve">10.6491250991821</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777072906494</t>
+    <t xml:space="preserve">12.5777082443237</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -809,28 +809,28 @@
     <t xml:space="preserve">13.1942462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.932107925415</t>
+    <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340423583984</t>
+    <t xml:space="preserve">11.5340433120728</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2330760955811</t>
+    <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
     <t xml:space="preserve">12.4952125549316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573499679565</t>
+    <t xml:space="preserve">12.7573490142822</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0194864273071</t>
+    <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
     <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5437622070312</t>
+    <t xml:space="preserve">13.5437612533569</t>
   </si>
   <si>
     <t xml:space="preserve">13.8058996200562</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690032958984</t>
+    <t xml:space="preserve">13.3690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.466103553772</t>
+    <t xml:space="preserve">15.4661045074463</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039651870728</t>
+    <t xml:space="preserve">15.2039642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534820556641</t>
+    <t xml:space="preserve">15.5534830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.116587638855</t>
   </si>
   <si>
     <t xml:space="preserve">15.8156175613403</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">15.6408615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282419204712</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787221908569</t>
+    <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
     <t xml:space="preserve">15.2913427352905</t>
@@ -878,76 +878,76 @@
     <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8544483184814</t>
+    <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796913146973</t>
+    <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.330174446106</t>
+    <t xml:space="preserve">14.3301753997803</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4175539016724</t>
+    <t xml:space="preserve">14.4175519943237</t>
   </si>
   <si>
     <t xml:space="preserve">14.2427949905396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418268203735</t>
+    <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786987304688</t>
+    <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174451828003</t>
+    <t xml:space="preserve">14.9174480438232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909492492676</t>
+    <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541986465454</t>
+    <t xml:space="preserve">14.6541996002197</t>
   </si>
   <si>
     <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929479598999</t>
+    <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684459686279</t>
+    <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296957015991</t>
+    <t xml:space="preserve">14.8296966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031978607178</t>
+    <t xml:space="preserve">14.3031988143921</t>
   </si>
   <si>
     <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051984786987</t>
+    <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561944961548</t>
+    <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806945800781</t>
+    <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071943283081</t>
+    <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439449310303</t>
+    <t xml:space="preserve">15.443943977356</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194429397583</t>
+    <t xml:space="preserve">15.6194438934326</t>
   </si>
   <si>
     <t xml:space="preserve">15.8826932907104</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704446792603</t>
+    <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
     <t xml:space="preserve">15.794942855835</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">16.4091930389404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724395751953</t>
+    <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601909637451</t>
+    <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479423522949</t>
+    <t xml:space="preserve">16.8479404449463</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">16.9573421478271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8661727905273</t>
+    <t xml:space="preserve">16.866174697876</t>
   </si>
   <si>
     <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838359832764</t>
+    <t xml:space="preserve">16.683837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014991760254</t>
+    <t xml:space="preserve">16.501501083374</t>
   </si>
   <si>
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926704406738</t>
+    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">16.1368274688721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1396808624268</t>
+    <t xml:space="preserve">17.1396789550781</t>
   </si>
   <si>
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131851196289</t>
+    <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
     <t xml:space="preserve">17.5043544769287</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">19.5100593566895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9630508422852</t>
+    <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
     <t xml:space="preserve">19.1453857421875</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">18.5983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7807140350342</t>
+    <t xml:space="preserve">18.7807121276855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1425323486328</t>
@@ -1064,16 +1064,19 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423118591309</t>
+    <t xml:space="preserve">19.3423099517822</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
   </si>
   <si>
+    <t xml:space="preserve">18.9630508422852</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734203338623</t>
+    <t xml:space="preserve">18.7734184265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1082,7 +1085,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993431091309</t>
+    <t xml:space="preserve">18.2993412017822</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1091,7 +1094,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148963928223</t>
+    <t xml:space="preserve">18.0148983001709</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1100,10 +1103,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3511905670166</t>
+    <t xml:space="preserve">17.351188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.109712600708</t>
+    <t xml:space="preserve">18.1097145080566</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1112,10 +1115,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.066743850708</t>
+    <t xml:space="preserve">17.0667457580566</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356353759766</t>
+    <t xml:space="preserve">17.6356372833252</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615600585938</t>
+    <t xml:space="preserve">17.1615619659424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030380249023</t>
+    <t xml:space="preserve">16.4030361175537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911787033081</t>
+    <t xml:space="preserve">14.7911796569824</t>
   </si>
   <si>
-    <t xml:space="preserve">14.980809211731</t>
+    <t xml:space="preserve">14.9808101654053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0326566696167</t>
+    <t xml:space="preserve">14.032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -4470,7 +4470,7 @@
         <v>16.1315841674805</v>
       </c>
       <c r="G111" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
@@ -4496,7 +4496,7 @@
         <v>16.1315841674805</v>
       </c>
       <c r="G112" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
         <v>9</v>
@@ -4548,7 +4548,7 @@
         <v>16.1315841674805</v>
       </c>
       <c r="G114" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
@@ -4600,7 +4600,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H116" t="s">
         <v>9</v>
@@ -4626,7 +4626,7 @@
         <v>16.2809524536133</v>
       </c>
       <c r="G117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
@@ -4652,7 +4652,7 @@
         <v>16.2809524536133</v>
       </c>
       <c r="G118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -4678,7 +4678,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -4704,7 +4704,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -4730,7 +4730,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -4756,7 +4756,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -4782,7 +4782,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G123" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -4808,7 +4808,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -4834,7 +4834,7 @@
         <v>16.5298957824707</v>
       </c>
       <c r="G125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -4860,7 +4860,7 @@
         <v>16.5298957824707</v>
       </c>
       <c r="G126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -4886,7 +4886,7 @@
         <v>16.5298957824707</v>
       </c>
       <c r="G127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -4912,7 +4912,7 @@
         <v>16.5298957824707</v>
       </c>
       <c r="G128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -4938,7 +4938,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -4964,7 +4964,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G130" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -4990,7 +4990,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -5016,7 +5016,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -5042,7 +5042,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -5068,7 +5068,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -5094,7 +5094,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -5120,7 +5120,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -5146,7 +5146,7 @@
         <v>16.6294746398926</v>
       </c>
       <c r="G137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -5172,7 +5172,7 @@
         <v>16.7290515899658</v>
       </c>
       <c r="G138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -5198,7 +5198,7 @@
         <v>16.7290515899658</v>
       </c>
       <c r="G139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -5224,7 +5224,7 @@
         <v>16.7290515899658</v>
       </c>
       <c r="G140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -5250,7 +5250,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -5276,7 +5276,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G142" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -5302,7 +5302,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G143" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -5328,7 +5328,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -5354,7 +5354,7 @@
         <v>16.9282073974609</v>
       </c>
       <c r="G145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -5380,7 +5380,7 @@
         <v>16.9282073974609</v>
       </c>
       <c r="G146" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -5406,7 +5406,7 @@
         <v>16.5498123168945</v>
       </c>
       <c r="G147" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5432,7 +5432,7 @@
         <v>16.918249130249</v>
       </c>
       <c r="G148" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -5458,7 +5458,7 @@
         <v>16.918249130249</v>
       </c>
       <c r="G149" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -5484,7 +5484,7 @@
         <v>16.918249130249</v>
       </c>
       <c r="G150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5510,7 +5510,7 @@
         <v>16.918249130249</v>
       </c>
       <c r="G151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5536,7 +5536,7 @@
         <v>17.1273612976074</v>
       </c>
       <c r="G152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5562,7 +5562,7 @@
         <v>17.1273612976074</v>
       </c>
       <c r="G153" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5588,7 +5588,7 @@
         <v>17.1273612976074</v>
       </c>
       <c r="G154" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5614,7 +5614,7 @@
         <v>17.2269401550293</v>
       </c>
       <c r="G155" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5640,7 +5640,7 @@
         <v>17.4260940551758</v>
       </c>
       <c r="G156" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -5666,7 +5666,7 @@
         <v>17.8144474029541</v>
       </c>
       <c r="G157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5692,7 +5692,7 @@
         <v>17.5754623413086</v>
       </c>
       <c r="G158" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5718,7 +5718,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G159" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5744,7 +5744,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G160" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5770,7 +5770,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G161" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -5796,7 +5796,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G162" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -5822,7 +5822,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G163" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -5848,7 +5848,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -5874,7 +5874,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -5900,7 +5900,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G166" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -5926,7 +5926,7 @@
         <v>17.8542785644531</v>
       </c>
       <c r="G167" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -5952,7 +5952,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -5978,7 +5978,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6004,7 +6004,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -6030,7 +6030,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G171" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -6056,7 +6056,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G172" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -6082,7 +6082,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G173" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -6108,7 +6108,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G174" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -6134,7 +6134,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G175" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6160,7 +6160,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G176" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6186,7 +6186,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G177" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -6212,7 +6212,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G178" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6238,7 +6238,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G179" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6264,7 +6264,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6290,7 +6290,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G181" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6316,7 +6316,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G182" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6342,7 +6342,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G183" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6368,7 +6368,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G184" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6394,7 +6394,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G185" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -6420,7 +6420,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G186" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6446,7 +6446,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G187" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -6472,7 +6472,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G188" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -6498,7 +6498,7 @@
         <v>18.4417877197266</v>
       </c>
       <c r="G189" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -6524,7 +6524,7 @@
         <v>18.4417877197266</v>
       </c>
       <c r="G190" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -6550,7 +6550,7 @@
         <v>18.4417877197266</v>
       </c>
       <c r="G191" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -6576,7 +6576,7 @@
         <v>18.4417877197266</v>
       </c>
       <c r="G192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -6602,7 +6602,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G193" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -6628,7 +6628,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G194" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -6654,7 +6654,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -6680,7 +6680,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -6706,7 +6706,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -6732,7 +6732,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G198" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -6758,7 +6758,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G199" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -6784,7 +6784,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G200" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -6810,7 +6810,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G201" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -6836,7 +6836,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G202" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -6862,7 +6862,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G203" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -6888,7 +6888,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G204" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -6914,7 +6914,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G205" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -6940,7 +6940,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G206" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -6966,7 +6966,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G207" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -6992,7 +6992,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G208" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7018,7 +7018,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G209" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7044,7 +7044,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G210" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7070,7 +7070,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G211" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7096,7 +7096,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G212" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7122,7 +7122,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G213" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7148,7 +7148,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G214" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7174,7 +7174,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G215" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7200,7 +7200,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G216" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7226,7 +7226,7 @@
         <v>18.4716606140137</v>
       </c>
       <c r="G217" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7252,7 +7252,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G218" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7278,7 +7278,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G219" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7304,7 +7304,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G220" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7330,7 +7330,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G221" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7356,7 +7356,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G222" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7382,7 +7382,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G223" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7408,7 +7408,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G224" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7434,7 +7434,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G225" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7460,7 +7460,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G226" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7486,7 +7486,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G227" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7512,7 +7512,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G228" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -7538,7 +7538,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G229" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -7564,7 +7564,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G230" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -7590,7 +7590,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G231" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -7616,7 +7616,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G232" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -7642,7 +7642,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G233" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -7668,7 +7668,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G234" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -7694,7 +7694,7 @@
         <v>18.6509017944336</v>
       </c>
       <c r="G235" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -7720,7 +7720,7 @@
         <v>18.5712394714355</v>
       </c>
       <c r="G236" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -7746,7 +7746,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G237" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -7772,7 +7772,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G238" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -7798,7 +7798,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G239" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -7824,7 +7824,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G240" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -7850,7 +7850,7 @@
         <v>18.5114917755127</v>
       </c>
       <c r="G241" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -7876,7 +7876,7 @@
         <v>18.5015335083008</v>
       </c>
       <c r="G242" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -7902,7 +7902,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G243" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -7928,7 +7928,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G244" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -7954,7 +7954,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G245" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -7980,7 +7980,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G246" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8006,7 +8006,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G247" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8032,7 +8032,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G248" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8058,7 +8058,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G249" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8084,7 +8084,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G250" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8110,7 +8110,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G251" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8136,7 +8136,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G252" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8162,7 +8162,7 @@
         <v>18.4915771484375</v>
       </c>
       <c r="G253" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8188,7 +8188,7 @@
         <v>18.5712394714355</v>
       </c>
       <c r="G254" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8214,7 +8214,7 @@
         <v>18.5712394714355</v>
       </c>
       <c r="G255" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8240,7 +8240,7 @@
         <v>18.1729278564453</v>
       </c>
       <c r="G256" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8266,7 +8266,7 @@
         <v>18.5811977386475</v>
       </c>
       <c r="G257" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8292,7 +8292,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G258" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8318,7 +8318,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G259" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8344,7 +8344,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G260" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8370,7 +8370,7 @@
         <v>18.4218711853027</v>
       </c>
       <c r="G261" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8396,7 +8396,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G262" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8422,7 +8422,7 @@
         <v>18.3720836639404</v>
       </c>
       <c r="G263" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8448,7 +8448,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G264" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8474,7 +8474,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G265" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8500,7 +8500,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G266" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8526,7 +8526,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G267" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -8552,7 +8552,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G268" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -8578,7 +8578,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G269" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -8604,7 +8604,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G270" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -8630,7 +8630,7 @@
         <v>18.2028007507324</v>
       </c>
       <c r="G271" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -8656,7 +8656,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G272" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -8682,7 +8682,7 @@
         <v>18.0235614776611</v>
       </c>
       <c r="G273" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -8708,7 +8708,7 @@
         <v>18.1729278564453</v>
       </c>
       <c r="G274" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -8734,7 +8734,7 @@
         <v>18.1729278564453</v>
       </c>
       <c r="G275" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -8760,7 +8760,7 @@
         <v>17.7646598815918</v>
       </c>
       <c r="G276" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -8786,7 +8786,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G277" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -8812,7 +8812,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G278" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -8838,7 +8838,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G279" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -8864,7 +8864,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G280" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -8890,7 +8890,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G281" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -8916,7 +8916,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G282" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -8942,7 +8942,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G283" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -8968,7 +8968,7 @@
         <v>18.2227172851562</v>
       </c>
       <c r="G284" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -8994,7 +8994,7 @@
         <v>18.0235614776611</v>
       </c>
       <c r="G285" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9020,7 +9020,7 @@
         <v>18.0235614776611</v>
       </c>
       <c r="G286" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9046,7 +9046,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G287" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9072,7 +9072,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G288" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9098,7 +9098,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G289" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9124,7 +9124,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G290" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9150,7 +9150,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G291" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9176,7 +9176,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G292" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9202,7 +9202,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G293" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9228,7 +9228,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G294" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9254,7 +9254,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G295" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9280,7 +9280,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G296" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9306,7 +9306,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G297" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9332,7 +9332,7 @@
         <v>18.0633926391602</v>
       </c>
       <c r="G298" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9358,7 +9358,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G299" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9384,7 +9384,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G300" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9410,7 +9410,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G301" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9436,7 +9436,7 @@
         <v>17.5356311798096</v>
       </c>
       <c r="G302" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9462,7 +9462,7 @@
         <v>17.914026260376</v>
       </c>
       <c r="G303" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9488,7 +9488,7 @@
         <v>17.914026260376</v>
       </c>
       <c r="G304" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9514,7 +9514,7 @@
         <v>17.914026260376</v>
       </c>
       <c r="G305" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -9540,7 +9540,7 @@
         <v>17.5754623413086</v>
       </c>
       <c r="G306" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -9566,7 +9566,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G307" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -9592,7 +9592,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G308" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -9618,7 +9618,7 @@
         <v>17.4161376953125</v>
       </c>
       <c r="G309" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -9644,7 +9644,7 @@
         <v>17.2269401550293</v>
       </c>
       <c r="G310" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -9670,7 +9670,7 @@
         <v>16.8485450744629</v>
       </c>
       <c r="G311" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -9722,7 +9722,7 @@
         <v>16.78879737854</v>
       </c>
       <c r="G313" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -9748,7 +9748,7 @@
         <v>16.4203605651855</v>
       </c>
       <c r="G314" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -9800,7 +9800,7 @@
         <v>16.6693058013916</v>
       </c>
       <c r="G316" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -9826,7 +9826,7 @@
         <v>16.6095581054688</v>
       </c>
       <c r="G317" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -9852,7 +9852,7 @@
         <v>16.5796852111816</v>
       </c>
       <c r="G318" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -9878,7 +9878,7 @@
         <v>16.3008670806885</v>
       </c>
       <c r="G319" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -9904,7 +9904,7 @@
         <v>16.6195163726807</v>
       </c>
       <c r="G320" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -9930,7 +9930,7 @@
         <v>16.7788391113281</v>
       </c>
       <c r="G321" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -9956,7 +9956,7 @@
         <v>16.5000228881836</v>
       </c>
       <c r="G322" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -9982,7 +9982,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G323" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10008,7 +10008,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G324" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10034,7 +10034,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G325" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10060,7 +10060,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G326" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10086,7 +10086,7 @@
         <v>16.5099811553955</v>
       </c>
       <c r="G327" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10112,7 +10112,7 @@
         <v>16.4402751922607</v>
       </c>
       <c r="G328" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10216,7 +10216,7 @@
         <v>16.748966217041</v>
       </c>
       <c r="G332" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10242,7 +10242,7 @@
         <v>16.6693058013916</v>
       </c>
       <c r="G333" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10268,7 +10268,7 @@
         <v>16.5796852111816</v>
       </c>
       <c r="G334" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10294,7 +10294,7 @@
         <v>16.5796852111816</v>
       </c>
       <c r="G335" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10320,7 +10320,7 @@
         <v>16.4502334594727</v>
       </c>
       <c r="G336" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10346,7 +10346,7 @@
         <v>16.4701499938965</v>
       </c>
       <c r="G337" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10372,7 +10372,7 @@
         <v>16.4801063537598</v>
       </c>
       <c r="G338" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10398,7 +10398,7 @@
         <v>16.4801063537598</v>
       </c>
       <c r="G339" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10450,7 +10450,7 @@
         <v>16.1813735961914</v>
       </c>
       <c r="G341" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10476,7 +10476,7 @@
         <v>16.7190933227539</v>
       </c>
       <c r="G342" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10502,7 +10502,7 @@
         <v>16.8286285400391</v>
       </c>
       <c r="G343" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10528,7 +10528,7 @@
         <v>16.8186721801758</v>
       </c>
       <c r="G344" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -10554,7 +10554,7 @@
         <v>16.1315841674805</v>
       </c>
       <c r="G345" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -10580,7 +10580,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G346" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -10606,7 +10606,7 @@
         <v>16.4303188323975</v>
       </c>
       <c r="G347" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -10632,7 +10632,7 @@
         <v>16.4303188323975</v>
       </c>
       <c r="G348" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -10658,7 +10658,7 @@
         <v>16.1017112731934</v>
       </c>
       <c r="G349" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -10684,7 +10684,7 @@
         <v>16.4303188323975</v>
       </c>
       <c r="G350" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -10710,7 +10710,7 @@
         <v>16.4402751922607</v>
       </c>
       <c r="G351" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -10736,7 +10736,7 @@
         <v>16.4303188323975</v>
       </c>
       <c r="G352" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -10762,7 +10762,7 @@
         <v>15.9822187423706</v>
       </c>
       <c r="G353" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -10788,7 +10788,7 @@
         <v>16.3307418823242</v>
       </c>
       <c r="G354" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -10814,7 +10814,7 @@
         <v>15.9822187423706</v>
       </c>
       <c r="G355" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -10840,7 +10840,7 @@
         <v>16.3406982421875</v>
       </c>
       <c r="G356" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -10866,7 +10866,7 @@
         <v>16.4801063537598</v>
       </c>
       <c r="G357" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -10892,7 +10892,7 @@
         <v>16.6892204284668</v>
       </c>
       <c r="G358" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -10918,7 +10918,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G359" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -10944,7 +10944,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G360" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -10970,7 +10970,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G361" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -10996,7 +10996,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G362" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11022,7 +11022,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G363" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11048,7 +11048,7 @@
         <v>17.4061794281006</v>
       </c>
       <c r="G364" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11074,7 +11074,7 @@
         <v>17.0277843475342</v>
       </c>
       <c r="G365" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11100,7 +11100,7 @@
         <v>17.2269401550293</v>
       </c>
       <c r="G366" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11126,7 +11126,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G367" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11152,7 +11152,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G368" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11178,7 +11178,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G369" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11204,7 +11204,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G370" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11230,7 +11230,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G371" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11256,7 +11256,7 @@
         <v>16.838586807251</v>
       </c>
       <c r="G372" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11282,7 +11282,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G373" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11308,7 +11308,7 @@
         <v>17.2169818878174</v>
       </c>
       <c r="G374" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11334,7 +11334,7 @@
         <v>17.2070255279541</v>
       </c>
       <c r="G375" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11360,7 +11360,7 @@
         <v>17.1771507263184</v>
       </c>
       <c r="G376" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11386,7 +11386,7 @@
         <v>17.1771507263184</v>
       </c>
       <c r="G377" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11412,7 +11412,7 @@
         <v>17.1771507263184</v>
       </c>
       <c r="G378" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11438,7 +11438,7 @@
         <v>17.4260940551758</v>
       </c>
       <c r="G379" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11464,7 +11464,7 @@
         <v>17.0775737762451</v>
       </c>
       <c r="G380" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11490,7 +11490,7 @@
         <v>17.047700881958</v>
       </c>
       <c r="G381" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11516,7 +11516,7 @@
         <v>17.047700881958</v>
       </c>
       <c r="G382" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -11542,7 +11542,7 @@
         <v>17.0775737762451</v>
       </c>
       <c r="G383" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -11568,7 +11568,7 @@
         <v>17.4061794281006</v>
       </c>
       <c r="G384" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -11594,7 +11594,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G385" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -11620,7 +11620,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G386" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -11646,7 +11646,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G387" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -11672,7 +11672,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G388" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -11698,7 +11698,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G389" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -11724,7 +11724,7 @@
         <v>17.3962211608887</v>
       </c>
       <c r="G390" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -11750,7 +11750,7 @@
         <v>17.3763065338135</v>
       </c>
       <c r="G391" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -11776,7 +11776,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G392" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -11802,7 +11802,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G393" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -11828,7 +11828,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G394" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -11854,7 +11854,7 @@
         <v>18.0136032104492</v>
       </c>
       <c r="G395" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -11880,7 +11880,7 @@
         <v>17.9737720489502</v>
       </c>
       <c r="G396" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -11906,7 +11906,7 @@
         <v>17.5655040740967</v>
       </c>
       <c r="G397" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -11932,7 +11932,7 @@
         <v>17.5655040740967</v>
       </c>
       <c r="G398" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -11958,7 +11958,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G399" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -11984,7 +11984,7 @@
         <v>17.8144474029541</v>
       </c>
       <c r="G400" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12010,7 +12010,7 @@
         <v>17.5256729125977</v>
       </c>
       <c r="G401" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12036,7 +12036,7 @@
         <v>17.5256729125977</v>
       </c>
       <c r="G402" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12062,7 +12062,7 @@
         <v>17.7746162414551</v>
       </c>
       <c r="G403" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12088,7 +12088,7 @@
         <v>17.874195098877</v>
       </c>
       <c r="G404" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12114,7 +12114,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G405" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12140,7 +12140,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G406" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12166,7 +12166,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G407" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12192,7 +12192,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G408" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12218,7 +12218,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G409" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12244,7 +12244,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G410" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12270,7 +12270,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G411" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12296,7 +12296,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G412" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12322,7 +12322,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G413" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12348,7 +12348,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G414" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12374,7 +12374,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G415" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12400,7 +12400,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G416" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12426,7 +12426,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G417" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12452,7 +12452,7 @@
         <v>17.5754623413086</v>
       </c>
       <c r="G418" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12478,7 +12478,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G419" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12504,7 +12504,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G420" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -12530,7 +12530,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G421" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -12556,7 +12556,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G422" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -12582,7 +12582,7 @@
         <v>17.6750392913818</v>
       </c>
       <c r="G423" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -12608,7 +12608,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G424" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -12634,7 +12634,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G425" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -12660,7 +12660,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G426" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -12686,7 +12686,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G427" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -12712,7 +12712,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G428" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -12738,7 +12738,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G429" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -12764,7 +12764,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G430" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -12790,7 +12790,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G431" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -12816,7 +12816,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G432" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -12842,7 +12842,7 @@
         <v>17.4360523223877</v>
       </c>
       <c r="G433" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -12868,7 +12868,7 @@
         <v>17.4758834838867</v>
       </c>
       <c r="G434" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -12894,7 +12894,7 @@
         <v>17.6252517700195</v>
       </c>
       <c r="G435" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -12920,7 +12920,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G436" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -12946,7 +12946,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G437" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -12972,7 +12972,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G438" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -12998,7 +12998,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G439" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13024,7 +13024,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G440" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13050,7 +13050,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G441" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13076,7 +13076,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G442" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13102,7 +13102,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G443" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13128,7 +13128,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G444" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13154,7 +13154,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G445" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13180,7 +13180,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G446" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13206,7 +13206,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G447" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13232,7 +13232,7 @@
         <v>17.874195098877</v>
       </c>
       <c r="G448" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13258,7 +13258,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G449" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13284,7 +13284,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G450" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13310,7 +13310,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G451" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13336,7 +13336,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G452" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13362,7 +13362,7 @@
         <v>17.7248287200928</v>
       </c>
       <c r="G453" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13388,7 +13388,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G454" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13414,7 +13414,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G455" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13440,7 +13440,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G456" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13466,7 +13466,7 @@
         <v>18.3222942352295</v>
       </c>
       <c r="G457" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13492,7 +13492,7 @@
         <v>18.0235614776611</v>
       </c>
       <c r="G458" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13518,7 +13518,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G459" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -13544,7 +13544,7 @@
         <v>18.6708164215088</v>
       </c>
       <c r="G460" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -13570,7 +13570,7 @@
         <v>18.1729278564453</v>
       </c>
       <c r="G461" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -13596,7 +13596,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G462" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -13622,7 +13622,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G463" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -13648,7 +13648,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G464" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -13674,7 +13674,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G465" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -13700,7 +13700,7 @@
         <v>18.1131801605225</v>
       </c>
       <c r="G466" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -13726,7 +13726,7 @@
         <v>17.8044910430908</v>
       </c>
       <c r="G467" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -13752,7 +13752,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G468" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -13778,7 +13778,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G469" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -13804,7 +13804,7 @@
         <v>17.9737720489502</v>
       </c>
       <c r="G470" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -13830,7 +13830,7 @@
         <v>17.7746162414551</v>
       </c>
       <c r="G471" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -13856,7 +13856,7 @@
         <v>17.9737720489502</v>
       </c>
       <c r="G472" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -13882,7 +13882,7 @@
         <v>18.0733509063721</v>
       </c>
       <c r="G473" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -13908,7 +13908,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G474" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -13934,7 +13934,7 @@
         <v>17.824405670166</v>
       </c>
       <c r="G475" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -13960,7 +13960,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G476" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -13986,7 +13986,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G477" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14012,7 +14012,7 @@
         <v>18.1231384277344</v>
       </c>
       <c r="G478" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14038,7 +14038,7 @@
         <v>18.5214500427246</v>
       </c>
       <c r="G479" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14064,7 +14064,7 @@
         <v>18.6210289001465</v>
       </c>
       <c r="G480" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14090,7 +14090,7 @@
         <v>17.864236831665</v>
       </c>
       <c r="G481" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14116,7 +14116,7 @@
         <v>17.864236831665</v>
       </c>
       <c r="G482" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14142,7 +14142,7 @@
         <v>17.8443222045898</v>
       </c>
       <c r="G483" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14168,7 +14168,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G484" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14194,7 +14194,7 @@
         <v>17.7746162414551</v>
       </c>
       <c r="G485" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14220,7 +14220,7 @@
         <v>17.9239845275879</v>
       </c>
       <c r="G486" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14246,7 +14246,7 @@
         <v>18.3123378753662</v>
       </c>
       <c r="G487" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14272,7 +14272,7 @@
         <v>18.5911540985107</v>
       </c>
       <c r="G488" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14298,7 +14298,7 @@
         <v>19.4176483154297</v>
       </c>
       <c r="G489" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14324,7 +14324,7 @@
         <v>18.9795074462891</v>
       </c>
       <c r="G490" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14350,7 +14350,7 @@
         <v>19.3977336883545</v>
       </c>
       <c r="G491" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14376,7 +14376,7 @@
         <v>19.4973106384277</v>
       </c>
       <c r="G492" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14402,7 +14402,7 @@
         <v>19.9055805206299</v>
       </c>
       <c r="G493" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14428,7 +14428,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G494" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14454,7 +14454,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G495" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14480,7 +14480,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G496" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14506,7 +14506,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G497" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -14532,7 +14532,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G498" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -14558,7 +14558,7 @@
         <v>19.895622253418</v>
       </c>
       <c r="G499" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -14584,7 +14584,7 @@
         <v>19.8757076263428</v>
       </c>
       <c r="G500" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -14610,7 +14610,7 @@
         <v>19.8757076263428</v>
       </c>
       <c r="G501" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -14636,7 +14636,7 @@
         <v>19.8657493591309</v>
       </c>
       <c r="G502" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -14662,7 +14662,7 @@
         <v>19.8657493591309</v>
       </c>
       <c r="G503" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -14688,7 +14688,7 @@
         <v>19.4375648498535</v>
       </c>
       <c r="G504" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -14714,7 +14714,7 @@
         <v>19.4375648498535</v>
       </c>
       <c r="G505" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -14740,7 +14740,7 @@
         <v>19.766170501709</v>
       </c>
       <c r="G506" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -14766,7 +14766,7 @@
         <v>19.9055805206299</v>
       </c>
       <c r="G507" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -14792,7 +14792,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G508" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -14818,7 +14818,7 @@
         <v>19.4276065826416</v>
       </c>
       <c r="G509" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -14844,7 +14844,7 @@
         <v>19.4276065826416</v>
       </c>
       <c r="G510" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -14870,7 +14870,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G511" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -14896,7 +14896,7 @@
         <v>19.766170501709</v>
       </c>
       <c r="G512" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -14922,7 +14922,7 @@
         <v>19.4176483154297</v>
       </c>
       <c r="G513" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -14948,7 +14948,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G514" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -14974,7 +14974,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G515" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15000,7 +15000,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G516" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15026,7 +15026,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G517" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15052,7 +15052,7 @@
         <v>20.5130043029785</v>
       </c>
       <c r="G518" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15078,7 +15078,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G519" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15104,7 +15104,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G520" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15130,7 +15130,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G521" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15156,7 +15156,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G522" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15182,7 +15182,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G523" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15208,7 +15208,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G524" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15234,7 +15234,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G525" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15260,7 +15260,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G526" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15286,7 +15286,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G527" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15312,7 +15312,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G528" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15338,7 +15338,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G529" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15364,7 +15364,7 @@
         <v>23.5003356933594</v>
       </c>
       <c r="G530" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15390,7 +15390,7 @@
         <v>22.902868270874</v>
       </c>
       <c r="G531" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15416,7 +15416,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G532" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15442,7 +15442,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G533" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15468,7 +15468,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G534" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15494,7 +15494,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G535" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15520,7 +15520,7 @@
         <v>22.5045585632324</v>
       </c>
       <c r="G536" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -15546,7 +15546,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G537" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -15572,7 +15572,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G538" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -15598,7 +15598,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G539" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -15624,7 +15624,7 @@
         <v>22.7037124633789</v>
       </c>
       <c r="G540" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -15650,7 +15650,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G541" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -15676,7 +15676,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G542" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -15702,7 +15702,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G543" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -15728,7 +15728,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G544" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -15754,7 +15754,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G545" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -15780,7 +15780,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G546" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -15806,7 +15806,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G547" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -15832,7 +15832,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G548" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -15858,7 +15858,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G549" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -15884,7 +15884,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G550" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -15910,7 +15910,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G551" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -15936,7 +15936,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G552" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -15962,7 +15962,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G553" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -15988,7 +15988,7 @@
         <v>22.5045585632324</v>
       </c>
       <c r="G554" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16014,7 +16014,7 @@
         <v>22.5045585632324</v>
       </c>
       <c r="G555" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16040,7 +16040,7 @@
         <v>22.5045585632324</v>
       </c>
       <c r="G556" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16066,7 +16066,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G557" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16092,7 +16092,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G558" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16118,7 +16118,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G559" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16144,7 +16144,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G560" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16170,7 +16170,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G561" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16196,7 +16196,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G562" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16222,7 +16222,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G563" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16248,7 +16248,7 @@
         <v>22.3054027557373</v>
       </c>
       <c r="G564" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16274,7 +16274,7 @@
         <v>22.902868270874</v>
       </c>
       <c r="G565" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16300,7 +16300,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G566" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16326,7 +16326,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G567" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16352,7 +16352,7 @@
         <v>22.1062469482422</v>
       </c>
       <c r="G568" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16378,7 +16378,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G569" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16404,7 +16404,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G570" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16430,7 +16430,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G571" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16456,7 +16456,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G572" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16482,7 +16482,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G573" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16508,7 +16508,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G574" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -16534,7 +16534,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G575" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -16560,7 +16560,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G576" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -16586,7 +16586,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G577" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -16612,7 +16612,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G578" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -16638,7 +16638,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G579" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -16664,7 +16664,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G580" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -16690,7 +16690,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G581" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -16716,7 +16716,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G582" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -16742,7 +16742,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G583" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -16768,7 +16768,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G584" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -16794,7 +16794,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G585" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -16820,7 +16820,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G586" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -16846,7 +16846,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G587" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -16872,7 +16872,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G588" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -16898,7 +16898,7 @@
         <v>21.9070911407471</v>
       </c>
       <c r="G589" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -16924,7 +16924,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G590" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -16950,7 +16950,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G591" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -16976,7 +16976,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G592" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17002,7 +17002,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G593" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17028,7 +17028,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G594" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17054,7 +17054,7 @@
         <v>21.707935333252</v>
       </c>
       <c r="G595" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17080,7 +17080,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G596" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17106,7 +17106,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G597" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17132,7 +17132,7 @@
         <v>21.1104698181152</v>
       </c>
       <c r="G598" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17158,7 +17158,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G599" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17184,7 +17184,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G600" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17210,7 +17210,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G601" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17236,7 +17236,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G602" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17262,7 +17262,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G603" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17288,7 +17288,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G604" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17314,7 +17314,7 @@
         <v>21.1104698181152</v>
       </c>
       <c r="G605" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17340,7 +17340,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G606" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17366,7 +17366,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G607" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17392,7 +17392,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G608" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17418,7 +17418,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G609" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17444,7 +17444,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G610" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17470,7 +17470,7 @@
         <v>20.3138484954834</v>
       </c>
       <c r="G611" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17496,7 +17496,7 @@
         <v>20.3138484954834</v>
       </c>
       <c r="G612" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -17522,7 +17522,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G613" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -17548,7 +17548,7 @@
         <v>20.3138484954834</v>
       </c>
       <c r="G614" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -17574,7 +17574,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G615" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -17600,7 +17600,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G616" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -17626,7 +17626,7 @@
         <v>21.1104698181152</v>
       </c>
       <c r="G617" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -17652,7 +17652,7 @@
         <v>21.1104698181152</v>
       </c>
       <c r="G618" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -17678,7 +17678,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G619" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -17704,7 +17704,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G620" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -17730,7 +17730,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G621" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -17756,7 +17756,7 @@
         <v>21.5087814331055</v>
       </c>
       <c r="G622" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -17782,7 +17782,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G623" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -17808,7 +17808,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G624" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18094,7 +18094,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G635" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18120,7 +18120,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G636" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18146,7 +18146,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G637" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18172,7 +18172,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G638" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18198,7 +18198,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G639" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18224,7 +18224,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G640" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18250,7 +18250,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G641" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18276,7 +18276,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G642" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18302,7 +18302,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G643" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18328,7 +18328,7 @@
         <v>21.3096256256104</v>
       </c>
       <c r="G644" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18354,7 +18354,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G645" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18380,7 +18380,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G646" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18406,7 +18406,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G647" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18432,7 +18432,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G648" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18458,7 +18458,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G649" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18484,7 +18484,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G650" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18510,7 +18510,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G651" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -18536,7 +18536,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G652" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -18562,7 +18562,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G653" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -18588,7 +18588,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G654" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -18614,7 +18614,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G655" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -18640,7 +18640,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G656" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -18666,7 +18666,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G657" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -18692,7 +18692,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G658" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -18718,7 +18718,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G659" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -18744,7 +18744,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G660" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -18770,7 +18770,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G661" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -18796,7 +18796,7 @@
         <v>20.9113159179688</v>
       </c>
       <c r="G662" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -18822,7 +18822,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G663" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -18848,7 +18848,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G664" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -18874,7 +18874,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G665" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -18900,7 +18900,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G666" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -18926,7 +18926,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G667" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -18952,7 +18952,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G668" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -18978,7 +18978,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G669" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19004,7 +19004,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G670" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19030,7 +19030,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G671" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19056,7 +19056,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G672" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19082,7 +19082,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G673" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19108,7 +19108,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G674" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19134,7 +19134,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G675" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19160,7 +19160,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G676" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19186,7 +19186,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G677" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19212,7 +19212,7 @@
         <v>20.712158203125</v>
       </c>
       <c r="G678" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19290,7 +19290,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G681" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19316,7 +19316,7 @@
         <v>20.1146926879883</v>
       </c>
       <c r="G682" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19342,7 +19342,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G683" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19368,7 +19368,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G684" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19394,7 +19394,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G685" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19420,7 +19420,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G686" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19446,7 +19446,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G687" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19472,7 +19472,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G688" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19498,7 +19498,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G689" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -19524,7 +19524,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G690" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -19550,7 +19550,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G691" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -19576,7 +19576,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G692" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -19602,7 +19602,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G693" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -19628,7 +19628,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G694" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -19654,7 +19654,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G695" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -19680,7 +19680,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G696" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -19706,7 +19706,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G697" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -19732,7 +19732,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G698" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -19758,7 +19758,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G699" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -19784,7 +19784,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G700" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -19810,7 +19810,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G701" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -19888,7 +19888,7 @@
         <v>19.9155387878418</v>
       </c>
       <c r="G704" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -19992,7 +19992,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G708" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20018,7 +20018,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G709" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20096,7 +20096,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G712" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20122,7 +20122,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G713" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20148,7 +20148,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G714" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20174,7 +20174,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G715" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20226,7 +20226,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G717" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20252,7 +20252,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G718" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20278,7 +20278,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G719" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20356,7 +20356,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G722" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20382,7 +20382,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G723" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20408,7 +20408,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G724" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20434,7 +20434,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G725" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20460,7 +20460,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G726" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20486,7 +20486,7 @@
         <v>19.3180713653564</v>
       </c>
       <c r="G727" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -43522,7 +43522,7 @@
         <v>20</v>
       </c>
       <c r="G1613" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43548,7 +43548,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43600,7 +43600,7 @@
         <v>20</v>
       </c>
       <c r="G1616" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43626,7 +43626,7 @@
         <v>20</v>
       </c>
       <c r="G1617" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43652,7 +43652,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43678,7 +43678,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43704,7 +43704,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43730,7 +43730,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1621" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43756,7 +43756,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43782,7 +43782,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1623" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43808,7 +43808,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43834,7 +43834,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43860,7 +43860,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1626" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43886,7 +43886,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1627" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43912,7 +43912,7 @@
         <v>20</v>
       </c>
       <c r="G1628" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43938,7 +43938,7 @@
         <v>20</v>
       </c>
       <c r="G1629" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -43964,7 +43964,7 @@
         <v>20</v>
       </c>
       <c r="G1630" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -43990,7 +43990,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1631" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44016,7 +44016,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44042,7 +44042,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44068,7 +44068,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44094,7 +44094,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44120,7 +44120,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44146,7 +44146,7 @@
         <v>19.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44172,7 +44172,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44198,7 +44198,7 @@
         <v>19.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44224,7 +44224,7 @@
         <v>19</v>
       </c>
       <c r="G1640" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44250,7 +44250,7 @@
         <v>19</v>
       </c>
       <c r="G1641" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44276,7 +44276,7 @@
         <v>19</v>
       </c>
       <c r="G1642" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44302,7 +44302,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44328,7 +44328,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1644" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44354,7 +44354,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1645" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44380,7 +44380,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44406,7 +44406,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44432,7 +44432,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44458,7 +44458,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44484,7 +44484,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44510,7 +44510,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44536,7 +44536,7 @@
         <v>19</v>
       </c>
       <c r="G1652" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44562,7 +44562,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44588,7 +44588,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44614,7 +44614,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44640,7 +44640,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44666,7 +44666,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44718,7 +44718,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45316,7 +45316,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1682" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45394,7 +45394,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45420,7 +45420,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45446,7 +45446,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1687" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45472,7 +45472,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1688" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45498,7 +45498,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45524,7 +45524,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45550,7 +45550,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45576,7 +45576,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1692" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45602,7 +45602,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45654,7 +45654,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45680,7 +45680,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1696" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45706,7 +45706,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1697" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45732,7 +45732,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45758,7 +45758,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45784,7 +45784,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45810,7 +45810,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45836,7 +45836,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46200,7 +46200,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1716" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46226,7 +46226,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1717" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46304,7 +46304,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46330,7 +46330,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46356,7 +46356,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46382,7 +46382,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46408,7 +46408,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46434,7 +46434,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47006,7 +47006,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47344,7 +47344,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47370,7 +47370,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47396,7 +47396,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47656,7 +47656,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47864,7 +47864,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47890,7 +47890,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48124,7 +48124,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1790" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48150,7 +48150,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48228,7 +48228,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48280,7 +48280,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48306,7 +48306,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48332,7 +48332,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1798" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48358,7 +48358,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48384,7 +48384,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48410,7 +48410,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48436,7 +48436,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48462,7 +48462,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48488,7 +48488,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48670,7 +48670,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -57960,7 +57960,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.5892824074</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>110</v>
@@ -57981,6 +57981,32 @@
         <v>411</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.3975925926</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,40 +44,40 @@
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711782455444</t>
+    <t xml:space="preserve">13.7711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651527404785</t>
+    <t xml:space="preserve">13.4651517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797239303589</t>
+    <t xml:space="preserve">13.4797248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154088973999</t>
+    <t xml:space="preserve">13.1154079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068613052368</t>
+    <t xml:space="preserve">13.4068603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081209182739</t>
+    <t xml:space="preserve">13.1081228256226</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510900497437</t>
+    <t xml:space="preserve">12.7510890960693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.386775970459</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.7091445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.075234413147</t>
+    <t xml:space="preserve">11.0752325057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830308914185</t>
+    <t xml:space="preserve">10.3830299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655548095703</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651893615723</t>
@@ -86,91 +86,91 @@
     <t xml:space="preserve">10.7983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023708343506</t>
+    <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
     <t xml:space="preserve">10.9950838088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295072555542</t>
+    <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480960845947</t>
+    <t xml:space="preserve">11.1480951309204</t>
   </si>
   <si>
     <t xml:space="preserve">11.2209596633911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938232421875</t>
+    <t xml:space="preserve">11.2938222885132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865362167358</t>
+    <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
     <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204502105713</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523515701294</t>
+    <t xml:space="preserve">12.4523506164551</t>
   </si>
   <si>
     <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219467163086</t>
+    <t xml:space="preserve">12.72194480896</t>
   </si>
   <si>
     <t xml:space="preserve">13.0061120986938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.261134147644</t>
+    <t xml:space="preserve">13.2611351013184</t>
   </si>
   <si>
     <t xml:space="preserve">13.5525875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882705688477</t>
+    <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199388504028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742097854614</t>
+    <t xml:space="preserve">12.4742116928101</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139085769653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907926559448</t>
+    <t xml:space="preserve">12.5907917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774791717529</t>
+    <t xml:space="preserve">12.27747631073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5503101348877</t>
+    <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699003219604</t>
+    <t xml:space="preserve">12.2698984146118</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.466944694519</t>
   </si>
   <si>
     <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501174926758</t>
+    <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
     <t xml:space="preserve">12.1259050369263</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880107879639</t>
+    <t xml:space="preserve">12.0880117416382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364366531372</t>
+    <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
     <t xml:space="preserve">12.2016916275024</t>
@@ -191,163 +191,163 @@
     <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290523529053</t>
+    <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564130783081</t>
+    <t xml:space="preserve">12.6564149856567</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.73219871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700939178467</t>
+    <t xml:space="preserve">12.7700910568237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837757110596</t>
+    <t xml:space="preserve">12.8837738037109</t>
   </si>
   <si>
     <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761949539185</t>
+    <t xml:space="preserve">12.8761959075928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353479385376</t>
+    <t xml:space="preserve">13.0353488922119</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111354827881</t>
+    <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627077102661</t>
+    <t xml:space="preserve">13.2627067565918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582761764526</t>
+    <t xml:space="preserve">13.5582752227783</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763885498047</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885925292969</t>
+    <t xml:space="preserve">13.5885906219482</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658540725708</t>
+    <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
     <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690032958984</t>
+    <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447908401489</t>
+    <t xml:space="preserve">13.9447898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963640213013</t>
+    <t xml:space="preserve">14.0963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205764770508</t>
+    <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
     <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887861251831</t>
+    <t xml:space="preserve">14.0887870788574</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584707260132</t>
+    <t xml:space="preserve">14.0584688186646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721515655518</t>
+    <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100467681885</t>
+    <t xml:space="preserve">14.2100429534912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948890686035</t>
+    <t xml:space="preserve">14.1948862075806</t>
   </si>
   <si>
     <t xml:space="preserve">14.134259223938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812063217163</t>
+    <t xml:space="preserve">14.081205368042</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736303329468</t>
+    <t xml:space="preserve">14.0736293792725</t>
   </si>
   <si>
     <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418380737305</t>
+    <t xml:space="preserve">14.1418371200562</t>
   </si>
   <si>
     <t xml:space="preserve">13.8538455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900703430176</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174301147461</t>
+    <t xml:space="preserve">13.7174310684204</t>
   </si>
   <si>
     <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416454315186</t>
+    <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
     <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521760940552</t>
+    <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477426528931</t>
+    <t xml:space="preserve">13.747745513916</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340637207031</t>
+    <t xml:space="preserve">13.6340656280518</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231449127197</t>
+    <t xml:space="preserve">12.8231468200684</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776699066162</t>
+    <t xml:space="preserve">12.7776708602905</t>
   </si>
   <si>
     <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867294311523</t>
+    <t xml:space="preserve">12.6867303848267</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412563323975</t>
+    <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185207366943</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063158035278</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488342285156</t>
+    <t xml:space="preserve">12.6488351821899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578899383545</t>
+    <t xml:space="preserve">12.5578908920288</t>
   </si>
   <si>
     <t xml:space="preserve">12.565468788147</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">12.7473573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199956893921</t>
+    <t xml:space="preserve">12.5199975967407</t>
   </si>
   <si>
     <t xml:space="preserve">12.5351543426514</t>
@@ -377,10 +377,10 @@
     <t xml:space="preserve">12.8079853057861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004102706909</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296876907349</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868446350098</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061138153076</t>
+    <t xml:space="preserve">12.706111907959</t>
   </si>
   <si>
     <t xml:space="preserve">12.9732799530029</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947019577026</t>
+    <t xml:space="preserve">12.8947010040283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047101974487</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697263717651</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
     <t xml:space="preserve">13.4368915557861</t>
@@ -413,37 +413,37 @@
     <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5940504074097</t>
+    <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861902236938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875919342041</t>
+    <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783348083496</t>
+    <t xml:space="preserve">13.578332901001</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547580718994</t>
+    <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512044906616</t>
+    <t xml:space="preserve">13.7512054443359</t>
   </si>
   <si>
     <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526081085205</t>
+    <t xml:space="preserve">13.4526100158691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.727632522583</t>
   </si>
   <si>
     <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869403839111</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
     <t xml:space="preserve">13.9083642959595</t>
@@ -452,160 +452,160 @@
     <t xml:space="preserve">14.0655193328857</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148170471191</t>
+    <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833848953247</t>
+    <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.8612146377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590608596802</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576610565186</t>
+    <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297834396362</t>
+    <t xml:space="preserve">13.8297843933105</t>
   </si>
   <si>
     <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048097610474</t>
+    <t xml:space="preserve">14.1048078536987</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476518630981</t>
+    <t xml:space="preserve">13.9476499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690729141235</t>
+    <t xml:space="preserve">13.8690738677979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904939651489</t>
+    <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.144097328186</t>
+    <t xml:space="preserve">14.1440992355347</t>
   </si>
   <si>
     <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619638442993</t>
+    <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584112167358</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.222674369812</t>
+    <t xml:space="preserve">14.2226762771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.733434677124</t>
+    <t xml:space="preserve">14.7334337234497</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405447006226</t>
+    <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933940887451</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498027801514</t>
+    <t xml:space="preserve">14.0498046875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155662536621</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941442489624</t>
+    <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969505310059</t>
+    <t xml:space="preserve">14.0969495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812349319458</t>
+    <t xml:space="preserve">14.0812339782715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505519866943</t>
+    <t xml:space="preserve">14.4505548477173</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705732345581</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227701187134</t>
+    <t xml:space="preserve">15.322772026062</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770269393921</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070573806763</t>
+    <t xml:space="preserve">15.307056427002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856344223022</t>
+    <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078056335449</t>
+    <t xml:space="preserve">15.7078065872192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156648635864</t>
+    <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
     <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842355728149</t>
+    <t xml:space="preserve">15.6842336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763734817505</t>
+    <t xml:space="preserve">15.6763744354248</t>
   </si>
   <si>
     <t xml:space="preserve">15.3384895324707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977964401245</t>
+    <t xml:space="preserve">15.5977945327759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306293487549</t>
+    <t xml:space="preserve">15.3306283950806</t>
   </si>
   <si>
     <t xml:space="preserve">15.872820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442878723145</t>
+    <t xml:space="preserve">16.3442916870117</t>
   </si>
   <si>
     <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014476776123</t>
+    <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
     <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443855285645</t>
+    <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444850921631</t>
+    <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
     <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158573150635</t>
+    <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587032318115</t>
+    <t xml:space="preserve">17.7587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872276306152</t>
+    <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015453338623</t>
+    <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157615661621</t>
+    <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345634460449</t>
@@ -614,22 +614,22 @@
     <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797409057617</t>
+    <t xml:space="preserve">15.6797428131104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263320922852</t>
+    <t xml:space="preserve">16.3263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646862030029</t>
+    <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
     <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962093353271</t>
   </si>
   <si>
     <t xml:space="preserve">17.6195049285889</t>
@@ -638,34 +638,34 @@
     <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413887023926</t>
+    <t xml:space="preserve">15.8413896560669</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605648040771</t>
+    <t xml:space="preserve">15.7605657577515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331535339355</t>
+    <t xml:space="preserve">15.0331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.113977432251</t>
+    <t xml:space="preserve">15.1139793395996</t>
   </si>
   <si>
     <t xml:space="preserve">14.5482139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255447387695</t>
+    <t xml:space="preserve">14.9255466461182</t>
   </si>
   <si>
     <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224367141724</t>
+    <t xml:space="preserve">14.4224376678467</t>
   </si>
   <si>
     <t xml:space="preserve">14.0870313644409</t>
@@ -683,25 +683,25 @@
     <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739921569824</t>
+    <t xml:space="preserve">14.6739912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062885284424</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
     <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193296432495</t>
+    <t xml:space="preserve">13.9193286895752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932483673096</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578439712524</t>
+    <t xml:space="preserve">14.7578420639038</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031824111938</t>
+    <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
     <t xml:space="preserve">13.7516279220581</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839242935181</t>
+    <t xml:space="preserve">13.5839233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5000715255737</t>
+    <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.4162216186523</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808143615723</t>
+    <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485179901123</t>
+    <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">12.4938545227051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423009872437</t>
+    <t xml:space="preserve">12.242301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646661758423</t>
+    <t xml:space="preserve">13.1646671295166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131116867065</t>
+    <t xml:space="preserve">12.9131126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615581512451</t>
+    <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
     <t xml:space="preserve">12.7454099655151</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230457305908</t>
+    <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
     <t xml:space="preserve">11.9907474517822</t>
@@ -761,46 +761,46 @@
     <t xml:space="preserve">12.1584501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745983123779</t>
+    <t xml:space="preserve">12.0745992660522</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391929626465</t>
+    <t xml:space="preserve">11.7391939163208</t>
   </si>
   <si>
     <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714902877808</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
     <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168287277222</t>
+    <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
     <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006786346436</t>
+    <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329778671265</t>
+    <t xml:space="preserve">10.7329759597778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814224243164</t>
+    <t xml:space="preserve">10.4814214706421</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491241455078</t>
+    <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261528015137</t>
+    <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777072906494</t>
+    <t xml:space="preserve">12.5777082443237</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9321088790894</t>
+    <t xml:space="preserve">12.932107925415</t>
   </si>
   <si>
     <t xml:space="preserve">11.5340433120728</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.495210647583</t>
+    <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573509216309</t>
+    <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0194873809814</t>
+    <t xml:space="preserve">13.0194864273071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068668365479</t>
+    <t xml:space="preserve">13.1068658828735</t>
   </si>
   <si>
     <t xml:space="preserve">13.5437622070312</t>
@@ -836,13 +836,13 @@
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680351257324</t>
+    <t xml:space="preserve">14.0680360794067</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.631139755249</t>
+    <t xml:space="preserve">13.6311416625977</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690032958984</t>
@@ -851,55 +851,55 @@
     <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039642333984</t>
+    <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534791946411</t>
+    <t xml:space="preserve">15.5534811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.116587638855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.815616607666</t>
+    <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408615112305</t>
+    <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282400131226</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913436889648</t>
+    <t xml:space="preserve">15.2913417816162</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0292062759399</t>
+    <t xml:space="preserve">15.0292053222656</t>
   </si>
   <si>
     <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3301753997803</t>
+    <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
     <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427940368652</t>
+    <t xml:space="preserve">14.2427959442139</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418268203735</t>
+    <t xml:space="preserve">14.9418287277222</t>
   </si>
   <si>
     <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786977767944</t>
+    <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
     <t xml:space="preserve">14.9174461364746</t>
@@ -908,34 +908,34 @@
     <t xml:space="preserve">14.3909473419189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541976928711</t>
+    <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664482116699</t>
+    <t xml:space="preserve">14.5664491653442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929460525513</t>
+    <t xml:space="preserve">15.0929479598999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684459686279</t>
+    <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
     <t xml:space="preserve">14.8296957015991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031988143921</t>
+    <t xml:space="preserve">14.3031978607178</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1277008056641</t>
+    <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051965713501</t>
+    <t xml:space="preserve">15.0051984786987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561964035034</t>
+    <t xml:space="preserve">15.3561944961548</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806945800781</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194448471069</t>
+    <t xml:space="preserve">15.619441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826932907104</t>
+    <t xml:space="preserve">15.8826951980591</t>
   </si>
   <si>
     <t xml:space="preserve">16.0581912994385</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">16.1459407806396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704427719116</t>
+    <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
     <t xml:space="preserve">15.794942855835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.3214435577393</t>
   </si>
   <si>
     <t xml:space="preserve">16.4091930389404</t>
@@ -974,28 +974,28 @@
     <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601890563965</t>
+    <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479423522949</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0485134124756</t>
+    <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573421478271</t>
+    <t xml:space="preserve">16.9573440551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8661727905273</t>
+    <t xml:space="preserve">16.866174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750034332275</t>
+    <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838340759277</t>
+    <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926685333252</t>
+    <t xml:space="preserve">16.5926704406738</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">17.1396789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3220176696777</t>
+    <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131870269775</t>
+    <t xml:space="preserve">17.4131851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043544769287</t>
+    <t xml:space="preserve">17.5043563842773</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160385131836</t>
+    <t xml:space="preserve">18.4160404205322</t>
   </si>
   <si>
     <t xml:space="preserve">19.5100593566895</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">18.5983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7807140350342</t>
+    <t xml:space="preserve">18.7807121276855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1425323486328</t>
@@ -1113,6 +1113,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.8771133422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.0667457580566</t>
@@ -44666,7 +44669,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44692,7 +44695,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44744,7 +44747,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44770,7 +44773,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44796,7 +44799,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44822,7 +44825,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44848,7 +44851,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44874,7 +44877,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44900,7 +44903,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44926,7 +44929,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44952,7 +44955,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44978,7 +44981,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45004,7 +45007,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45030,7 +45033,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45056,7 +45059,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45082,7 +45085,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45108,7 +45111,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45134,7 +45137,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45160,7 +45163,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45186,7 +45189,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45212,7 +45215,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45238,7 +45241,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45264,7 +45267,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45290,7 +45293,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45342,7 +45345,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45368,7 +45371,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45628,7 +45631,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45862,7 +45865,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45888,7 +45891,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45914,7 +45917,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45940,7 +45943,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45966,7 +45969,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -45992,7 +45995,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46018,7 +46021,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46044,7 +46047,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46070,7 +46073,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46096,7 +46099,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46122,7 +46125,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46148,7 +46151,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46174,7 +46177,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46252,7 +46255,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46278,7 +46281,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46460,7 +46463,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46486,7 +46489,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46512,7 +46515,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46538,7 +46541,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46564,7 +46567,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46590,7 +46593,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46616,7 +46619,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46642,7 +46645,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46668,7 +46671,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46694,7 +46697,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46720,7 +46723,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46746,7 +46749,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46772,7 +46775,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46798,7 +46801,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46824,7 +46827,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46850,7 +46853,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46876,7 +46879,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46902,7 +46905,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46928,7 +46931,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46954,7 +46957,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46980,7 +46983,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47032,7 +47035,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47058,7 +47061,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47084,7 +47087,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47110,7 +47113,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47136,7 +47139,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47162,7 +47165,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47188,7 +47191,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47214,7 +47217,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47240,7 +47243,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47266,7 +47269,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47292,7 +47295,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47318,7 +47321,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47422,7 +47425,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47448,7 +47451,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47474,7 +47477,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47500,7 +47503,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47526,7 +47529,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47552,7 +47555,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47578,7 +47581,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47604,7 +47607,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47630,7 +47633,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47682,7 +47685,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47708,7 +47711,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47734,7 +47737,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47760,7 +47763,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47786,7 +47789,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47812,7 +47815,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47838,7 +47841,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47916,7 +47919,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47942,7 +47945,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47968,7 +47971,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -47994,7 +47997,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48020,7 +48023,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48046,7 +48049,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48072,7 +48075,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48098,7 +48101,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48150,7 +48153,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48176,7 +48179,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48202,7 +48205,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48254,7 +48257,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48514,7 +48517,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48540,7 +48543,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48566,7 +48569,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48592,7 +48595,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48618,7 +48621,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48644,7 +48647,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48670,7 +48673,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48696,7 +48699,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48722,7 +48725,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48748,7 +48751,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48774,7 +48777,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48800,7 +48803,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48826,7 +48829,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48852,7 +48855,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48878,7 +48881,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48904,7 +48907,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48930,7 +48933,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48956,7 +48959,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48982,7 +48985,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49008,7 +49011,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49034,7 +49037,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49060,7 +49063,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49086,7 +49089,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49112,7 +49115,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49138,7 +49141,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49164,7 +49167,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49190,7 +49193,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49216,7 +49219,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49242,7 +49245,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49268,7 +49271,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49294,7 +49297,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49320,7 +49323,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49346,7 +49349,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49372,7 +49375,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49398,7 +49401,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49424,7 +49427,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49450,7 +49453,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49476,7 +49479,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49502,7 +49505,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49528,7 +49531,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49554,7 +49557,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49580,7 +49583,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49606,7 +49609,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49632,7 +49635,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49658,7 +49661,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49684,7 +49687,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49710,7 +49713,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49736,7 +49739,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49762,7 +49765,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49788,7 +49791,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49814,7 +49817,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49840,7 +49843,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49866,7 +49869,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49892,7 +49895,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49918,7 +49921,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49944,7 +49947,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49970,7 +49973,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -49996,7 +49999,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50022,7 +50025,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50048,7 +50051,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50074,7 +50077,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50100,7 +50103,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50126,7 +50129,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50152,7 +50155,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50178,7 +50181,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50204,7 +50207,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50230,7 +50233,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50256,7 +50259,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50282,7 +50285,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50308,7 +50311,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50334,7 +50337,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50360,7 +50363,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50386,7 +50389,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50412,7 +50415,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50438,7 +50441,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50464,7 +50467,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50490,7 +50493,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50516,7 +50519,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50542,7 +50545,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50568,7 +50571,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50594,7 +50597,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50620,7 +50623,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50646,7 +50649,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50672,7 +50675,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50698,7 +50701,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50724,7 +50727,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50750,7 +50753,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50776,7 +50779,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50802,7 +50805,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50828,7 +50831,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50854,7 +50857,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50880,7 +50883,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50906,7 +50909,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50932,7 +50935,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50958,7 +50961,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50984,7 +50987,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51010,7 +51013,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51036,7 +51039,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51062,7 +51065,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51088,7 +51091,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51114,7 +51117,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51140,7 +51143,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51166,7 +51169,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51192,7 +51195,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51218,7 +51221,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51244,7 +51247,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51270,7 +51273,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51296,7 +51299,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51322,7 +51325,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51348,7 +51351,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51374,7 +51377,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51400,7 +51403,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51426,7 +51429,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51452,7 +51455,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51478,7 +51481,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51504,7 +51507,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51530,7 +51533,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51556,7 +51559,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51582,7 +51585,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51608,7 +51611,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51634,7 +51637,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51660,7 +51663,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51686,7 +51689,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51712,7 +51715,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51738,7 +51741,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51764,7 +51767,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51790,7 +51793,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51816,7 +51819,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51842,7 +51845,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51868,7 +51871,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51894,7 +51897,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51920,7 +51923,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51946,7 +51949,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51972,7 +51975,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -51998,7 +52001,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52024,7 +52027,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52050,7 +52053,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52076,7 +52079,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52102,7 +52105,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52128,7 +52131,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52154,7 +52157,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52180,7 +52183,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52206,7 +52209,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52232,7 +52235,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52258,7 +52261,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52284,7 +52287,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52310,7 +52313,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52336,7 +52339,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52362,7 +52365,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52388,7 +52391,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52414,7 +52417,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52440,7 +52443,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52466,7 +52469,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52492,7 +52495,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52518,7 +52521,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52544,7 +52547,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52570,7 +52573,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52596,7 +52599,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52622,7 +52625,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52648,7 +52651,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52674,7 +52677,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52700,7 +52703,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52726,7 +52729,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52752,7 +52755,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52778,7 +52781,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52804,7 +52807,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52830,7 +52833,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52856,7 +52859,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52882,7 +52885,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52908,7 +52911,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52934,7 +52937,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52960,7 +52963,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -52986,7 +52989,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53012,7 +53015,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53038,7 +53041,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53064,7 +53067,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53090,7 +53093,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53116,7 +53119,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53142,7 +53145,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53168,7 +53171,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53194,7 +53197,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53220,7 +53223,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53246,7 +53249,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53272,7 +53275,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53298,7 +53301,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53324,7 +53327,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53350,7 +53353,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53376,7 +53379,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53402,7 +53405,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53428,7 +53431,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53454,7 +53457,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53480,7 +53483,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53506,7 +53509,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53532,7 +53535,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53558,7 +53561,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53584,7 +53587,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53610,7 +53613,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53636,7 +53639,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53662,7 +53665,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53688,7 +53691,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53714,7 +53717,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53740,7 +53743,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53766,7 +53769,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53792,7 +53795,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53818,7 +53821,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53844,7 +53847,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53870,7 +53873,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53896,7 +53899,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53922,7 +53925,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53948,7 +53951,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53974,7 +53977,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54000,7 +54003,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54026,7 +54029,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54052,7 +54055,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54078,7 +54081,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54104,7 +54107,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54130,7 +54133,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54156,7 +54159,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54182,7 +54185,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54208,7 +54211,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54234,7 +54237,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54260,7 +54263,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54286,7 +54289,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54312,7 +54315,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54338,7 +54341,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54364,7 +54367,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54390,7 +54393,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54416,7 +54419,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54442,7 +54445,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54468,7 +54471,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54494,7 +54497,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54520,7 +54523,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54546,7 +54549,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54572,7 +54575,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54598,7 +54601,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54624,7 +54627,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54650,7 +54653,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54676,7 +54679,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54702,7 +54705,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54728,7 +54731,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54754,7 +54757,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54780,7 +54783,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54806,7 +54809,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54832,7 +54835,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54858,7 +54861,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54884,7 +54887,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54910,7 +54913,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54936,7 +54939,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54962,7 +54965,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -54988,7 +54991,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55014,7 +55017,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55040,7 +55043,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55066,7 +55069,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55092,7 +55095,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55118,7 +55121,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55144,7 +55147,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55170,7 +55173,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55196,7 +55199,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55222,7 +55225,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55248,7 +55251,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55274,7 +55277,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55300,7 +55303,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55326,7 +55329,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55352,7 +55355,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55378,7 +55381,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55404,7 +55407,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55430,7 +55433,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55456,7 +55459,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55482,7 +55485,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55508,7 +55511,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55534,7 +55537,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55560,7 +55563,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55586,7 +55589,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55612,7 +55615,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55638,7 +55641,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55664,7 +55667,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55690,7 +55693,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55716,7 +55719,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55742,7 +55745,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55768,7 +55771,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55794,7 +55797,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55820,7 +55823,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55846,7 +55849,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55872,7 +55875,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55898,7 +55901,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55924,7 +55927,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55950,7 +55953,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55976,7 +55979,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56002,7 +56005,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56028,7 +56031,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56054,7 +56057,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56080,7 +56083,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56106,7 +56109,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56132,7 +56135,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56158,7 +56161,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56184,7 +56187,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56210,7 +56213,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56236,7 +56239,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56262,7 +56265,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56288,7 +56291,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56314,7 +56317,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56340,7 +56343,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56366,7 +56369,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56392,7 +56395,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56418,7 +56421,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56444,7 +56447,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56470,7 +56473,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56496,7 +56499,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56522,7 +56525,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56548,7 +56551,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56574,7 +56577,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56600,7 +56603,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56626,7 +56629,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56652,7 +56655,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56678,7 +56681,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56704,7 +56707,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56730,7 +56733,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56756,7 +56759,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56782,7 +56785,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56808,7 +56811,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56834,7 +56837,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56860,7 +56863,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56886,7 +56889,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56912,7 +56915,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56938,7 +56941,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56964,7 +56967,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -56990,7 +56993,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57016,7 +57019,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57042,7 +57045,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57068,7 +57071,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57094,7 +57097,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57120,7 +57123,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57146,7 +57149,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57172,7 +57175,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57198,7 +57201,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57224,7 +57227,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57250,7 +57253,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57276,7 +57279,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57302,7 +57305,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57328,7 +57331,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57354,7 +57357,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57380,7 +57383,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57406,7 +57409,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57432,7 +57435,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57458,7 +57461,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57484,7 +57487,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57510,7 +57513,7 @@
         <v>14</v>
       </c>
       <c r="G2151" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57536,7 +57539,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2152" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57562,7 +57565,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2153" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57588,7 +57591,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2154" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57614,7 +57617,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2155" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57640,7 +57643,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57666,7 +57669,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57692,7 +57695,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2158" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57718,7 +57721,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2159" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57744,7 +57747,7 @@
         <v>14</v>
       </c>
       <c r="G2160" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57770,7 +57773,7 @@
         <v>14</v>
       </c>
       <c r="G2161" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57796,7 +57799,7 @@
         <v>14</v>
       </c>
       <c r="G2162" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57822,7 +57825,7 @@
         <v>14</v>
       </c>
       <c r="G2163" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57848,7 +57851,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57874,7 +57877,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2165" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57900,7 +57903,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2166" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57926,7 +57929,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2167" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -57952,7 +57955,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2168" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -57978,7 +57981,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2169" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58004,7 +58007,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2170" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58030,7 +58033,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58056,7 +58059,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2172" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58082,7 +58085,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2173" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58108,7 +58111,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2174" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58134,9 +58137,35 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2175" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.2916666667</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440446853638</t>
+    <t xml:space="preserve">13.8440427780151</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711763381958</t>
+    <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
     <t xml:space="preserve">13.4651527404785</t>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">13.4068613052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081209182739</t>
+    <t xml:space="preserve">13.1081199645996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510900497437</t>
+    <t xml:space="preserve">12.751088142395</t>
   </si>
   <si>
     <t xml:space="preserve">12.3867740631104</t>
@@ -71,22 +71,22 @@
     <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752334594727</t>
+    <t xml:space="preserve">11.075234413147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830308914185</t>
+    <t xml:space="preserve">10.3830318450928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651893615723</t>
+    <t xml:space="preserve">10.5651903152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983531951904</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023708343506</t>
+    <t xml:space="preserve">11.002368927002</t>
   </si>
   <si>
     <t xml:space="preserve">10.9950828552246</t>
@@ -95,61 +95,61 @@
     <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480960845947</t>
+    <t xml:space="preserve">11.148097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209606170654</t>
+    <t xml:space="preserve">11.2209596633911</t>
   </si>
   <si>
     <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865362167358</t>
+    <t xml:space="preserve">11.2865381240845</t>
   </si>
   <si>
     <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204483032227</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523496627808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292308807373</t>
+    <t xml:space="preserve">12.7292327880859</t>
   </si>
   <si>
-    <t xml:space="preserve">12.72194480896</t>
+    <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061120986938</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611360549927</t>
+    <t xml:space="preserve">13.2611331939697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525875091553</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.188271522522</t>
+    <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968191146851</t>
+    <t xml:space="preserve">12.8968181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199378967285</t>
+    <t xml:space="preserve">12.6199388504028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742116928101</t>
+    <t xml:space="preserve">12.4742107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3139085769653</t>
+    <t xml:space="preserve">12.313910484314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907917022705</t>
+    <t xml:space="preserve">12.5907936096191</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774772644043</t>
@@ -158,31 +158,31 @@
     <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699012756348</t>
+    <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048389434814</t>
+    <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229503631592</t>
+    <t xml:space="preserve">12.3229522705078</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501194000244</t>
+    <t xml:space="preserve">12.0501165390015</t>
   </si>
   <si>
     <t xml:space="preserve">12.1259059906006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227567672729</t>
+    <t xml:space="preserve">11.8227577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880107879639</t>
+    <t xml:space="preserve">12.0880126953125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364376068115</t>
+    <t xml:space="preserve">11.9364385604858</t>
   </si>
   <si>
     <t xml:space="preserve">12.2016916275024</t>
@@ -194,127 +194,127 @@
     <t xml:space="preserve">12.4290523529053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911590576172</t>
+    <t xml:space="preserve">12.3911581039429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5806264877319</t>
+    <t xml:space="preserve">12.5806255340576</t>
   </si>
   <si>
     <t xml:space="preserve">12.6564130783081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7321977615356</t>
+    <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700910568237</t>
+    <t xml:space="preserve">12.770092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837728500366</t>
+    <t xml:space="preserve">12.8837738037109</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957851409912</t>
+    <t xml:space="preserve">12.5957832336426</t>
   </si>
   <si>
     <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353479385376</t>
+    <t xml:space="preserve">13.0353469848633</t>
   </si>
   <si>
     <t xml:space="preserve">13.1111354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627086639404</t>
+    <t xml:space="preserve">13.2627058029175</t>
   </si>
   <si>
     <t xml:space="preserve">13.5582761764526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763914108276</t>
+    <t xml:space="preserve">13.376389503479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885925292969</t>
+    <t xml:space="preserve">13.5885934829712</t>
   </si>
   <si>
     <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142847061157</t>
+    <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690032958984</t>
+    <t xml:space="preserve">13.8690052032471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447898864746</t>
+    <t xml:space="preserve">13.9447908401489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963640213013</t>
+    <t xml:space="preserve">14.0963649749756</t>
   </si>
   <si>
     <t xml:space="preserve">14.0205764770508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357341766357</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887861251831</t>
+    <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584697723389</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721506118774</t>
+    <t xml:space="preserve">14.1721534729004</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100439071655</t>
+    <t xml:space="preserve">14.2100458145142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948881149292</t>
+    <t xml:space="preserve">14.1948871612549</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342582702637</t>
+    <t xml:space="preserve">14.134256362915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.982684135437</t>
+    <t xml:space="preserve">13.9826860427856</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812072753906</t>
+    <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736284255981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.831109046936</t>
+    <t xml:space="preserve">13.8311109542847</t>
   </si>
   <si>
     <t xml:space="preserve">14.1418390274048</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538436889648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900703430176</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174301147461</t>
+    <t xml:space="preserve">13.7174291610718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203847885132</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553243637085</t>
+    <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521751403809</t>
+    <t xml:space="preserve">13.4521770477295</t>
   </si>
   <si>
     <t xml:space="preserve">13.7477436065674</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
     <t xml:space="preserve">13.6340637207031</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231449127197</t>
+    <t xml:space="preserve">12.8231439590454</t>
   </si>
   <si>
     <t xml:space="preserve">12.7776727676392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.497260093689</t>
+    <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
     <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412563323975</t>
+    <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
     <t xml:space="preserve">12.61851978302</t>
@@ -344,43 +344,43 @@
     <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488351821899</t>
+    <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578927993774</t>
+    <t xml:space="preserve">12.5578918457031</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654706954956</t>
+    <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473573684692</t>
+    <t xml:space="preserve">12.7473583221436</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199975967407</t>
+    <t xml:space="preserve">12.5199956893921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351552963257</t>
+    <t xml:space="preserve">12.5351543426514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427322387695</t>
+    <t xml:space="preserve">12.5427331924438</t>
   </si>
   <si>
     <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246198654175</t>
+    <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079853057861</t>
+    <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296857833862</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868446350098</t>
@@ -389,106 +389,106 @@
     <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.706111907959</t>
+    <t xml:space="preserve">12.7061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732799530029</t>
+    <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118202209473</t>
+    <t xml:space="preserve">12.6118183135986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947010040283</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047101974487</t>
+    <t xml:space="preserve">13.0047121047974</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697254180908</t>
+    <t xml:space="preserve">13.1697263717651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368906021118</t>
+    <t xml:space="preserve">13.4368934631348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354898452759</t>
+    <t xml:space="preserve">13.7354907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5940494537354</t>
+    <t xml:space="preserve">13.594051361084</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861902236938</t>
+    <t xml:space="preserve">13.5861921310425</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.578332901001</t>
+    <t xml:space="preserve">13.5783357620239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.554759979248</t>
+    <t xml:space="preserve">13.5547580718994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512054443359</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
     <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526090621948</t>
+    <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.7276334762573</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119169235229</t>
+    <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869403839111</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083642959595</t>
+    <t xml:space="preserve">13.9083614349365</t>
   </si>
   <si>
     <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148160934448</t>
+    <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612146377563</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590608596802</t>
+    <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576591491699</t>
+    <t xml:space="preserve">14.0576610565186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297843933105</t>
+    <t xml:space="preserve">13.8297834396362</t>
   </si>
   <si>
     <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104808807373</t>
+    <t xml:space="preserve">14.1048078536987</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476518630981</t>
+    <t xml:space="preserve">13.9476537704468</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690738677979</t>
+    <t xml:space="preserve">13.8690729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904949188232</t>
+    <t xml:space="preserve">13.7904958724976</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440982818604</t>
+    <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012523651123</t>
   </si>
   <si>
     <t xml:space="preserve">14.2619647979736</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">14.4584093093872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.222677230835</t>
+    <t xml:space="preserve">14.222674369812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334318161011</t>
+    <t xml:space="preserve">14.733434677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405418395996</t>
+    <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
     <t xml:space="preserve">14.2933940887451</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155672073364</t>
+    <t xml:space="preserve">14.6155681610107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941452026367</t>
+    <t xml:space="preserve">14.6941480636597</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969495773315</t>
+    <t xml:space="preserve">14.0969505310059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812349319458</t>
+    <t xml:space="preserve">14.0812368392944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505548477173</t>
+    <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705722808838</t>
+    <t xml:space="preserve">14.6705741882324</t>
   </si>
   <si>
     <t xml:space="preserve">15.322772026062</t>
@@ -545,97 +545,97 @@
     <t xml:space="preserve">15.7078075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156629562378</t>
+    <t xml:space="preserve">15.7156648635864</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999483108521</t>
+    <t xml:space="preserve">15.6999502182007</t>
   </si>
   <si>
     <t xml:space="preserve">15.6842336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763734817505</t>
+    <t xml:space="preserve">15.6763772964478</t>
   </si>
   <si>
     <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977935791016</t>
+    <t xml:space="preserve">15.5977954864502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306303024292</t>
+    <t xml:space="preserve">15.3306283950806</t>
   </si>
   <si>
     <t xml:space="preserve">15.8728179931641</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442916870117</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871337890625</t>
+    <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014495849609</t>
+    <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300735473633</t>
+    <t xml:space="preserve">17.1300754547119</t>
   </si>
   <si>
     <t xml:space="preserve">17.4443855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444831848145</t>
+    <t xml:space="preserve">18.5444850921631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730152130127</t>
+    <t xml:space="preserve">18.0730113983154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158573150635</t>
+    <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587013244629</t>
+    <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
     <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.601541519165</t>
+    <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729194641113</t>
+    <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157634735107</t>
+    <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112678527832</t>
+    <t xml:space="preserve">16.8112697601318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797437667847</t>
+    <t xml:space="preserve">15.6797456741333</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646842956543</t>
+    <t xml:space="preserve">16.1646823883057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879760742188</t>
+    <t xml:space="preserve">16.4879741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962093353271</t>
+    <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
     <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6496257781982</t>
+    <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
     <t xml:space="preserve">15.8413896560669</t>
@@ -644,70 +644,70 @@
     <t xml:space="preserve">15.7605657577515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564481735229</t>
+    <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331563949585</t>
+    <t xml:space="preserve">15.0331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.113977432251</t>
+    <t xml:space="preserve">15.1139812469482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482149124146</t>
+    <t xml:space="preserve">14.5482158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255456924438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901403427124</t>
+    <t xml:space="preserve">14.5901412963867</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224376678467</t>
+    <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
     <t xml:space="preserve">14.0870313644409</t>
   </si>
   <si>
-    <t xml:space="preserve">14.338586807251</t>
+    <t xml:space="preserve">14.3385877609253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547359466553</t>
+    <t xml:space="preserve">14.254734992981</t>
   </si>
   <si>
     <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739912033081</t>
+    <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062894821167</t>
+    <t xml:space="preserve">14.506290435791</t>
   </si>
   <si>
     <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193286895752</t>
+    <t xml:space="preserve">13.9193277359009</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932483673096</t>
+    <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578420639038</t>
+    <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
     <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516279220581</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677751541138</t>
+    <t xml:space="preserve">13.6677761077881</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839233398438</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808153152466</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">12.4938545227051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.242301940918</t>
+    <t xml:space="preserve">12.2423009872437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646671295166</t>
+    <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
     <t xml:space="preserve">12.9131126403809</t>
@@ -746,22 +746,22 @@
     <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
     <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230447769165</t>
+    <t xml:space="preserve">11.8230457305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907474517822</t>
+    <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
     <t xml:space="preserve">12.1584501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745992660522</t>
+    <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068956375122</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">11.7391939163208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876394271851</t>
+    <t xml:space="preserve">11.4876384735107</t>
   </si>
   <si>
     <t xml:space="preserve">11.5714912414551</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329759597778</t>
+    <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814214706421</t>
+    <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
     <t xml:space="preserve">10.6491250991821</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777082443237</t>
+    <t xml:space="preserve">12.5777072906494</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -58229,7 +58229,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6328356482</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>1079</v>
@@ -58250,6 +58250,32 @@
         <v>415</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.3034027778</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>14.8000001907349</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>14.8000001907349</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,28 +44,28 @@
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711772918701</t>
+    <t xml:space="preserve">13.7711801528931</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651517868042</t>
+    <t xml:space="preserve">13.4651508331299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797248840332</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154079437256</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068603515625</t>
+    <t xml:space="preserve">13.4068593978882</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081218719482</t>
+    <t xml:space="preserve">13.1081209182739</t>
   </si>
   <si>
     <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.7091445922852</t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">11.0752325057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830308914185</t>
+    <t xml:space="preserve">10.3830318450928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655548095703</t>
+    <t xml:space="preserve">9.83655738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651884078979</t>
+    <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
     <t xml:space="preserve">10.7983531951904</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023708343506</t>
+    <t xml:space="preserve">11.002368927002</t>
   </si>
   <si>
     <t xml:space="preserve">10.9950838088989</t>
@@ -104,22 +104,22 @@
     <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865381240845</t>
+    <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
     <t xml:space="preserve">11.6581401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">11.920449256897</t>
+    <t xml:space="preserve">11.9204483032227</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827573776245</t>
+    <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
     <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292318344116</t>
+    <t xml:space="preserve">12.7292308807373</t>
   </si>
   <si>
     <t xml:space="preserve">12.7219467163086</t>
@@ -128,40 +128,40 @@
     <t xml:space="preserve">13.0061120986938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.261134147644</t>
+    <t xml:space="preserve">13.2611331939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.552586555481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882705688477</t>
+    <t xml:space="preserve">13.1882724761963</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968200683594</t>
+    <t xml:space="preserve">12.8968181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199388504028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742116928101</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907917022705</t>
+    <t xml:space="preserve">12.5907907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774791717529</t>
+    <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
     <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698993682861</t>
+    <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048408508301</t>
+    <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
     <t xml:space="preserve">12.4669456481934</t>
@@ -176,34 +176,34 @@
     <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880098342896</t>
+    <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364376068115</t>
+    <t xml:space="preserve">11.9364366531372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016925811768</t>
+    <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
     <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564159393311</t>
+    <t xml:space="preserve">12.6564130783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700939178467</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837747573853</t>
@@ -212,19 +212,19 @@
     <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761940002441</t>
+    <t xml:space="preserve">12.8761959075928</t>
   </si>
   <si>
     <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111345291138</t>
+    <t xml:space="preserve">13.1111354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627067565918</t>
+    <t xml:space="preserve">13.2627086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.558277130127</t>
+    <t xml:space="preserve">13.5582761764526</t>
   </si>
   <si>
     <t xml:space="preserve">13.376389503479</t>
@@ -233,46 +233,46 @@
     <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658569335938</t>
+    <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142847061157</t>
+    <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690052032471</t>
+    <t xml:space="preserve">13.8690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447908401489</t>
+    <t xml:space="preserve">13.9447889328003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963640213013</t>
+    <t xml:space="preserve">14.0963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205774307251</t>
+    <t xml:space="preserve">14.0205764770508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357360839844</t>
+    <t xml:space="preserve">14.0357341766357</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887870788574</t>
+    <t xml:space="preserve">14.0887842178345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584688186646</t>
+    <t xml:space="preserve">14.0584716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721515655518</t>
+    <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100429534912</t>
+    <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948862075806</t>
+    <t xml:space="preserve">14.1948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342582702637</t>
+    <t xml:space="preserve">14.134256362915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812063217163</t>
@@ -284,100 +284,100 @@
     <t xml:space="preserve">13.831109046936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418361663818</t>
+    <t xml:space="preserve">14.1418371200562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538446426392</t>
+    <t xml:space="preserve">13.8538475036621</t>
   </si>
   <si>
     <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174291610718</t>
+    <t xml:space="preserve">13.7174282073975</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203838348389</t>
+    <t xml:space="preserve">13.5203828811646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416425704956</t>
+    <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553243637085</t>
+    <t xml:space="preserve">13.7553253173828</t>
   </si>
   <si>
     <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477464675903</t>
+    <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460750579834</t>
+    <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340646743774</t>
+    <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231439590454</t>
+    <t xml:space="preserve">12.8231449127197</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776708602905</t>
+    <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972591400146</t>
+    <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867294311523</t>
+    <t xml:space="preserve">12.686728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412563323975</t>
+    <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.61851978302</t>
+    <t xml:space="preserve">12.6185207366943</t>
   </si>
   <si>
     <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488351821899</t>
+    <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578908920288</t>
+    <t xml:space="preserve">12.5578918457031</t>
   </si>
   <si>
     <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124177932739</t>
+    <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473554611206</t>
+    <t xml:space="preserve">12.7473573684692</t>
   </si>
   <si>
     <t xml:space="preserve">12.5199956893921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351552963257</t>
+    <t xml:space="preserve">12.5351543426514</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3153715133667</t>
+    <t xml:space="preserve">12.315372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246198654175</t>
+    <t xml:space="preserve">12.7246208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079872131348</t>
+    <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004083633423</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296876907349</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868446350098</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">12.9654235839844</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061138153076</t>
+    <t xml:space="preserve">12.7061128616333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732799530029</t>
+    <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118202209473</t>
+    <t xml:space="preserve">12.6118211746216</t>
   </si>
   <si>
     <t xml:space="preserve">12.8947019577026</t>
@@ -401,79 +401,79 @@
     <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697254180908</t>
+    <t xml:space="preserve">13.1697273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368925094604</t>
+    <t xml:space="preserve">13.4368915557861</t>
   </si>
   <si>
     <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594048500061</t>
+    <t xml:space="preserve">13.5940475463867</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861902236938</t>
+    <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783338546753</t>
+    <t xml:space="preserve">13.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547590255737</t>
+    <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512035369873</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761810302734</t>
+    <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526081085205</t>
+    <t xml:space="preserve">13.4526090621948</t>
   </si>
   <si>
     <t xml:space="preserve">13.7276315689087</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119150161743</t>
+    <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869403839111</t>
+    <t xml:space="preserve">13.9869413375854</t>
   </si>
   <si>
     <t xml:space="preserve">13.9083642959595</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655193328857</t>
+    <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
     <t xml:space="preserve">14.2148189544678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833848953247</t>
+    <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.861216545105</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
     <t xml:space="preserve">14.0576610565186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297834396362</t>
+    <t xml:space="preserve">13.8297843933105</t>
   </si>
   <si>
     <t xml:space="preserve">14.0262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048078536987</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476499557495</t>
+    <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690738677979</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">13.7904939651489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440963745117</t>
+    <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012523651123</t>
   </si>
   <si>
     <t xml:space="preserve">14.2619657516479</t>
@@ -494,73 +494,73 @@
     <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.222674369812</t>
+    <t xml:space="preserve">14.2226762771606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334327697754</t>
+    <t xml:space="preserve">14.7334337234497</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405418395996</t>
+    <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933950424194</t>
+    <t xml:space="preserve">14.2933940887451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498037338257</t>
+    <t xml:space="preserve">14.0498018264771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155662536621</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
     <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969505310059</t>
+    <t xml:space="preserve">14.0969495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812358856201</t>
+    <t xml:space="preserve">14.0812368392944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.450553894043</t>
+    <t xml:space="preserve">14.4505519866943</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
     <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770288467407</t>
+    <t xml:space="preserve">14.977029800415</t>
   </si>
   <si>
     <t xml:space="preserve">15.3070583343506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856353759766</t>
+    <t xml:space="preserve">15.3856334686279</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078046798706</t>
+    <t xml:space="preserve">15.7078065872192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156639099121</t>
+    <t xml:space="preserve">15.7156648635864</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999492645264</t>
+    <t xml:space="preserve">15.6999473571777</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842336654663</t>
+    <t xml:space="preserve">15.6842355728149</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763744354248</t>
+    <t xml:space="preserve">15.6763763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384876251221</t>
+    <t xml:space="preserve">15.3384885787964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977954864502</t>
+    <t xml:space="preserve">15.5977945327759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306293487549</t>
+    <t xml:space="preserve">15.3306312561035</t>
   </si>
   <si>
     <t xml:space="preserve">15.872820854187</t>
@@ -569,40 +569,40 @@
     <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871337890625</t>
+    <t xml:space="preserve">16.1871318817139</t>
   </si>
   <si>
     <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300716400146</t>
+    <t xml:space="preserve">17.1300754547119</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443855285645</t>
+    <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
     <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730152130127</t>
+    <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
     <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7586994171143</t>
+    <t xml:space="preserve">17.7587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872314453125</t>
+    <t xml:space="preserve">17.2872295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015434265137</t>
+    <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157596588135</t>
+    <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345653533936</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">17.4578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797428131104</t>
+    <t xml:space="preserve">15.6797409057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263301849365</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195049285889</t>
+    <t xml:space="preserve">17.6195068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6496238708496</t>
+    <t xml:space="preserve">16.649621963501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413887023926</t>
+    <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
     <t xml:space="preserve">15.7605648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564510345459</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030326843262</t>
+    <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331544876099</t>
+    <t xml:space="preserve">15.0331554412842</t>
   </si>
   <si>
     <t xml:space="preserve">15.1139793395996</t>
@@ -656,52 +656,52 @@
     <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255456924438</t>
+    <t xml:space="preserve">14.9255466461182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901403427124</t>
+    <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870313644409</t>
+    <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385858535767</t>
+    <t xml:space="preserve">14.3385848999023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547359466553</t>
+    <t xml:space="preserve">14.2547340393066</t>
   </si>
   <si>
     <t xml:space="preserve">14.1708831787109</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739902496338</t>
+    <t xml:space="preserve">14.6739921569824</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354778289795</t>
+    <t xml:space="preserve">13.8354787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193296432495</t>
+    <t xml:space="preserve">13.9193286895752</t>
   </si>
   <si>
     <t xml:space="preserve">15.0932502746582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578430175781</t>
+    <t xml:space="preserve">14.7578439712524</t>
   </si>
   <si>
     <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516279220581</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
     <t xml:space="preserve">13.6677751541138</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808143615723</t>
+    <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485189437866</t>
+    <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969654083252</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
     <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230457305908</t>
+    <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
     <t xml:space="preserve">11.9907464981079</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329769134521</t>
+    <t xml:space="preserve">10.7329778671265</t>
   </si>
   <si>
     <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491250991821</t>
+    <t xml:space="preserve">10.6491260528564</t>
   </si>
   <si>
     <t xml:space="preserve">12.3261528015137</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573499679565</t>
+    <t xml:space="preserve">12.7573490142822</t>
   </si>
   <si>
     <t xml:space="preserve">13.0194873809814</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5437622070312</t>
+    <t xml:space="preserve">13.5437612533569</t>
   </si>
   <si>
     <t xml:space="preserve">13.8058996200562</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.6311416625977</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690032958984</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534801483154</t>
+    <t xml:space="preserve">15.5534820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">15.116584777832</t>
+    <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
     <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408624649048</t>
+    <t xml:space="preserve">15.6408605575562</t>
   </si>
   <si>
     <t xml:space="preserve">15.7282409667969</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796913146973</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174451828003</t>
+    <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541986465454</t>
+    <t xml:space="preserve">14.6541996002197</t>
   </si>
   <si>
     <t xml:space="preserve">14.5664472579956</t>
@@ -917,16 +917,16 @@
     <t xml:space="preserve">15.2684459686279</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296957015991</t>
+    <t xml:space="preserve">14.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031988143921</t>
+    <t xml:space="preserve">14.3031978607178</t>
   </si>
   <si>
     <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051975250244</t>
+    <t xml:space="preserve">15.0051984786987</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561964035034</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071924209595</t>
+    <t xml:space="preserve">15.7071943283081</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949419021606</t>
+    <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214416503906</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724433898926</t>
+    <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601909637451</t>
+    <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
     <t xml:space="preserve">16.8479404449463</t>
@@ -1254,6 +1254,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.6999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8000001907349</t>
   </si>
 </sst>
 </file>
@@ -58275,7 +58278,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.4793981481</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>150</v>
@@ -58296,6 +58299,32 @@
         <v>412</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6209259259</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>576</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>14.8000001907349</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>14.8000001907349</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440427780151</t>
+    <t xml:space="preserve">13.8440437316895</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711801528931</t>
+    <t xml:space="preserve">13.7711772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651508331299</t>
+    <t xml:space="preserve">13.4651517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797239303589</t>
+    <t xml:space="preserve">13.4797248840332</t>
   </si>
   <si>
     <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068593978882</t>
+    <t xml:space="preserve">13.4068603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081209182739</t>
+    <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.7510900497437</t>
@@ -68,25 +68,25 @@
     <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091436386108</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752325057983</t>
+    <t xml:space="preserve">11.0752334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830318450928</t>
+    <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
     <t xml:space="preserve">9.83655738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651893615723</t>
+    <t xml:space="preserve">10.5651903152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983531951904</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
-    <t xml:space="preserve">11.002368927002</t>
+    <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
     <t xml:space="preserve">10.9950838088989</t>
@@ -95,61 +95,61 @@
     <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480951309204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209596633911</t>
+    <t xml:space="preserve">11.2209615707397</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938232421875</t>
+    <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581401824951</t>
+    <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204483032227</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827554702759</t>
   </si>
   <si>
     <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292308807373</t>
+    <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
     <t xml:space="preserve">12.7219467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061120986938</t>
+    <t xml:space="preserve">13.0061111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611331939697</t>
+    <t xml:space="preserve">13.2611351013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.552586555481</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882724761963</t>
+    <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968181610107</t>
+    <t xml:space="preserve">12.8968200683594</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199388504028</t>
+    <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742116928101</t>
+    <t xml:space="preserve">12.4742107391357</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907907485962</t>
+    <t xml:space="preserve">12.5907926559448</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774782180786</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699003219604</t>
+    <t xml:space="preserve">12.2698993682861</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
@@ -170,19 +170,19 @@
     <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501184463501</t>
+    <t xml:space="preserve">12.0501165390015</t>
   </si>
   <si>
     <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227567672729</t>
+    <t xml:space="preserve">11.8227586746216</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880107879639</t>
+    <t xml:space="preserve">12.0880117416382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364366531372</t>
+    <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
     <t xml:space="preserve">12.2016916275024</t>
@@ -191,31 +191,31 @@
     <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911590576172</t>
+    <t xml:space="preserve">12.3911600112915</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564130783081</t>
+    <t xml:space="preserve">12.6564140319824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
     <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837747573853</t>
+    <t xml:space="preserve">12.8837738037109</t>
   </si>
   <si>
     <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761959075928</t>
+    <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353479385376</t>
+    <t xml:space="preserve">13.0353469848633</t>
   </si>
   <si>
     <t xml:space="preserve">13.1111354827881</t>
@@ -224,25 +224,25 @@
     <t xml:space="preserve">13.2627086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582761764526</t>
+    <t xml:space="preserve">13.5582780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">13.376389503479</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885915756226</t>
+    <t xml:space="preserve">13.5885906219482</t>
   </si>
   <si>
     <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142837524414</t>
+    <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447889328003</t>
+    <t xml:space="preserve">13.9447898864746</t>
   </si>
   <si>
     <t xml:space="preserve">14.0963649749756</t>
@@ -257,34 +257,34 @@
     <t xml:space="preserve">14.0887842178345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584716796875</t>
+    <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721525192261</t>
+    <t xml:space="preserve">14.1721496582031</t>
   </si>
   <si>
     <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948881149292</t>
+    <t xml:space="preserve">14.1948900222778</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134256362915</t>
+    <t xml:space="preserve">14.1342582702637</t>
   </si>
   <si>
     <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812063217163</t>
+    <t xml:space="preserve">14.0812072753906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736293792725</t>
+    <t xml:space="preserve">14.0736274719238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.831109046936</t>
+    <t xml:space="preserve">13.831111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418371200562</t>
+    <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
     <t xml:space="preserve">13.8538475036621</t>
@@ -293,19 +293,19 @@
     <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174282073975</t>
+    <t xml:space="preserve">13.7174310684204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553253173828</t>
+    <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521741867065</t>
+    <t xml:space="preserve">13.4521751403809</t>
   </si>
   <si>
     <t xml:space="preserve">13.7477445602417</t>
@@ -314,25 +314,25 @@
     <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340637207031</t>
+    <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231449127197</t>
+    <t xml:space="preserve">12.823145866394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776718139648</t>
+    <t xml:space="preserve">12.7776708602905</t>
   </si>
   <si>
     <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686728477478</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412553787231</t>
+    <t xml:space="preserve">12.6412563323975</t>
   </si>
   <si>
     <t xml:space="preserve">12.6185207366943</t>
@@ -344,31 +344,31 @@
     <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578918457031</t>
+    <t xml:space="preserve">12.5578899383545</t>
   </si>
   <si>
     <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124168395996</t>
+    <t xml:space="preserve">12.5124177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473573684692</t>
+    <t xml:space="preserve">12.7473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199956893921</t>
+    <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.5351533889771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427322387695</t>
+    <t xml:space="preserve">12.5427303314209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.315372467041</t>
+    <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246208190918</t>
+    <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
     <t xml:space="preserve">12.8079862594604</t>
@@ -377,22 +377,22 @@
     <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296867370605</t>
+    <t xml:space="preserve">12.7296876907349</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868446350098</t>
+    <t xml:space="preserve">12.8868455886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.9654235839844</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061128616333</t>
+    <t xml:space="preserve">12.7061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732789993286</t>
+    <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118211746216</t>
+    <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
     <t xml:space="preserve">12.8947019577026</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697273254395</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
     <t xml:space="preserve">13.4368915557861</t>
@@ -413,100 +413,100 @@
     <t xml:space="preserve">13.5940475463867</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861911773682</t>
+    <t xml:space="preserve">13.5861892700195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875938415527</t>
+    <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783348083496</t>
+    <t xml:space="preserve">13.5783338546753</t>
   </si>
   <si>
-    <t xml:space="preserve">13.554759979248</t>
+    <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
     <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761829376221</t>
+    <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526090621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.7276306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119169235229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869413375854</t>
+    <t xml:space="preserve">13.9869422912598</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083642959595</t>
+    <t xml:space="preserve">13.9083623886108</t>
   </si>
   <si>
     <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148189544678</t>
+    <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833868026733</t>
+    <t xml:space="preserve">14.1833839416504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.8612146377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590627670288</t>
+    <t xml:space="preserve">13.7590618133545</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576610565186</t>
+    <t xml:space="preserve">14.0576591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297843933105</t>
+    <t xml:space="preserve">13.8297853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262298583984</t>
+    <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048097610474</t>
+    <t xml:space="preserve">14.104808807373</t>
   </si>
   <si>
     <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690738677979</t>
+    <t xml:space="preserve">13.8690719604492</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904939651489</t>
+    <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
     <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012523651123</t>
+    <t xml:space="preserve">14.3012542724609</t>
   </si>
   <si>
     <t xml:space="preserve">14.2619657516479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584102630615</t>
+    <t xml:space="preserve">14.4584093093872</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226762771606</t>
+    <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334337234497</t>
+    <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
     <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933940887451</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498018264771</t>
+    <t xml:space="preserve">14.0498046875</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155672073364</t>
@@ -515,52 +515,52 @@
     <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969495773315</t>
+    <t xml:space="preserve">14.0969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812368392944</t>
+    <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505519866943</t>
+    <t xml:space="preserve">14.450553894043</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705722808838</t>
+    <t xml:space="preserve">14.6705713272095</t>
   </si>
   <si>
     <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.977029800415</t>
+    <t xml:space="preserve">14.9770278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070583343506</t>
+    <t xml:space="preserve">15.307056427002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856334686279</t>
+    <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078046798706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156648635864</t>
+    <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999473571777</t>
+    <t xml:space="preserve">15.6999464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842355728149</t>
+    <t xml:space="preserve">15.684232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763763427734</t>
+    <t xml:space="preserve">15.6763744354248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384885787964</t>
+    <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977945327759</t>
+    <t xml:space="preserve">15.5977973937988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306312561035</t>
+    <t xml:space="preserve">15.3306303024292</t>
   </si>
   <si>
     <t xml:space="preserve">15.872820854187</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871318817139</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014476776123</t>
+    <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300754547119</t>
+    <t xml:space="preserve">17.1300716400146</t>
   </si>
   <si>
     <t xml:space="preserve">17.4443874359131</t>
@@ -584,31 +584,31 @@
     <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730133056641</t>
+    <t xml:space="preserve">18.0730152130127</t>
   </si>
   <si>
     <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587013244629</t>
+    <t xml:space="preserve">17.7587032318115</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872295379639</t>
+    <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015453338623</t>
+    <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157615661621</t>
+    <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345653533936</t>
+    <t xml:space="preserve">17.1345672607422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112697601318</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.4578590393066</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">15.6797409057617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263301849365</t>
+    <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
     <t xml:space="preserve">16.1646842956543</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962093353271</t>
   </si>
   <si>
     <t xml:space="preserve">17.6195068359375</t>
@@ -635,52 +635,52 @@
     <t xml:space="preserve">16.649621963501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413906097412</t>
+    <t xml:space="preserve">15.8413887023926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605648040771</t>
+    <t xml:space="preserve">15.7605667114258</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564510345459</t>
+    <t xml:space="preserve">15.3564491271973</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139793395996</t>
+    <t xml:space="preserve">15.1139802932739</t>
   </si>
   <si>
     <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255475997925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901393890381</t>
+    <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870323181152</t>
+    <t xml:space="preserve">14.0870332717896</t>
   </si>
   <si>
     <t xml:space="preserve">14.3385848999023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416957855225</t>
+    <t xml:space="preserve">14.8416948318481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547340393066</t>
+    <t xml:space="preserve">14.254734992981</t>
   </si>
   <si>
     <t xml:space="preserve">14.1708831787109</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739921569824</t>
+    <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062885284424</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">13.8354787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193286895752</t>
+    <t xml:space="preserve">13.9193305969238</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
     <t xml:space="preserve">14.7578439712524</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677751541138</t>
+    <t xml:space="preserve">13.6677761077881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839233398438</t>
+    <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.5000715255737</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.332368850708</t>
+    <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808153152466</t>
+    <t xml:space="preserve">13.0808143615723</t>
   </si>
   <si>
     <t xml:space="preserve">13.2485179901123</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131135940552</t>
+    <t xml:space="preserve">12.9131126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615591049194</t>
+    <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
     <t xml:space="preserve">12.7454109191895</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230447769165</t>
+    <t xml:space="preserve">11.8230457305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907464981079</t>
+    <t xml:space="preserve">11.9907474517822</t>
   </si>
   <si>
     <t xml:space="preserve">12.1584491729736</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">11.9068965911865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391939163208</t>
+    <t xml:space="preserve">11.7391929626465</t>
   </si>
   <si>
     <t xml:space="preserve">11.4876394271851</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522331237793</t>
+    <t xml:space="preserve">11.1522340774536</t>
   </si>
   <si>
     <t xml:space="preserve">10.8168277740479</t>
@@ -782,22 +782,22 @@
     <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006795883179</t>
+    <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329778671265</t>
+    <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
     <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491260528564</t>
+    <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
     <t xml:space="preserve">12.3261528015137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777072906494</t>
+    <t xml:space="preserve">12.5777063369751</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4952116012573</t>
+    <t xml:space="preserve">12.4952125549316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573490142822</t>
+    <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0194873809814</t>
+    <t xml:space="preserve">13.0194864273071</t>
   </si>
   <si>
     <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5437612533569</t>
+    <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
     <t xml:space="preserve">13.8058996200562</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311416625977</t>
+    <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690032958984</t>
+    <t xml:space="preserve">13.3690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.466103553772</t>
+    <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
     <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534820556641</t>
+    <t xml:space="preserve">15.5534830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.116584777832</t>
   </si>
   <si>
     <t xml:space="preserve">15.8156175613403</t>
@@ -884,40 +884,40 @@
     <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.417552947998</t>
+    <t xml:space="preserve">14.4175539016724</t>
   </si>
   <si>
     <t xml:space="preserve">14.2427949905396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418277740479</t>
+    <t xml:space="preserve">14.9418268203735</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786977767944</t>
+    <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
     <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909482955933</t>
+    <t xml:space="preserve">14.3909492492676</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541996002197</t>
+    <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664472579956</t>
+    <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
     <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684459686279</t>
+    <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296976089478</t>
+    <t xml:space="preserve">14.8296966552734</t>
   </si>
   <si>
     <t xml:space="preserve">14.3031978607178</t>
@@ -926,25 +926,25 @@
     <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051984786987</t>
+    <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561964035034</t>
+    <t xml:space="preserve">15.3561944961548</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316944122314</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071943283081</t>
+    <t xml:space="preserve">15.7071924209595</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194438934326</t>
+    <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
     <t xml:space="preserve">15.8826932907104</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.321439743042</t>
   </si>
   <si>
     <t xml:space="preserve">16.4091911315918</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601928710938</t>
+    <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479423522949</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573440551758</t>
+    <t xml:space="preserve">16.9573421478271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.866174697876</t>
+    <t xml:space="preserve">16.8661727905273</t>
   </si>
   <si>
     <t xml:space="preserve">16.7750053405762</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.501501083374</t>
+    <t xml:space="preserve">16.5014991760254</t>
   </si>
   <si>
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926685333252</t>
+    <t xml:space="preserve">16.5926704406738</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">16.1368274688721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1396789550781</t>
+    <t xml:space="preserve">17.1396808624268</t>
   </si>
   <si>
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131870269775</t>
+    <t xml:space="preserve">17.4131851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043525695801</t>
+    <t xml:space="preserve">17.5043544769287</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778606414795</t>
+    <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">19.5100593566895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9630489349365</t>
+    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
     <t xml:space="preserve">19.1453857421875</t>
@@ -1065,9 +1065,6 @@
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
     <t xml:space="preserve">18.6786060333252</t>
@@ -1110,6 +1107,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.8771133422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.066743850708</t>
@@ -43528,7 +43528,7 @@
         <v>20</v>
       </c>
       <c r="G1613" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43554,7 +43554,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43606,7 +43606,7 @@
         <v>20</v>
       </c>
       <c r="G1616" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43632,7 +43632,7 @@
         <v>20</v>
       </c>
       <c r="G1617" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43658,7 +43658,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43684,7 +43684,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43710,7 +43710,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43736,7 +43736,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1621" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43762,7 +43762,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43788,7 +43788,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1623" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43814,7 +43814,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43840,7 +43840,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43866,7 +43866,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1626" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43892,7 +43892,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1627" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43918,7 +43918,7 @@
         <v>20</v>
       </c>
       <c r="G1628" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43944,7 +43944,7 @@
         <v>20</v>
       </c>
       <c r="G1629" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -43970,7 +43970,7 @@
         <v>20</v>
       </c>
       <c r="G1630" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -43996,7 +43996,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1631" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44022,7 +44022,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44048,7 +44048,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44074,7 +44074,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44100,7 +44100,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44126,7 +44126,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44152,7 +44152,7 @@
         <v>19.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44178,7 +44178,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44204,7 +44204,7 @@
         <v>19.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44230,7 +44230,7 @@
         <v>19</v>
       </c>
       <c r="G1640" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44256,7 +44256,7 @@
         <v>19</v>
       </c>
       <c r="G1641" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44282,7 +44282,7 @@
         <v>19</v>
       </c>
       <c r="G1642" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44308,7 +44308,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44334,7 +44334,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1644" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44360,7 +44360,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1645" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44386,7 +44386,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44412,7 +44412,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44438,7 +44438,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44464,7 +44464,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44490,7 +44490,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44516,7 +44516,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44542,7 +44542,7 @@
         <v>19</v>
       </c>
       <c r="G1652" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44568,7 +44568,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44594,7 +44594,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44620,7 +44620,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44646,7 +44646,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44672,7 +44672,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44724,7 +44724,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45322,7 +45322,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1682" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45400,7 +45400,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45426,7 +45426,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45452,7 +45452,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1687" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45478,7 +45478,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1688" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45504,7 +45504,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45530,7 +45530,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45556,7 +45556,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45582,7 +45582,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1692" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45608,7 +45608,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45660,7 +45660,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45686,7 +45686,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1696" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45712,7 +45712,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1697" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45738,7 +45738,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45764,7 +45764,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45790,7 +45790,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45816,7 +45816,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45842,7 +45842,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46206,7 +46206,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1716" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46232,7 +46232,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1717" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46310,7 +46310,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46336,7 +46336,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46362,7 +46362,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46388,7 +46388,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46414,7 +46414,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46440,7 +46440,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47012,7 +47012,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47350,7 +47350,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47376,7 +47376,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47402,7 +47402,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47662,7 +47662,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47870,7 +47870,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47896,7 +47896,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48130,7 +48130,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1790" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48156,7 +48156,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48234,7 +48234,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48286,7 +48286,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48312,7 +48312,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48338,7 +48338,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1798" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48364,7 +48364,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48390,7 +48390,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48416,7 +48416,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48442,7 +48442,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48468,7 +48468,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48494,7 +48494,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48676,7 +48676,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -58304,7 +58304,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6209259259</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>576</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -44,43 +44,43 @@
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711772918701</t>
+    <t xml:space="preserve">13.7711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651508331299</t>
+    <t xml:space="preserve">13.4651527404785</t>
   </si>
   <si>
     <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154069900513</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068593978882</t>
+    <t xml:space="preserve">13.4068603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081228256226</t>
+    <t xml:space="preserve">13.1081209182739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.751091003418</t>
+    <t xml:space="preserve">12.7510919570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.7091445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752325057983</t>
+    <t xml:space="preserve">11.0752334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830299377441</t>
+    <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
     <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651893615723</t>
+    <t xml:space="preserve">10.5651884078979</t>
   </si>
   <si>
     <t xml:space="preserve">10.7983522415161</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">11.148097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209606170654</t>
+    <t xml:space="preserve">11.2209596633911</t>
   </si>
   <si>
     <t xml:space="preserve">11.2938232421875</t>
@@ -113,49 +113,49 @@
     <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827573776245</t>
+    <t xml:space="preserve">12.1827583312988</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523525238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292318344116</t>
+    <t xml:space="preserve">12.729229927063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219457626343</t>
+    <t xml:space="preserve">12.7219467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061111450195</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611351013184</t>
+    <t xml:space="preserve">13.2611360549927</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525903701782</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
     <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968191146851</t>
+    <t xml:space="preserve">12.8968200683594</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199378967285</t>
+    <t xml:space="preserve">12.6199388504028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742097854614</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907917022705</t>
+    <t xml:space="preserve">12.5907926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.27747631073</t>
+    <t xml:space="preserve">12.2774791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5503120422363</t>
+    <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
     <t xml:space="preserve">12.2698993682861</t>
@@ -170,100 +170,100 @@
     <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501184463501</t>
+    <t xml:space="preserve">12.0501174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259050369263</t>
+    <t xml:space="preserve">12.1259059906006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880107879639</t>
+    <t xml:space="preserve">12.0880126953125</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016906738281</t>
+    <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
     <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911590576172</t>
+    <t xml:space="preserve">12.3911600112915</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564149856567</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7321996688843</t>
+    <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770092010498</t>
+    <t xml:space="preserve">12.7700939178467</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957841873169</t>
+    <t xml:space="preserve">12.5957832336426</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761959075928</t>
+    <t xml:space="preserve">12.8761940002441</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353479385376</t>
+    <t xml:space="preserve">13.0353488922119</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111335754395</t>
+    <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
     <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582761764526</t>
+    <t xml:space="preserve">13.5582780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763914108276</t>
+    <t xml:space="preserve">13.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885906219482</t>
+    <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658559799194</t>
+    <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142847061157</t>
+    <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690042495728</t>
+    <t xml:space="preserve">13.8690023422241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447889328003</t>
+    <t xml:space="preserve">13.9447908401489</t>
   </si>
   <si>
     <t xml:space="preserve">14.0963659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205755233765</t>
+    <t xml:space="preserve">14.0205764770508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357341766357</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887861251831</t>
+    <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584697723389</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721515655518</t>
+    <t xml:space="preserve">14.1721506118774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100448608398</t>
+    <t xml:space="preserve">14.2100439071655</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948881149292</t>
@@ -272,10 +272,10 @@
     <t xml:space="preserve">14.1342611312866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.982684135437</t>
+    <t xml:space="preserve">13.9826850891113</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812063217163</t>
+    <t xml:space="preserve">14.081205368042</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736284255981</t>
@@ -284,61 +284,61 @@
     <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418371200562</t>
+    <t xml:space="preserve">14.1418361663818</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538465499878</t>
+    <t xml:space="preserve">13.8538475036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900693893433</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174291610718</t>
+    <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203819274902</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416425704956</t>
+    <t xml:space="preserve">13.6416444778442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553262710571</t>
+    <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521751403809</t>
+    <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">13.747745513916</t>
+    <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
     <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551307678223</t>
+    <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231430053711</t>
+    <t xml:space="preserve">12.823145866394</t>
   </si>
   <si>
     <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.497260093689</t>
+    <t xml:space="preserve">12.4972620010376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867303848267</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412572860718</t>
+    <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
     <t xml:space="preserve">12.6185207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063177108765</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
     <t xml:space="preserve">12.6488351821899</t>
@@ -350,25 +350,25 @@
     <t xml:space="preserve">12.565468788147</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124168395996</t>
+    <t xml:space="preserve">12.5124158859253</t>
   </si>
   <si>
     <t xml:space="preserve">12.7473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199966430664</t>
+    <t xml:space="preserve">12.5199975967407</t>
   </si>
   <si>
     <t xml:space="preserve">12.5351543426514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427341461182</t>
+    <t xml:space="preserve">12.5427312850952</t>
   </si>
   <si>
     <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246198654175</t>
+    <t xml:space="preserve">12.7246208190918</t>
   </si>
   <si>
     <t xml:space="preserve">12.8079853057861</t>
@@ -386,130 +386,130 @@
     <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061128616333</t>
+    <t xml:space="preserve">12.7061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732789993286</t>
+    <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118202209473</t>
+    <t xml:space="preserve">12.6118192672729</t>
   </si>
   <si>
     <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047121047974</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
     <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368925094604</t>
+    <t xml:space="preserve">13.4368915557861</t>
   </si>
   <si>
     <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594048500061</t>
+    <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861902236938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783338546753</t>
+    <t xml:space="preserve">13.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547580718994</t>
+    <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512044906616</t>
+    <t xml:space="preserve">13.7512054443359</t>
   </si>
   <si>
     <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526090621948</t>
+    <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276306152344</t>
+    <t xml:space="preserve">13.7276315689087</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119169235229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869403839111</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083642959595</t>
+    <t xml:space="preserve">13.9083614349365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655183792114</t>
+    <t xml:space="preserve">14.0655193328857</t>
   </si>
   <si>
     <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833848953247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.861216545105</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590618133545</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576591491699</t>
+    <t xml:space="preserve">14.0576581954956</t>
   </si>
   <si>
     <t xml:space="preserve">13.8297834396362</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262279510498</t>
+    <t xml:space="preserve">14.0262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048078536987</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476509094238</t>
+    <t xml:space="preserve">13.9476499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690757751465</t>
+    <t xml:space="preserve">13.8690738677979</t>
   </si>
   <si>
     <t xml:space="preserve">13.7904939651489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440963745117</t>
+    <t xml:space="preserve">14.1440992355347</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012523651123</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619676589966</t>
+    <t xml:space="preserve">14.2619638442993</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584083557129</t>
+    <t xml:space="preserve">14.4584112167358</t>
   </si>
   <si>
     <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.733434677124</t>
+    <t xml:space="preserve">14.7334365844727</t>
   </si>
   <si>
     <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933959960938</t>
+    <t xml:space="preserve">14.2933950424194</t>
   </si>
   <si>
     <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155691146851</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
     <t xml:space="preserve">14.694146156311</t>
@@ -521,70 +521,70 @@
     <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505519866943</t>
+    <t xml:space="preserve">14.450553894043</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705722808838</t>
+    <t xml:space="preserve">14.6705732345581</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227701187134</t>
+    <t xml:space="preserve">15.322772026062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.977029800415</t>
+    <t xml:space="preserve">14.9770269393921</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070554733276</t>
+    <t xml:space="preserve">15.3070583343506</t>
   </si>
   <si>
     <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078084945679</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156639099121</t>
+    <t xml:space="preserve">15.7156629562378</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999473571777</t>
+    <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842346191406</t>
+    <t xml:space="preserve">15.6842317581177</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763753890991</t>
+    <t xml:space="preserve">15.6763744354248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384866714478</t>
+    <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
     <t xml:space="preserve">15.5977945327759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306303024292</t>
+    <t xml:space="preserve">15.3306283950806</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728199005127</t>
+    <t xml:space="preserve">15.8728227615356</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442878723145</t>
+    <t xml:space="preserve">16.3442916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871356964111</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014476776123</t>
+    <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300716400146</t>
+    <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
     <t xml:space="preserve">17.4443855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444831848145</t>
+    <t xml:space="preserve">18.5444869995117</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730152130127</t>
+    <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
     <t xml:space="preserve">17.9158554077148</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.601541519165</t>
+    <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729194641113</t>
+    <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
     <t xml:space="preserve">16.8157596588135</t>
@@ -608,19 +608,19 @@
     <t xml:space="preserve">17.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112697601318</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.457857131958</t>
+    <t xml:space="preserve">17.4578552246094</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797409057617</t>
+    <t xml:space="preserve">15.6797428131104</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646823883057</t>
+    <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
     <t xml:space="preserve">16.4879779815674</t>
@@ -632,16 +632,16 @@
     <t xml:space="preserve">17.6195030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6496238708496</t>
+    <t xml:space="preserve">16.6496257781982</t>
   </si>
   <si>
     <t xml:space="preserve">15.8413887023926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605648040771</t>
+    <t xml:space="preserve">15.7605638504028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564481735229</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030345916748</t>
@@ -650,43 +650,43 @@
     <t xml:space="preserve">15.0331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139802932739</t>
+    <t xml:space="preserve">15.113977432251</t>
   </si>
   <si>
     <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255447387695</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901393890381</t>
+    <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870323181152</t>
+    <t xml:space="preserve">14.0870313644409</t>
   </si>
   <si>
-    <t xml:space="preserve">14.338586807251</t>
+    <t xml:space="preserve">14.3385858535767</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416957855225</t>
+    <t xml:space="preserve">14.8416938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">14.254734992981</t>
+    <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
     <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739902496338</t>
+    <t xml:space="preserve">14.6739912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062894821167</t>
+    <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354768753052</t>
+    <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
     <t xml:space="preserve">13.9193296432495</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">13.7516279220581</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677751541138</t>
+    <t xml:space="preserve">13.6677742004395</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839223861694</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808153152466</t>
+    <t xml:space="preserve">13.0808143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485198974609</t>
+    <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">12.4938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423000335693</t>
+    <t xml:space="preserve">12.2423009872437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646661758423</t>
+    <t xml:space="preserve">13.1646680831909</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131126403809</t>
+    <t xml:space="preserve">12.9131116867065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615591049194</t>
+    <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454109191895</t>
+    <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553430557251</t>
+    <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
     <t xml:space="preserve">11.8230447769165</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391929626465</t>
+    <t xml:space="preserve">11.7391939163208</t>
   </si>
   <si>
     <t xml:space="preserve">11.4876394271851</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168287277222</t>
+    <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
     <t xml:space="preserve">10.9845304489136</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329778671265</t>
+    <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814233779907</t>
+    <t xml:space="preserve">10.4814214706421</t>
   </si>
   <si>
     <t xml:space="preserve">10.6491250991821</t>
@@ -797,19 +797,19 @@
     <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777072906494</t>
+    <t xml:space="preserve">12.5777082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4563827514648</t>
+    <t xml:space="preserve">13.4563817977905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942462921143</t>
+    <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
     <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340423583984</t>
+    <t xml:space="preserve">11.5340433120728</t>
   </si>
   <si>
     <t xml:space="preserve">12.2330751419067</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573490142822</t>
+    <t xml:space="preserve">12.7573509216309</t>
   </si>
   <si>
     <t xml:space="preserve">13.0194873809814</t>
@@ -830,40 +830,40 @@
     <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8059005737305</t>
+    <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680370330811</t>
+    <t xml:space="preserve">14.0680360794067</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.631139755249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690042495728</t>
+    <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.466103553772</t>
+    <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039642333984</t>
+    <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534820556641</t>
+    <t xml:space="preserve">15.5534811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165866851807</t>
+    <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156185150146</t>
+    <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
     <t xml:space="preserve">15.6408615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282390594482</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787231445312</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">15.2913427352905</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0292062759399</t>
+    <t xml:space="preserve">15.0292053222656</t>
   </si>
   <si>
     <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796894073486</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427940368652</t>
+    <t xml:space="preserve">14.2427949905396</t>
   </si>
   <si>
     <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786987304688</t>
+    <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174470901489</t>
+    <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541996002197</t>
+    <t xml:space="preserve">14.6541976928711</t>
   </si>
   <si>
     <t xml:space="preserve">14.5664482116699</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684450149536</t>
+    <t xml:space="preserve">15.2684459686279</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296976089478</t>
+    <t xml:space="preserve">14.8296957015991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031978607178</t>
+    <t xml:space="preserve">14.3031988143921</t>
   </si>
   <si>
     <t xml:space="preserve">14.1276998519897</t>
@@ -929,25 +929,25 @@
     <t xml:space="preserve">15.0051965713501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561973571777</t>
+    <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
     <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806945800781</t>
+    <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071933746338</t>
+    <t xml:space="preserve">15.7071914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">15.443943977356</t>
+    <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194448471069</t>
+    <t xml:space="preserve">15.6194438934326</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826942443848</t>
+    <t xml:space="preserve">15.8826932907104</t>
   </si>
   <si>
     <t xml:space="preserve">16.0581932067871</t>
@@ -956,10 +956,10 @@
     <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704427719116</t>
+    <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949438095093</t>
+    <t xml:space="preserve">15.7949409484863</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214416503906</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724395751953</t>
+    <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601928710938</t>
+    <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
     <t xml:space="preserve">16.8479404449463</t>
@@ -58406,6 +58406,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.2916666667</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6178125</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>1081</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>14.8999996185303</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>14.8999996185303</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440418243408</t>
+    <t xml:space="preserve">13.8440427780151</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711791992188</t>
+    <t xml:space="preserve">13.7711772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651536941528</t>
+    <t xml:space="preserve">13.4651527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797248840332</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
     <t xml:space="preserve">13.1154079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068603515625</t>
+    <t xml:space="preserve">13.4068613052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081209182739</t>
+    <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.751091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867740631104</t>
+    <t xml:space="preserve">12.3867750167847</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091455459595</t>
+    <t xml:space="preserve">11.7091445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752334594727</t>
+    <t xml:space="preserve">11.0752325057983</t>
   </si>
   <si>
     <t xml:space="preserve">10.3830308914185</t>
@@ -80,82 +80,82 @@
     <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651903152466</t>
+    <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983522415161</t>
+    <t xml:space="preserve">10.7983531951904</t>
   </si>
   <si>
     <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950828552246</t>
+    <t xml:space="preserve">10.9950838088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295082092285</t>
+    <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480960845947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209596633911</t>
+    <t xml:space="preserve">11.2209606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938251495361</t>
+    <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865381240845</t>
+    <t xml:space="preserve">11.2865362167358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581411361694</t>
+    <t xml:space="preserve">11.6581401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204502105713</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827554702759</t>
+    <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523496627808</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292318344116</t>
+    <t xml:space="preserve">12.7292308807373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219457626343</t>
+    <t xml:space="preserve">12.72194480896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061130523682</t>
+    <t xml:space="preserve">13.0061111450195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.261134147644</t>
+    <t xml:space="preserve">13.2611360549927</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525875091553</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.188271522522</t>
+    <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968181610107</t>
+    <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742116928101</t>
+    <t xml:space="preserve">12.4742107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3139095306396</t>
+    <t xml:space="preserve">12.313910484314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907926559448</t>
+    <t xml:space="preserve">12.5907917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774782180786</t>
+    <t xml:space="preserve">12.2774772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.550311088562</t>
+    <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
     <t xml:space="preserve">12.2699003219604</t>
@@ -164,22 +164,22 @@
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.466944694519</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229513168335</t>
+    <t xml:space="preserve">12.3229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501174926758</t>
+    <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259059906006</t>
+    <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880117416382</t>
+    <t xml:space="preserve">12.0880098342896</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364376068115</t>
@@ -194,22 +194,22 @@
     <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5806255340576</t>
+    <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564149856567</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.7321996688843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700929641724</t>
+    <t xml:space="preserve">12.770092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837747573853</t>
+    <t xml:space="preserve">12.8837738037109</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957841873169</t>
+    <t xml:space="preserve">12.5957851409912</t>
   </si>
   <si>
     <t xml:space="preserve">12.8761949539185</t>
@@ -221,55 +221,55 @@
     <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627086639404</t>
+    <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
     <t xml:space="preserve">13.558277130127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763885498047</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885906219482</t>
+    <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658550262451</t>
+    <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
     <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690023422241</t>
+    <t xml:space="preserve">13.8690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447898864746</t>
+    <t xml:space="preserve">13.9447889328003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963649749756</t>
+    <t xml:space="preserve">14.0963659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205764770508</t>
+    <t xml:space="preserve">14.0205755233765</t>
   </si>
   <si>
     <t xml:space="preserve">14.0357341766357</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887842178345</t>
+    <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721534729004</t>
+    <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
     <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948881149292</t>
+    <t xml:space="preserve">14.1948890686035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342573165894</t>
+    <t xml:space="preserve">14.1342582702637</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826850891113</t>
@@ -278,73 +278,73 @@
     <t xml:space="preserve">14.0812072753906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736293792725</t>
+    <t xml:space="preserve">14.0736284255981</t>
   </si>
   <si>
     <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418371200562</t>
+    <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538446426392</t>
   </si>
   <si>
     <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174282073975</t>
+    <t xml:space="preserve">13.7174291610718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553253173828</t>
+    <t xml:space="preserve">13.7553243637085</t>
   </si>
   <si>
     <t xml:space="preserve">13.4521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477445602417</t>
+    <t xml:space="preserve">13.7477464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340637207031</t>
+    <t xml:space="preserve">13.6340656280518</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551279067993</t>
+    <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231439590454</t>
+    <t xml:space="preserve">12.8231449127197</t>
   </si>
   <si>
     <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972610473633</t>
+    <t xml:space="preserve">12.497260093689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686728477478</t>
+    <t xml:space="preserve">12.6867303848267</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412553787231</t>
+    <t xml:space="preserve">12.6412563323975</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185207366943</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063158035278</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
     <t xml:space="preserve">12.6488351821899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578908920288</t>
+    <t xml:space="preserve">12.5578899383545</t>
   </si>
   <si>
     <t xml:space="preserve">12.5654706954956</t>
@@ -353,40 +353,40 @@
     <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473573684692</t>
+    <t xml:space="preserve">12.7473554611206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199956893921</t>
+    <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3153715133667</t>
+    <t xml:space="preserve">12.315372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246208190918</t>
+    <t xml:space="preserve">12.7246198654175</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079862594604</t>
+    <t xml:space="preserve">12.8079853057861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004102706909</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
     <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868446350098</t>
+    <t xml:space="preserve">12.8868455886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654235839844</t>
+    <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.706111907959</t>
+    <t xml:space="preserve">12.7061128616333</t>
   </si>
   <si>
     <t xml:space="preserve">12.9732789993286</t>
@@ -395,58 +395,58 @@
     <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947010040283</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
     <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697263717651</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368915557861</t>
+    <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354898452759</t>
+    <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594048500061</t>
+    <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861911773682</t>
+    <t xml:space="preserve">13.5861902236938</t>
   </si>
   <si>
     <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783357620239</t>
+    <t xml:space="preserve">13.5783338546753</t>
   </si>
   <si>
-    <t xml:space="preserve">13.554759979248</t>
+    <t xml:space="preserve">13.5547580718994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512054443359</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761829376221</t>
+    <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526090621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.7276306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119169235229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869403839111</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
     <t xml:space="preserve">13.9083633422852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655183792114</t>
+    <t xml:space="preserve">14.0655193328857</t>
   </si>
   <si>
     <t xml:space="preserve">14.2148180007935</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.861216545105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590627670288</t>
+    <t xml:space="preserve">13.7590637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576601028442</t>
+    <t xml:space="preserve">14.0576610565186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297853469849</t>
+    <t xml:space="preserve">13.8297843933105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262298583984</t>
+    <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
     <t xml:space="preserve">14.104808807373</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">13.9476499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690729141235</t>
+    <t xml:space="preserve">13.8690738677979</t>
   </si>
   <si>
     <t xml:space="preserve">13.7904949188232</t>
@@ -485,16 +485,16 @@
     <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012533187866</t>
+    <t xml:space="preserve">14.3012552261353</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619647979736</t>
+    <t xml:space="preserve">14.2619657516479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584093093872</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226753234863</t>
+    <t xml:space="preserve">14.222674369812</t>
   </si>
   <si>
     <t xml:space="preserve">14.733434677124</t>
@@ -503,94 +503,94 @@
     <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933950424194</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498018264771</t>
+    <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941452026367</t>
+    <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969486236572</t>
+    <t xml:space="preserve">14.0969495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812358856201</t>
+    <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505519866943</t>
+    <t xml:space="preserve">14.450553894043</t>
   </si>
   <si>
     <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.322772026062</t>
+    <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770288467407</t>
+    <t xml:space="preserve">14.977029800415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070573806763</t>
+    <t xml:space="preserve">15.3070545196533</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856334686279</t>
+    <t xml:space="preserve">15.3856344223022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156667709351</t>
+    <t xml:space="preserve">15.7156658172607</t>
   </si>
   <si>
     <t xml:space="preserve">15.6999473571777</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842355728149</t>
+    <t xml:space="preserve">15.6842336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763744354248</t>
+    <t xml:space="preserve">15.6763753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384885787964</t>
+    <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977945327759</t>
+    <t xml:space="preserve">15.5977954864502</t>
   </si>
   <si>
     <t xml:space="preserve">15.3306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.872820854187</t>
+    <t xml:space="preserve">15.8728189468384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
     <t xml:space="preserve">16.1871318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014476776123</t>
+    <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300716400146</t>
+    <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443874359131</t>
+    <t xml:space="preserve">17.4443855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444850921631</t>
+    <t xml:space="preserve">18.5444812774658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730133056641</t>
+    <t xml:space="preserve">18.0730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158554077148</t>
+    <t xml:space="preserve">17.9158573150635</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587013244629</t>
+    <t xml:space="preserve">17.7586975097656</t>
   </si>
   <si>
     <t xml:space="preserve">17.2872314453125</t>
@@ -599,67 +599,67 @@
     <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
+    <t xml:space="preserve">16.9729156494141</t>
   </si>
   <si>
     <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345634460449</t>
+    <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112697601318</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.4578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797428131104</t>
+    <t xml:space="preserve">15.6797409057617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263301849365</t>
+    <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646862030029</t>
+    <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
     <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962093353271</t>
+    <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195030212402</t>
+    <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
     <t xml:space="preserve">16.649621963501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413896560669</t>
+    <t xml:space="preserve">15.8413867950439</t>
   </si>
   <si>
     <t xml:space="preserve">15.7605657577515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030364990234</t>
+    <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139783859253</t>
+    <t xml:space="preserve">15.1139802932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482149124146</t>
+    <t xml:space="preserve">14.5482158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255456924438</t>
+    <t xml:space="preserve">14.9255475997925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901393890381</t>
+    <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
@@ -671,16 +671,16 @@
     <t xml:space="preserve">14.3385848999023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416957855225</t>
+    <t xml:space="preserve">14.8416948318481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547340393066</t>
+    <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708831787109</t>
+    <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739912033081</t>
+    <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062885284424</t>
@@ -692,43 +692,43 @@
     <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932493209839</t>
+    <t xml:space="preserve">15.0932502746582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578439712524</t>
+    <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031814575195</t>
+    <t xml:space="preserve">14.0031824111938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516269683838</t>
+    <t xml:space="preserve">13.7516279220581</t>
   </si>
   <si>
     <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839233398438</t>
+    <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5000715255737</t>
+    <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.332368850708</t>
+    <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.248517036438</t>
+    <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969654083252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938564300537</t>
+    <t xml:space="preserve">12.4938554763794</t>
   </si>
   <si>
     <t xml:space="preserve">12.242301940918</t>
@@ -737,28 +737,28 @@
     <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131135940552</t>
+    <t xml:space="preserve">12.9131126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615591049194</t>
+    <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
     <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553421020508</t>
+    <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230447769165</t>
+    <t xml:space="preserve">11.8230457305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907464981079</t>
+    <t xml:space="preserve">11.9907474517822</t>
   </si>
   <si>
     <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745992660522</t>
+    <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068965911865</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">11.7391939163208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876394271851</t>
+    <t xml:space="preserve">11.4876403808594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714921951294</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
     <t xml:space="preserve">11.1522331237793</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845294952393</t>
+    <t xml:space="preserve">10.9845314025879</t>
   </si>
   <si>
     <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329769134521</t>
+    <t xml:space="preserve">10.7329778671265</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814224243164</t>
+    <t xml:space="preserve">10.4814233779907</t>
   </si>
   <si>
     <t xml:space="preserve">10.6491260528564</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942462921143</t>
+    <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
     <t xml:space="preserve">12.9321088790894</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4952116012573</t>
+    <t xml:space="preserve">12.4952125549316</t>
   </si>
   <si>
     <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0194873809814</t>
+    <t xml:space="preserve">13.0194864273071</t>
   </si>
   <si>
     <t xml:space="preserve">13.1068668365479</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534811019897</t>
+    <t xml:space="preserve">15.5534830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.116584777832</t>
   </si>
   <si>
     <t xml:space="preserve">15.8156175613403</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.417552947998</t>
+    <t xml:space="preserve">14.4175539016724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427940368652</t>
+    <t xml:space="preserve">14.2427949905396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418277740479</t>
+    <t xml:space="preserve">14.9418268203735</t>
   </si>
   <si>
     <t xml:space="preserve">14.2154502868652</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174470901489</t>
+    <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909482955933</t>
+    <t xml:space="preserve">14.3909492492676</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541996002197</t>
+    <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
     <t xml:space="preserve">14.5664482116699</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296976089478</t>
+    <t xml:space="preserve">14.8296966552734</t>
   </si>
   <si>
     <t xml:space="preserve">14.3031978607178</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561964035034</t>
+    <t xml:space="preserve">15.3561944961548</t>
   </si>
   <si>
     <t xml:space="preserve">15.5316944122314</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071943283081</t>
+    <t xml:space="preserve">15.7071924209595</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826951980591</t>
+    <t xml:space="preserve">15.8826932907104</t>
   </si>
   <si>
     <t xml:space="preserve">16.0581932067871</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704427719116</t>
+    <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
     <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.321439743042</t>
   </si>
   <si>
     <t xml:space="preserve">16.4091911315918</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601928710938</t>
+    <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479423522949</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573440551758</t>
+    <t xml:space="preserve">16.9573421478271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.866174697876</t>
+    <t xml:space="preserve">16.8661727905273</t>
   </si>
   <si>
     <t xml:space="preserve">16.7750053405762</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.501501083374</t>
+    <t xml:space="preserve">16.5014991760254</t>
   </si>
   <si>
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926685333252</t>
+    <t xml:space="preserve">16.5926704406738</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">16.1368274688721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1396789550781</t>
+    <t xml:space="preserve">17.1396808624268</t>
   </si>
   <si>
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131870269775</t>
+    <t xml:space="preserve">17.4131851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043525695801</t>
+    <t xml:space="preserve">17.5043544769287</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778606414795</t>
+    <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">19.5100593566895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9630489349365</t>
+    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
     <t xml:space="preserve">19.1453857421875</t>
@@ -1065,9 +1065,6 @@
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
     <t xml:space="preserve">18.6786060333252</t>
@@ -1110,6 +1107,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.8771133422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.066743850708</t>
@@ -43528,7 +43528,7 @@
         <v>20</v>
       </c>
       <c r="G1613" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43554,7 +43554,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43606,7 +43606,7 @@
         <v>20</v>
       </c>
       <c r="G1616" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43632,7 +43632,7 @@
         <v>20</v>
       </c>
       <c r="G1617" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43658,7 +43658,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43684,7 +43684,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43710,7 +43710,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43736,7 +43736,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1621" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43762,7 +43762,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43788,7 +43788,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1623" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43814,7 +43814,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43840,7 +43840,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43866,7 +43866,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1626" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43892,7 +43892,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1627" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43918,7 +43918,7 @@
         <v>20</v>
       </c>
       <c r="G1628" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43944,7 +43944,7 @@
         <v>20</v>
       </c>
       <c r="G1629" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -43970,7 +43970,7 @@
         <v>20</v>
       </c>
       <c r="G1630" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -43996,7 +43996,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1631" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44022,7 +44022,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44048,7 +44048,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44074,7 +44074,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44100,7 +44100,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44126,7 +44126,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44152,7 +44152,7 @@
         <v>19.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44178,7 +44178,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44204,7 +44204,7 @@
         <v>19.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44230,7 +44230,7 @@
         <v>19</v>
       </c>
       <c r="G1640" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44256,7 +44256,7 @@
         <v>19</v>
       </c>
       <c r="G1641" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44282,7 +44282,7 @@
         <v>19</v>
       </c>
       <c r="G1642" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44308,7 +44308,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44334,7 +44334,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1644" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44360,7 +44360,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1645" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44386,7 +44386,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44412,7 +44412,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44438,7 +44438,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44464,7 +44464,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44490,7 +44490,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44516,7 +44516,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44542,7 +44542,7 @@
         <v>19</v>
       </c>
       <c r="G1652" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44568,7 +44568,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44594,7 +44594,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44620,7 +44620,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44646,7 +44646,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44672,7 +44672,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44724,7 +44724,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45322,7 +45322,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1682" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45400,7 +45400,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45426,7 +45426,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45452,7 +45452,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1687" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45478,7 +45478,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1688" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45504,7 +45504,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45530,7 +45530,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45556,7 +45556,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45582,7 +45582,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1692" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45608,7 +45608,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45660,7 +45660,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45686,7 +45686,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1696" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45712,7 +45712,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1697" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45738,7 +45738,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45764,7 +45764,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45790,7 +45790,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45816,7 +45816,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45842,7 +45842,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46206,7 +46206,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1716" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46232,7 +46232,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1717" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46310,7 +46310,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46336,7 +46336,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46362,7 +46362,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46388,7 +46388,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46414,7 +46414,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46440,7 +46440,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47012,7 +47012,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47350,7 +47350,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47376,7 +47376,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47402,7 +47402,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47662,7 +47662,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47870,7 +47870,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47896,7 +47896,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48130,7 +48130,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1790" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48156,7 +48156,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48234,7 +48234,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48286,7 +48286,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48312,7 +48312,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48338,7 +48338,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1798" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48364,7 +48364,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48390,7 +48390,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48416,7 +48416,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48442,7 +48442,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48468,7 +48468,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48494,7 +48494,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48676,7 +48676,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -58460,7 +58460,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.6243055556</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>420</v>
@@ -58481,6 +58481,58 @@
         <v>410</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45511.5659953704</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440418243408</t>
+    <t xml:space="preserve">13.8440427780151</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711791992188</t>
+    <t xml:space="preserve">13.7711753845215</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651508331299</t>
+    <t xml:space="preserve">13.4651536941528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797248840332</t>
+    <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154079437256</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068613052368</t>
+    <t xml:space="preserve">13.4068603515625</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510890960693</t>
+    <t xml:space="preserve">12.751091003418</t>
   </si>
   <si>
     <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752334594727</t>
+    <t xml:space="preserve">11.0752325057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830318450928</t>
+    <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651893615723</t>
+    <t xml:space="preserve">10.5651903152466</t>
   </si>
   <si>
     <t xml:space="preserve">10.7983522415161</t>
@@ -89,43 +89,43 @@
     <t xml:space="preserve">11.0023708343506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950819015503</t>
+    <t xml:space="preserve">10.9950828552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.9295072555542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480979919434</t>
+    <t xml:space="preserve">11.148097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209596633911</t>
+    <t xml:space="preserve">11.2209606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938241958618</t>
+    <t xml:space="preserve">11.2938222885132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865381240845</t>
+    <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
     <t xml:space="preserve">11.6581401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204483032227</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
     <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523496627808</t>
+    <t xml:space="preserve">12.4523506164551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292318344116</t>
+    <t xml:space="preserve">12.729229927063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219467163086</t>
+    <t xml:space="preserve">12.72194480896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061130523682</t>
+    <t xml:space="preserve">13.0061120986938</t>
   </si>
   <si>
     <t xml:space="preserve">13.2611351013184</t>
@@ -137,28 +137,28 @@
     <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968191146851</t>
+    <t xml:space="preserve">12.8968181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199378967285</t>
+    <t xml:space="preserve">12.6199388504028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742097854614</t>
+    <t xml:space="preserve">12.4742107391357</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907907485962</t>
+    <t xml:space="preserve">12.5907917022705</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5503101348877</t>
+    <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699012756348</t>
+    <t xml:space="preserve">12.2698993682861</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">12.4669456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229503631592</t>
+    <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501184463501</t>
+    <t xml:space="preserve">12.0501174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.125904083252</t>
+    <t xml:space="preserve">12.1259059906006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880098342896</t>
+    <t xml:space="preserve">12.0880117416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364376068115</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290533065796</t>
+    <t xml:space="preserve">12.4290542602539</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
@@ -200,37 +200,37 @@
     <t xml:space="preserve">12.6564140319824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.73219871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770092010498</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837738037109</t>
+    <t xml:space="preserve">12.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957832336426</t>
+    <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761949539185</t>
+    <t xml:space="preserve">12.8761968612671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353469848633</t>
+    <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
     <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627067565918</t>
+    <t xml:space="preserve">13.2627086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582752227783</t>
+    <t xml:space="preserve">13.5582761764526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763885498047</t>
+    <t xml:space="preserve">13.3763914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885925292969</t>
+    <t xml:space="preserve">13.5885906219482</t>
   </si>
   <si>
     <t xml:space="preserve">13.5658559799194</t>
@@ -239,40 +239,40 @@
     <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690052032471</t>
+    <t xml:space="preserve">13.8690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447908401489</t>
+    <t xml:space="preserve">13.9447898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.096363067627</t>
+    <t xml:space="preserve">14.0963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205774307251</t>
+    <t xml:space="preserve">14.0205755233765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357360839844</t>
+    <t xml:space="preserve">14.0357351303101</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887842178345</t>
+    <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584716796875</t>
+    <t xml:space="preserve">14.0584697723389</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721525192261</t>
+    <t xml:space="preserve">14.1721506118774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100439071655</t>
+    <t xml:space="preserve">14.2100429534912</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134259223938</t>
+    <t xml:space="preserve">14.1342582702637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812072753906</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">13.831109046936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418399810791</t>
+    <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538446426392</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900703430176</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
     <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416435241699</t>
@@ -305,16 +305,16 @@
     <t xml:space="preserve">13.7553253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521751403809</t>
+    <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477436065674</t>
+    <t xml:space="preserve">13.747745513916</t>
   </si>
   <si>
     <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340646743774</t>
+    <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551298141479</t>
@@ -323,46 +323,46 @@
     <t xml:space="preserve">12.8231439590454</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776708602905</t>
+    <t xml:space="preserve">12.7776727676392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972610473633</t>
+    <t xml:space="preserve">12.4972591400146</t>
   </si>
   <si>
     <t xml:space="preserve">12.686728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412553787231</t>
+    <t xml:space="preserve">12.6412572860718</t>
   </si>
   <si>
     <t xml:space="preserve">12.6185207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063167572021</t>
+    <t xml:space="preserve">12.4063177108765</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488351821899</t>
+    <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
     <t xml:space="preserve">12.5578899383545</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654716491699</t>
+    <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473583221436</t>
+    <t xml:space="preserve">12.7473554611206</t>
   </si>
   <si>
     <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427312850952</t>
+    <t xml:space="preserve">12.5427322387695</t>
   </si>
   <si>
     <t xml:space="preserve">12.3153715133667</t>
@@ -374,19 +374,19 @@
     <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004083633423</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296876907349</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868455886841</t>
+    <t xml:space="preserve">12.8868446350098</t>
   </si>
   <si>
     <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061138153076</t>
+    <t xml:space="preserve">12.7061128616333</t>
   </si>
   <si>
     <t xml:space="preserve">12.9732799530029</t>
@@ -395,37 +395,37 @@
     <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.894702911377</t>
+    <t xml:space="preserve">12.8947010040283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047101974487</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697273254395</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368925094604</t>
+    <t xml:space="preserve">13.4368915557861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354879379272</t>
+    <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594048500061</t>
+    <t xml:space="preserve">13.5940504074097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861902236938</t>
+    <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875938415527</t>
+    <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.578332901001</t>
+    <t xml:space="preserve">13.5783338546753</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512044906616</t>
+    <t xml:space="preserve">13.7512054443359</t>
   </si>
   <si>
     <t xml:space="preserve">13.4761819839478</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.7276296615601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119150161743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869413375854</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
     <t xml:space="preserve">13.9083642959595</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833848953247</t>
   </si>
   <si>
     <t xml:space="preserve">13.8612155914307</t>
@@ -464,22 +464,22 @@
     <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297834396362</t>
+    <t xml:space="preserve">13.8297853469849</t>
   </si>
   <si>
     <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048078536987</t>
+    <t xml:space="preserve">14.104808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476518630981</t>
+    <t xml:space="preserve">13.9476499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690729141235</t>
+    <t xml:space="preserve">13.8690748214722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904939651489</t>
+    <t xml:space="preserve">13.7904958724976</t>
   </si>
   <si>
     <t xml:space="preserve">14.1440982818604</t>
@@ -488,43 +488,43 @@
     <t xml:space="preserve">14.3012542724609</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619657516479</t>
+    <t xml:space="preserve">14.2619667053223</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584112167358</t>
+    <t xml:space="preserve">14.4584083557129</t>
   </si>
   <si>
     <t xml:space="preserve">14.222674369812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334337234497</t>
+    <t xml:space="preserve">14.733434677124</t>
   </si>
   <si>
     <t xml:space="preserve">14.3405418395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933969497681</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
     <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155652999878</t>
+    <t xml:space="preserve">14.6155681610107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.694146156311</t>
+    <t xml:space="preserve">14.6941452026367</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969514846802</t>
+    <t xml:space="preserve">14.0969495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812358856201</t>
+    <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505529403687</t>
+    <t xml:space="preserve">14.45055103302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
     <t xml:space="preserve">15.322772026062</t>
@@ -536,64 +536,64 @@
     <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856325149536</t>
+    <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078075408936</t>
+    <t xml:space="preserve">15.7078065872192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156648635864</t>
+    <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999454498291</t>
+    <t xml:space="preserve">15.6999473571777</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842317581177</t>
+    <t xml:space="preserve">15.6842346191406</t>
   </si>
   <si>
     <t xml:space="preserve">15.6763753890991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384885787964</t>
+    <t xml:space="preserve">15.3384866714478</t>
   </si>
   <si>
     <t xml:space="preserve">15.5977945327759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306312561035</t>
+    <t xml:space="preserve">15.3306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728189468384</t>
+    <t xml:space="preserve">15.8728199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
     <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014476776123</t>
+    <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300716400146</t>
+    <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443874359131</t>
+    <t xml:space="preserve">17.4443855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444850921631</t>
+    <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730113983154</t>
+    <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
     <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587032318115</t>
+    <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872295379639</t>
+    <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
     <t xml:space="preserve">17.6015453338623</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157634735107</t>
+    <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112697601318</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.4578590393066</t>
@@ -632,34 +632,34 @@
     <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6496238708496</t>
+    <t xml:space="preserve">16.6496257781982</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413896560669</t>
+    <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605657577515</t>
+    <t xml:space="preserve">15.7605648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564500808716</t>
+    <t xml:space="preserve">15.3564491271973</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030345916748</t>
+    <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
     <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139793395996</t>
+    <t xml:space="preserve">15.1139802932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482149124146</t>
+    <t xml:space="preserve">14.5482158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255456924438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901412963867</t>
+    <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224376678467</t>
@@ -677,16 +677,16 @@
     <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708831787109</t>
+    <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739912033081</t>
+    <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354787826538</t>
+    <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
     <t xml:space="preserve">13.9193296432495</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">15.0932502746582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578449249268</t>
+    <t xml:space="preserve">14.7578439712524</t>
   </si>
   <si>
     <t xml:space="preserve">14.0031824111938</t>
@@ -713,13 +713,13 @@
     <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.416220664978</t>
+    <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
     <t xml:space="preserve">13.3323698043823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808143615723</t>
+    <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
     <t xml:space="preserve">13.2485189437866</t>
@@ -728,13 +728,13 @@
     <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938545227051</t>
+    <t xml:space="preserve">12.4938564300537</t>
   </si>
   <si>
     <t xml:space="preserve">12.2423009872437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.164665222168</t>
+    <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
     <t xml:space="preserve">12.9131116867065</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
     <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230447769165</t>
+    <t xml:space="preserve">11.8230457305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907474517822</t>
+    <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
     <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745973587036</t>
+    <t xml:space="preserve">12.0745992660522</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068975448608</t>
+    <t xml:space="preserve">11.9068965911865</t>
   </si>
   <si>
     <t xml:space="preserve">11.7391929626465</t>
@@ -773,28 +773,28 @@
     <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.152232170105</t>
+    <t xml:space="preserve">11.1522340774536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168277740479</t>
+    <t xml:space="preserve">10.8168287277222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845314025879</t>
+    <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
     <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329759597778</t>
+    <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814224243164</t>
+    <t xml:space="preserve">10.4814233779907</t>
   </si>
   <si>
     <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.326153755188</t>
+    <t xml:space="preserve">12.3261528015137</t>
   </si>
   <si>
     <t xml:space="preserve">12.5777063369751</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942462921143</t>
+    <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
     <t xml:space="preserve">12.932107925415</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4952125549316</t>
+    <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
     <t xml:space="preserve">12.7573499679565</t>
@@ -824,34 +824,34 @@
     <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068668365479</t>
+    <t xml:space="preserve">13.1068658828735</t>
   </si>
   <si>
     <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8059005737305</t>
+    <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680360794067</t>
+    <t xml:space="preserve">14.0680370330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.631139755249</t>
+    <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661026000977</t>
+    <t xml:space="preserve">15.4661016464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039642333984</t>
+    <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534811019897</t>
+    <t xml:space="preserve">15.5534820556641</t>
   </si>
   <si>
     <t xml:space="preserve">15.1165857315063</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">15.8156185150146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408615112305</t>
+    <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282419204712</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787231445312</t>
+    <t xml:space="preserve">15.3787240982056</t>
   </si>
   <si>
     <t xml:space="preserve">15.2913427352905</t>
@@ -875,19 +875,19 @@
     <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8544492721558</t>
+    <t xml:space="preserve">14.8544502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796913146973</t>
+    <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.330174446106</t>
+    <t xml:space="preserve">14.3301753997803</t>
   </si>
   <si>
     <t xml:space="preserve">14.4175539016724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427940368652</t>
+    <t xml:space="preserve">14.2427949905396</t>
   </si>
   <si>
     <t xml:space="preserve">14.9418268203735</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174461364746</t>
+    <t xml:space="preserve">14.9174451828003</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541986465454</t>
+    <t xml:space="preserve">14.6541996002197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664482116699</t>
+    <t xml:space="preserve">14.5664491653442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929470062256</t>
+    <t xml:space="preserve">15.0929460525513</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684459686279</t>
+    <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
     <t xml:space="preserve">14.8296966552734</t>
@@ -923,43 +923,43 @@
     <t xml:space="preserve">14.3031978607178</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1276998519897</t>
+    <t xml:space="preserve">14.1276988983154</t>
   </si>
   <si>
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561944961548</t>
+    <t xml:space="preserve">15.3561954498291</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806945800781</t>
+    <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
     <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439449310303</t>
+    <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
     <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826932907104</t>
+    <t xml:space="preserve">15.8826923370361</t>
   </si>
   <si>
     <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459426879883</t>
+    <t xml:space="preserve">16.1459407806396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704446792603</t>
+    <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
-    <t xml:space="preserve">15.794942855835</t>
+    <t xml:space="preserve">15.7949419021606</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214416503906</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479423522949</t>
+    <t xml:space="preserve">16.8479404449463</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
@@ -58587,7 +58587,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="1" t="n">
-        <v>45516.4778935185</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B2193" t="n">
         <v>470</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440427780151</t>
+    <t xml:space="preserve">13.8440446853638</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711753845215</t>
+    <t xml:space="preserve">13.7711801528931</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651536941528</t>
+    <t xml:space="preserve">13.4651508331299</t>
   </si>
   <si>
     <t xml:space="preserve">13.4797239303589</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068603515625</t>
+    <t xml:space="preserve">13.4068593978882</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081218719482</t>
+    <t xml:space="preserve">13.1081209182739</t>
   </si>
   <si>
     <t xml:space="preserve">12.751091003418</t>
@@ -77,73 +77,73 @@
     <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655643463135</t>
+    <t xml:space="preserve">9.83655738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651903152466</t>
+    <t xml:space="preserve">10.5651884078979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983522415161</t>
+    <t xml:space="preserve">10.7983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023708343506</t>
+    <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950828552246</t>
+    <t xml:space="preserve">10.9950838088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295072555542</t>
+    <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480960845947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209606170654</t>
+    <t xml:space="preserve">11.2209587097168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938222885132</t>
+    <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865371704102</t>
+    <t xml:space="preserve">11.2865362167358</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581401824951</t>
+    <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
     <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827545166016</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.729229927063</t>
+    <t xml:space="preserve">12.7292308807373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.72194480896</t>
+    <t xml:space="preserve">12.7219476699829</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061120986938</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611351013184</t>
+    <t xml:space="preserve">13.2611331939697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525875091553</t>
+    <t xml:space="preserve">13.552586555481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882705688477</t>
+    <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968181610107</t>
+    <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199388504028</t>
+    <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742116928101</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
@@ -152,73 +152,73 @@
     <t xml:space="preserve">12.5907917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.2774791717529</t>
   </si>
   <si>
     <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698993682861</t>
+    <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
     <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501174926758</t>
+    <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259059906006</t>
+    <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
     <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880117416382</t>
+    <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
     <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016916275024</t>
+    <t xml:space="preserve">12.2016906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290542602539</t>
+    <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
     <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5806264877319</t>
+    <t xml:space="preserve">12.5806255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564149856567</t>
   </si>
   <si>
-    <t xml:space="preserve">12.73219871521</t>
+    <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700929641724</t>
+    <t xml:space="preserve">12.770092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837747573853</t>
+    <t xml:space="preserve">12.8837738037109</t>
   </si>
   <si>
     <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761968612671</t>
+    <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
     <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111345291138</t>
+    <t xml:space="preserve">13.1111364364624</t>
   </si>
   <si>
     <t xml:space="preserve">13.2627086639404</t>
@@ -227,31 +227,31 @@
     <t xml:space="preserve">13.5582761764526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763914108276</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885906219482</t>
+    <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
     <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142837524414</t>
+    <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690032958984</t>
+    <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447898864746</t>
+    <t xml:space="preserve">13.9447908401489</t>
   </si>
   <si>
     <t xml:space="preserve">14.0963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205755233765</t>
+    <t xml:space="preserve">14.0205783843994</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357351303101</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
     <t xml:space="preserve">14.0887851715088</t>
@@ -260,10 +260,10 @@
     <t xml:space="preserve">14.0584697723389</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721506118774</t>
+    <t xml:space="preserve">14.1721515655518</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100429534912</t>
+    <t xml:space="preserve">14.2100458145142</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948881149292</t>
@@ -272,10 +272,10 @@
     <t xml:space="preserve">14.1342582702637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.982684135437</t>
+    <t xml:space="preserve">13.9826860427856</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812072753906</t>
+    <t xml:space="preserve">14.0812082290649</t>
   </si>
   <si>
     <t xml:space="preserve">14.0736293792725</t>
@@ -287,97 +287,97 @@
     <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538446426392</t>
+    <t xml:space="preserve">13.8538465499878</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900684356689</t>
+    <t xml:space="preserve">13.4900693893433</t>
   </si>
   <si>
     <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203838348389</t>
+    <t xml:space="preserve">13.5203847885132</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416435241699</t>
+    <t xml:space="preserve">13.6416444778442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553253173828</t>
+    <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521741867065</t>
+    <t xml:space="preserve">13.4521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.747745513916</t>
+    <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460731506348</t>
   </si>
   <si>
     <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551298141479</t>
+    <t xml:space="preserve">13.2551288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231439590454</t>
+    <t xml:space="preserve">12.8231430053711</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776727676392</t>
+    <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
     <t xml:space="preserve">12.4972591400146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686728477478</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412572860718</t>
+    <t xml:space="preserve">12.6412544250488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185207366943</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063177108765</t>
+    <t xml:space="preserve">12.4063158035278</t>
   </si>
   <si>
     <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578899383545</t>
+    <t xml:space="preserve">12.5578908920288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654697418213</t>
+    <t xml:space="preserve">12.5654706954956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124177932739</t>
+    <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473554611206</t>
+    <t xml:space="preserve">12.7473564147949</t>
   </si>
   <si>
     <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351552963257</t>
+    <t xml:space="preserve">12.5351543426514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427322387695</t>
+    <t xml:space="preserve">12.5427312850952</t>
   </si>
   <si>
     <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246208190918</t>
+    <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079862594604</t>
+    <t xml:space="preserve">12.8079872131348</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296867370605</t>
+    <t xml:space="preserve">12.7296876907349</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868446350098</t>
@@ -386,28 +386,28 @@
     <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061128616333</t>
+    <t xml:space="preserve">12.706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732799530029</t>
+    <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118202209473</t>
+    <t xml:space="preserve">12.6118192672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947010040283</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.004711151123</t>
+    <t xml:space="preserve">13.0047101974487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697254180908</t>
+    <t xml:space="preserve">13.1697273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368915557861</t>
+    <t xml:space="preserve">13.4368896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354888916016</t>
+    <t xml:space="preserve">13.7354898452759</t>
   </si>
   <si>
     <t xml:space="preserve">13.5940504074097</t>
@@ -416,88 +416,88 @@
     <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783338546753</t>
+    <t xml:space="preserve">13.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547590255737</t>
+    <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
     <t xml:space="preserve">13.7512054443359</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761819839478</t>
+    <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276296615601</t>
+    <t xml:space="preserve">13.7276334762573</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119150161743</t>
+    <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869394302368</t>
+    <t xml:space="preserve">13.9869403839111</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083642959595</t>
+    <t xml:space="preserve">13.9083623886108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655193328857</t>
+    <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
     <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833848953247</t>
+    <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.861216545105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
     <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297853469849</t>
+    <t xml:space="preserve">13.8297834396362</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262289047241</t>
+    <t xml:space="preserve">14.0262269973755</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104808807373</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476499557495</t>
+    <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690748214722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904958724976</t>
+    <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
     <t xml:space="preserve">14.1440982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619667053223</t>
+    <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584083557129</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.222674369812</t>
+    <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.733434677124</t>
+    <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
     <t xml:space="preserve">14.3405418395996</t>
@@ -506,76 +506,76 @@
     <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498037338257</t>
+    <t xml:space="preserve">14.0498046875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155681610107</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941452026367</t>
+    <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969495773315</t>
+    <t xml:space="preserve">14.0969505310059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812349319458</t>
+    <t xml:space="preserve">14.0812339782715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.45055103302</t>
+    <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
     <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.322772026062</t>
+    <t xml:space="preserve">15.3227701187134</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770269393921</t>
+    <t xml:space="preserve">14.9770278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070554733276</t>
+    <t xml:space="preserve">15.307056427002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856353759766</t>
+    <t xml:space="preserve">15.3856334686279</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078046798706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156639099121</t>
+    <t xml:space="preserve">15.7156658172607</t>
   </si>
   <si>
     <t xml:space="preserve">15.6999473571777</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842346191406</t>
+    <t xml:space="preserve">15.6842336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763753890991</t>
+    <t xml:space="preserve">15.6763763427734</t>
   </si>
   <si>
     <t xml:space="preserve">15.3384866714478</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977945327759</t>
+    <t xml:space="preserve">15.5977983474731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306293487549</t>
+    <t xml:space="preserve">15.3306303024292</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728199005127</t>
+    <t xml:space="preserve">15.8728189468384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442878723145</t>
+    <t xml:space="preserve">16.3442916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871356964111</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014495849609</t>
+    <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300735473633</t>
+    <t xml:space="preserve">17.1300754547119</t>
   </si>
   <si>
     <t xml:space="preserve">17.4443855285645</t>
@@ -584,61 +584,61 @@
     <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730133056641</t>
+    <t xml:space="preserve">18.0730113983154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158554077148</t>
+    <t xml:space="preserve">17.9158592224121</t>
   </si>
   <si>
     <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872314453125</t>
+    <t xml:space="preserve">17.2872333526611</t>
   </si>
   <si>
     <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
+    <t xml:space="preserve">16.9729156494141</t>
   </si>
   <si>
     <t xml:space="preserve">16.8157596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345653533936</t>
+    <t xml:space="preserve">17.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112678527832</t>
+    <t xml:space="preserve">16.8112697601318</t>
   </si>
   <si>
     <t xml:space="preserve">17.4578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797409057617</t>
+    <t xml:space="preserve">15.6797428131104</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646823883057</t>
+    <t xml:space="preserve">16.1646862030029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879760742188</t>
+    <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
     <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195049285889</t>
+    <t xml:space="preserve">17.6195030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6496257781982</t>
+    <t xml:space="preserve">16.649621963501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413906097412</t>
+    <t xml:space="preserve">15.8413887023926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605648040771</t>
+    <t xml:space="preserve">15.7605638504028</t>
   </si>
   <si>
     <t xml:space="preserve">15.3564491271973</t>
@@ -647,97 +647,97 @@
     <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331544876099</t>
+    <t xml:space="preserve">15.0331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139802932739</t>
+    <t xml:space="preserve">15.1139783859253</t>
   </si>
   <si>
     <t xml:space="preserve">14.5482158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255456924438</t>
+    <t xml:space="preserve">14.9255466461182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901403427124</t>
+    <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224376678467</t>
+    <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
     <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385858535767</t>
+    <t xml:space="preserve">14.3385848999023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547359466553</t>
+    <t xml:space="preserve">14.254734992981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708822250366</t>
+    <t xml:space="preserve">14.1708831787109</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739902496338</t>
+    <t xml:space="preserve">14.6739912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062885284424</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354778289795</t>
+    <t xml:space="preserve">13.8354787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193296432495</t>
+    <t xml:space="preserve">13.9193286895752</t>
   </si>
   <si>
     <t xml:space="preserve">15.0932502746582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578439712524</t>
+    <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031824111938</t>
+    <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516279220581</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
     <t xml:space="preserve">13.6677761077881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839223861694</t>
+    <t xml:space="preserve">13.5839233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500072479248</t>
+    <t xml:space="preserve">13.5000715255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162216186523</t>
+    <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485189437866</t>
+    <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938564300537</t>
+    <t xml:space="preserve">12.4938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423009872437</t>
+    <t xml:space="preserve">12.242301940918</t>
   </si>
   <si>
     <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131116867065</t>
+    <t xml:space="preserve">12.9131135940552</t>
   </si>
   <si>
     <t xml:space="preserve">12.6615581512451</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230457305908</t>
+    <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
     <t xml:space="preserve">11.9907464981079</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745992660522</t>
+    <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068965911865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391929626465</t>
+    <t xml:space="preserve">11.7391939163208</t>
   </si>
   <si>
     <t xml:space="preserve">11.4876394271851</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522340774536</t>
+    <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168287277222</t>
+    <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
     <t xml:space="preserve">10.9845304489136</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">10.4814233779907</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491250991821</t>
+    <t xml:space="preserve">10.6491260528564</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261528015137</t>
+    <t xml:space="preserve">12.326153755188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777063369751</t>
+    <t xml:space="preserve">12.5777082443237</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
-    <t xml:space="preserve">12.932107925415</t>
+    <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
     <t xml:space="preserve">11.5340423583984</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068658828735</t>
+    <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
     <t xml:space="preserve">13.5437622070312</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680370330811</t>
+    <t xml:space="preserve">14.0680360794067</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
@@ -845,28 +845,28 @@
     <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661016464233</t>
+    <t xml:space="preserve">15.466103553772</t>
   </si>
   <si>
     <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534820556641</t>
+    <t xml:space="preserve">15.5534801483154</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.116584777832</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156185150146</t>
+    <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408596038818</t>
+    <t xml:space="preserve">15.6408624649048</t>
   </si>
   <si>
     <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787240982056</t>
+    <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
     <t xml:space="preserve">15.2913427352905</t>
@@ -875,28 +875,28 @@
     <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8544502258301</t>
+    <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
     <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3301753997803</t>
+    <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4175539016724</t>
+    <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
     <t xml:space="preserve">14.2427949905396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418268203735</t>
+    <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
     <t xml:space="preserve">14.2154493331909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786987304688</t>
+    <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
     <t xml:space="preserve">14.9174451828003</t>
@@ -905,58 +905,58 @@
     <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541996002197</t>
+    <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664491653442</t>
+    <t xml:space="preserve">14.5664472579956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929460525513</t>
+    <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684450149536</t>
+    <t xml:space="preserve">15.2684459686279</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296966552734</t>
+    <t xml:space="preserve">14.8296957015991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031978607178</t>
+    <t xml:space="preserve">14.3031988143921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1276988983154</t>
+    <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561954498291</t>
+    <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316963195801</t>
+    <t xml:space="preserve">15.5316953659058</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071933746338</t>
+    <t xml:space="preserve">15.7071924209595</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194429397583</t>
+    <t xml:space="preserve">15.6194438934326</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826923370361</t>
+    <t xml:space="preserve">15.8826932907104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581912994385</t>
+    <t xml:space="preserve">16.0581932067871</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459407806396</t>
+    <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704427719116</t>
+    <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
     <t xml:space="preserve">15.7949419021606</t>
@@ -965,10 +965,10 @@
     <t xml:space="preserve">16.3214416503906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091930389404</t>
+    <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724395751953</t>
+    <t xml:space="preserve">16.6724433898926</t>
   </si>
   <si>
     <t xml:space="preserve">16.7601909637451</t>
@@ -980,25 +980,25 @@
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0485134124756</t>
+    <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573421478271</t>
+    <t xml:space="preserve">16.9573440551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8661727905273</t>
+    <t xml:space="preserve">16.866174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750034332275</t>
+    <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
     <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014991760254</t>
+    <t xml:space="preserve">16.501501083374</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4103298187256</t>
+    <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
     <t xml:space="preserve">16.5926685333252</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131851196289</t>
+    <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043544769287</t>
+    <t xml:space="preserve">17.5043525695801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778587341309</t>
+    <t xml:space="preserve">17.7778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5100612640381</t>
+    <t xml:space="preserve">19.5100593566895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9630508422852</t>
+    <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453876495361</t>
+    <t xml:space="preserve">19.1453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277244567871</t>
+    <t xml:space="preserve">19.3277225494385</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1065,6 +1065,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
     <t xml:space="preserve">18.6786060333252</t>
@@ -43525,7 +43528,7 @@
         <v>20</v>
       </c>
       <c r="G1613" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43551,7 +43554,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43603,7 +43606,7 @@
         <v>20</v>
       </c>
       <c r="G1616" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43629,7 +43632,7 @@
         <v>20</v>
       </c>
       <c r="G1617" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43655,7 +43658,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43681,7 +43684,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43707,7 +43710,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43733,7 +43736,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1621" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43759,7 +43762,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43785,7 +43788,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1623" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43811,7 +43814,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43837,7 +43840,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43863,7 +43866,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1626" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43889,7 +43892,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1627" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43915,7 +43918,7 @@
         <v>20</v>
       </c>
       <c r="G1628" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43941,7 +43944,7 @@
         <v>20</v>
       </c>
       <c r="G1629" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -43967,7 +43970,7 @@
         <v>20</v>
       </c>
       <c r="G1630" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -43993,7 +43996,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1631" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44019,7 +44022,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44045,7 +44048,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44071,7 +44074,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44097,7 +44100,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44123,7 +44126,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44149,7 +44152,7 @@
         <v>19.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44175,7 +44178,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44201,7 +44204,7 @@
         <v>19.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44227,7 +44230,7 @@
         <v>19</v>
       </c>
       <c r="G1640" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44253,7 +44256,7 @@
         <v>19</v>
       </c>
       <c r="G1641" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44279,7 +44282,7 @@
         <v>19</v>
       </c>
       <c r="G1642" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44305,7 +44308,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44331,7 +44334,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1644" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44357,7 +44360,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1645" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44383,7 +44386,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44409,7 +44412,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44435,7 +44438,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44461,7 +44464,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44487,7 +44490,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44513,7 +44516,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44539,7 +44542,7 @@
         <v>19</v>
       </c>
       <c r="G1652" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44565,7 +44568,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44591,7 +44594,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44617,7 +44620,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44643,7 +44646,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44695,7 +44698,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44721,7 +44724,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44747,7 +44750,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44773,7 +44776,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44799,7 +44802,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44825,7 +44828,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44851,7 +44854,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44877,7 +44880,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44903,7 +44906,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44929,7 +44932,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44955,7 +44958,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44981,7 +44984,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45007,7 +45010,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45033,7 +45036,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45059,7 +45062,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45085,7 +45088,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45111,7 +45114,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45137,7 +45140,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45163,7 +45166,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45189,7 +45192,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45215,7 +45218,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45241,7 +45244,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45267,7 +45270,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45293,7 +45296,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45319,7 +45322,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1682" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45345,7 +45348,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45371,7 +45374,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45397,7 +45400,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45423,7 +45426,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45449,7 +45452,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1687" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45475,7 +45478,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1688" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45501,7 +45504,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45527,7 +45530,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45553,7 +45556,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45579,7 +45582,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1692" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45605,7 +45608,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45631,7 +45634,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45657,7 +45660,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45683,7 +45686,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1696" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45709,7 +45712,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1697" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45735,7 +45738,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45761,7 +45764,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45787,7 +45790,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45813,7 +45816,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45839,7 +45842,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45865,7 +45868,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45891,7 +45894,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45917,7 +45920,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45943,7 +45946,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45969,7 +45972,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -45995,7 +45998,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46021,7 +46024,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46047,7 +46050,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46073,7 +46076,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46099,7 +46102,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46125,7 +46128,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46151,7 +46154,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46177,7 +46180,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46203,7 +46206,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1716" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46229,7 +46232,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1717" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46255,7 +46258,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46281,7 +46284,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46307,7 +46310,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46333,7 +46336,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46359,7 +46362,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46385,7 +46388,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46411,7 +46414,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46437,7 +46440,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46463,7 +46466,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46489,7 +46492,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46515,7 +46518,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46541,7 +46544,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46567,7 +46570,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46593,7 +46596,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46619,7 +46622,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46645,7 +46648,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46671,7 +46674,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46697,7 +46700,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46723,7 +46726,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46749,7 +46752,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46775,7 +46778,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46801,7 +46804,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46827,7 +46830,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46853,7 +46856,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46879,7 +46882,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46905,7 +46908,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46931,7 +46934,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46957,7 +46960,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46983,7 +46986,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47009,7 +47012,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47035,7 +47038,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47061,7 +47064,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47087,7 +47090,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47113,7 +47116,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47139,7 +47142,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47165,7 +47168,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47191,7 +47194,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47217,7 +47220,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47243,7 +47246,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47269,7 +47272,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47295,7 +47298,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47321,7 +47324,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47347,7 +47350,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47373,7 +47376,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47399,7 +47402,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47425,7 +47428,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47451,7 +47454,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47477,7 +47480,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47503,7 +47506,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47529,7 +47532,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47555,7 +47558,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47581,7 +47584,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47607,7 +47610,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47633,7 +47636,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47659,7 +47662,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47685,7 +47688,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47711,7 +47714,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47737,7 +47740,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47763,7 +47766,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47789,7 +47792,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47815,7 +47818,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47841,7 +47844,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47867,7 +47870,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47893,7 +47896,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47919,7 +47922,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47945,7 +47948,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47971,7 +47974,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -47997,7 +48000,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48023,7 +48026,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48049,7 +48052,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48075,7 +48078,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48101,7 +48104,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48127,7 +48130,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1790" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48179,7 +48182,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48205,7 +48208,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48231,7 +48234,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48257,7 +48260,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48283,7 +48286,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48309,7 +48312,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48335,7 +48338,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1798" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48361,7 +48364,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48387,7 +48390,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48413,7 +48416,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48439,7 +48442,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48465,7 +48468,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48491,7 +48494,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48517,7 +48520,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48543,7 +48546,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48569,7 +48572,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48595,7 +48598,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48621,7 +48624,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48647,7 +48650,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48699,7 +48702,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48725,7 +48728,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48751,7 +48754,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48777,7 +48780,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48803,7 +48806,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48829,7 +48832,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48855,7 +48858,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48881,7 +48884,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48907,7 +48910,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48933,7 +48936,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48959,7 +48962,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48985,7 +48988,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49011,7 +49014,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49037,7 +49040,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49063,7 +49066,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49089,7 +49092,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49115,7 +49118,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49141,7 +49144,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49167,7 +49170,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49193,7 +49196,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49219,7 +49222,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49245,7 +49248,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49271,7 +49274,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49297,7 +49300,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49323,7 +49326,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49349,7 +49352,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49375,7 +49378,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49401,7 +49404,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49427,7 +49430,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49453,7 +49456,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49479,7 +49482,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49505,7 +49508,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49531,7 +49534,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49557,7 +49560,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49583,7 +49586,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49609,7 +49612,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49635,7 +49638,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49661,7 +49664,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49687,7 +49690,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49713,7 +49716,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49739,7 +49742,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49765,7 +49768,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49791,7 +49794,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49817,7 +49820,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49843,7 +49846,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49869,7 +49872,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49895,7 +49898,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49921,7 +49924,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49947,7 +49950,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49973,7 +49976,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -49999,7 +50002,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50025,7 +50028,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50051,7 +50054,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50077,7 +50080,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50103,7 +50106,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50129,7 +50132,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50155,7 +50158,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50181,7 +50184,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50207,7 +50210,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50233,7 +50236,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50259,7 +50262,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50285,7 +50288,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50311,7 +50314,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50337,7 +50340,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50363,7 +50366,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50389,7 +50392,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50415,7 +50418,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50441,7 +50444,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50467,7 +50470,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50493,7 +50496,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50519,7 +50522,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50545,7 +50548,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50571,7 +50574,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50597,7 +50600,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50623,7 +50626,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50649,7 +50652,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50675,7 +50678,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50701,7 +50704,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50727,7 +50730,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50753,7 +50756,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50779,7 +50782,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50805,7 +50808,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50831,7 +50834,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50857,7 +50860,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50883,7 +50886,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50909,7 +50912,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50935,7 +50938,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50961,7 +50964,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50987,7 +50990,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51013,7 +51016,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51039,7 +51042,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51065,7 +51068,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51091,7 +51094,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51117,7 +51120,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51143,7 +51146,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51169,7 +51172,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51195,7 +51198,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51221,7 +51224,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51247,7 +51250,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51273,7 +51276,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51299,7 +51302,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51325,7 +51328,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51351,7 +51354,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51377,7 +51380,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51403,7 +51406,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51429,7 +51432,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51455,7 +51458,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51481,7 +51484,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51507,7 +51510,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51533,7 +51536,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51559,7 +51562,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51585,7 +51588,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51611,7 +51614,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51637,7 +51640,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51663,7 +51666,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51689,7 +51692,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51715,7 +51718,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51741,7 +51744,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51767,7 +51770,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51793,7 +51796,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51819,7 +51822,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51845,7 +51848,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51871,7 +51874,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51897,7 +51900,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51923,7 +51926,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51949,7 +51952,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51975,7 +51978,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52001,7 +52004,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52027,7 +52030,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52053,7 +52056,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52079,7 +52082,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52105,7 +52108,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52131,7 +52134,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52157,7 +52160,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52183,7 +52186,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52209,7 +52212,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52235,7 +52238,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52261,7 +52264,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52287,7 +52290,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52313,7 +52316,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52339,7 +52342,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52365,7 +52368,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52391,7 +52394,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52417,7 +52420,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52443,7 +52446,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52469,7 +52472,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52495,7 +52498,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52521,7 +52524,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52547,7 +52550,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52573,7 +52576,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52599,7 +52602,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52625,7 +52628,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52651,7 +52654,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52677,7 +52680,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52703,7 +52706,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52729,7 +52732,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52755,7 +52758,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52781,7 +52784,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52807,7 +52810,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52833,7 +52836,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52859,7 +52862,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52885,7 +52888,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52911,7 +52914,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52937,7 +52940,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52963,7 +52966,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -52989,7 +52992,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53015,7 +53018,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53041,7 +53044,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53067,7 +53070,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53093,7 +53096,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53119,7 +53122,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53145,7 +53148,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53171,7 +53174,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53197,7 +53200,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53223,7 +53226,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53249,7 +53252,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53275,7 +53278,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53301,7 +53304,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53327,7 +53330,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53353,7 +53356,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53379,7 +53382,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53405,7 +53408,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53431,7 +53434,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53457,7 +53460,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53483,7 +53486,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53509,7 +53512,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53535,7 +53538,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53561,7 +53564,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53587,7 +53590,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53613,7 +53616,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53639,7 +53642,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53665,7 +53668,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53691,7 +53694,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53717,7 +53720,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53743,7 +53746,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53769,7 +53772,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53795,7 +53798,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53821,7 +53824,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53847,7 +53850,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53873,7 +53876,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53899,7 +53902,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53925,7 +53928,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53951,7 +53954,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53977,7 +53980,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54003,7 +54006,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54029,7 +54032,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54055,7 +54058,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54081,7 +54084,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54107,7 +54110,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54133,7 +54136,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54159,7 +54162,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54185,7 +54188,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54211,7 +54214,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54237,7 +54240,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54263,7 +54266,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54289,7 +54292,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54315,7 +54318,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54341,7 +54344,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54367,7 +54370,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54393,7 +54396,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54419,7 +54422,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54445,7 +54448,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54471,7 +54474,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54497,7 +54500,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54523,7 +54526,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54549,7 +54552,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54575,7 +54578,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54601,7 +54604,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54627,7 +54630,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54653,7 +54656,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54679,7 +54682,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54705,7 +54708,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54731,7 +54734,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54757,7 +54760,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54783,7 +54786,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54809,7 +54812,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54835,7 +54838,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54861,7 +54864,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54887,7 +54890,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54913,7 +54916,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54939,7 +54942,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54965,7 +54968,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -54991,7 +54994,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55017,7 +55020,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55043,7 +55046,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55069,7 +55072,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55095,7 +55098,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55121,7 +55124,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55147,7 +55150,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55173,7 +55176,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55199,7 +55202,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55225,7 +55228,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55251,7 +55254,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55277,7 +55280,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55303,7 +55306,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55329,7 +55332,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55355,7 +55358,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55381,7 +55384,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55407,7 +55410,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55433,7 +55436,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55459,7 +55462,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55485,7 +55488,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55511,7 +55514,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55537,7 +55540,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55563,7 +55566,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55589,7 +55592,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55615,7 +55618,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55641,7 +55644,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55667,7 +55670,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55693,7 +55696,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55719,7 +55722,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55745,7 +55748,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55771,7 +55774,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55797,7 +55800,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55823,7 +55826,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55849,7 +55852,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55875,7 +55878,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55901,7 +55904,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55927,7 +55930,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55953,7 +55956,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55979,7 +55982,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56005,7 +56008,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56031,7 +56034,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56057,7 +56060,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56083,7 +56086,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56109,7 +56112,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56135,7 +56138,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56161,7 +56164,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56187,7 +56190,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56213,7 +56216,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56239,7 +56242,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56265,7 +56268,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56291,7 +56294,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56317,7 +56320,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56343,7 +56346,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56369,7 +56372,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56395,7 +56398,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56421,7 +56424,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56447,7 +56450,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56473,7 +56476,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56499,7 +56502,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56525,7 +56528,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56551,7 +56554,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56577,7 +56580,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56603,7 +56606,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56629,7 +56632,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56655,7 +56658,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56681,7 +56684,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56707,7 +56710,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56733,7 +56736,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56759,7 +56762,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56785,7 +56788,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56811,7 +56814,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56837,7 +56840,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56863,7 +56866,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56889,7 +56892,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56915,7 +56918,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56941,7 +56944,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56967,7 +56970,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -56993,7 +56996,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57019,7 +57022,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57045,7 +57048,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57071,7 +57074,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57097,7 +57100,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57123,7 +57126,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57149,7 +57152,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57175,7 +57178,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57201,7 +57204,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57227,7 +57230,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57253,7 +57256,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57279,7 +57282,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57305,7 +57308,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57331,7 +57334,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57357,7 +57360,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57383,7 +57386,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57409,7 +57412,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57435,7 +57438,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57461,7 +57464,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57487,7 +57490,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57513,7 +57516,7 @@
         <v>14</v>
       </c>
       <c r="G2151" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57539,7 +57542,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2152" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57565,7 +57568,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2153" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57591,7 +57594,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2154" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57617,7 +57620,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2155" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57643,7 +57646,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57669,7 +57672,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57695,7 +57698,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2158" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57721,7 +57724,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2159" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57747,7 +57750,7 @@
         <v>14</v>
       </c>
       <c r="G2160" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57773,7 +57776,7 @@
         <v>14</v>
       </c>
       <c r="G2161" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57799,7 +57802,7 @@
         <v>14</v>
       </c>
       <c r="G2162" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57825,7 +57828,7 @@
         <v>14</v>
       </c>
       <c r="G2163" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57851,7 +57854,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57877,7 +57880,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2165" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57903,7 +57906,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2166" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57929,7 +57932,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2167" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -57955,7 +57958,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2168" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -57981,7 +57984,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2169" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58007,7 +58010,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2170" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58033,7 +58036,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58059,7 +58062,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2172" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58085,7 +58088,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2173" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58111,7 +58114,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2174" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58137,7 +58140,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2175" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58163,7 +58166,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2176" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -58189,7 +58192,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2177" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -58215,7 +58218,7 @@
         <v>15</v>
       </c>
       <c r="G2178" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -58241,7 +58244,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2179" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -58267,7 +58270,7 @@
         <v>15</v>
       </c>
       <c r="G2180" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -58293,7 +58296,7 @@
         <v>15</v>
       </c>
       <c r="G2181" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -58319,7 +58322,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2182" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -58345,7 +58348,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2183" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -58371,7 +58374,7 @@
         <v>15</v>
       </c>
       <c r="G2184" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -58397,7 +58400,7 @@
         <v>15</v>
       </c>
       <c r="G2185" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -58423,7 +58426,7 @@
         <v>15</v>
       </c>
       <c r="G2186" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -58449,7 +58452,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2187" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -58475,7 +58478,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2188" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -58501,7 +58504,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2189" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -58527,7 +58530,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2190" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -58553,7 +58556,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2191" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -58579,7 +58582,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2192" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -58605,9 +58608,35 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2193" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="1" t="n">
+        <v>45517.2916666667</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>14.3999996185303</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2194" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440427780151</t>
+    <t xml:space="preserve">13.8440418243408</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711791992188</t>
+    <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
     <t xml:space="preserve">13.4651508331299</t>
@@ -53,19 +53,19 @@
     <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154088973999</t>
+    <t xml:space="preserve">13.1154079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068603515625</t>
+    <t xml:space="preserve">13.4068613052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081209182739</t>
+    <t xml:space="preserve">13.1081199645996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510890960693</t>
+    <t xml:space="preserve">12.751091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.386775970459</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.7091445922852</t>
@@ -77,28 +77,28 @@
     <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651903152466</t>
+    <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983531951904</t>
+    <t xml:space="preserve">10.7983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023698806763</t>
+    <t xml:space="preserve">11.002368927002</t>
   </si>
   <si>
     <t xml:space="preserve">10.9950819015503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295072555542</t>
+    <t xml:space="preserve">10.9295053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480960845947</t>
+    <t xml:space="preserve">11.148097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2209606170654</t>
+    <t xml:space="preserve">11.2209596633911</t>
   </si>
   <si>
     <t xml:space="preserve">11.2938241958618</t>
@@ -113,91 +113,91 @@
     <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827554702759</t>
+    <t xml:space="preserve">12.1827573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523496627808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292318344116</t>
+    <t xml:space="preserve">12.7292308807373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219457626343</t>
+    <t xml:space="preserve">12.7219467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061111450195</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611331939697</t>
+    <t xml:space="preserve">13.261134147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525894165039</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882705688477</t>
+    <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968191146851</t>
+    <t xml:space="preserve">12.8968200683594</t>
   </si>
   <si>
     <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742088317871</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907917022705</t>
+    <t xml:space="preserve">12.5907926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.550311088562</t>
+    <t xml:space="preserve">12.5503101348877</t>
   </si>
   <si>
     <t xml:space="preserve">12.2698993682861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048418045044</t>
+    <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.466944694519</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229503631592</t>
+    <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259050369263</t>
+    <t xml:space="preserve">12.125904083252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880107879639</t>
+    <t xml:space="preserve">12.0880126953125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364376068115</t>
+    <t xml:space="preserve">11.9364366531372</t>
   </si>
   <si>
     <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290542602539</t>
+    <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911609649658</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564130783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.7322006225586</t>
@@ -209,52 +209,52 @@
     <t xml:space="preserve">12.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957832336426</t>
+    <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761959075928</t>
+    <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.035346031189</t>
+    <t xml:space="preserve">13.0353469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111335754395</t>
+    <t xml:space="preserve">13.1111364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627067565918</t>
+    <t xml:space="preserve">13.2627086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582761764526</t>
+    <t xml:space="preserve">13.558277130127</t>
   </si>
   <si>
     <t xml:space="preserve">13.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885925292969</t>
+    <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
     <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142827987671</t>
+    <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690052032471</t>
+    <t xml:space="preserve">13.8690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447889328003</t>
+    <t xml:space="preserve">13.9447908401489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963649749756</t>
+    <t xml:space="preserve">14.0963640213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205774307251</t>
+    <t xml:space="preserve">14.0205764770508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357351303101</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887842178345</t>
+    <t xml:space="preserve">14.0887870788574</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584707260132</t>
@@ -263,31 +263,31 @@
     <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100458145142</t>
+    <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948881149292</t>
+    <t xml:space="preserve">14.1948890686035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342573165894</t>
+    <t xml:space="preserve">14.134259223938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812072753906</t>
+    <t xml:space="preserve">14.0812082290649</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736274719238</t>
+    <t xml:space="preserve">14.0736284255981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311100006104</t>
+    <t xml:space="preserve">13.8311109542847</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418390274048</t>
+    <t xml:space="preserve">14.1418361663818</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538475036621</t>
   </si>
   <si>
     <t xml:space="preserve">13.4900693893433</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203847885132</t>
   </si>
   <si>
     <t xml:space="preserve">13.6416444778442</t>
@@ -305,19 +305,19 @@
     <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521760940552</t>
+    <t xml:space="preserve">13.4521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.747745513916</t>
+    <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460741043091</t>
+    <t xml:space="preserve">13.3460750579834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340646743774</t>
+    <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551298141479</t>
+    <t xml:space="preserve">13.2551307678223</t>
   </si>
   <si>
     <t xml:space="preserve">12.8231449127197</t>
@@ -329,19 +329,19 @@
     <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867294311523</t>
+    <t xml:space="preserve">12.686728477478</t>
   </si>
   <si>
     <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185216903687</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
     <t xml:space="preserve">12.4063158035278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488351821899</t>
+    <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
     <t xml:space="preserve">12.5578908920288</t>
@@ -350,22 +350,22 @@
     <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124168395996</t>
+    <t xml:space="preserve">12.5124177932739</t>
   </si>
   <si>
     <t xml:space="preserve">12.7473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199956893921</t>
+    <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351552963257</t>
+    <t xml:space="preserve">12.5351533889771</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427312850952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3153705596924</t>
+    <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
     <t xml:space="preserve">12.7246217727661</t>
@@ -374,91 +374,91 @@
     <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004083633423</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296867370605</t>
+    <t xml:space="preserve">12.7296876907349</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868455886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654235839844</t>
+    <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061128616333</t>
+    <t xml:space="preserve">12.7061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732789993286</t>
+    <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118192672729</t>
+    <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.894702911377</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
     <t xml:space="preserve">13.0047101974487</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697263717651</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
     <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354888916016</t>
+    <t xml:space="preserve">13.7354879379272</t>
   </si>
   <si>
     <t xml:space="preserve">13.594048500061</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861902236938</t>
+    <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.578332901001</t>
+    <t xml:space="preserve">13.5783338546753</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512035369873</t>
+    <t xml:space="preserve">13.7512054443359</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761819839478</t>
+    <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526081085205</t>
+    <t xml:space="preserve">13.4526071548462</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.7276306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119150161743</t>
+    <t xml:space="preserve">13.7119178771973</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869413375854</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083642959595</t>
+    <t xml:space="preserve">13.9083633422852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655174255371</t>
+    <t xml:space="preserve">14.0655193328857</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148180007935</t>
+    <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833848953247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612155914307</t>
+    <t xml:space="preserve">13.8612146377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590646743774</t>
+    <t xml:space="preserve">13.7590637207031</t>
   </si>
   <si>
     <t xml:space="preserve">14.0576601028442</t>
@@ -467,31 +467,31 @@
     <t xml:space="preserve">13.8297843933105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262298583984</t>
+    <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048069000244</t>
+    <t xml:space="preserve">14.1048078536987</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476518630981</t>
+    <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690729141235</t>
+    <t xml:space="preserve">13.8690738677979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904949188232</t>
+    <t xml:space="preserve">13.7904939651489</t>
   </si>
   <si>
     <t xml:space="preserve">14.1440982818604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
     <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584093093872</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
     <t xml:space="preserve">14.2226753234863</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">14.7334356307983</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405427932739</t>
+    <t xml:space="preserve">14.3405418395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933979034424</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
     <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155672073364</t>
+    <t xml:space="preserve">14.6155652999878</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941471099854</t>
+    <t xml:space="preserve">14.6941442489624</t>
   </si>
   <si>
     <t xml:space="preserve">14.0969505310059</t>
@@ -524,34 +524,34 @@
     <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.322772026062</t>
+    <t xml:space="preserve">15.3227701187134</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770278930664</t>
+    <t xml:space="preserve">14.9770259857178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.307056427002</t>
+    <t xml:space="preserve">15.3070573806763</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856334686279</t>
+    <t xml:space="preserve">15.3856325149536</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156629562378</t>
+    <t xml:space="preserve">15.7156648635864</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999464035034</t>
+    <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842317581177</t>
+    <t xml:space="preserve">15.684229850769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763734817505</t>
+    <t xml:space="preserve">15.6763753890991</t>
   </si>
   <si>
     <t xml:space="preserve">15.3384895324707</t>
@@ -560,25 +560,25 @@
     <t xml:space="preserve">15.5977964401245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306293487549</t>
+    <t xml:space="preserve">15.3306274414062</t>
   </si>
   <si>
-    <t xml:space="preserve">15.872820854187</t>
+    <t xml:space="preserve">15.8728189468384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871337890625</t>
+    <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014476776123</t>
+    <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300735473633</t>
+    <t xml:space="preserve">17.130069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443836212158</t>
+    <t xml:space="preserve">17.4443855285645</t>
   </si>
   <si>
     <t xml:space="preserve">18.5444831848145</t>
@@ -587,109 +587,109 @@
     <t xml:space="preserve">18.0730152130127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158554077148</t>
+    <t xml:space="preserve">17.9158573150635</t>
   </si>
   <si>
     <t xml:space="preserve">17.7587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872314453125</t>
+    <t xml:space="preserve">17.2872295379639</t>
   </si>
   <si>
     <t xml:space="preserve">17.6015472412109</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729175567627</t>
+    <t xml:space="preserve">16.9729156494141</t>
   </si>
   <si>
     <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345653533936</t>
+    <t xml:space="preserve">17.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112697601318</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.4578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797409057617</t>
+    <t xml:space="preserve">15.679741859436</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646823883057</t>
+    <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879741668701</t>
+    <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962131500244</t>
+    <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729156494141</t>
+    <t xml:space="preserve">16.9729194641113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195049285889</t>
+    <t xml:space="preserve">17.6195030212402</t>
   </si>
   <si>
     <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413906097412</t>
+    <t xml:space="preserve">15.8413887023926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605657577515</t>
+    <t xml:space="preserve">15.7605648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564500808716</t>
+    <t xml:space="preserve">15.3564491271973</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030326843262</t>
+    <t xml:space="preserve">16.0030364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331535339355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139793395996</t>
+    <t xml:space="preserve">15.113977432251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482158660889</t>
+    <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255447387695</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901412963867</t>
+    <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870323181152</t>
+    <t xml:space="preserve">14.0870313644409</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385848999023</t>
+    <t xml:space="preserve">14.338586807251</t>
   </si>
   <si>
     <t xml:space="preserve">14.8416948318481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.254734992981</t>
+    <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708831787109</t>
+    <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739902496338</t>
+    <t xml:space="preserve">14.6739921569824</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354787826538</t>
+    <t xml:space="preserve">13.8354778289795</t>
   </si>
   <si>
     <t xml:space="preserve">13.9193296432495</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">14.7578439712524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031814575195</t>
+    <t xml:space="preserve">14.0031824111938</t>
   </si>
   <si>
     <t xml:space="preserve">13.7516279220581</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839223861694</t>
+    <t xml:space="preserve">13.5839242935181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500072479248</t>
+    <t xml:space="preserve">13.5000715255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.416220664978</t>
+    <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
     <t xml:space="preserve">13.3323698043823</t>
@@ -725,31 +725,31 @@
     <t xml:space="preserve">13.0808143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485189437866</t>
+    <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969654083252</t>
+    <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938554763794</t>
+    <t xml:space="preserve">12.4938545227051</t>
   </si>
   <si>
     <t xml:space="preserve">12.2423009872437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.164665222168</t>
+    <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131126403809</t>
+    <t xml:space="preserve">12.9131116867065</t>
   </si>
   <si>
     <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454109191895</t>
+    <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553430557251</t>
+    <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
     <t xml:space="preserve">11.8230457305908</t>
@@ -758,46 +758,46 @@
     <t xml:space="preserve">11.9907474517822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584491729736</t>
+    <t xml:space="preserve">12.1584501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745973587036</t>
+    <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068965911865</t>
+    <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391939163208</t>
+    <t xml:space="preserve">11.7391929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876403808594</t>
+    <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714912414551</t>
+    <t xml:space="preserve">11.5714902877808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.152232170105</t>
+    <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168277740479</t>
+    <t xml:space="preserve">10.8168287277222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845314025879</t>
+    <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
     <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329769134521</t>
+    <t xml:space="preserve">10.7329778671265</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814233779907</t>
+    <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491250991821</t>
+    <t xml:space="preserve">10.6491241455078</t>
   </si>
   <si>
-    <t xml:space="preserve">12.326153755188</t>
+    <t xml:space="preserve">12.3261528015137</t>
   </si>
   <si>
     <t xml:space="preserve">12.5777072906494</t>
@@ -806,25 +806,25 @@
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942462921143</t>
+    <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
-    <t xml:space="preserve">12.932107925415</t>
+    <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340423583984</t>
+    <t xml:space="preserve">11.5340433120728</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2330760955811</t>
+    <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4952125549316</t>
+    <t xml:space="preserve">12.495210647583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573499679565</t>
+    <t xml:space="preserve">12.7573509216309</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0194864273071</t>
+    <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
     <t xml:space="preserve">13.1068668365479</t>
@@ -836,85 +836,85 @@
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680360794067</t>
+    <t xml:space="preserve">14.0680351257324</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.631139755249</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.466103553772</t>
+    <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039651870728</t>
+    <t xml:space="preserve">15.2039642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534820556641</t>
+    <t xml:space="preserve">15.5534791946411</t>
   </si>
   <si>
     <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156175613403</t>
+    <t xml:space="preserve">15.815616607666</t>
   </si>
   <si>
     <t xml:space="preserve">15.6408615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282419204712</t>
+    <t xml:space="preserve">15.7282400131226</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787221908569</t>
+    <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913427352905</t>
+    <t xml:space="preserve">15.2913436889648</t>
   </si>
   <si>
     <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8544483184814</t>
+    <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796913146973</t>
+    <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.330174446106</t>
+    <t xml:space="preserve">14.3301753997803</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4175539016724</t>
+    <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427949905396</t>
+    <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
     <t xml:space="preserve">14.9418268203735</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786987304688</t>
+    <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174451828003</t>
+    <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909492492676</t>
+    <t xml:space="preserve">14.3909473419189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541986465454</t>
+    <t xml:space="preserve">14.6541976928711</t>
   </si>
   <si>
     <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929479598999</t>
+    <t xml:space="preserve">15.0929460525513</t>
   </si>
   <si>
     <t xml:space="preserve">15.2684459686279</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">14.8296957015991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031978607178</t>
+    <t xml:space="preserve">14.3031988143921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1276998519897</t>
+    <t xml:space="preserve">14.1277008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051984786987</t>
+    <t xml:space="preserve">15.0051965713501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561944961548</t>
+    <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
     <t xml:space="preserve">15.5316953659058</t>
@@ -941,25 +941,25 @@
     <t xml:space="preserve">15.1806945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071943283081</t>
+    <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439449310303</t>
+    <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194429397583</t>
+    <t xml:space="preserve">15.6194448471069</t>
   </si>
   <si>
     <t xml:space="preserve">15.8826932907104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581932067871</t>
+    <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459426879883</t>
+    <t xml:space="preserve">16.1459407806396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704446792603</t>
+    <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
     <t xml:space="preserve">15.794942855835</t>
@@ -971,19 +971,19 @@
     <t xml:space="preserve">16.4091930389404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724395751953</t>
+    <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601909637451</t>
+    <t xml:space="preserve">16.7601890563965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479423522949</t>
+    <t xml:space="preserve">16.8479404449463</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.048511505127</t>
+    <t xml:space="preserve">17.0485134124756</t>
   </si>
   <si>
     <t xml:space="preserve">16.9573421478271</t>
@@ -992,19 +992,19 @@
     <t xml:space="preserve">16.8661727905273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750053405762</t>
+    <t xml:space="preserve">16.7750034332275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838359832764</t>
+    <t xml:space="preserve">16.6838340759277</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014991760254</t>
+    <t xml:space="preserve">16.501501083374</t>
   </si>
   <si>
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926704406738</t>
+    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">16.1368274688721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1396808624268</t>
+    <t xml:space="preserve">17.1396789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3220157623291</t>
+    <t xml:space="preserve">17.3220176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131851196289</t>
+    <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
     <t xml:space="preserve">17.5043544769287</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955219268799</t>
+    <t xml:space="preserve">17.5955200195312</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">19.5100593566895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9630508422852</t>
+    <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453857421875</t>
+    <t xml:space="preserve">19.1453876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277225494385</t>
+    <t xml:space="preserve">19.3277244567871</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1064,16 +1064,19 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423118591309</t>
+    <t xml:space="preserve">19.3423099517822</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
   </si>
   <si>
+    <t xml:space="preserve">18.9630508422852</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734203338623</t>
+    <t xml:space="preserve">18.7734184265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1082,7 +1085,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993431091309</t>
+    <t xml:space="preserve">18.2993412017822</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1091,7 +1094,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148963928223</t>
+    <t xml:space="preserve">18.0148983001709</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1100,10 +1103,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3511905670166</t>
+    <t xml:space="preserve">17.351188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.109712600708</t>
+    <t xml:space="preserve">18.1097145080566</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1112,10 +1115,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.066743850708</t>
+    <t xml:space="preserve">17.0667457580566</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356353759766</t>
+    <t xml:space="preserve">17.6356372833252</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615600585938</t>
+    <t xml:space="preserve">17.1615619659424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030380249023</t>
+    <t xml:space="preserve">16.4030361175537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911787033081</t>
+    <t xml:space="preserve">14.7911796569824</t>
   </si>
   <si>
-    <t xml:space="preserve">14.980809211731</t>
+    <t xml:space="preserve">14.9808101654053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0326566696167</t>
+    <t xml:space="preserve">14.032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -43531,7 +43531,7 @@
         <v>20</v>
       </c>
       <c r="G1613" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43557,7 +43557,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43609,7 +43609,7 @@
         <v>20</v>
       </c>
       <c r="G1616" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43635,7 +43635,7 @@
         <v>20</v>
       </c>
       <c r="G1617" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43661,7 +43661,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43687,7 +43687,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43713,7 +43713,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43739,7 +43739,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1621" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43765,7 +43765,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43791,7 +43791,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1623" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43817,7 +43817,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43843,7 +43843,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43869,7 +43869,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1626" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43895,7 +43895,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1627" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43921,7 +43921,7 @@
         <v>20</v>
       </c>
       <c r="G1628" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43947,7 +43947,7 @@
         <v>20</v>
       </c>
       <c r="G1629" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -43973,7 +43973,7 @@
         <v>20</v>
       </c>
       <c r="G1630" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -43999,7 +43999,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1631" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44025,7 +44025,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44051,7 +44051,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44077,7 +44077,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44103,7 +44103,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44129,7 +44129,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44155,7 +44155,7 @@
         <v>19.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44181,7 +44181,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44207,7 +44207,7 @@
         <v>19.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44233,7 +44233,7 @@
         <v>19</v>
       </c>
       <c r="G1640" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44259,7 +44259,7 @@
         <v>19</v>
       </c>
       <c r="G1641" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44285,7 +44285,7 @@
         <v>19</v>
       </c>
       <c r="G1642" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44311,7 +44311,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44337,7 +44337,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1644" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44363,7 +44363,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1645" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44389,7 +44389,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44415,7 +44415,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44441,7 +44441,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44467,7 +44467,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44493,7 +44493,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44519,7 +44519,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44545,7 +44545,7 @@
         <v>19</v>
       </c>
       <c r="G1652" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44571,7 +44571,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44597,7 +44597,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44623,7 +44623,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44649,7 +44649,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44675,7 +44675,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44727,7 +44727,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45325,7 +45325,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1682" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45403,7 +45403,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45429,7 +45429,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45455,7 +45455,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1687" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45481,7 +45481,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1688" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45507,7 +45507,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45533,7 +45533,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45559,7 +45559,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45585,7 +45585,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1692" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45611,7 +45611,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45663,7 +45663,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45689,7 +45689,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1696" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45715,7 +45715,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1697" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45741,7 +45741,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45767,7 +45767,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45793,7 +45793,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45819,7 +45819,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45845,7 +45845,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46209,7 +46209,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1716" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46235,7 +46235,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1717" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46313,7 +46313,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46339,7 +46339,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46365,7 +46365,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46391,7 +46391,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46417,7 +46417,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46443,7 +46443,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47015,7 +47015,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47353,7 +47353,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47379,7 +47379,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47405,7 +47405,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47665,7 +47665,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47873,7 +47873,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47899,7 +47899,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48133,7 +48133,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1790" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48159,7 +48159,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48237,7 +48237,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48289,7 +48289,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48315,7 +48315,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48341,7 +48341,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1798" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48367,7 +48367,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48393,7 +48393,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48419,7 +48419,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48445,7 +48445,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48471,7 +48471,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48497,7 +48497,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48679,7 +48679,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -58749,7 +58749,7 @@
     </row>
     <row r="2199">
       <c r="A2199" s="1" t="n">
-        <v>45525.413599537</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B2199" t="n">
         <v>67</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -44,58 +44,58 @@
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711782455444</t>
+    <t xml:space="preserve">13.7711772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651527404785</t>
+    <t xml:space="preserve">13.4651536941528</t>
   </si>
   <si>
     <t xml:space="preserve">13.4797229766846</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154079437256</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068603515625</t>
+    <t xml:space="preserve">13.4068613052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081228256226</t>
+    <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752325057983</t>
+    <t xml:space="preserve">11.0752334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830308914185</t>
+    <t xml:space="preserve">10.3830299377441</t>
   </si>
   <si>
     <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651893615723</t>
+    <t xml:space="preserve">10.5651912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983541488647</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0023698806763</t>
+    <t xml:space="preserve">11.0023708343506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950847625732</t>
+    <t xml:space="preserve">10.9950828552246</t>
   </si>
   <si>
     <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480960845947</t>
   </si>
   <si>
     <t xml:space="preserve">11.2209606170654</t>
@@ -104,37 +104,37 @@
     <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865371704102</t>
+    <t xml:space="preserve">11.2865381240845</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581401824951</t>
+    <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.920449256897</t>
+    <t xml:space="preserve">11.9204483032227</t>
   </si>
   <si>
     <t xml:space="preserve">12.1827554702759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292327880859</t>
+    <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
     <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061130523682</t>
+    <t xml:space="preserve">13.0061120986938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611322402954</t>
+    <t xml:space="preserve">13.261134147644</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525903701782</t>
+    <t xml:space="preserve">13.5525875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.188271522522</t>
+    <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968181610107</t>
@@ -146,73 +146,73 @@
     <t xml:space="preserve">12.4742107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3139095306396</t>
+    <t xml:space="preserve">12.313910484314</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.2774791717529</t>
   </si>
   <si>
     <t xml:space="preserve">12.550311088562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698993682861</t>
+    <t xml:space="preserve">12.2699022293091</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048389434814</t>
+    <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669466018677</t>
+    <t xml:space="preserve">12.4669456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229503631592</t>
+    <t xml:space="preserve">12.3229513168335</t>
   </si>
   <si>
     <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259050369263</t>
+    <t xml:space="preserve">12.1259059906006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227558135986</t>
+    <t xml:space="preserve">11.8227567672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880117416382</t>
+    <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364385604858</t>
+    <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016906738281</t>
+    <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774782180786</t>
+    <t xml:space="preserve">12.2774772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290552139282</t>
+    <t xml:space="preserve">12.4290523529053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911581039429</t>
+    <t xml:space="preserve">12.3911590576172</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5806283950806</t>
+    <t xml:space="preserve">12.5806264877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564130783081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7321996688843</t>
+    <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770092010498</t>
+    <t xml:space="preserve">12.7700939178467</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837738037109</t>
+    <t xml:space="preserve">12.8837747573853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957832336426</t>
+    <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
     <t xml:space="preserve">12.8761949539185</t>
@@ -221,40 +221,40 @@
     <t xml:space="preserve">13.0353469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111345291138</t>
+    <t xml:space="preserve">13.1111354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627096176147</t>
+    <t xml:space="preserve">13.2627067565918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582761764526</t>
+    <t xml:space="preserve">13.558277130127</t>
   </si>
   <si>
     <t xml:space="preserve">13.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885915756226</t>
+    <t xml:space="preserve">13.5885934829712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658559799194</t>
+    <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142818450928</t>
+    <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690061569214</t>
+    <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447898864746</t>
+    <t xml:space="preserve">13.9447908401489</t>
   </si>
   <si>
     <t xml:space="preserve">14.0963640213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205774307251</t>
+    <t xml:space="preserve">14.0205755233765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357332229614</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
     <t xml:space="preserve">14.0887851715088</t>
@@ -263,61 +263,61 @@
     <t xml:space="preserve">14.0584697723389</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721506118774</t>
+    <t xml:space="preserve">14.1721544265747</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100467681885</t>
+    <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948890686035</t>
+    <t xml:space="preserve">14.1948871612549</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342573165894</t>
+    <t xml:space="preserve">14.1342582702637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826860427856</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736293792725</t>
+    <t xml:space="preserve">14.0736303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311080932617</t>
+    <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418399810791</t>
+    <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538465499878</t>
+    <t xml:space="preserve">13.8538455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900684356689</t>
+    <t xml:space="preserve">13.4900703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174301147461</t>
+    <t xml:space="preserve">13.7174291610718</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203847885132</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416444778442</t>
+    <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
     <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521751403809</t>
+    <t xml:space="preserve">13.4521760940552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.747745513916</t>
+    <t xml:space="preserve">13.7477464675903</t>
   </si>
   <si>
     <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340656280518</t>
+    <t xml:space="preserve">13.6340646743774</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551298141479</t>
@@ -329,16 +329,16 @@
     <t xml:space="preserve">12.7776727676392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972610473633</t>
+    <t xml:space="preserve">12.4972591400146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686728477478</t>
+    <t xml:space="preserve">12.6867275238037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412553787231</t>
+    <t xml:space="preserve">12.6412572860718</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185207366943</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
     <t xml:space="preserve">12.4063158035278</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">12.6488361358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578899383545</t>
+    <t xml:space="preserve">12.5578908920288</t>
   </si>
   <si>
     <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124187469482</t>
+    <t xml:space="preserve">12.5124177932739</t>
   </si>
   <si>
     <t xml:space="preserve">12.7473573684692</t>
@@ -362,91 +362,91 @@
     <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427312850952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3153715133667</t>
+    <t xml:space="preserve">12.315372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246208190918</t>
+    <t xml:space="preserve">12.7246227264404</t>
   </si>
   <si>
     <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004083633423</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
     <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868465423584</t>
+    <t xml:space="preserve">12.8868455886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654226303101</t>
+    <t xml:space="preserve">12.9654216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061128616333</t>
+    <t xml:space="preserve">12.7061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732809066772</t>
+    <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
     <t xml:space="preserve">12.6118192672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947010040283</t>
+    <t xml:space="preserve">12.894702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">13.004711151123</t>
+    <t xml:space="preserve">13.0047101974487</t>
   </si>
   <si>
     <t xml:space="preserve">13.1697263717651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368915557861</t>
+    <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
     <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594048500061</t>
+    <t xml:space="preserve">13.5940504074097</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875938415527</t>
+    <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
     <t xml:space="preserve">13.5783348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5547590255737</t>
+    <t xml:space="preserve">13.554759979248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512063980103</t>
+    <t xml:space="preserve">13.7512035369873</t>
   </si>
   <si>
     <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526090621948</t>
+    <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
     <t xml:space="preserve">13.7276306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119169235229</t>
+    <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869394302368</t>
+    <t xml:space="preserve">13.9869422912598</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083623886108</t>
+    <t xml:space="preserve">13.9083633422852</t>
   </si>
   <si>
     <t xml:space="preserve">14.0655183792114</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833868026733</t>
+    <t xml:space="preserve">14.183385848999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612146377563</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590618133545</t>
   </si>
   <si>
     <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297843933105</t>
+    <t xml:space="preserve">13.8297853469849</t>
   </si>
   <si>
     <t xml:space="preserve">14.0262289047241</t>
@@ -479,31 +479,31 @@
     <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690738677979</t>
+    <t xml:space="preserve">13.8690729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904939651489</t>
+    <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440982818604</t>
+    <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012533187866</t>
+    <t xml:space="preserve">14.3012542724609</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619647979736</t>
+    <t xml:space="preserve">14.2619657516479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584093093872</t>
+    <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226753234863</t>
+    <t xml:space="preserve">14.222674369812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334356307983</t>
+    <t xml:space="preserve">14.733434677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405408859253</t>
+    <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
     <t xml:space="preserve">14.2933950424194</t>
@@ -512,127 +512,127 @@
     <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155672073364</t>
+    <t xml:space="preserve">14.6155662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941442489624</t>
+    <t xml:space="preserve">14.694149017334</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969495773315</t>
+    <t xml:space="preserve">14.0969505310059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812349319458</t>
+    <t xml:space="preserve">14.0812339782715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.450553894043</t>
+    <t xml:space="preserve">14.4505558013916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705732345581</t>
   </si>
   <si>
-    <t xml:space="preserve">15.322772026062</t>
+    <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770250320435</t>
+    <t xml:space="preserve">14.9770259857178</t>
   </si>
   <si>
-    <t xml:space="preserve">15.307056427002</t>
+    <t xml:space="preserve">15.3070573806763</t>
   </si>
   <si>
     <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078065872192</t>
+    <t xml:space="preserve">15.7078084945679</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156648635864</t>
+    <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.699951171875</t>
+    <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842317581177</t>
+    <t xml:space="preserve">15.6842346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763744354248</t>
+    <t xml:space="preserve">15.6763734817505</t>
   </si>
   <si>
     <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977954864502</t>
+    <t xml:space="preserve">15.5977945327759</t>
   </si>
   <si>
     <t xml:space="preserve">15.3306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728227615356</t>
+    <t xml:space="preserve">15.8728179931641</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442878723145</t>
+    <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
     <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014476776123</t>
+    <t xml:space="preserve">16.5014514923096</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300716400146</t>
+    <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443855285645</t>
+    <t xml:space="preserve">17.4443893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444850921631</t>
+    <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
     <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158554077148</t>
+    <t xml:space="preserve">17.9158573150635</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587013244629</t>
+    <t xml:space="preserve">17.7586994171143</t>
   </si>
   <si>
     <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015453338623</t>
+    <t xml:space="preserve">17.601541519165</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157596588135</t>
+    <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
     <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112678527832</t>
+    <t xml:space="preserve">16.8112697601318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
     <t xml:space="preserve">15.679741859436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263320922852</t>
+    <t xml:space="preserve">16.3263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646842956543</t>
+    <t xml:space="preserve">16.1646823883057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879779815674</t>
+    <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962093353271</t>
+    <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195030212402</t>
+    <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
     <t xml:space="preserve">16.6496238708496</t>
@@ -641,67 +641,67 @@
     <t xml:space="preserve">15.8413887023926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605657577515</t>
+    <t xml:space="preserve">15.7605667114258</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030364990234</t>
+    <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
     <t xml:space="preserve">15.0331554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">15.113977432251</t>
+    <t xml:space="preserve">15.1139783859253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482158660889</t>
+    <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255447387695</t>
+    <t xml:space="preserve">14.9255456924438</t>
   </si>
   <si>
     <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224367141724</t>
+    <t xml:space="preserve">14.4224376678467</t>
   </si>
   <si>
     <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385858535767</t>
+    <t xml:space="preserve">14.338586807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416967391968</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547359466553</t>
+    <t xml:space="preserve">14.254734992981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708822250366</t>
+    <t xml:space="preserve">14.1708831787109</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6739921569824</t>
+    <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354778289795</t>
+    <t xml:space="preserve">13.8354768753052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193305969238</t>
+    <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578439712524</t>
+    <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031814575195</t>
+    <t xml:space="preserve">14.0031805038452</t>
   </si>
   <si>
     <t xml:space="preserve">13.7516279220581</t>
@@ -710,28 +710,28 @@
     <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839242935181</t>
+    <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5000715255737</t>
+    <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0808143615723</t>
+    <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485179901123</t>
+    <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938554763794</t>
+    <t xml:space="preserve">12.4938564300537</t>
   </si>
   <si>
     <t xml:space="preserve">12.2423009872437</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
     <t xml:space="preserve">11.6553421020508</t>
@@ -755,37 +755,37 @@
     <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907464981079</t>
+    <t xml:space="preserve">11.9907455444336</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584501266479</t>
+    <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
     <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9068956375122</t>
+    <t xml:space="preserve">11.9068965911865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391939163208</t>
+    <t xml:space="preserve">11.7391920089722</t>
   </si>
   <si>
     <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714902877808</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.152232170105</t>
+    <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168287277222</t>
+    <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845294952393</t>
+    <t xml:space="preserve">10.9845314025879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006795883179</t>
+    <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
     <t xml:space="preserve">10.7329769134521</t>
@@ -797,31 +797,31 @@
     <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.326153755188</t>
+    <t xml:space="preserve">12.3261547088623</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777063369751</t>
+    <t xml:space="preserve">12.5777072906494</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942453384399</t>
+    <t xml:space="preserve">13.1942462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9321088790894</t>
+    <t xml:space="preserve">12.932107925415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340433120728</t>
+    <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2330751419067</t>
+    <t xml:space="preserve">12.2330741882324</t>
   </si>
   <si>
-    <t xml:space="preserve">12.495210647583</t>
+    <t xml:space="preserve">12.4952116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7573509216309</t>
+    <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
     <t xml:space="preserve">13.0194873809814</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">13.8058996200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680351257324</t>
+    <t xml:space="preserve">14.0680370330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
@@ -845,46 +845,46 @@
     <t xml:space="preserve">13.631139755249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690032958984</t>
+    <t xml:space="preserve">13.3690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661026000977</t>
+    <t xml:space="preserve">15.4661016464233</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039642333984</t>
+    <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534791946411</t>
+    <t xml:space="preserve">15.5534820556641</t>
   </si>
   <si>
     <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.815616607666</t>
+    <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408615112305</t>
+    <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282400131226</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913436889648</t>
+    <t xml:space="preserve">15.2913427352905</t>
   </si>
   <si>
     <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8544492721558</t>
+    <t xml:space="preserve">14.8544502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3301753997803</t>
+    <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
     <t xml:space="preserve">14.417552947998</t>
@@ -893,52 +893,52 @@
     <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418268203735</t>
+    <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
     <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786977767944</t>
+    <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174461364746</t>
+    <t xml:space="preserve">14.9174470901489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3909473419189</t>
+    <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541976928711</t>
+    <t xml:space="preserve">14.6541996002197</t>
   </si>
   <si>
     <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929460525513</t>
+    <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684459686279</t>
+    <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296957015991</t>
+    <t xml:space="preserve">14.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031988143921</t>
+    <t xml:space="preserve">14.3031978607178</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1277008056641</t>
+    <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051965713501</t>
+    <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806945800781</t>
+    <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
     <t xml:space="preserve">15.7071933746338</t>
@@ -947,55 +947,55 @@
     <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194448471069</t>
+    <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826932907104</t>
+    <t xml:space="preserve">15.8826942443848</t>
   </si>
   <si>
     <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459407806396</t>
+    <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
     <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
-    <t xml:space="preserve">15.794942855835</t>
+    <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.3214435577393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091930389404</t>
+    <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724414825439</t>
+    <t xml:space="preserve">16.6724395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601890563965</t>
+    <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479385375977</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0485134124756</t>
+    <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573421478271</t>
+    <t xml:space="preserve">16.9573440551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8661727905273</t>
+    <t xml:space="preserve">16.866174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750034332275</t>
+    <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838340759277</t>
+    <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">17.1396789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3220176696777</t>
+    <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
     <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043544769287</t>
+    <t xml:space="preserve">17.5043525695801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955200195312</t>
+    <t xml:space="preserve">17.5955219268799</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778587341309</t>
+    <t xml:space="preserve">17.7778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453876495361</t>
+    <t xml:space="preserve">19.1453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277244567871</t>
+    <t xml:space="preserve">19.3277225494385</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423099517822</t>
+    <t xml:space="preserve">19.3423118591309</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734184265137</t>
+    <t xml:space="preserve">18.7734203338623</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993412017822</t>
+    <t xml:space="preserve">18.2993431091309</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148983001709</t>
+    <t xml:space="preserve">18.0148963928223</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.351188659668</t>
+    <t xml:space="preserve">17.3511905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1097145080566</t>
+    <t xml:space="preserve">18.109712600708</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0667457580566</t>
+    <t xml:space="preserve">17.066743850708</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356372833252</t>
+    <t xml:space="preserve">17.6356353759766</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615619659424</t>
+    <t xml:space="preserve">17.1615600585938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030361175537</t>
+    <t xml:space="preserve">16.4030380249023</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911796569824</t>
+    <t xml:space="preserve">14.7911787033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9808101654053</t>
+    <t xml:space="preserve">14.980809211731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.032657623291</t>
+    <t xml:space="preserve">14.0326566696167</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -58955,6 +58955,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>45537.2916666667</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2207" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,31 +44,31 @@
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711782455444</t>
+    <t xml:space="preserve">13.7711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651527404785</t>
+    <t xml:space="preserve">13.4651508331299</t>
   </si>
   <si>
     <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154079437256</t>
+    <t xml:space="preserve">13.1154069900513</t>
   </si>
   <si>
     <t xml:space="preserve">13.4068613052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081218719482</t>
+    <t xml:space="preserve">13.1081228256226</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510890960693</t>
+    <t xml:space="preserve">12.7510919570923</t>
   </si>
   <si>
-    <t xml:space="preserve">12.386775970459</t>
+    <t xml:space="preserve">12.3867750167847</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091436386108</t>
   </si>
   <si>
     <t xml:space="preserve">11.0752334594727</t>
@@ -77,61 +77,61 @@
     <t xml:space="preserve">10.3830318450928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655548095703</t>
   </si>
   <si>
     <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983512878418</t>
+    <t xml:space="preserve">10.7983531951904</t>
   </si>
   <si>
     <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950828552246</t>
+    <t xml:space="preserve">10.9950838088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295072555542</t>
+    <t xml:space="preserve">10.9295053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480960845947</t>
   </si>
   <si>
     <t xml:space="preserve">11.2209596633911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938222885132</t>
+    <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6581411361694</t>
+    <t xml:space="preserve">11.6581401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9204502105713</t>
+    <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827573776245</t>
+    <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523496627808</t>
+    <t xml:space="preserve">12.4523506164551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7292308807373</t>
+    <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219467163086</t>
+    <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
     <t xml:space="preserve">13.0061120986938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.261134147644</t>
+    <t xml:space="preserve">13.2611331939697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525875091553</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
     <t xml:space="preserve">13.1882705688477</t>
@@ -143,40 +143,40 @@
     <t xml:space="preserve">12.6199369430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742097854614</t>
+    <t xml:space="preserve">12.4742116928101</t>
   </si>
   <si>
     <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907936096191</t>
+    <t xml:space="preserve">12.5907926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774782180786</t>
+    <t xml:space="preserve">12.2774772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.550311088562</t>
+    <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699003219604</t>
+    <t xml:space="preserve">12.2698993682861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048408508301</t>
+    <t xml:space="preserve">12.5048389434814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669466018677</t>
+    <t xml:space="preserve">12.466944694519</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229522705078</t>
+    <t xml:space="preserve">12.3229494094849</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0501165390015</t>
+    <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259059906006</t>
+    <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227567672729</t>
+    <t xml:space="preserve">11.8227577209473</t>
   </si>
   <si>
     <t xml:space="preserve">12.0880117416382</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">11.9364366531372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016925811768</t>
+    <t xml:space="preserve">12.2016906738281</t>
   </si>
   <si>
     <t xml:space="preserve">12.4290533065796</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700929641724</t>
+    <t xml:space="preserve">12.770092010498</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837747573853</t>
@@ -218,106 +218,106 @@
     <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111354827881</t>
+    <t xml:space="preserve">13.1111345291138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627067565918</t>
+    <t xml:space="preserve">13.2627086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582752227783</t>
+    <t xml:space="preserve">13.5582761764526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.376389503479</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
     <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658550262451</t>
+    <t xml:space="preserve">13.5658569335938</t>
   </si>
   <si>
     <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690032958984</t>
+    <t xml:space="preserve">13.8690052032471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447908401489</t>
+    <t xml:space="preserve">13.9447898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963640213013</t>
+    <t xml:space="preserve">14.0963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205774307251</t>
+    <t xml:space="preserve">14.0205764770508</t>
   </si>
   <si>
     <t xml:space="preserve">14.0357351303101</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887870788574</t>
+    <t xml:space="preserve">14.0887861251831</t>
   </si>
   <si>
     <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721506118774</t>
+    <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
     <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948900222778</t>
+    <t xml:space="preserve">14.1948862075806</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134259223938</t>
+    <t xml:space="preserve">14.134256362915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.982684135437</t>
+    <t xml:space="preserve">13.9826850891113</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812072753906</t>
+    <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736284255981</t>
+    <t xml:space="preserve">14.0736303329468</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311100006104</t>
+    <t xml:space="preserve">13.831109046936</t>
   </si>
   <si>
     <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538475036621</t>
+    <t xml:space="preserve">13.8538455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900693893433</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174291610718</t>
+    <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203847885132</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416444778442</t>
+    <t xml:space="preserve">13.6416425704956</t>
   </si>
   <si>
     <t xml:space="preserve">13.7553234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521741867065</t>
+    <t xml:space="preserve">13.4521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.747745513916</t>
+    <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
     <t xml:space="preserve">13.3460760116577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340637207031</t>
+    <t xml:space="preserve">13.6340656280518</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551288604736</t>
+    <t xml:space="preserve">13.2551307678223</t>
   </si>
   <si>
     <t xml:space="preserve">12.8231449127197</t>
@@ -326,25 +326,25 @@
     <t xml:space="preserve">12.7776708602905</t>
   </si>
   <si>
-    <t xml:space="preserve">12.497260093689</t>
+    <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867294311523</t>
+    <t xml:space="preserve">12.686731338501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412563323975</t>
+    <t xml:space="preserve">12.6412572860718</t>
   </si>
   <si>
     <t xml:space="preserve">12.6185207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063167572021</t>
+    <t xml:space="preserve">12.4063148498535</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488342285156</t>
+    <t xml:space="preserve">12.6488361358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578908920288</t>
+    <t xml:space="preserve">12.5578899383545</t>
   </si>
   <si>
     <t xml:space="preserve">12.5654697418213</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">12.5124177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473583221436</t>
+    <t xml:space="preserve">12.7473554611206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199975967407</t>
+    <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
     <t xml:space="preserve">12.5351543426514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427312850952</t>
+    <t xml:space="preserve">12.5427331924438</t>
   </si>
   <si>
     <t xml:space="preserve">12.3153715133667</t>
@@ -371,46 +371,46 @@
     <t xml:space="preserve">12.7246208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079862594604</t>
+    <t xml:space="preserve">12.8079853057861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004093170166</t>
+    <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296876907349</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8868455886841</t>
+    <t xml:space="preserve">12.8868446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654235839844</t>
+    <t xml:space="preserve">12.9654226303101</t>
   </si>
   <si>
     <t xml:space="preserve">12.7061138153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732789993286</t>
+    <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
     <t xml:space="preserve">12.6118211746216</t>
   </si>
   <si>
-    <t xml:space="preserve">12.894702911377</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047101974487</t>
+    <t xml:space="preserve">13.0047121047974</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697263717651</t>
+    <t xml:space="preserve">13.1697254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368915557861</t>
+    <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
     <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5940494537354</t>
+    <t xml:space="preserve">13.594048500061</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861902236938</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">13.2875928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.578332901001</t>
+    <t xml:space="preserve">13.5783338546753</t>
   </si>
   <si>
-    <t xml:space="preserve">13.554759979248</t>
+    <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512044906616</t>
+    <t xml:space="preserve">13.7512054443359</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761819839478</t>
+    <t xml:space="preserve">13.4761829376221</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526090621948</t>
@@ -437,31 +437,31 @@
     <t xml:space="preserve">13.7276315689087</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119150161743</t>
+    <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869432449341</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083633422852</t>
+    <t xml:space="preserve">13.9083642959595</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655183792114</t>
+    <t xml:space="preserve">14.0655193328857</t>
   </si>
   <si>
     <t xml:space="preserve">14.2148189544678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8612146377563</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576610565186</t>
+    <t xml:space="preserve">14.0576591491699</t>
   </si>
   <si>
     <t xml:space="preserve">13.8297843933105</t>
@@ -470,25 +470,25 @@
     <t xml:space="preserve">14.0262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1048078536987</t>
+    <t xml:space="preserve">14.104808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476528167725</t>
+    <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690729141235</t>
+    <t xml:space="preserve">13.8690738677979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904949188232</t>
+    <t xml:space="preserve">13.7904939651489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.144097328186</t>
+    <t xml:space="preserve">14.1440963745117</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3012542724609</t>
+    <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619657516479</t>
+    <t xml:space="preserve">14.2619647979736</t>
   </si>
   <si>
     <t xml:space="preserve">14.4584102630615</t>
@@ -500,85 +500,85 @@
     <t xml:space="preserve">14.733434677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405427932739</t>
+    <t xml:space="preserve">14.3405418395996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933969497681</t>
+    <t xml:space="preserve">14.2933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498037338257</t>
+    <t xml:space="preserve">14.0498056411743</t>
   </si>
   <si>
     <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.694146156311</t>
+    <t xml:space="preserve">14.6941471099854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969505310059</t>
+    <t xml:space="preserve">14.0969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812358856201</t>
+    <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505529403687</t>
+    <t xml:space="preserve">14.450553894043</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705703735352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227729797363</t>
+    <t xml:space="preserve">15.3227710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770269393921</t>
+    <t xml:space="preserve">14.9770288467407</t>
   </si>
   <si>
-    <t xml:space="preserve">15.307056427002</t>
+    <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856325149536</t>
+    <t xml:space="preserve">15.3856334686279</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078056335449</t>
+    <t xml:space="preserve">15.7078084945679</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156629562378</t>
+    <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999492645264</t>
+    <t xml:space="preserve">15.6999483108521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842317581177</t>
+    <t xml:space="preserve">15.6842308044434</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763753890991</t>
+    <t xml:space="preserve">15.6763763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.338490486145</t>
+    <t xml:space="preserve">15.3384895324707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977964401245</t>
+    <t xml:space="preserve">15.5977973937988</t>
   </si>
   <si>
     <t xml:space="preserve">15.3306303024292</t>
   </si>
   <si>
-    <t xml:space="preserve">15.872820854187</t>
+    <t xml:space="preserve">15.8728227615356</t>
   </si>
   <si>
     <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871337890625</t>
+    <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014457702637</t>
+    <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300716400146</t>
+    <t xml:space="preserve">17.1300735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443855285645</t>
+    <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
     <t xml:space="preserve">18.5444831848145</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158573150635</t>
+    <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
     <t xml:space="preserve">17.7587013244629</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">17.2872295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015453338623</t>
+    <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729175567627</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345634460449</t>
+    <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112697601318</t>
+    <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
     <t xml:space="preserve">15.6797409057617</t>
@@ -629,52 +629,52 @@
     <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195030212402</t>
+    <t xml:space="preserve">17.6195068359375</t>
   </si>
   <si>
     <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413896560669</t>
+    <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605657577515</t>
+    <t xml:space="preserve">15.7605648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564491271973</t>
+    <t xml:space="preserve">15.3564510345459</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331535339355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139793395996</t>
+    <t xml:space="preserve">15.1139812469482</t>
   </si>
   <si>
     <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255466461182</t>
+    <t xml:space="preserve">14.9255456924438</t>
   </si>
   <si>
     <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224376678467</t>
+    <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870323181152</t>
+    <t xml:space="preserve">14.0870332717896</t>
   </si>
   <si>
     <t xml:space="preserve">14.3385848999023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547369003296</t>
+    <t xml:space="preserve">14.2547340393066</t>
   </si>
   <si>
     <t xml:space="preserve">14.1708831787109</t>
@@ -683,52 +683,52 @@
     <t xml:space="preserve">14.6739912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062894821167</t>
+    <t xml:space="preserve">14.5062885284424</t>
   </si>
   <si>
     <t xml:space="preserve">13.8354787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193305969238</t>
+    <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578449249268</t>
+    <t xml:space="preserve">14.7578439712524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031824111938</t>
+    <t xml:space="preserve">14.0031814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516279220581</t>
+    <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677761077881</t>
+    <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500072479248</t>
+    <t xml:space="preserve">13.5000715255737</t>
   </si>
   <si>
     <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323698043823</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485179901123</t>
+    <t xml:space="preserve">13.248517036438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969635009766</t>
+    <t xml:space="preserve">12.9969654083252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938554763794</t>
+    <t xml:space="preserve">12.4938564300537</t>
   </si>
   <si>
     <t xml:space="preserve">12.242301940918</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131116867065</t>
+    <t xml:space="preserve">12.9131135940552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615581512451</t>
+    <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
     <t xml:space="preserve">11.6553421020508</t>
@@ -752,52 +752,52 @@
     <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907474517822</t>
+    <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
     <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745983123779</t>
+    <t xml:space="preserve">12.0745992660522</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068965911865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391929626465</t>
+    <t xml:space="preserve">11.7391939163208</t>
   </si>
   <si>
     <t xml:space="preserve">11.4876394271851</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714902877808</t>
+    <t xml:space="preserve">11.5714921951294</t>
   </si>
   <si>
     <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168287277222</t>
+    <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845314025879</t>
+    <t xml:space="preserve">10.9845294952393</t>
   </si>
   <si>
     <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7329778671265</t>
+    <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814233779907</t>
+    <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491250991821</t>
+    <t xml:space="preserve">10.6491260528564</t>
   </si>
   <si>
     <t xml:space="preserve">12.3261528015137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777063369751</t>
+    <t xml:space="preserve">12.5777072906494</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">13.1942462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.932107925415</t>
+    <t xml:space="preserve">12.9321088790894</t>
   </si>
   <si>
     <t xml:space="preserve">11.5340423583984</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068658828735</t>
+    <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
     <t xml:space="preserve">13.5437622070312</t>
@@ -842,31 +842,31 @@
     <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690032958984</t>
+    <t xml:space="preserve">13.3690042495728</t>
   </si>
   <si>
     <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039642333984</t>
+    <t xml:space="preserve">15.2039651870728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534830093384</t>
+    <t xml:space="preserve">15.5534811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165866851807</t>
+    <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156185150146</t>
+    <t xml:space="preserve">15.8156175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408596038818</t>
+    <t xml:space="preserve">15.6408605575562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282419204712</t>
+    <t xml:space="preserve">15.7282409667969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787240982056</t>
+    <t xml:space="preserve">15.3787231445312</t>
   </si>
   <si>
     <t xml:space="preserve">15.2913427352905</t>
@@ -875,31 +875,31 @@
     <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8544502258301</t>
+    <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796903610229</t>
+    <t xml:space="preserve">14.6796913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3301753997803</t>
+    <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4175539016724</t>
+    <t xml:space="preserve">14.417552947998</t>
   </si>
   <si>
     <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418268203735</t>
+    <t xml:space="preserve">14.9418277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154493331909</t>
+    <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
     <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174461364746</t>
+    <t xml:space="preserve">14.9174470901489</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909482955933</t>
@@ -911,67 +911,67 @@
     <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929460525513</t>
+    <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
     <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296966552734</t>
+    <t xml:space="preserve">14.8296976089478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031988143921</t>
+    <t xml:space="preserve">14.3031978607178</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1276988983154</t>
+    <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561944961548</t>
+    <t xml:space="preserve">15.3561964035034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316953659058</t>
+    <t xml:space="preserve">15.5316944122314</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806955337524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071933746338</t>
+    <t xml:space="preserve">15.7071943283081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439449310303</t>
+    <t xml:space="preserve">15.4439458847046</t>
   </si>
   <si>
     <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826932907104</t>
+    <t xml:space="preserve">15.8826951980591</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581912994385</t>
+    <t xml:space="preserve">16.0581932067871</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459407806396</t>
+    <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704446792603</t>
+    <t xml:space="preserve">15.9704427719116</t>
   </si>
   <si>
-    <t xml:space="preserve">15.794942855835</t>
+    <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.321439743042</t>
+    <t xml:space="preserve">16.3214416503906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091930389404</t>
+    <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724376678467</t>
+    <t xml:space="preserve">16.6724414825439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601890563965</t>
+    <t xml:space="preserve">16.7601928710938</t>
   </si>
   <si>
     <t xml:space="preserve">16.8479404449463</t>
@@ -980,25 +980,25 @@
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0485134124756</t>
+    <t xml:space="preserve">17.048511505127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573421478271</t>
+    <t xml:space="preserve">16.9573440551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8661727905273</t>
+    <t xml:space="preserve">16.866174697876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750034332275</t>
+    <t xml:space="preserve">16.7750053405762</t>
   </si>
   <si>
     <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014991760254</t>
+    <t xml:space="preserve">16.501501083374</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4103298187256</t>
+    <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
     <t xml:space="preserve">16.5926685333252</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131851196289</t>
+    <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043544769287</t>
+    <t xml:space="preserve">17.5043525695801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778587341309</t>
+    <t xml:space="preserve">17.7778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5100612640381</t>
+    <t xml:space="preserve">19.5100593566895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9630508422852</t>
+    <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453876495361</t>
+    <t xml:space="preserve">19.1453857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277244567871</t>
+    <t xml:space="preserve">19.3277225494385</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1065,6 +1065,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
     <t xml:space="preserve">18.6786060333252</t>
@@ -43525,7 +43528,7 @@
         <v>20</v>
       </c>
       <c r="G1613" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43551,7 +43554,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43603,7 +43606,7 @@
         <v>20</v>
       </c>
       <c r="G1616" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43629,7 +43632,7 @@
         <v>20</v>
       </c>
       <c r="G1617" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43655,7 +43658,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43681,7 +43684,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43707,7 +43710,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43733,7 +43736,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1621" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43759,7 +43762,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43785,7 +43788,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1623" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43811,7 +43814,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43837,7 +43840,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43863,7 +43866,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1626" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43889,7 +43892,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1627" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43915,7 +43918,7 @@
         <v>20</v>
       </c>
       <c r="G1628" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43941,7 +43944,7 @@
         <v>20</v>
       </c>
       <c r="G1629" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -43967,7 +43970,7 @@
         <v>20</v>
       </c>
       <c r="G1630" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -43993,7 +43996,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1631" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44019,7 +44022,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44045,7 +44048,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44071,7 +44074,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44097,7 +44100,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44123,7 +44126,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44149,7 +44152,7 @@
         <v>19.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44175,7 +44178,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44201,7 +44204,7 @@
         <v>19.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44227,7 +44230,7 @@
         <v>19</v>
       </c>
       <c r="G1640" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44253,7 +44256,7 @@
         <v>19</v>
       </c>
       <c r="G1641" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44279,7 +44282,7 @@
         <v>19</v>
       </c>
       <c r="G1642" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44305,7 +44308,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44331,7 +44334,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1644" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44357,7 +44360,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1645" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44383,7 +44386,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44409,7 +44412,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44435,7 +44438,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44461,7 +44464,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44487,7 +44490,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44513,7 +44516,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44539,7 +44542,7 @@
         <v>19</v>
       </c>
       <c r="G1652" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44565,7 +44568,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44591,7 +44594,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44617,7 +44620,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44643,7 +44646,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44695,7 +44698,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44721,7 +44724,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44747,7 +44750,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44773,7 +44776,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44799,7 +44802,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44825,7 +44828,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44851,7 +44854,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44877,7 +44880,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44903,7 +44906,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44929,7 +44932,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44955,7 +44958,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44981,7 +44984,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45007,7 +45010,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45033,7 +45036,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45059,7 +45062,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45085,7 +45088,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45111,7 +45114,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45137,7 +45140,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45163,7 +45166,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45189,7 +45192,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45215,7 +45218,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45241,7 +45244,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45267,7 +45270,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45293,7 +45296,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45319,7 +45322,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1682" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45345,7 +45348,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45371,7 +45374,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45397,7 +45400,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45423,7 +45426,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45449,7 +45452,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1687" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45475,7 +45478,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1688" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45501,7 +45504,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45527,7 +45530,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45553,7 +45556,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45579,7 +45582,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1692" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45605,7 +45608,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45631,7 +45634,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45657,7 +45660,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45683,7 +45686,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1696" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45709,7 +45712,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1697" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45735,7 +45738,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45761,7 +45764,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45787,7 +45790,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45813,7 +45816,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45839,7 +45842,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45865,7 +45868,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45891,7 +45894,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45917,7 +45920,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45943,7 +45946,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45969,7 +45972,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -45995,7 +45998,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46021,7 +46024,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46047,7 +46050,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46073,7 +46076,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46099,7 +46102,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46125,7 +46128,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46151,7 +46154,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46177,7 +46180,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46203,7 +46206,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1716" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46229,7 +46232,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1717" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46255,7 +46258,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46281,7 +46284,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46307,7 +46310,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46333,7 +46336,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46359,7 +46362,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46385,7 +46388,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46411,7 +46414,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46437,7 +46440,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46463,7 +46466,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46489,7 +46492,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46515,7 +46518,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46541,7 +46544,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46567,7 +46570,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46593,7 +46596,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46619,7 +46622,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46645,7 +46648,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46671,7 +46674,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46697,7 +46700,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46723,7 +46726,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46749,7 +46752,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46775,7 +46778,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46801,7 +46804,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46827,7 +46830,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46853,7 +46856,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46879,7 +46882,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46905,7 +46908,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46931,7 +46934,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46957,7 +46960,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46983,7 +46986,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47009,7 +47012,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47035,7 +47038,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47061,7 +47064,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47087,7 +47090,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47113,7 +47116,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47139,7 +47142,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47165,7 +47168,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47191,7 +47194,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47217,7 +47220,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47243,7 +47246,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47269,7 +47272,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47295,7 +47298,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47321,7 +47324,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47347,7 +47350,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47373,7 +47376,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47399,7 +47402,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47425,7 +47428,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47451,7 +47454,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47477,7 +47480,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47503,7 +47506,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47529,7 +47532,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47555,7 +47558,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47581,7 +47584,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47607,7 +47610,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47633,7 +47636,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47659,7 +47662,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47685,7 +47688,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47711,7 +47714,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47737,7 +47740,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47763,7 +47766,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47789,7 +47792,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47815,7 +47818,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47841,7 +47844,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47867,7 +47870,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47893,7 +47896,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47919,7 +47922,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47945,7 +47948,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47971,7 +47974,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -47997,7 +48000,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48023,7 +48026,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48049,7 +48052,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48075,7 +48078,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48101,7 +48104,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48127,7 +48130,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1790" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48179,7 +48182,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48205,7 +48208,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48231,7 +48234,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48257,7 +48260,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48283,7 +48286,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48309,7 +48312,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48335,7 +48338,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1798" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48361,7 +48364,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48387,7 +48390,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48413,7 +48416,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48439,7 +48442,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48465,7 +48468,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48491,7 +48494,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48517,7 +48520,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48543,7 +48546,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48569,7 +48572,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48595,7 +48598,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48621,7 +48624,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48647,7 +48650,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48699,7 +48702,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48725,7 +48728,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48751,7 +48754,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48777,7 +48780,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48803,7 +48806,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48829,7 +48832,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48855,7 +48858,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48881,7 +48884,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48907,7 +48910,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48933,7 +48936,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48959,7 +48962,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48985,7 +48988,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49011,7 +49014,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49037,7 +49040,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49063,7 +49066,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49089,7 +49092,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49115,7 +49118,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49141,7 +49144,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49167,7 +49170,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49193,7 +49196,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49219,7 +49222,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49245,7 +49248,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49271,7 +49274,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49297,7 +49300,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49323,7 +49326,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49349,7 +49352,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49375,7 +49378,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49401,7 +49404,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49427,7 +49430,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49453,7 +49456,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49479,7 +49482,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49505,7 +49508,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49531,7 +49534,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49557,7 +49560,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49583,7 +49586,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49609,7 +49612,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49635,7 +49638,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49661,7 +49664,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49687,7 +49690,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49713,7 +49716,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49739,7 +49742,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49765,7 +49768,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49791,7 +49794,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49817,7 +49820,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49843,7 +49846,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49869,7 +49872,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49895,7 +49898,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49921,7 +49924,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49947,7 +49950,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49973,7 +49976,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -49999,7 +50002,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50025,7 +50028,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50051,7 +50054,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50077,7 +50080,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50103,7 +50106,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50129,7 +50132,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50155,7 +50158,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50181,7 +50184,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50207,7 +50210,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50233,7 +50236,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50259,7 +50262,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50285,7 +50288,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50311,7 +50314,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50337,7 +50340,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50363,7 +50366,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50389,7 +50392,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50415,7 +50418,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50441,7 +50444,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50467,7 +50470,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50493,7 +50496,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50519,7 +50522,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50545,7 +50548,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50571,7 +50574,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50597,7 +50600,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50623,7 +50626,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50649,7 +50652,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50675,7 +50678,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50701,7 +50704,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50727,7 +50730,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50753,7 +50756,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50779,7 +50782,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50805,7 +50808,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50831,7 +50834,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50857,7 +50860,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50883,7 +50886,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50909,7 +50912,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50935,7 +50938,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50961,7 +50964,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50987,7 +50990,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51013,7 +51016,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51039,7 +51042,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51065,7 +51068,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51091,7 +51094,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51117,7 +51120,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51143,7 +51146,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51169,7 +51172,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51195,7 +51198,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51221,7 +51224,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51247,7 +51250,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51273,7 +51276,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51299,7 +51302,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51325,7 +51328,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51351,7 +51354,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51377,7 +51380,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51403,7 +51406,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51429,7 +51432,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51455,7 +51458,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51481,7 +51484,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51507,7 +51510,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51533,7 +51536,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51559,7 +51562,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51585,7 +51588,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51611,7 +51614,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51637,7 +51640,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51663,7 +51666,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51689,7 +51692,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51715,7 +51718,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51741,7 +51744,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51767,7 +51770,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51793,7 +51796,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51819,7 +51822,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51845,7 +51848,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51871,7 +51874,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51897,7 +51900,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51923,7 +51926,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51949,7 +51952,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51975,7 +51978,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52001,7 +52004,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52027,7 +52030,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52053,7 +52056,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52079,7 +52082,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52105,7 +52108,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52131,7 +52134,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52157,7 +52160,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52183,7 +52186,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52209,7 +52212,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52235,7 +52238,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52261,7 +52264,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52287,7 +52290,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52313,7 +52316,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52339,7 +52342,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52365,7 +52368,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52391,7 +52394,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52417,7 +52420,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52443,7 +52446,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52469,7 +52472,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52495,7 +52498,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52521,7 +52524,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52547,7 +52550,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52573,7 +52576,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52599,7 +52602,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52625,7 +52628,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52651,7 +52654,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52677,7 +52680,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52703,7 +52706,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52729,7 +52732,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52755,7 +52758,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52781,7 +52784,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52807,7 +52810,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52833,7 +52836,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52859,7 +52862,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52885,7 +52888,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52911,7 +52914,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52937,7 +52940,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52963,7 +52966,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -52989,7 +52992,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53015,7 +53018,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53041,7 +53044,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53067,7 +53070,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53093,7 +53096,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53119,7 +53122,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53145,7 +53148,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53171,7 +53174,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53197,7 +53200,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53223,7 +53226,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53249,7 +53252,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53275,7 +53278,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53301,7 +53304,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53327,7 +53330,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53353,7 +53356,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53379,7 +53382,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53405,7 +53408,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53431,7 +53434,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53457,7 +53460,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53483,7 +53486,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53509,7 +53512,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53535,7 +53538,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53561,7 +53564,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53587,7 +53590,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53613,7 +53616,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53639,7 +53642,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53665,7 +53668,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53691,7 +53694,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53717,7 +53720,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53743,7 +53746,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53769,7 +53772,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53795,7 +53798,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53821,7 +53824,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53847,7 +53850,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53873,7 +53876,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53899,7 +53902,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53925,7 +53928,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53951,7 +53954,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53977,7 +53980,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54003,7 +54006,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54029,7 +54032,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54055,7 +54058,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54081,7 +54084,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54107,7 +54110,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54133,7 +54136,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54159,7 +54162,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54185,7 +54188,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54211,7 +54214,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54237,7 +54240,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54263,7 +54266,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54289,7 +54292,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54315,7 +54318,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54341,7 +54344,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54367,7 +54370,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54393,7 +54396,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54419,7 +54422,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54445,7 +54448,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54471,7 +54474,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54497,7 +54500,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54523,7 +54526,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54549,7 +54552,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54575,7 +54578,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54601,7 +54604,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54627,7 +54630,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54653,7 +54656,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54679,7 +54682,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54705,7 +54708,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54731,7 +54734,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54757,7 +54760,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54783,7 +54786,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54809,7 +54812,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54835,7 +54838,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54861,7 +54864,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54887,7 +54890,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54913,7 +54916,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54939,7 +54942,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54965,7 +54968,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -54991,7 +54994,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55017,7 +55020,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55043,7 +55046,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55069,7 +55072,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55095,7 +55098,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55121,7 +55124,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55147,7 +55150,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55173,7 +55176,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55199,7 +55202,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55225,7 +55228,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55251,7 +55254,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55277,7 +55280,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55303,7 +55306,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55329,7 +55332,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55355,7 +55358,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55381,7 +55384,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55407,7 +55410,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55433,7 +55436,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55459,7 +55462,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55485,7 +55488,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55511,7 +55514,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55537,7 +55540,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55563,7 +55566,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55589,7 +55592,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55615,7 +55618,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55641,7 +55644,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55667,7 +55670,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55693,7 +55696,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55719,7 +55722,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55745,7 +55748,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55771,7 +55774,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55797,7 +55800,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55823,7 +55826,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55849,7 +55852,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55875,7 +55878,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55901,7 +55904,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55927,7 +55930,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55953,7 +55956,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55979,7 +55982,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56005,7 +56008,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56031,7 +56034,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56057,7 +56060,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56083,7 +56086,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56109,7 +56112,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56135,7 +56138,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56161,7 +56164,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56187,7 +56190,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56213,7 +56216,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56239,7 +56242,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56265,7 +56268,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56291,7 +56294,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56317,7 +56320,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56343,7 +56346,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56369,7 +56372,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56395,7 +56398,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56421,7 +56424,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56447,7 +56450,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56473,7 +56476,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56499,7 +56502,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56525,7 +56528,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56551,7 +56554,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56577,7 +56580,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56603,7 +56606,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56629,7 +56632,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56655,7 +56658,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56681,7 +56684,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56707,7 +56710,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56733,7 +56736,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56759,7 +56762,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56785,7 +56788,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56811,7 +56814,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56837,7 +56840,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56863,7 +56866,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56889,7 +56892,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56915,7 +56918,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56941,7 +56944,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56967,7 +56970,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -56993,7 +56996,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57019,7 +57022,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57045,7 +57048,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57071,7 +57074,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57097,7 +57100,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57123,7 +57126,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57149,7 +57152,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57175,7 +57178,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57201,7 +57204,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57227,7 +57230,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57253,7 +57256,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57279,7 +57282,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57305,7 +57308,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57331,7 +57334,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57357,7 +57360,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57383,7 +57386,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57409,7 +57412,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57435,7 +57438,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57461,7 +57464,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57487,7 +57490,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57513,7 +57516,7 @@
         <v>14</v>
       </c>
       <c r="G2151" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57539,7 +57542,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2152" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57565,7 +57568,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2153" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57591,7 +57594,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2154" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57617,7 +57620,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2155" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57643,7 +57646,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57669,7 +57672,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57695,7 +57698,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2158" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57721,7 +57724,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2159" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57747,7 +57750,7 @@
         <v>14</v>
       </c>
       <c r="G2160" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57773,7 +57776,7 @@
         <v>14</v>
       </c>
       <c r="G2161" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57799,7 +57802,7 @@
         <v>14</v>
       </c>
       <c r="G2162" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57825,7 +57828,7 @@
         <v>14</v>
       </c>
       <c r="G2163" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57851,7 +57854,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57877,7 +57880,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2165" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57903,7 +57906,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2166" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57929,7 +57932,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2167" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -57955,7 +57958,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2168" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -57981,7 +57984,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2169" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58007,7 +58010,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2170" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58033,7 +58036,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58059,7 +58062,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2172" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58085,7 +58088,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2173" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58111,7 +58114,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2174" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58137,7 +58140,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2175" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58163,7 +58166,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2176" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -58189,7 +58192,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2177" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -58215,7 +58218,7 @@
         <v>15</v>
       </c>
       <c r="G2178" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -58241,7 +58244,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2179" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -58267,7 +58270,7 @@
         <v>15</v>
       </c>
       <c r="G2180" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -58293,7 +58296,7 @@
         <v>15</v>
       </c>
       <c r="G2181" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -58319,7 +58322,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2182" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -58345,7 +58348,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2183" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -58371,7 +58374,7 @@
         <v>15</v>
       </c>
       <c r="G2184" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -58397,7 +58400,7 @@
         <v>15</v>
       </c>
       <c r="G2185" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -58423,7 +58426,7 @@
         <v>15</v>
       </c>
       <c r="G2186" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -58449,7 +58452,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2187" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -58475,7 +58478,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2188" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -58501,7 +58504,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2189" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -58527,7 +58530,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2190" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -58553,7 +58556,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2191" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -58579,7 +58582,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2192" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -58605,7 +58608,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2193" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -58631,7 +58634,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2194" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -58657,7 +58660,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2195" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -58683,7 +58686,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2196" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -58709,7 +58712,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2197" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -58735,7 +58738,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2198" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -58761,7 +58764,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2199" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -58787,7 +58790,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2200" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -58813,7 +58816,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2201" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -58839,7 +58842,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2202" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -58865,7 +58868,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2203" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -58891,7 +58894,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2204" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -58917,7 +58920,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2205" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -58943,7 +58946,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2206" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -58969,7 +58972,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2207" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -58995,7 +58998,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2208" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -59003,7 +59006,7 @@
     </row>
     <row r="2209">
       <c r="A2209" s="1" t="n">
-        <v>45539.2918171296</v>
+        <v>45539.2916666667</v>
       </c>
       <c r="B2209" t="n">
         <v>100</v>
@@ -59021,7 +59024,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2209" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2209" t="s">
         <v>9</v>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440408706665</t>
+    <t xml:space="preserve">13.8440427780151</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711763381958</t>
+    <t xml:space="preserve">13.7711791992188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651508331299</t>
+    <t xml:space="preserve">13.4651517868042</t>
   </si>
   <si>
     <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154069900513</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068613052368</t>
+    <t xml:space="preserve">13.4068603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081228256226</t>
+    <t xml:space="preserve">13.1081218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7510919570923</t>
+    <t xml:space="preserve">12.751091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091436386108</t>
+    <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752334594727</t>
+    <t xml:space="preserve">11.0752325057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830318450928</t>
+    <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655548095703</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651893615723</t>
+    <t xml:space="preserve">10.5651884078979</t>
   </si>
   <si>
     <t xml:space="preserve">10.7983531951904</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950838088989</t>
+    <t xml:space="preserve">10.9950847625732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295053482056</t>
+    <t xml:space="preserve">10.9295072555542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1480960845947</t>
+    <t xml:space="preserve">11.148097038269</t>
   </si>
   <si>
     <t xml:space="preserve">11.2209596633911</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865371704102</t>
+    <t xml:space="preserve">11.2865381240845</t>
   </si>
   <si>
     <t xml:space="preserve">11.6581401824951</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">11.920449256897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827573776245</t>
   </si>
   <si>
     <t xml:space="preserve">12.4523506164551</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219457626343</t>
+    <t xml:space="preserve">12.72194480896</t>
   </si>
   <si>
     <t xml:space="preserve">13.0061120986938</t>
@@ -131,67 +131,67 @@
     <t xml:space="preserve">13.2611331939697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525884628296</t>
+    <t xml:space="preserve">13.5525875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882705688477</t>
+    <t xml:space="preserve">13.1882724761963</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199388504028</t>
   </si>
   <si>
     <t xml:space="preserve">12.4742116928101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3139095306396</t>
+    <t xml:space="preserve">12.313910484314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907926559448</t>
+    <t xml:space="preserve">12.5907907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774772644043</t>
+    <t xml:space="preserve">12.2774791717529</t>
   </si>
   <si>
     <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2698993682861</t>
+    <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048389434814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.466944694519</t>
+    <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229494094849</t>
+    <t xml:space="preserve">12.3229503631592</t>
   </si>
   <si>
     <t xml:space="preserve">12.0501184463501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259050369263</t>
+    <t xml:space="preserve">12.125904083252</t>
   </si>
   <si>
     <t xml:space="preserve">11.8227577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0880117416382</t>
+    <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364366531372</t>
+    <t xml:space="preserve">11.9364385604858</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016906738281</t>
+    <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
     <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911609649658</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806264877319</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">12.7322006225586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.770092010498</t>
+    <t xml:space="preserve">12.7700939178467</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837747573853</t>
@@ -212,46 +212,46 @@
     <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761940002441</t>
+    <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
     <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1111345291138</t>
+    <t xml:space="preserve">13.1111354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627086639404</t>
+    <t xml:space="preserve">13.2627067565918</t>
   </si>
   <si>
     <t xml:space="preserve">13.5582761764526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763904571533</t>
+    <t xml:space="preserve">13.3763885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885915756226</t>
+    <t xml:space="preserve">13.5885925292969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658569335938</t>
+    <t xml:space="preserve">13.5658550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142837524414</t>
+    <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690052032471</t>
+    <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
     <t xml:space="preserve">13.9447898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0963649749756</t>
+    <t xml:space="preserve">14.0963621139526</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0205764770508</t>
+    <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357351303101</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
     <t xml:space="preserve">14.0887861251831</t>
@@ -263,58 +263,58 @@
     <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100448608398</t>
+    <t xml:space="preserve">14.2100429534912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948862075806</t>
+    <t xml:space="preserve">14.1948881149292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.134256362915</t>
+    <t xml:space="preserve">14.134259223938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.982684135437</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812063217163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736303329468</t>
+    <t xml:space="preserve">14.0736284255981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.831109046936</t>
+    <t xml:space="preserve">13.8311100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418380737305</t>
+    <t xml:space="preserve">14.1418371200562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538446426392</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900684356689</t>
+    <t xml:space="preserve">13.4900703430176</t>
   </si>
   <si>
     <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203838348389</t>
+    <t xml:space="preserve">13.5203819274902</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416425704956</t>
+    <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553234100342</t>
+    <t xml:space="preserve">13.7553243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521751403809</t>
+    <t xml:space="preserve">13.4521741867065</t>
   </si>
   <si>
     <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460760116577</t>
+    <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340656280518</t>
+    <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
     <t xml:space="preserve">13.2551307678223</t>
@@ -323,61 +323,61 @@
     <t xml:space="preserve">12.8231449127197</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776708602905</t>
+    <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
     <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686731338501</t>
+    <t xml:space="preserve">12.686728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6412572860718</t>
+    <t xml:space="preserve">12.6412544250488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185207366943</t>
+    <t xml:space="preserve">12.61851978302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063148498535</t>
+    <t xml:space="preserve">12.4063167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488361358643</t>
+    <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
     <t xml:space="preserve">12.5578899383545</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654697418213</t>
+    <t xml:space="preserve">12.565468788147</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124177932739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473554611206</t>
+    <t xml:space="preserve">12.7473573684692</t>
   </si>
   <si>
     <t xml:space="preserve">12.5199966430664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427331924438</t>
+    <t xml:space="preserve">12.5427322387695</t>
   </si>
   <si>
     <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246208190918</t>
+    <t xml:space="preserve">12.7246217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079853057861</t>
+    <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296867370605</t>
+    <t xml:space="preserve">12.7296876907349</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868446350098</t>
@@ -392,25 +392,25 @@
     <t xml:space="preserve">12.9732799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118211746216</t>
+    <t xml:space="preserve">12.6118192672729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947019577026</t>
+    <t xml:space="preserve">12.8947010040283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047121047974</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697254180908</t>
+    <t xml:space="preserve">13.1697263717651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368925094604</t>
+    <t xml:space="preserve">13.4368915557861</t>
   </si>
   <si>
     <t xml:space="preserve">13.7354888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.594048500061</t>
+    <t xml:space="preserve">13.5940494537354</t>
   </si>
   <si>
     <t xml:space="preserve">13.5861902236938</t>
@@ -425,70 +425,70 @@
     <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512054443359</t>
+    <t xml:space="preserve">13.7512035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761829376221</t>
+    <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4526090621948</t>
+    <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276315689087</t>
+    <t xml:space="preserve">13.7276306152344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119169235229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869394302368</t>
+    <t xml:space="preserve">13.9869413375854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083642959595</t>
+    <t xml:space="preserve">13.9083633422852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655193328857</t>
+    <t xml:space="preserve">14.0655183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148189544678</t>
+    <t xml:space="preserve">14.2148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833868026733</t>
+    <t xml:space="preserve">14.1833848953247</t>
   </si>
   <si>
     <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590627670288</t>
+    <t xml:space="preserve">13.7590646743774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576591491699</t>
+    <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297843933105</t>
+    <t xml:space="preserve">13.8297834396362</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262298583984</t>
+    <t xml:space="preserve">14.0262289047241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104808807373</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476509094238</t>
+    <t xml:space="preserve">13.9476499557495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690738677979</t>
+    <t xml:space="preserve">13.8690729141235</t>
   </si>
   <si>
     <t xml:space="preserve">13.7904939651489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1440963745117</t>
+    <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
     <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619647979736</t>
+    <t xml:space="preserve">14.2619657516479</t>
   </si>
   <si>
     <t xml:space="preserve">14.4584102630615</t>
@@ -497,82 +497,82 @@
     <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.733434677124</t>
+    <t xml:space="preserve">14.7334318161011</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405418395996</t>
+    <t xml:space="preserve">14.3405427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933959960938</t>
+    <t xml:space="preserve">14.2933940887451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0498056411743</t>
+    <t xml:space="preserve">14.0498027801514</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155672073364</t>
+    <t xml:space="preserve">14.6155643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6941471099854</t>
+    <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969486236572</t>
+    <t xml:space="preserve">14.0969505310059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812349319458</t>
+    <t xml:space="preserve">14.0812358856201</t>
   </si>
   <si>
-    <t xml:space="preserve">14.450553894043</t>
+    <t xml:space="preserve">14.4505529403687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705703735352</t>
+    <t xml:space="preserve">14.6705722808838</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227710723877</t>
+    <t xml:space="preserve">15.322772026062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770288467407</t>
+    <t xml:space="preserve">14.9770269393921</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3070554733276</t>
+    <t xml:space="preserve">15.3070583343506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856334686279</t>
+    <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078084945679</t>
+    <t xml:space="preserve">15.7078046798706</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156639099121</t>
+    <t xml:space="preserve">15.7156648635864</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999483108521</t>
+    <t xml:space="preserve">15.6999492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6842308044434</t>
+    <t xml:space="preserve">15.6842336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763763427734</t>
+    <t xml:space="preserve">15.6763725280762</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384895324707</t>
+    <t xml:space="preserve">15.3384866714478</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977973937988</t>
+    <t xml:space="preserve">15.5977954864502</t>
   </si>
   <si>
     <t xml:space="preserve">15.3306303024292</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728227615356</t>
+    <t xml:space="preserve">15.872820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442897796631</t>
+    <t xml:space="preserve">16.3442878723145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871356964111</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014495849609</t>
+    <t xml:space="preserve">16.5014476776123</t>
   </si>
   <si>
     <t xml:space="preserve">17.1300735473633</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444831848145</t>
+    <t xml:space="preserve">18.5444850921631</t>
   </si>
   <si>
     <t xml:space="preserve">18.0730133056641</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">17.7587013244629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872295379639</t>
+    <t xml:space="preserve">17.2872276306152</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6015434265137</t>
+    <t xml:space="preserve">17.6015453338623</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729175567627</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">16.8112678527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.457857131958</t>
+    <t xml:space="preserve">17.4578590393066</t>
   </si>
   <si>
     <t xml:space="preserve">15.6797409057617</t>
@@ -620,61 +620,61 @@
     <t xml:space="preserve">16.3263301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646823883057</t>
+    <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879760742188</t>
+    <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
     <t xml:space="preserve">17.2962112426758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6195068359375</t>
+    <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
     <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413906097412</t>
+    <t xml:space="preserve">15.8413896560669</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605648040771</t>
+    <t xml:space="preserve">15.7605657577515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564510345459</t>
+    <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331535339355</t>
+    <t xml:space="preserve">15.0331525802612</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1139812469482</t>
+    <t xml:space="preserve">15.1139793395996</t>
   </si>
   <si>
     <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255456924438</t>
+    <t xml:space="preserve">14.9255466461182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901393890381</t>
+    <t xml:space="preserve">14.5901403427124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224367141724</t>
+    <t xml:space="preserve">14.4224376678467</t>
   </si>
   <si>
     <t xml:space="preserve">14.0870332717896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385848999023</t>
+    <t xml:space="preserve">14.3385858535767</t>
   </si>
   <si>
     <t xml:space="preserve">14.8416957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547340393066</t>
+    <t xml:space="preserve">14.254734992981</t>
   </si>
   <si>
     <t xml:space="preserve">14.1708831787109</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">14.6739912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062885284424</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
     <t xml:space="preserve">13.8354787826538</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932493209839</t>
+    <t xml:space="preserve">15.0932502746582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578439712524</t>
+    <t xml:space="preserve">14.7578430175781</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0031814575195</t>
+    <t xml:space="preserve">14.0031824111938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7516269683838</t>
+    <t xml:space="preserve">13.7516279220581</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677751541138</t>
+    <t xml:space="preserve">13.6677761077881</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5000715255737</t>
+    <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.416220664978</t>
@@ -722,43 +722,43 @@
     <t xml:space="preserve">13.0808143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">13.248517036438</t>
+    <t xml:space="preserve">13.2485179901123</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969654083252</t>
+    <t xml:space="preserve">12.9969644546509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938564300537</t>
+    <t xml:space="preserve">12.4938545227051</t>
   </si>
   <si>
-    <t xml:space="preserve">12.242301940918</t>
+    <t xml:space="preserve">12.2423009872437</t>
   </si>
   <si>
     <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131135940552</t>
+    <t xml:space="preserve">12.9131116867065</t>
   </si>
   <si>
     <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454109191895</t>
+    <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553421020508</t>
+    <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
     <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907464981079</t>
+    <t xml:space="preserve">11.9907474517822</t>
   </si>
   <si>
     <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745992660522</t>
+    <t xml:space="preserve">12.0745983123779</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068965911865</t>
@@ -767,22 +767,22 @@
     <t xml:space="preserve">11.7391939163208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876394271851</t>
+    <t xml:space="preserve">11.4876384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714921951294</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522331237793</t>
+    <t xml:space="preserve">11.152232170105</t>
   </si>
   <si>
     <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845294952393</t>
+    <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006786346436</t>
+    <t xml:space="preserve">10.9006795883179</t>
   </si>
   <si>
     <t xml:space="preserve">10.7329769134521</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491260528564</t>
+    <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
     <t xml:space="preserve">12.3261528015137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5777072906494</t>
+    <t xml:space="preserve">12.5777063369751</t>
   </si>
   <si>
     <t xml:space="preserve">13.4563827514648</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">13.1942462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9321088790894</t>
+    <t xml:space="preserve">12.932107925415</t>
   </si>
   <si>
     <t xml:space="preserve">11.5340423583984</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4952116012573</t>
+    <t xml:space="preserve">12.4952125549316</t>
   </si>
   <si>
     <t xml:space="preserve">12.7573499679565</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8058996200562</t>
+    <t xml:space="preserve">13.8059005737305</t>
   </si>
   <si>
     <t xml:space="preserve">14.0680360794067</t>
@@ -839,16 +839,16 @@
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311407089233</t>
+    <t xml:space="preserve">13.631139755249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690042495728</t>
+    <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
     <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039651870728</t>
+    <t xml:space="preserve">15.2039642333984</t>
   </si>
   <si>
     <t xml:space="preserve">15.5534811019897</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">15.1165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156175613403</t>
+    <t xml:space="preserve">15.8156185150146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408605575562</t>
+    <t xml:space="preserve">15.6408615112305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282409667969</t>
+    <t xml:space="preserve">15.7282419204712</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787231445312</t>
@@ -884,28 +884,28 @@
     <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.417552947998</t>
+    <t xml:space="preserve">14.4175539016724</t>
   </si>
   <si>
     <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9418277740479</t>
+    <t xml:space="preserve">14.9418268203735</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2154502868652</t>
+    <t xml:space="preserve">14.2154493331909</t>
   </si>
   <si>
     <t xml:space="preserve">14.4786987304688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174470901489</t>
+    <t xml:space="preserve">14.9174461364746</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541996002197</t>
+    <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
     <t xml:space="preserve">14.5664482116699</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">15.0929470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2684450149536</t>
+    <t xml:space="preserve">15.2684459686279</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296976089478</t>
+    <t xml:space="preserve">14.8296966552734</t>
   </si>
   <si>
     <t xml:space="preserve">14.3031978607178</t>
@@ -929,76 +929,76 @@
     <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561964035034</t>
+    <t xml:space="preserve">15.3561944961548</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316944122314</t>
+    <t xml:space="preserve">15.5316953659058</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806955337524</t>
+    <t xml:space="preserve">15.1806945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071943283081</t>
+    <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439458847046</t>
+    <t xml:space="preserve">15.4439449310303</t>
   </si>
   <si>
     <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826951980591</t>
+    <t xml:space="preserve">15.8826932907104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581932067871</t>
+    <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
     <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704427719116</t>
+    <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7949438095093</t>
+    <t xml:space="preserve">15.794942855835</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214416503906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4091911315918</t>
+    <t xml:space="preserve">16.4091930389404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724414825439</t>
+    <t xml:space="preserve">16.6724395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601928710938</t>
+    <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479423522949</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.048511505127</t>
+    <t xml:space="preserve">17.0485134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573440551758</t>
+    <t xml:space="preserve">16.9573421478271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.866174697876</t>
+    <t xml:space="preserve">16.8661727905273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750053405762</t>
+    <t xml:space="preserve">16.7750034332275</t>
   </si>
   <si>
     <t xml:space="preserve">16.6838359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.501501083374</t>
+    <t xml:space="preserve">16.5014991760254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4103317260742</t>
+    <t xml:space="preserve">16.4103298187256</t>
   </si>
   <si>
     <t xml:space="preserve">16.5926685333252</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131870269775</t>
+    <t xml:space="preserve">17.4131851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043525695801</t>
+    <t xml:space="preserve">17.5043544769287</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778606414795</t>
+    <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
     <t xml:space="preserve">18.4160385131836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5100593566895</t>
+    <t xml:space="preserve">19.5100612640381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9630489349365</t>
+    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453857421875</t>
+    <t xml:space="preserve">19.1453876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277225494385</t>
+    <t xml:space="preserve">19.3277244567871</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
@@ -1065,9 +1065,6 @@
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9630508422852</t>
   </si>
   <si>
     <t xml:space="preserve">18.6786060333252</t>
@@ -43528,7 +43525,7 @@
         <v>20</v>
       </c>
       <c r="G1613" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43554,7 +43551,7 @@
         <v>20</v>
       </c>
       <c r="G1614" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43606,7 +43603,7 @@
         <v>20</v>
       </c>
       <c r="G1616" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43632,7 +43629,7 @@
         <v>20</v>
       </c>
       <c r="G1617" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43658,7 +43655,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43684,7 +43681,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43710,7 +43707,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43736,7 +43733,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1621" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43762,7 +43759,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1622" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43788,7 +43785,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1623" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43814,7 +43811,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43840,7 +43837,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43866,7 +43863,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1626" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43892,7 +43889,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1627" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43918,7 +43915,7 @@
         <v>20</v>
       </c>
       <c r="G1628" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43944,7 +43941,7 @@
         <v>20</v>
       </c>
       <c r="G1629" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -43970,7 +43967,7 @@
         <v>20</v>
       </c>
       <c r="G1630" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -43996,7 +43993,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1631" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44022,7 +44019,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44048,7 +44045,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44074,7 +44071,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1634" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44100,7 +44097,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44126,7 +44123,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44152,7 +44149,7 @@
         <v>19.5</v>
       </c>
       <c r="G1637" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44178,7 +44175,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1638" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44204,7 +44201,7 @@
         <v>19.5</v>
       </c>
       <c r="G1639" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44230,7 +44227,7 @@
         <v>19</v>
       </c>
       <c r="G1640" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44256,7 +44253,7 @@
         <v>19</v>
       </c>
       <c r="G1641" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44282,7 +44279,7 @@
         <v>19</v>
       </c>
       <c r="G1642" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44308,7 +44305,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44334,7 +44331,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1644" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44360,7 +44357,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1645" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44386,7 +44383,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44412,7 +44409,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1647" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44438,7 +44435,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1648" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44464,7 +44461,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44490,7 +44487,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1650" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44516,7 +44513,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1651" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44542,7 +44539,7 @@
         <v>19</v>
       </c>
       <c r="G1652" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44568,7 +44565,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44594,7 +44591,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44620,7 +44617,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1655" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44646,7 +44643,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1656" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44698,7 +44695,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44724,7 +44721,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1659" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44750,7 +44747,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44776,7 +44773,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44802,7 +44799,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44828,7 +44825,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44854,7 +44851,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44880,7 +44877,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44906,7 +44903,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44932,7 +44929,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44958,7 +44955,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44984,7 +44981,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45010,7 +45007,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45036,7 +45033,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45062,7 +45059,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45088,7 +45085,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45114,7 +45111,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45140,7 +45137,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45166,7 +45163,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45192,7 +45189,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45218,7 +45215,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45244,7 +45241,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45270,7 +45267,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45296,7 +45293,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45322,7 +45319,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1682" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45348,7 +45345,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45374,7 +45371,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45400,7 +45397,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1685" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45426,7 +45423,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45452,7 +45449,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1687" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45478,7 +45475,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1688" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45504,7 +45501,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1689" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45530,7 +45527,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1690" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45556,7 +45553,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45582,7 +45579,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1692" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45608,7 +45605,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1693" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45634,7 +45631,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45660,7 +45657,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45686,7 +45683,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1696" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45712,7 +45709,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1697" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45738,7 +45735,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1698" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45764,7 +45761,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45790,7 +45787,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45816,7 +45813,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45842,7 +45839,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45868,7 +45865,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45894,7 +45891,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45920,7 +45917,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45946,7 +45943,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45972,7 +45969,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -45998,7 +45995,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46024,7 +46021,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46050,7 +46047,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46076,7 +46073,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46102,7 +46099,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46128,7 +46125,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46154,7 +46151,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46180,7 +46177,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46206,7 +46203,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1716" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46232,7 +46229,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1717" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46258,7 +46255,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46284,7 +46281,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46310,7 +46307,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46336,7 +46333,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1721" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46362,7 +46359,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1722" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46388,7 +46385,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1723" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46414,7 +46411,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46440,7 +46437,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46466,7 +46463,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46492,7 +46489,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46518,7 +46515,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46544,7 +46541,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46570,7 +46567,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46596,7 +46593,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46622,7 +46619,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46648,7 +46645,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46674,7 +46671,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46700,7 +46697,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46726,7 +46723,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46752,7 +46749,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46778,7 +46775,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46804,7 +46801,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46830,7 +46827,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46856,7 +46853,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46882,7 +46879,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46908,7 +46905,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46934,7 +46931,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46960,7 +46957,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46986,7 +46983,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47012,7 +47009,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1747" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47038,7 +47035,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47064,7 +47061,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47090,7 +47087,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47116,7 +47113,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47142,7 +47139,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47168,7 +47165,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47194,7 +47191,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47220,7 +47217,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47246,7 +47243,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47272,7 +47269,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47298,7 +47295,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47324,7 +47321,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47350,7 +47347,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47376,7 +47373,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47402,7 +47399,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1762" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47428,7 +47425,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47454,7 +47451,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47480,7 +47477,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47506,7 +47503,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47532,7 +47529,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47558,7 +47555,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47584,7 +47581,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47610,7 +47607,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47636,7 +47633,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47662,7 +47659,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1772" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47688,7 +47685,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47714,7 +47711,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47740,7 +47737,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47766,7 +47763,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47792,7 +47789,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47818,7 +47815,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47844,7 +47841,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47870,7 +47867,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47896,7 +47893,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47922,7 +47919,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47948,7 +47945,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47974,7 +47971,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48000,7 +47997,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48026,7 +48023,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48052,7 +48049,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48078,7 +48075,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48104,7 +48101,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48130,7 +48127,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1790" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48182,7 +48179,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48208,7 +48205,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48234,7 +48231,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48260,7 +48257,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48286,7 +48283,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48312,7 +48309,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48338,7 +48335,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1798" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48364,7 +48361,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48390,7 +48387,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48416,7 +48413,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48442,7 +48439,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48468,7 +48465,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48494,7 +48491,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1804" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48520,7 +48517,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48546,7 +48543,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48572,7 +48569,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48598,7 +48595,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48624,7 +48621,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48650,7 +48647,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48702,7 +48699,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48728,7 +48725,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48754,7 +48751,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48780,7 +48777,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48806,7 +48803,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48832,7 +48829,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48858,7 +48855,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48884,7 +48881,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48910,7 +48907,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48936,7 +48933,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48962,7 +48959,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48988,7 +48985,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49014,7 +49011,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49040,7 +49037,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49066,7 +49063,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49092,7 +49089,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49118,7 +49115,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49144,7 +49141,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49170,7 +49167,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49196,7 +49193,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49222,7 +49219,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49248,7 +49245,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49274,7 +49271,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49300,7 +49297,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49326,7 +49323,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49352,7 +49349,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49378,7 +49375,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49404,7 +49401,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49430,7 +49427,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49456,7 +49453,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49482,7 +49479,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49508,7 +49505,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49534,7 +49531,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49560,7 +49557,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49586,7 +49583,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49612,7 +49609,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49638,7 +49635,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49664,7 +49661,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49690,7 +49687,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49716,7 +49713,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49742,7 +49739,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49768,7 +49765,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49794,7 +49791,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49820,7 +49817,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49846,7 +49843,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49872,7 +49869,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49898,7 +49895,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49924,7 +49921,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49950,7 +49947,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49976,7 +49973,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50002,7 +49999,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50028,7 +50025,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50054,7 +50051,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50080,7 +50077,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50106,7 +50103,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50132,7 +50129,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50158,7 +50155,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50184,7 +50181,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50210,7 +50207,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50236,7 +50233,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50262,7 +50259,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50288,7 +50285,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50314,7 +50311,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50340,7 +50337,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50366,7 +50363,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50392,7 +50389,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50418,7 +50415,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50444,7 +50441,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50470,7 +50467,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50496,7 +50493,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50522,7 +50519,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50548,7 +50545,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50574,7 +50571,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50600,7 +50597,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50626,7 +50623,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50652,7 +50649,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50678,7 +50675,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50704,7 +50701,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50730,7 +50727,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50756,7 +50753,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50782,7 +50779,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50808,7 +50805,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50834,7 +50831,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50860,7 +50857,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50886,7 +50883,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50912,7 +50909,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50938,7 +50935,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50964,7 +50961,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50990,7 +50987,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51016,7 +51013,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51042,7 +51039,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51068,7 +51065,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51094,7 +51091,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51120,7 +51117,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51146,7 +51143,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51172,7 +51169,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51198,7 +51195,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51224,7 +51221,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51250,7 +51247,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51276,7 +51273,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51302,7 +51299,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51328,7 +51325,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51354,7 +51351,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51380,7 +51377,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51406,7 +51403,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51432,7 +51429,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51458,7 +51455,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51484,7 +51481,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51510,7 +51507,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51536,7 +51533,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51562,7 +51559,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51588,7 +51585,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51614,7 +51611,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51640,7 +51637,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51666,7 +51663,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51692,7 +51689,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51718,7 +51715,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51744,7 +51741,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51770,7 +51767,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51796,7 +51793,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51822,7 +51819,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51848,7 +51845,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51874,7 +51871,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51900,7 +51897,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51926,7 +51923,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51952,7 +51949,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51978,7 +51975,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52004,7 +52001,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52030,7 +52027,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52056,7 +52053,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52082,7 +52079,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52108,7 +52105,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52134,7 +52131,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52160,7 +52157,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52186,7 +52183,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52212,7 +52209,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52238,7 +52235,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52264,7 +52261,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52290,7 +52287,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52316,7 +52313,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52342,7 +52339,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52368,7 +52365,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52394,7 +52391,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52420,7 +52417,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52446,7 +52443,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52472,7 +52469,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52498,7 +52495,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52524,7 +52521,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52550,7 +52547,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52576,7 +52573,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52602,7 +52599,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52628,7 +52625,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52654,7 +52651,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52680,7 +52677,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52706,7 +52703,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52732,7 +52729,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52758,7 +52755,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52784,7 +52781,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52810,7 +52807,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52836,7 +52833,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52862,7 +52859,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52888,7 +52885,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52914,7 +52911,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52940,7 +52937,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52966,7 +52963,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -52992,7 +52989,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53018,7 +53015,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53044,7 +53041,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53070,7 +53067,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53096,7 +53093,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53122,7 +53119,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53148,7 +53145,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53174,7 +53171,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53200,7 +53197,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53226,7 +53223,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53252,7 +53249,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53278,7 +53275,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53304,7 +53301,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53330,7 +53327,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53356,7 +53353,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53382,7 +53379,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53408,7 +53405,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53434,7 +53431,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53460,7 +53457,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53486,7 +53483,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53512,7 +53509,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53538,7 +53535,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53564,7 +53561,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53590,7 +53587,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53616,7 +53613,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53642,7 +53639,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53668,7 +53665,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53694,7 +53691,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53720,7 +53717,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53746,7 +53743,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53772,7 +53769,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53798,7 +53795,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53824,7 +53821,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53850,7 +53847,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53876,7 +53873,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53902,7 +53899,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53928,7 +53925,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53954,7 +53951,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53980,7 +53977,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54006,7 +54003,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54032,7 +54029,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54058,7 +54055,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54084,7 +54081,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54110,7 +54107,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54136,7 +54133,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54162,7 +54159,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54188,7 +54185,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54214,7 +54211,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54240,7 +54237,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54266,7 +54263,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54292,7 +54289,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54318,7 +54315,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54344,7 +54341,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54370,7 +54367,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54396,7 +54393,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54422,7 +54419,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54448,7 +54445,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54474,7 +54471,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54500,7 +54497,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54526,7 +54523,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54552,7 +54549,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54578,7 +54575,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54604,7 +54601,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54630,7 +54627,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54656,7 +54653,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54682,7 +54679,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54708,7 +54705,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54734,7 +54731,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54760,7 +54757,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54786,7 +54783,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54812,7 +54809,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54838,7 +54835,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54864,7 +54861,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54890,7 +54887,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54916,7 +54913,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54942,7 +54939,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54968,7 +54965,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -54994,7 +54991,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55020,7 +55017,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55046,7 +55043,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55072,7 +55069,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55098,7 +55095,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55124,7 +55121,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55150,7 +55147,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55176,7 +55173,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55202,7 +55199,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55228,7 +55225,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55254,7 +55251,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55280,7 +55277,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55306,7 +55303,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55332,7 +55329,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55358,7 +55355,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55384,7 +55381,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55410,7 +55407,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55436,7 +55433,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55462,7 +55459,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55488,7 +55485,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55514,7 +55511,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55540,7 +55537,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55566,7 +55563,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55592,7 +55589,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55618,7 +55615,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55644,7 +55641,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55670,7 +55667,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55696,7 +55693,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55722,7 +55719,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55748,7 +55745,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55774,7 +55771,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55800,7 +55797,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55826,7 +55823,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55852,7 +55849,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55878,7 +55875,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55904,7 +55901,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55930,7 +55927,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55956,7 +55953,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55982,7 +55979,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56008,7 +56005,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56034,7 +56031,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56060,7 +56057,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56086,7 +56083,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56112,7 +56109,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56138,7 +56135,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56164,7 +56161,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56190,7 +56187,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56216,7 +56213,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56242,7 +56239,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56268,7 +56265,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56294,7 +56291,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56320,7 +56317,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56346,7 +56343,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56372,7 +56369,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56398,7 +56395,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56424,7 +56421,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56450,7 +56447,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56476,7 +56473,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56502,7 +56499,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56528,7 +56525,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56554,7 +56551,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56580,7 +56577,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56606,7 +56603,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56632,7 +56629,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56658,7 +56655,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56684,7 +56681,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56710,7 +56707,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56736,7 +56733,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56762,7 +56759,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56788,7 +56785,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56814,7 +56811,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56840,7 +56837,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56866,7 +56863,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56892,7 +56889,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56918,7 +56915,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56944,7 +56941,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56970,7 +56967,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -56996,7 +56993,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57022,7 +57019,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57048,7 +57045,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57074,7 +57071,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57100,7 +57097,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57126,7 +57123,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57152,7 +57149,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57178,7 +57175,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57204,7 +57201,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57230,7 +57227,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57256,7 +57253,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57282,7 +57279,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57308,7 +57305,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57334,7 +57331,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57360,7 +57357,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57386,7 +57383,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57412,7 +57409,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57438,7 +57435,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57464,7 +57461,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57490,7 +57487,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57516,7 +57513,7 @@
         <v>14</v>
       </c>
       <c r="G2151" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57542,7 +57539,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57568,7 +57565,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2153" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57594,7 +57591,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2154" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57620,7 +57617,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57646,7 +57643,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57672,7 +57669,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57698,7 +57695,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2158" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57724,7 +57721,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2159" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57750,7 +57747,7 @@
         <v>14</v>
       </c>
       <c r="G2160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57776,7 +57773,7 @@
         <v>14</v>
       </c>
       <c r="G2161" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57802,7 +57799,7 @@
         <v>14</v>
       </c>
       <c r="G2162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57828,7 +57825,7 @@
         <v>14</v>
       </c>
       <c r="G2163" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57854,7 +57851,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57880,7 +57877,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2165" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57906,7 +57903,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2166" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57932,7 +57929,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2167" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -57958,7 +57955,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2168" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -57984,7 +57981,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2169" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58010,7 +58007,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2170" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58036,7 +58033,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58062,7 +58059,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2172" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58088,7 +58085,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2173" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58114,7 +58111,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2174" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58140,7 +58137,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2175" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58166,7 +58163,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2176" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -58192,7 +58189,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2177" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -58218,7 +58215,7 @@
         <v>15</v>
       </c>
       <c r="G2178" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -58244,7 +58241,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2179" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -58270,7 +58267,7 @@
         <v>15</v>
       </c>
       <c r="G2180" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -58296,7 +58293,7 @@
         <v>15</v>
       </c>
       <c r="G2181" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -58322,7 +58319,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2182" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -58348,7 +58345,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2183" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -58374,7 +58371,7 @@
         <v>15</v>
       </c>
       <c r="G2184" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -58400,7 +58397,7 @@
         <v>15</v>
       </c>
       <c r="G2185" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -58426,7 +58423,7 @@
         <v>15</v>
       </c>
       <c r="G2186" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -58452,7 +58449,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2187" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -58478,7 +58475,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2188" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -58504,7 +58501,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2189" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -58530,7 +58527,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2190" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -58556,7 +58553,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -58582,7 +58579,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2192" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -58608,7 +58605,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2193" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -58634,7 +58631,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2194" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -58660,7 +58657,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2195" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -58686,7 +58683,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2196" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -58712,7 +58709,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2197" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -58738,7 +58735,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2198" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -58764,7 +58761,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2199" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -58790,7 +58787,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2200" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -58816,7 +58813,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2201" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -58842,7 +58839,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2202" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -58868,7 +58865,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2203" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -58894,7 +58891,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2204" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -58920,7 +58917,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2205" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -58946,7 +58943,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2206" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -58972,7 +58969,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2207" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -58998,7 +58995,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2208" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -59024,9 +59021,35 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2209" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="1" t="n">
+        <v>45540.2916666667</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>14.6999998092651</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2210" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">IB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7711791992188</t>
+    <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
     <t xml:space="preserve">13.4651527404785</t>
@@ -53,49 +53,49 @@
     <t xml:space="preserve">13.4797239303589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154088973999</t>
+    <t xml:space="preserve">13.1154079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068603515625</t>
+    <t xml:space="preserve">13.4068622589111</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081209182739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.751091003418</t>
+    <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3867750167847</t>
+    <t xml:space="preserve">12.3867740631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0752353668213</t>
+    <t xml:space="preserve">11.0752325057983</t>
   </si>
   <si>
     <t xml:space="preserve">10.3830299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651893615723</t>
+    <t xml:space="preserve">10.5651903152466</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983512878418</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
     <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950838088989</t>
+    <t xml:space="preserve">10.9950847625732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295063018799</t>
+    <t xml:space="preserve">10.9295072555542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480951309204</t>
   </si>
   <si>
     <t xml:space="preserve">11.2209596633911</t>
@@ -104,70 +104,70 @@
     <t xml:space="preserve">11.2938232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2865371704102</t>
+    <t xml:space="preserve">11.2865381240845</t>
   </si>
   <si>
     <t xml:space="preserve">11.6581401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">11.920449256897</t>
+    <t xml:space="preserve">11.9204502105713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827573776245</t>
+    <t xml:space="preserve">12.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523496627808</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
     <t xml:space="preserve">12.7292308807373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7219457626343</t>
+    <t xml:space="preserve">12.7219476699829</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061101913452</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.261134147644</t>
+    <t xml:space="preserve">13.2611331939697</t>
   </si>
   <si>
     <t xml:space="preserve">13.5525875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882696151733</t>
+    <t xml:space="preserve">13.188271522522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8968200683594</t>
+    <t xml:space="preserve">12.8968191146851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199378967285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4742107391357</t>
+    <t xml:space="preserve">12.4742116928101</t>
   </si>
   <si>
     <t xml:space="preserve">12.313910484314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907926559448</t>
+    <t xml:space="preserve">12.5907936096191</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2774791717529</t>
+    <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
     <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2699012756348</t>
+    <t xml:space="preserve">12.2698993682861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048398971558</t>
+    <t xml:space="preserve">12.5048389434814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229513168335</t>
+    <t xml:space="preserve">12.3229522705078</t>
   </si>
   <si>
     <t xml:space="preserve">12.0501184463501</t>
@@ -176,37 +176,37 @@
     <t xml:space="preserve">12.1259050369263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227577209473</t>
+    <t xml:space="preserve">11.8227558135986</t>
   </si>
   <si>
     <t xml:space="preserve">12.0880107879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9364385604858</t>
+    <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016906738281</t>
+    <t xml:space="preserve">12.2016916275024</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4290523529053</t>
+    <t xml:space="preserve">12.4290533065796</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911590576172</t>
+    <t xml:space="preserve">12.3911581039429</t>
   </si>
   <si>
     <t xml:space="preserve">12.5806255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564140319824</t>
+    <t xml:space="preserve">12.6564130783081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.73219871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700939178467</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
     <t xml:space="preserve">12.8837738037109</t>
@@ -215,64 +215,64 @@
     <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761968612671</t>
+    <t xml:space="preserve">12.8761949539185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353469848633</t>
+    <t xml:space="preserve">13.0353479385376</t>
   </si>
   <si>
     <t xml:space="preserve">13.1111354827881</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2627096176147</t>
+    <t xml:space="preserve">13.2627067565918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5582780838013</t>
+    <t xml:space="preserve">13.5582752227783</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763885498047</t>
+    <t xml:space="preserve">13.376389503479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885915756226</t>
+    <t xml:space="preserve">13.5885925292969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658559799194</t>
+    <t xml:space="preserve">13.5658540725708</t>
   </si>
   <si>
     <t xml:space="preserve">13.4142837524414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690052032471</t>
+    <t xml:space="preserve">13.8690042495728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9447898864746</t>
+    <t xml:space="preserve">13.9447917938232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.096363067627</t>
+    <t xml:space="preserve">14.0963640213013</t>
   </si>
   <si>
     <t xml:space="preserve">14.0205764770508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357370376587</t>
+    <t xml:space="preserve">14.0357351303101</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0887861251831</t>
+    <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584688186646</t>
+    <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721534729004</t>
+    <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100458145142</t>
+    <t xml:space="preserve">14.2100467681885</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948881149292</t>
+    <t xml:space="preserve">14.1948862075806</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342582702637</t>
+    <t xml:space="preserve">14.134259223938</t>
   </si>
   <si>
     <t xml:space="preserve">13.982684135437</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">14.0812072753906</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736312866211</t>
+    <t xml:space="preserve">14.0736303329468</t>
   </si>
   <si>
     <t xml:space="preserve">13.8311109542847</t>
@@ -290,73 +290,73 @@
     <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538465499878</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900703430176</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174291610718</t>
+    <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203847885132</t>
+    <t xml:space="preserve">13.5203857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416444778442</t>
+    <t xml:space="preserve">13.6416425704956</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553234100342</t>
+    <t xml:space="preserve">13.7553243637085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521751403809</t>
+    <t xml:space="preserve">13.4521760940552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.747745513916</t>
+    <t xml:space="preserve">13.7477445602417</t>
   </si>
   <si>
     <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340646743774</t>
+    <t xml:space="preserve">13.6340637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551298141479</t>
+    <t xml:space="preserve">13.2551307678223</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231449127197</t>
+    <t xml:space="preserve">12.8231439590454</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776727676392</t>
+    <t xml:space="preserve">12.7776718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972581863403</t>
+    <t xml:space="preserve">12.497260093689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867275238037</t>
+    <t xml:space="preserve">12.686728477478</t>
   </si>
   <si>
     <t xml:space="preserve">12.6412563323975</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6185188293457</t>
+    <t xml:space="preserve">12.6185216903687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4063158035278</t>
+    <t xml:space="preserve">12.4063177108765</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6488351821899</t>
+    <t xml:space="preserve">12.6488342285156</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578899383545</t>
+    <t xml:space="preserve">12.5578908920288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.565468788147</t>
+    <t xml:space="preserve">12.5654697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124177932739</t>
+    <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473564147949</t>
+    <t xml:space="preserve">12.7473573684692</t>
   </si>
   <si>
     <t xml:space="preserve">12.5199956893921</t>
@@ -365,43 +365,43 @@
     <t xml:space="preserve">12.5351552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427303314209</t>
+    <t xml:space="preserve">12.5427331924438</t>
   </si>
   <si>
     <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246217727661</t>
+    <t xml:space="preserve">12.7246208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8079872131348</t>
+    <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004093170166</t>
+    <t xml:space="preserve">12.8004083633423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7296857833862</t>
+    <t xml:space="preserve">12.7296867370605</t>
   </si>
   <si>
     <t xml:space="preserve">12.8868446350098</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9654235839844</t>
+    <t xml:space="preserve">12.9654216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7061138153076</t>
+    <t xml:space="preserve">12.7061128616333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9732799530029</t>
+    <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
     <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.894702911377</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0047101974487</t>
+    <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
     <t xml:space="preserve">13.1697263717651</t>
@@ -410,25 +410,25 @@
     <t xml:space="preserve">13.4368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354888916016</t>
+    <t xml:space="preserve">13.7354907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5940494537354</t>
+    <t xml:space="preserve">13.594051361084</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861902236938</t>
+    <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783338546753</t>
+    <t xml:space="preserve">13.5783357620239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.554759979248</t>
+    <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512054443359</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
     <t xml:space="preserve">13.4761829376221</t>
@@ -443,46 +443,46 @@
     <t xml:space="preserve">13.7119159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9869413375854</t>
+    <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
     <t xml:space="preserve">13.9083642959595</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655183792114</t>
+    <t xml:space="preserve">14.0655174255371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2148180007935</t>
+    <t xml:space="preserve">14.2148160934448</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833868026733</t>
+    <t xml:space="preserve">14.1833848953247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.861216545105</t>
+    <t xml:space="preserve">13.8612155914307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576601028442</t>
+    <t xml:space="preserve">14.0576591491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297853469849</t>
+    <t xml:space="preserve">13.8297834396362</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262289047241</t>
+    <t xml:space="preserve">14.0262298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104808807373</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476509094238</t>
+    <t xml:space="preserve">13.9476518630981</t>
   </si>
   <si>
     <t xml:space="preserve">13.8690729141235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904939651489</t>
+    <t xml:space="preserve">13.7904958724976</t>
   </si>
   <si>
     <t xml:space="preserve">14.144097328186</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">14.3012533187866</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619647979736</t>
+    <t xml:space="preserve">14.2619657516479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4584093093872</t>
+    <t xml:space="preserve">14.4584112167358</t>
   </si>
   <si>
-    <t xml:space="preserve">14.222674369812</t>
+    <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
     <t xml:space="preserve">14.7334365844727</t>
@@ -506,13 +506,13 @@
     <t xml:space="preserve">14.3405437469482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2933940887451</t>
+    <t xml:space="preserve">14.2933931350708</t>
   </si>
   <si>
     <t xml:space="preserve">14.0498037338257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155662536621</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
     <t xml:space="preserve">14.6941471099854</t>
@@ -521,118 +521,118 @@
     <t xml:space="preserve">14.0969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812339782715</t>
+    <t xml:space="preserve">14.0812358856201</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4505558013916</t>
+    <t xml:space="preserve">14.4505548477173</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705713272095</t>
+    <t xml:space="preserve">14.6705732345581</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227691650391</t>
+    <t xml:space="preserve">15.3227701187134</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770269393921</t>
+    <t xml:space="preserve">14.9770288467407</t>
   </si>
   <si>
     <t xml:space="preserve">15.3070554733276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856325149536</t>
+    <t xml:space="preserve">15.3856353759766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078075408936</t>
+    <t xml:space="preserve">15.7078084945679</t>
   </si>
   <si>
     <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6999483108521</t>
+    <t xml:space="preserve">15.6999454498291</t>
   </si>
   <si>
     <t xml:space="preserve">15.684232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6763734817505</t>
+    <t xml:space="preserve">15.6763772964478</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3384876251221</t>
+    <t xml:space="preserve">15.338490486145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977954864502</t>
+    <t xml:space="preserve">15.5977945327759</t>
   </si>
   <si>
     <t xml:space="preserve">15.3306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728189468384</t>
+    <t xml:space="preserve">15.8728199005127</t>
   </si>
   <si>
     <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871356964111</t>
+    <t xml:space="preserve">16.1871337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5014476776123</t>
+    <t xml:space="preserve">16.5014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1300754547119</t>
+    <t xml:space="preserve">17.1300716400146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4443874359131</t>
+    <t xml:space="preserve">17.4443855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444831848145</t>
+    <t xml:space="preserve">18.5444869995117</t>
   </si>
   <si>
     <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158554077148</t>
+    <t xml:space="preserve">17.9158592224121</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7587013244629</t>
+    <t xml:space="preserve">17.7586975097656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2872295379639</t>
+    <t xml:space="preserve">17.2872314453125</t>
   </si>
   <si>
     <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729194641113</t>
+    <t xml:space="preserve">16.9729156494141</t>
   </si>
   <si>
     <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345634460449</t>
+    <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8112716674805</t>
+    <t xml:space="preserve">16.8112697601318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4578590393066</t>
+    <t xml:space="preserve">17.457857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797437667847</t>
+    <t xml:space="preserve">15.6797409057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646823883057</t>
+    <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879779815674</t>
+    <t xml:space="preserve">16.4879760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2962112426758</t>
+    <t xml:space="preserve">17.2962093353271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.97292137146</t>
+    <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
     <t xml:space="preserve">17.6195030212402</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413887023926</t>
+    <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605638504028</t>
+    <t xml:space="preserve">15.7605648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3564500808716</t>
+    <t xml:space="preserve">15.3564491271973</t>
   </si>
   <si>
     <t xml:space="preserve">16.0030345916748</t>
@@ -659,46 +659,46 @@
     <t xml:space="preserve">15.1139802932739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5482168197632</t>
+    <t xml:space="preserve">14.5482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9255456924438</t>
+    <t xml:space="preserve">14.9255437850952</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901403427124</t>
+    <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4224367141724</t>
+    <t xml:space="preserve">14.4224376678467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870332717896</t>
+    <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385858535767</t>
+    <t xml:space="preserve">14.338586807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416948318481</t>
+    <t xml:space="preserve">14.8416967391968</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547359466553</t>
+    <t xml:space="preserve">14.254734992981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1708831787109</t>
+    <t xml:space="preserve">14.1708822250366</t>
   </si>
   <si>
     <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062885284424</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354778289795</t>
+    <t xml:space="preserve">13.8354768753052</t>
   </si>
   <si>
     <t xml:space="preserve">13.9193286895752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0932502746582</t>
+    <t xml:space="preserve">15.0932483673096</t>
   </si>
   <si>
     <t xml:space="preserve">14.7578430175781</t>
@@ -710,25 +710,25 @@
     <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677742004395</t>
+    <t xml:space="preserve">13.6677751541138</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5000715255737</t>
+    <t xml:space="preserve">13.500072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.416220664978</t>
+    <t xml:space="preserve">13.4162216186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323707580566</t>
+    <t xml:space="preserve">13.332368850708</t>
   </si>
   <si>
     <t xml:space="preserve">13.0808153152466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2485189437866</t>
+    <t xml:space="preserve">13.2485198974609</t>
   </si>
   <si>
     <t xml:space="preserve">12.9969644546509</t>
@@ -737,34 +737,34 @@
     <t xml:space="preserve">12.4938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.242301940918</t>
+    <t xml:space="preserve">12.2423009872437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646671295166</t>
+    <t xml:space="preserve">13.1646661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9131126403809</t>
+    <t xml:space="preserve">12.9131116867065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6615591049194</t>
+    <t xml:space="preserve">12.6615581512451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454099655151</t>
+    <t xml:space="preserve">12.7454109191895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6553421020508</t>
+    <t xml:space="preserve">11.6553430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230438232422</t>
+    <t xml:space="preserve">11.8230447769165</t>
   </si>
   <si>
     <t xml:space="preserve">11.9907464981079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584501266479</t>
+    <t xml:space="preserve">12.1584491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745983123779</t>
+    <t xml:space="preserve">12.0745992660522</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068965911865</t>
@@ -773,19 +773,19 @@
     <t xml:space="preserve">11.7391929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4876394271851</t>
+    <t xml:space="preserve">11.4876384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714902877808</t>
+    <t xml:space="preserve">11.5714912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522340774536</t>
+    <t xml:space="preserve">11.1522331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168287277222</t>
+    <t xml:space="preserve">10.8168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9845314025879</t>
+    <t xml:space="preserve">10.9845294952393</t>
   </si>
   <si>
     <t xml:space="preserve">10.9006795883179</t>
@@ -794,13 +794,13 @@
     <t xml:space="preserve">10.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4814233779907</t>
+    <t xml:space="preserve">10.4814224243164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6491260528564</t>
+    <t xml:space="preserve">10.6491250991821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261547088623</t>
+    <t xml:space="preserve">12.3261528015137</t>
   </si>
   <si>
     <t xml:space="preserve">12.5777072906494</t>
@@ -809,10 +809,10 @@
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942462921143</t>
+    <t xml:space="preserve">13.1942453384399</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9321088790894</t>
+    <t xml:space="preserve">12.932107925415</t>
   </si>
   <si>
     <t xml:space="preserve">11.5340423583984</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0194873809814</t>
+    <t xml:space="preserve">13.0194864273071</t>
   </si>
   <si>
     <t xml:space="preserve">13.1068668365479</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">13.5437622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8058996200562</t>
+    <t xml:space="preserve">13.8059005737305</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0680360794067</t>
+    <t xml:space="preserve">14.0680370330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.9806575775146</t>
@@ -848,28 +848,28 @@
     <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3690042495728</t>
+    <t xml:space="preserve">13.3690032958984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4661026000977</t>
+    <t xml:space="preserve">15.466103553772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039651870728</t>
+    <t xml:space="preserve">15.2039642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5534811019897</t>
+    <t xml:space="preserve">15.5534801483154</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1165857315063</t>
+    <t xml:space="preserve">15.1165866851807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156175613403</t>
+    <t xml:space="preserve">15.8156185150146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6408605575562</t>
+    <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282409667969</t>
+    <t xml:space="preserve">15.7282390594482</t>
   </si>
   <si>
     <t xml:space="preserve">15.3787231445312</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">14.8544492721558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796913146973</t>
+    <t xml:space="preserve">14.6796894073486</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">14.3909482955933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541996002197</t>
+    <t xml:space="preserve">14.6541986465454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664482116699</t>
+    <t xml:space="preserve">14.5664491653442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0929470062256</t>
@@ -923,28 +923,28 @@
     <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296976089478</t>
+    <t xml:space="preserve">14.8296957015991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3031978607178</t>
+    <t xml:space="preserve">14.3031969070435</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1276998519897</t>
+    <t xml:space="preserve">14.1277008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051975250244</t>
+    <t xml:space="preserve">15.0051965713501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561964035034</t>
+    <t xml:space="preserve">15.3561954498291</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316944122314</t>
+    <t xml:space="preserve">15.5316963195801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806955337524</t>
+    <t xml:space="preserve">15.1806945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7071943283081</t>
+    <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
     <t xml:space="preserve">15.4439458847046</t>
@@ -953,34 +953,34 @@
     <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8826951980591</t>
+    <t xml:space="preserve">15.8826942443848</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0581932067871</t>
+    <t xml:space="preserve">16.0581912994385</t>
   </si>
   <si>
     <t xml:space="preserve">16.1459426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9704427719116</t>
+    <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
     <t xml:space="preserve">15.7949438095093</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214416503906</t>
+    <t xml:space="preserve">16.3214435577393</t>
   </si>
   <si>
     <t xml:space="preserve">16.4091911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724414825439</t>
+    <t xml:space="preserve">16.6724395751953</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7601928710938</t>
+    <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479404449463</t>
+    <t xml:space="preserve">16.8479423522949</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926685333252</t>
+    <t xml:space="preserve">16.5926704406738</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1022,25 +1022,25 @@
     <t xml:space="preserve">17.3220157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131870269775</t>
+    <t xml:space="preserve">17.4131851196289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043525695801</t>
+    <t xml:space="preserve">17.5043563842773</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5955219268799</t>
+    <t xml:space="preserve">17.5955200195312</t>
   </si>
   <si>
     <t xml:space="preserve">17.9601974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7778606414795</t>
+    <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160385131836</t>
+    <t xml:space="preserve">18.4160404205322</t>
   </si>
   <si>
     <t xml:space="preserve">19.5100593566895</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">18.9630489349365</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1453857421875</t>
+    <t xml:space="preserve">19.1453876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3277225494385</t>
+    <t xml:space="preserve">19.3277244567871</t>
   </si>
   <si>
     <t xml:space="preserve">18.5983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7807140350342</t>
+    <t xml:space="preserve">18.7807121276855</t>
   </si>
   <si>
     <t xml:space="preserve">18.1425323486328</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">18.2337017059326</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3423118591309</t>
+    <t xml:space="preserve">19.3423099517822</t>
   </si>
   <si>
     <t xml:space="preserve">19.152681350708</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">18.6786060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734203338623</t>
+    <t xml:space="preserve">18.7734184265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.5837898254395</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">18.2045288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2993431091309</t>
+    <t xml:space="preserve">18.2993412017822</t>
   </si>
   <si>
     <t xml:space="preserve">18.8682346343994</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">18.4889736175537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0148963928223</t>
+    <t xml:space="preserve">18.0148983001709</t>
   </si>
   <si>
     <t xml:space="preserve">17.9200820922852</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">17.7304534912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3511905670166</t>
+    <t xml:space="preserve">17.351188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.109712600708</t>
+    <t xml:space="preserve">18.1097145080566</t>
   </si>
   <si>
     <t xml:space="preserve">17.2563762664795</t>
@@ -1118,7 +1118,10 @@
     <t xml:space="preserve">16.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.066743850708</t>
+    <t xml:space="preserve">16.5926685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0667457580566</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719295501709</t>
@@ -1130,16 +1133,16 @@
     <t xml:space="preserve">16.6874847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6356353759766</t>
+    <t xml:space="preserve">17.6356372833252</t>
   </si>
   <si>
     <t xml:space="preserve">17.4460048675537</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615600585938</t>
+    <t xml:space="preserve">17.1615619659424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4030380249023</t>
+    <t xml:space="preserve">16.4030361175537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4978523254395</t>
@@ -1157,13 +1160,13 @@
     <t xml:space="preserve">14.2222871780396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911787033081</t>
+    <t xml:space="preserve">14.7911796569824</t>
   </si>
   <si>
-    <t xml:space="preserve">14.980809211731</t>
+    <t xml:space="preserve">14.9808101654053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0326566696167</t>
+    <t xml:space="preserve">14.032657623291</t>
   </si>
   <si>
     <t xml:space="preserve">13.9378414154053</t>
@@ -44681,7 +44684,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44707,7 +44710,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44759,7 +44762,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44785,7 +44788,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44811,7 +44814,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44837,7 +44840,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44863,7 +44866,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44889,7 +44892,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44915,7 +44918,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44941,7 +44944,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44967,7 +44970,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44993,7 +44996,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45019,7 +45022,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45045,7 +45048,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45071,7 +45074,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45097,7 +45100,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45123,7 +45126,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45149,7 +45152,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45175,7 +45178,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45201,7 +45204,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45227,7 +45230,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45253,7 +45256,7 @@
         <v>18</v>
       </c>
       <c r="G1679" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45279,7 +45282,7 @@
         <v>18</v>
       </c>
       <c r="G1680" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45305,7 +45308,7 @@
         <v>18</v>
       </c>
       <c r="G1681" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45357,7 +45360,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45383,7 +45386,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45643,7 +45646,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1694" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45877,7 +45880,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45903,7 +45906,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45929,7 +45932,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1705" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45955,7 +45958,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -45981,7 +45984,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1707" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46007,7 +46010,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46033,7 +46036,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46059,7 +46062,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46085,7 +46088,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1711" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46111,7 +46114,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1712" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46137,7 +46140,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1713" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46163,7 +46166,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1714" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46189,7 +46192,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46267,7 +46270,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46293,7 +46296,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46475,7 +46478,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1726" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46501,7 +46504,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46527,7 +46530,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1728" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46553,7 +46556,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1729" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46579,7 +46582,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46605,7 +46608,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1731" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46631,7 +46634,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1732" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46657,7 +46660,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1733" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46683,7 +46686,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1734" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46709,7 +46712,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46735,7 +46738,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46761,7 +46764,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46787,7 +46790,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1738" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46813,7 +46816,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1739" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46839,7 +46842,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1740" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46865,7 +46868,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1741" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46891,7 +46894,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1742" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46917,7 +46920,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46943,7 +46946,7 @@
         <v>18</v>
       </c>
       <c r="G1744" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -46969,7 +46972,7 @@
         <v>18</v>
       </c>
       <c r="G1745" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -46995,7 +46998,7 @@
         <v>18</v>
       </c>
       <c r="G1746" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47047,7 +47050,7 @@
         <v>18</v>
       </c>
       <c r="G1748" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47073,7 +47076,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47099,7 +47102,7 @@
         <v>18</v>
       </c>
       <c r="G1750" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47125,7 +47128,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1751" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47151,7 +47154,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1752" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47177,7 +47180,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47203,7 +47206,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47229,7 +47232,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1755" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47255,7 +47258,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1756" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47281,7 +47284,7 @@
         <v>18</v>
       </c>
       <c r="G1757" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47307,7 +47310,7 @@
         <v>18</v>
       </c>
       <c r="G1758" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47333,7 +47336,7 @@
         <v>18</v>
       </c>
       <c r="G1759" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47437,7 +47440,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1763" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47463,7 +47466,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47489,7 +47492,7 @@
         <v>18</v>
       </c>
       <c r="G1765" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47515,7 +47518,7 @@
         <v>18</v>
       </c>
       <c r="G1766" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47541,7 +47544,7 @@
         <v>18</v>
       </c>
       <c r="G1767" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47567,7 +47570,7 @@
         <v>18</v>
       </c>
       <c r="G1768" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47593,7 +47596,7 @@
         <v>18</v>
       </c>
       <c r="G1769" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47619,7 +47622,7 @@
         <v>18</v>
       </c>
       <c r="G1770" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47645,7 +47648,7 @@
         <v>18</v>
       </c>
       <c r="G1771" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47697,7 +47700,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1773" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47723,7 +47726,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47749,7 +47752,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1775" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47775,7 +47778,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1776" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47801,7 +47804,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1777" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47827,7 +47830,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1778" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47853,7 +47856,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1779" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47931,7 +47934,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47957,7 +47960,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -47983,7 +47986,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48009,7 +48012,7 @@
         <v>18</v>
       </c>
       <c r="G1785" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48035,7 +48038,7 @@
         <v>18</v>
       </c>
       <c r="G1786" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48061,7 +48064,7 @@
         <v>18</v>
       </c>
       <c r="G1787" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48087,7 +48090,7 @@
         <v>18</v>
       </c>
       <c r="G1788" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48113,7 +48116,7 @@
         <v>18</v>
       </c>
       <c r="G1789" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48165,7 +48168,7 @@
         <v>17.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48191,7 +48194,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1792" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48217,7 +48220,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1793" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48269,7 +48272,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48529,7 +48532,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1805" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48555,7 +48558,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1806" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48581,7 +48584,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48607,7 +48610,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48633,7 +48636,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48659,7 +48662,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48685,7 +48688,7 @@
         <v>17.5</v>
       </c>
       <c r="G1811" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48711,7 +48714,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1812" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48737,7 +48740,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48763,7 +48766,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1814" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48789,7 +48792,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48815,7 +48818,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48841,7 +48844,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1817" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48867,7 +48870,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48893,7 +48896,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48919,7 +48922,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48945,7 +48948,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -48971,7 +48974,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1822" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -48997,7 +49000,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1823" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49023,7 +49026,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1824" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49049,7 +49052,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49075,7 +49078,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1826" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49101,7 +49104,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49127,7 +49130,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49153,7 +49156,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49179,7 +49182,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1830" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49205,7 +49208,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1831" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49231,7 +49234,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1832" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49257,7 +49260,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1833" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49283,7 +49286,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49309,7 +49312,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49335,7 +49338,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49361,7 +49364,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49387,7 +49390,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1838" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49413,7 +49416,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1839" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49439,7 +49442,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49465,7 +49468,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49491,7 +49494,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1842" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49517,7 +49520,7 @@
         <v>16</v>
       </c>
       <c r="G1843" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49543,7 +49546,7 @@
         <v>15</v>
       </c>
       <c r="G1844" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49569,7 +49572,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1845" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49595,7 +49598,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1846" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49621,7 +49624,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49647,7 +49650,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1848" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49673,7 +49676,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1849" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49699,7 +49702,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49725,7 +49728,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49751,7 +49754,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49777,7 +49780,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1853" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49803,7 +49806,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1854" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49829,7 +49832,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1855" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49855,7 +49858,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49881,7 +49884,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49907,7 +49910,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1858" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49933,7 +49936,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -49959,7 +49962,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -49985,7 +49988,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50011,7 +50014,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1862" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50037,7 +50040,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1863" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50063,7 +50066,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50089,7 +50092,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1865" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50115,7 +50118,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1866" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50141,7 +50144,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1867" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50167,7 +50170,7 @@
         <v>15.5</v>
       </c>
       <c r="G1868" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50193,7 +50196,7 @@
         <v>15.5</v>
       </c>
       <c r="G1869" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50219,7 +50222,7 @@
         <v>15.5</v>
       </c>
       <c r="G1870" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50245,7 +50248,7 @@
         <v>15.5</v>
       </c>
       <c r="G1871" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50271,7 +50274,7 @@
         <v>15.5</v>
       </c>
       <c r="G1872" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50297,7 +50300,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1873" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50323,7 +50326,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1874" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50349,7 +50352,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1875" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50375,7 +50378,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50401,7 +50404,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50427,7 +50430,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1878" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50453,7 +50456,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1879" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50479,7 +50482,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50505,7 +50508,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50531,7 +50534,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1882" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50557,7 +50560,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50583,7 +50586,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50609,7 +50612,7 @@
         <v>15</v>
       </c>
       <c r="G1885" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50635,7 +50638,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1886" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50661,7 +50664,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1887" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50687,7 +50690,7 @@
         <v>15</v>
       </c>
       <c r="G1888" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50713,7 +50716,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1889" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50739,7 +50742,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50765,7 +50768,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1891" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50791,7 +50794,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1892" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50817,7 +50820,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1893" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50843,7 +50846,7 @@
         <v>15</v>
       </c>
       <c r="G1894" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50869,7 +50872,7 @@
         <v>15</v>
       </c>
       <c r="G1895" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50895,7 +50898,7 @@
         <v>15</v>
       </c>
       <c r="G1896" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50921,7 +50924,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1897" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50947,7 +50950,7 @@
         <v>15</v>
       </c>
       <c r="G1898" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -50973,7 +50976,7 @@
         <v>15</v>
       </c>
       <c r="G1899" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -50999,7 +51002,7 @@
         <v>15</v>
       </c>
       <c r="G1900" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51025,7 +51028,7 @@
         <v>15</v>
       </c>
       <c r="G1901" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51051,7 +51054,7 @@
         <v>15</v>
       </c>
       <c r="G1902" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51077,7 +51080,7 @@
         <v>15</v>
       </c>
       <c r="G1903" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51103,7 +51106,7 @@
         <v>15</v>
       </c>
       <c r="G1904" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51129,7 +51132,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1905" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51155,7 +51158,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51181,7 +51184,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51207,7 +51210,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51233,7 +51236,7 @@
         <v>15</v>
       </c>
       <c r="G1909" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51259,7 +51262,7 @@
         <v>15</v>
       </c>
       <c r="G1910" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51285,7 +51288,7 @@
         <v>15</v>
       </c>
       <c r="G1911" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51311,7 +51314,7 @@
         <v>15</v>
       </c>
       <c r="G1912" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51337,7 +51340,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51363,7 +51366,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1914" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51389,7 +51392,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51415,7 +51418,7 @@
         <v>15</v>
       </c>
       <c r="G1916" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51441,7 +51444,7 @@
         <v>15</v>
       </c>
       <c r="G1917" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51467,7 +51470,7 @@
         <v>15</v>
       </c>
       <c r="G1918" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51493,7 +51496,7 @@
         <v>15</v>
       </c>
       <c r="G1919" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51519,7 +51522,7 @@
         <v>15</v>
       </c>
       <c r="G1920" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51545,7 +51548,7 @@
         <v>15</v>
       </c>
       <c r="G1921" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51571,7 +51574,7 @@
         <v>15</v>
       </c>
       <c r="G1922" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51597,7 +51600,7 @@
         <v>15</v>
       </c>
       <c r="G1923" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51623,7 +51626,7 @@
         <v>15</v>
       </c>
       <c r="G1924" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51649,7 +51652,7 @@
         <v>15</v>
       </c>
       <c r="G1925" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51675,7 +51678,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51701,7 +51704,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51727,7 +51730,7 @@
         <v>15</v>
       </c>
       <c r="G1928" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51753,7 +51756,7 @@
         <v>15</v>
       </c>
       <c r="G1929" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51779,7 +51782,7 @@
         <v>15</v>
       </c>
       <c r="G1930" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51805,7 +51808,7 @@
         <v>15</v>
       </c>
       <c r="G1931" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51831,7 +51834,7 @@
         <v>15</v>
       </c>
       <c r="G1932" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51857,7 +51860,7 @@
         <v>15</v>
       </c>
       <c r="G1933" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51883,7 +51886,7 @@
         <v>15</v>
       </c>
       <c r="G1934" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51909,7 +51912,7 @@
         <v>15</v>
       </c>
       <c r="G1935" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51935,7 +51938,7 @@
         <v>15</v>
       </c>
       <c r="G1936" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -51961,7 +51964,7 @@
         <v>15</v>
       </c>
       <c r="G1937" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -51987,7 +51990,7 @@
         <v>15</v>
       </c>
       <c r="G1938" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52013,7 +52016,7 @@
         <v>15</v>
       </c>
       <c r="G1939" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52039,7 +52042,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1940" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52065,7 +52068,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52091,7 +52094,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1942" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52117,7 +52120,7 @@
         <v>15</v>
       </c>
       <c r="G1943" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52143,7 +52146,7 @@
         <v>15</v>
       </c>
       <c r="G1944" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52169,7 +52172,7 @@
         <v>15</v>
       </c>
       <c r="G1945" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52195,7 +52198,7 @@
         <v>15</v>
       </c>
       <c r="G1946" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52221,7 +52224,7 @@
         <v>15</v>
       </c>
       <c r="G1947" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52247,7 +52250,7 @@
         <v>15</v>
       </c>
       <c r="G1948" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52273,7 +52276,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52299,7 +52302,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1950" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52325,7 +52328,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52351,7 +52354,7 @@
         <v>15</v>
       </c>
       <c r="G1952" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52377,7 +52380,7 @@
         <v>15</v>
       </c>
       <c r="G1953" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52403,7 +52406,7 @@
         <v>15</v>
       </c>
       <c r="G1954" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52429,7 +52432,7 @@
         <v>15</v>
       </c>
       <c r="G1955" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52455,7 +52458,7 @@
         <v>15</v>
       </c>
       <c r="G1956" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52481,7 +52484,7 @@
         <v>15</v>
       </c>
       <c r="G1957" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52507,7 +52510,7 @@
         <v>15</v>
       </c>
       <c r="G1958" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52533,7 +52536,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1959" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52559,7 +52562,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1960" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52585,7 +52588,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1961" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52611,7 +52614,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1962" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52637,7 +52640,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1963" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52663,7 +52666,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1964" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52689,7 +52692,7 @@
         <v>15</v>
       </c>
       <c r="G1965" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52715,7 +52718,7 @@
         <v>15</v>
       </c>
       <c r="G1966" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52741,7 +52744,7 @@
         <v>15</v>
       </c>
       <c r="G1967" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52767,7 +52770,7 @@
         <v>15</v>
       </c>
       <c r="G1968" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52793,7 +52796,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52819,7 +52822,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52845,7 +52848,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52871,7 +52874,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1972" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52897,7 +52900,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1973" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52923,7 +52926,7 @@
         <v>15</v>
       </c>
       <c r="G1974" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52949,7 +52952,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1975" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -52975,7 +52978,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53001,7 +53004,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1977" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53027,7 +53030,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1978" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53053,7 +53056,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1979" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53079,7 +53082,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53105,7 +53108,7 @@
         <v>14.5</v>
       </c>
       <c r="G1981" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53131,7 +53134,7 @@
         <v>14.5</v>
       </c>
       <c r="G1982" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53157,7 +53160,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1983" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53183,7 +53186,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1984" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53209,7 +53212,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1985" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53235,7 +53238,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1986" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53261,7 +53264,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1987" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53287,7 +53290,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1988" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53313,7 +53316,7 @@
         <v>14.5</v>
       </c>
       <c r="G1989" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53339,7 +53342,7 @@
         <v>14.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53365,7 +53368,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53391,7 +53394,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1992" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53417,7 +53420,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1993" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53443,7 +53446,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53469,7 +53472,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53495,7 +53498,7 @@
         <v>15</v>
       </c>
       <c r="G1996" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53521,7 +53524,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1997" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53547,7 +53550,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53573,7 +53576,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1999" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53599,7 +53602,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53625,7 +53628,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53651,7 +53654,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2002" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53677,7 +53680,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2003" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53703,7 +53706,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2004" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53729,7 +53732,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2005" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53755,7 +53758,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2006" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53781,7 +53784,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53807,7 +53810,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2008" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53833,7 +53836,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2009" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53859,7 +53862,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2010" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53885,7 +53888,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2011" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53911,7 +53914,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2012" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53937,7 +53940,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2013" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -53963,7 +53966,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -53989,7 +53992,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54015,7 +54018,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2016" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54041,7 +54044,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54067,7 +54070,7 @@
         <v>14.5</v>
       </c>
       <c r="G2018" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54093,7 +54096,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54119,7 +54122,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54145,7 +54148,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2021" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54171,7 +54174,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2022" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54197,7 +54200,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2023" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54223,7 +54226,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2024" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54249,7 +54252,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54275,7 +54278,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2026" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54301,7 +54304,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54327,7 +54330,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54353,7 +54356,7 @@
         <v>14.5</v>
       </c>
       <c r="G2029" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54379,7 +54382,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54405,7 +54408,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54431,7 +54434,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2032" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54457,7 +54460,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2033" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54483,7 +54486,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2034" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54509,7 +54512,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54535,7 +54538,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54561,7 +54564,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2037" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54587,7 +54590,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2038" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54613,7 +54616,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2039" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54639,7 +54642,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54665,7 +54668,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54691,7 +54694,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2042" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54717,7 +54720,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2043" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54743,7 +54746,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2044" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54769,7 +54772,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2045" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54795,7 +54798,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2046" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54821,7 +54824,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54847,7 +54850,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2048" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54873,7 +54876,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2049" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54899,7 +54902,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2050" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54925,7 +54928,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2051" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54951,7 +54954,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -54977,7 +54980,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2053" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55003,7 +55006,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2054" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55029,7 +55032,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2055" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55055,7 +55058,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2056" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55081,7 +55084,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55107,7 +55110,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55133,7 +55136,7 @@
         <v>15</v>
       </c>
       <c r="G2059" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55159,7 +55162,7 @@
         <v>15</v>
       </c>
       <c r="G2060" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55185,7 +55188,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2061" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55211,7 +55214,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55237,7 +55240,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2063" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55263,7 +55266,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55289,7 +55292,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55315,7 +55318,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2066" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55341,7 +55344,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2067" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55367,7 +55370,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55393,7 +55396,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2069" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55419,7 +55422,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2070" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55445,7 +55448,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55471,7 +55474,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55497,7 +55500,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55523,7 +55526,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2074" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55549,7 +55552,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2075" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55575,7 +55578,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2076" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55601,7 +55604,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G2077" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55627,7 +55630,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55653,7 +55656,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55679,7 +55682,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2080" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55705,7 +55708,7 @@
         <v>14</v>
       </c>
       <c r="G2081" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55731,7 +55734,7 @@
         <v>14.5</v>
       </c>
       <c r="G2082" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55757,7 +55760,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2083" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55783,7 +55786,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55809,7 +55812,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2085" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55835,7 +55838,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2086" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55861,7 +55864,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55887,7 +55890,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2088" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55913,7 +55916,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2089" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55939,7 +55942,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2090" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -55965,7 +55968,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2091" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -55991,7 +55994,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2092" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56017,7 +56020,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2093" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56043,7 +56046,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56069,7 +56072,7 @@
         <v>14</v>
       </c>
       <c r="G2095" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56095,7 +56098,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2096" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56121,7 +56124,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2097" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56147,7 +56150,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56173,7 +56176,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56199,7 +56202,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56225,7 +56228,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56251,7 +56254,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56277,7 +56280,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2103" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56303,7 +56306,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56329,7 +56332,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56355,7 +56358,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56381,7 +56384,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2107" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56407,7 +56410,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56433,7 +56436,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56459,7 +56462,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56485,7 +56488,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2111" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56511,7 +56514,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2112" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56537,7 +56540,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2113" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56563,7 +56566,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2114" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56589,7 +56592,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2115" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56615,7 +56618,7 @@
         <v>14</v>
       </c>
       <c r="G2116" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56641,7 +56644,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2117" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56667,7 +56670,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56693,7 +56696,7 @@
         <v>14</v>
       </c>
       <c r="G2119" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56719,7 +56722,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56745,7 +56748,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G2121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56771,7 +56774,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2122" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56797,7 +56800,7 @@
         <v>14</v>
       </c>
       <c r="G2123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56823,7 +56826,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56849,7 +56852,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2125" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56875,7 +56878,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56901,7 +56904,7 @@
         <v>14</v>
       </c>
       <c r="G2127" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56927,7 +56930,7 @@
         <v>14</v>
       </c>
       <c r="G2128" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56953,7 +56956,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2129" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -56979,7 +56982,7 @@
         <v>14</v>
       </c>
       <c r="G2130" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57005,7 +57008,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2131" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57031,7 +57034,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57057,7 +57060,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G2133" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57083,7 +57086,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57109,7 +57112,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57135,7 +57138,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57161,7 +57164,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57187,7 +57190,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57213,7 +57216,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57239,7 +57242,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57265,7 +57268,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57291,7 +57294,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57317,7 +57320,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57343,7 +57346,7 @@
         <v>14</v>
       </c>
       <c r="G2144" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57369,7 +57372,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57395,7 +57398,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2146" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57421,7 +57424,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2147" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57447,7 +57450,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2148" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57473,7 +57476,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2149" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57499,7 +57502,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2150" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57525,7 +57528,7 @@
         <v>14</v>
       </c>
       <c r="G2151" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57551,7 +57554,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2152" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57577,7 +57580,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2153" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57603,7 +57606,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2154" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57629,7 +57632,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2155" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57655,7 +57658,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57681,7 +57684,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2157" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57707,7 +57710,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2158" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57733,7 +57736,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2159" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57759,7 +57762,7 @@
         <v>14</v>
       </c>
       <c r="G2160" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57785,7 +57788,7 @@
         <v>14</v>
       </c>
       <c r="G2161" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57811,7 +57814,7 @@
         <v>14</v>
       </c>
       <c r="G2162" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57837,7 +57840,7 @@
         <v>14</v>
       </c>
       <c r="G2163" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57863,7 +57866,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2164" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57889,7 +57892,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2165" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57915,7 +57918,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2166" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57941,7 +57944,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2167" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -57967,7 +57970,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2168" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -57993,7 +57996,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2169" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58019,7 +58022,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2170" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58045,7 +58048,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58071,7 +58074,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2172" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58097,7 +58100,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2173" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58123,7 +58126,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2174" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58149,7 +58152,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2175" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58175,7 +58178,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2176" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -58201,7 +58204,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2177" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -58227,7 +58230,7 @@
         <v>15</v>
       </c>
       <c r="G2178" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -58253,7 +58256,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2179" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -58279,7 +58282,7 @@
         <v>15</v>
       </c>
       <c r="G2180" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -58305,7 +58308,7 @@
         <v>15</v>
       </c>
       <c r="G2181" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -58331,7 +58334,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2182" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -58357,7 +58360,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2183" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -58383,7 +58386,7 @@
         <v>15</v>
       </c>
       <c r="G2184" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -58409,7 +58412,7 @@
         <v>15</v>
       </c>
       <c r="G2185" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -58435,7 +58438,7 @@
         <v>15</v>
       </c>
       <c r="G2186" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -58461,7 +58464,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2187" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -58487,7 +58490,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2188" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -58513,7 +58516,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2189" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -58539,7 +58542,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2190" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -58565,7 +58568,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2191" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -58591,7 +58594,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -58617,7 +58620,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2193" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -58643,7 +58646,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2194" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -58669,7 +58672,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2195" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -58695,7 +58698,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2196" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -58721,7 +58724,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2197" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -58747,7 +58750,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2198" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -58773,7 +58776,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2199" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -58799,7 +58802,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2200" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -58825,7 +58828,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2201" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -58851,7 +58854,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2202" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -58877,7 +58880,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2203" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -58903,7 +58906,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2204" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -58929,7 +58932,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2205" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -58955,7 +58958,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2206" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -58981,7 +58984,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2207" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -59007,7 +59010,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2208" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -59033,7 +59036,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2209" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2209" t="s">
         <v>9</v>
@@ -59059,7 +59062,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2210" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2210" t="s">
         <v>9</v>
@@ -59085,7 +59088,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2211" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2211" t="s">
         <v>9</v>
@@ -59111,7 +59114,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2212" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2212" t="s">
         <v>9</v>
@@ -59137,7 +59140,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2213" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2213" t="s">
         <v>9</v>
@@ -59163,7 +59166,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2214" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2214" t="s">
         <v>9</v>
@@ -59189,7 +59192,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G2215" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2215" t="s">
         <v>9</v>
@@ -59215,7 +59218,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G2216" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2216" t="s">
         <v>9</v>
@@ -59241,7 +59244,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2217" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2217" t="s">
         <v>9</v>
@@ -59267,7 +59270,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2218" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2218" t="s">
         <v>9</v>
@@ -59293,7 +59296,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2219" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2219" t="s">
         <v>9</v>
@@ -59319,7 +59322,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2220" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2220" t="s">
         <v>9</v>
@@ -59345,9 +59348,35 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G2221" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="1" t="n">
+        <v>45558.2916666667</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>14.8000001907349</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>14.8000001907349</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>14.8000001907349</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>14.8000001907349</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>417</v>
+      </c>
+      <c r="H2222" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IB.MI.xlsx
+++ b/data/IB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8440408706665</t>
+    <t xml:space="preserve">13.8440418243408</t>
   </si>
   <si>
     <t xml:space="preserve">IB.MI</t>
@@ -47,61 +47,61 @@
     <t xml:space="preserve">13.7711782455444</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4651527404785</t>
+    <t xml:space="preserve">13.4651517868042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4797229766846</t>
+    <t xml:space="preserve">13.4797248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1154079437256</t>
+    <t xml:space="preserve">13.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4068622589111</t>
+    <t xml:space="preserve">13.4068613052368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081209182739</t>
+    <t xml:space="preserve">13.1081199645996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.751091003418</t>
+    <t xml:space="preserve">12.7510900497437</t>
   </si>
   <si>
     <t xml:space="preserve">12.386775970459</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7091445922852</t>
+    <t xml:space="preserve">11.7091455459595</t>
   </si>
   <si>
     <t xml:space="preserve">11.075234413147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3830327987671</t>
+    <t xml:space="preserve">10.3830308914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83655738830566</t>
+    <t xml:space="preserve">9.83655643463135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5651903152466</t>
+    <t xml:space="preserve">10.5651893615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983531951904</t>
+    <t xml:space="preserve">10.7983522415161</t>
   </si>
   <si>
     <t xml:space="preserve">11.0023698806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9950828552246</t>
+    <t xml:space="preserve">10.9950838088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9295053482056</t>
+    <t xml:space="preserve">10.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.148097038269</t>
+    <t xml:space="preserve">11.1480951309204</t>
   </si>
   <si>
     <t xml:space="preserve">11.2209606170654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2938232421875</t>
+    <t xml:space="preserve">11.2938241958618</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865371704102</t>
@@ -110,61 +110,61 @@
     <t xml:space="preserve">11.6581411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.920449256897</t>
+    <t xml:space="preserve">11.9204502105713</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1827564239502</t>
+    <t xml:space="preserve">12.1827573776245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4523506164551</t>
+    <t xml:space="preserve">12.4523515701294</t>
   </si>
   <si>
     <t xml:space="preserve">12.7292318344116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.72194480896</t>
+    <t xml:space="preserve">12.7219457626343</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061111450195</t>
+    <t xml:space="preserve">13.0061130523682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2611331939697</t>
+    <t xml:space="preserve">13.2611351013184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5525875091553</t>
+    <t xml:space="preserve">13.5525884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1882724761963</t>
+    <t xml:space="preserve">13.1882705688477</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968181610107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6199369430542</t>
+    <t xml:space="preserve">12.6199359893799</t>
   </si>
   <si>
     <t xml:space="preserve">12.4742097854614</t>
   </si>
   <si>
-    <t xml:space="preserve">12.313910484314</t>
+    <t xml:space="preserve">12.3139095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5907926559448</t>
+    <t xml:space="preserve">12.5907936096191</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774782180786</t>
   </si>
   <si>
-    <t xml:space="preserve">12.550311088562</t>
+    <t xml:space="preserve">12.5503120422363</t>
   </si>
   <si>
     <t xml:space="preserve">12.2699003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048389434814</t>
+    <t xml:space="preserve">12.5048408508301</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4669456481934</t>
+    <t xml:space="preserve">12.4669466018677</t>
   </si>
   <si>
     <t xml:space="preserve">12.3229513168335</t>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">12.0501174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259069442749</t>
+    <t xml:space="preserve">12.1259059906006</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8227567672729</t>
+    <t xml:space="preserve">11.8227577209473</t>
   </si>
   <si>
     <t xml:space="preserve">12.0880107879639</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">11.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2016906738281</t>
+    <t xml:space="preserve">12.2016925811768</t>
   </si>
   <si>
     <t xml:space="preserve">12.2774772644043</t>
@@ -194,31 +194,31 @@
     <t xml:space="preserve">12.4290523529053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911600112915</t>
+    <t xml:space="preserve">12.3911581039429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5806264877319</t>
+    <t xml:space="preserve">12.5806255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6564121246338</t>
+    <t xml:space="preserve">12.6564140319824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7322006225586</t>
+    <t xml:space="preserve">12.73219871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7700939178467</t>
+    <t xml:space="preserve">12.7700929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8837747573853</t>
+    <t xml:space="preserve">12.8837757110596</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957832336426</t>
+    <t xml:space="preserve">12.5957841873169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8761949539185</t>
+    <t xml:space="preserve">12.8761959075928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0353479385376</t>
+    <t xml:space="preserve">13.0353469848633</t>
   </si>
   <si>
     <t xml:space="preserve">13.1111354827881</t>
@@ -227,118 +227,118 @@
     <t xml:space="preserve">13.2627077102661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.558277130127</t>
+    <t xml:space="preserve">13.5582761764526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3763866424561</t>
+    <t xml:space="preserve">13.3763904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5885934829712</t>
+    <t xml:space="preserve">13.5885915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5658550262451</t>
+    <t xml:space="preserve">13.5658559799194</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4142837524414</t>
+    <t xml:space="preserve">13.4142827987671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690042495728</t>
+    <t xml:space="preserve">13.8690052032471</t>
   </si>
   <si>
     <t xml:space="preserve">13.9447917938232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.096363067627</t>
+    <t xml:space="preserve">14.0963640213013</t>
   </si>
   <si>
     <t xml:space="preserve">14.0205774307251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0357341766357</t>
+    <t xml:space="preserve">14.0357360839844</t>
   </si>
   <si>
     <t xml:space="preserve">14.0887851715088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0584697723389</t>
+    <t xml:space="preserve">14.0584707260132</t>
   </si>
   <si>
     <t xml:space="preserve">14.1721525192261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2100429534912</t>
+    <t xml:space="preserve">14.2100448608398</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948881149292</t>
+    <t xml:space="preserve">14.1948871612549</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1342601776123</t>
+    <t xml:space="preserve">14.1342573165894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826850891113</t>
+    <t xml:space="preserve">13.9826831817627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0812063217163</t>
+    <t xml:space="preserve">14.0812082290649</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0736284255981</t>
+    <t xml:space="preserve">14.0736293792725</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8311109542847</t>
+    <t xml:space="preserve">13.831109046936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1418361663818</t>
+    <t xml:space="preserve">14.1418380737305</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8538455963135</t>
+    <t xml:space="preserve">13.8538465499878</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4900693893433</t>
+    <t xml:space="preserve">13.4900684356689</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174310684204</t>
+    <t xml:space="preserve">13.7174301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5203828811646</t>
+    <t xml:space="preserve">13.5203838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6416425704956</t>
+    <t xml:space="preserve">13.6416435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7553234100342</t>
+    <t xml:space="preserve">13.7553253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4521741867065</t>
+    <t xml:space="preserve">13.4521751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7477445602417</t>
+    <t xml:space="preserve">13.7477464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3460731506348</t>
+    <t xml:space="preserve">13.3460741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6340637207031</t>
+    <t xml:space="preserve">13.6340627670288</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2551307678223</t>
+    <t xml:space="preserve">13.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8231439590454</t>
+    <t xml:space="preserve">12.8231449127197</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776708602905</t>
+    <t xml:space="preserve">12.7776727676392</t>
   </si>
   <si>
     <t xml:space="preserve">12.4972610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.686728477478</t>
+    <t xml:space="preserve">12.6867294311523</t>
   </si>
   <si>
     <t xml:space="preserve">12.6412553787231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.61851978302</t>
+    <t xml:space="preserve">12.6185207366943</t>
   </si>
   <si>
     <t xml:space="preserve">12.4063167572021</t>
@@ -347,37 +347,37 @@
     <t xml:space="preserve">12.6488351821899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5578908920288</t>
+    <t xml:space="preserve">12.5578918457031</t>
   </si>
   <si>
     <t xml:space="preserve">12.565468788147</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124158859253</t>
+    <t xml:space="preserve">12.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7473564147949</t>
+    <t xml:space="preserve">12.7473583221436</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5199966430664</t>
+    <t xml:space="preserve">12.5199947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5351543426514</t>
+    <t xml:space="preserve">12.53515625</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.315372467041</t>
+    <t xml:space="preserve">12.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7246217727661</t>
+    <t xml:space="preserve">12.7246208190918</t>
   </si>
   <si>
     <t xml:space="preserve">12.8079862594604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004083633423</t>
+    <t xml:space="preserve">12.8004093170166</t>
   </si>
   <si>
     <t xml:space="preserve">12.7296867370605</t>
@@ -395,115 +395,115 @@
     <t xml:space="preserve">12.9732789993286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6118192672729</t>
+    <t xml:space="preserve">12.6118202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8947010040283</t>
+    <t xml:space="preserve">12.8947019577026</t>
   </si>
   <si>
     <t xml:space="preserve">13.004711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1697254180908</t>
+    <t xml:space="preserve">13.1697263717651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4368896484375</t>
+    <t xml:space="preserve">13.4368934631348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7354898452759</t>
+    <t xml:space="preserve">13.7354917526245</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5940494537354</t>
+    <t xml:space="preserve">13.5940504074097</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5861892700195</t>
+    <t xml:space="preserve">13.5861911773682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2875928878784</t>
+    <t xml:space="preserve">13.2875938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5783338546753</t>
+    <t xml:space="preserve">13.5783357620239</t>
   </si>
   <si>
     <t xml:space="preserve">13.5547590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7512054443359</t>
+    <t xml:space="preserve">13.7512044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4761829376221</t>
+    <t xml:space="preserve">13.4761819839478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4526081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7276306152344</t>
+    <t xml:space="preserve">13.727632522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7119159698486</t>
+    <t xml:space="preserve">13.7119150161743</t>
   </si>
   <si>
     <t xml:space="preserve">13.9869394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9083652496338</t>
+    <t xml:space="preserve">13.9083633422852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0655183792114</t>
+    <t xml:space="preserve">14.0655193328857</t>
   </si>
   <si>
     <t xml:space="preserve">14.2148180007935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183385848999</t>
+    <t xml:space="preserve">14.1833868026733</t>
   </si>
   <si>
     <t xml:space="preserve">13.8612146377563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7590637207031</t>
+    <t xml:space="preserve">13.7590618133545</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0576610565186</t>
+    <t xml:space="preserve">14.0576601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8297834396362</t>
+    <t xml:space="preserve">13.8297815322876</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0262298583984</t>
+    <t xml:space="preserve">14.0262308120728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104808807373</t>
+    <t xml:space="preserve">14.1048097610474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9476518630981</t>
+    <t xml:space="preserve">13.9476509094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8690710067749</t>
+    <t xml:space="preserve">13.8690738677979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7904958724976</t>
+    <t xml:space="preserve">13.7904949188232</t>
   </si>
   <si>
     <t xml:space="preserve">14.144097328186</t>
   </si>
   <si>
-    <t xml:space="preserve">14.301251411438</t>
+    <t xml:space="preserve">14.3012542724609</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2619638442993</t>
+    <t xml:space="preserve">14.2619667053223</t>
   </si>
   <si>
     <t xml:space="preserve">14.4584102630615</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2226762771606</t>
+    <t xml:space="preserve">14.2226753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7334318161011</t>
+    <t xml:space="preserve">14.733434677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3405437469482</t>
+    <t xml:space="preserve">14.3405408859253</t>
   </si>
   <si>
     <t xml:space="preserve">14.2933940887451</t>
@@ -512,40 +512,40 @@
     <t xml:space="preserve">14.0498027801514</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6155681610107</t>
+    <t xml:space="preserve">14.6155672073364</t>
   </si>
   <si>
     <t xml:space="preserve">14.694146156311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0969486236572</t>
+    <t xml:space="preserve">14.0969505310059</t>
   </si>
   <si>
     <t xml:space="preserve">14.0812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.45055103302</t>
+    <t xml:space="preserve">14.4505548477173</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6705722808838</t>
+    <t xml:space="preserve">14.6705732345581</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3227729797363</t>
+    <t xml:space="preserve">15.3227701187134</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770269393921</t>
+    <t xml:space="preserve">14.977029800415</t>
   </si>
   <si>
     <t xml:space="preserve">15.307056427002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3856363296509</t>
+    <t xml:space="preserve">15.3856344223022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7078075408936</t>
+    <t xml:space="preserve">15.7078065872192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7156629562378</t>
+    <t xml:space="preserve">15.7156639099121</t>
   </si>
   <si>
     <t xml:space="preserve">15.6999483108521</t>
@@ -560,19 +560,19 @@
     <t xml:space="preserve">15.3384876251221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5977954864502</t>
+    <t xml:space="preserve">15.5977935791016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3306283950806</t>
+    <t xml:space="preserve">15.3306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8728199005127</t>
+    <t xml:space="preserve">15.8728189468384</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442878723145</t>
+    <t xml:space="preserve">16.3442897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1871337890625</t>
+    <t xml:space="preserve">16.1871356964111</t>
   </si>
   <si>
     <t xml:space="preserve">16.5014495849609</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">17.4443874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5444850921631</t>
+    <t xml:space="preserve">18.5444831848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0730152130127</t>
+    <t xml:space="preserve">18.0730133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158573150635</t>
+    <t xml:space="preserve">17.9158554077148</t>
   </si>
   <si>
     <t xml:space="preserve">17.7586994171143</t>
@@ -602,31 +602,31 @@
     <t xml:space="preserve">17.6015434265137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729156494141</t>
+    <t xml:space="preserve">16.9729175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8157596588135</t>
+    <t xml:space="preserve">16.8157615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1345634460449</t>
+    <t xml:space="preserve">17.1345653533936</t>
   </si>
   <si>
     <t xml:space="preserve">16.8112697601318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.457857131958</t>
+    <t xml:space="preserve">17.4578590393066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6797399520874</t>
+    <t xml:space="preserve">15.6797437667847</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3263301849365</t>
+    <t xml:space="preserve">16.3263282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1646823883057</t>
+    <t xml:space="preserve">16.1646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4879760742188</t>
+    <t xml:space="preserve">16.4879779815674</t>
   </si>
   <si>
     <t xml:space="preserve">17.2962112426758</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">17.6195049285889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.649621963501</t>
+    <t xml:space="preserve">16.6496238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8413896560669</t>
+    <t xml:space="preserve">15.8413906097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7605676651001</t>
+    <t xml:space="preserve">15.7605638504028</t>
   </si>
   <si>
     <t xml:space="preserve">15.3564500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0030345916748</t>
+    <t xml:space="preserve">16.0030326843262</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0331554412842</t>
+    <t xml:space="preserve">15.0331544876099</t>
   </si>
   <si>
     <t xml:space="preserve">15.1139793395996</t>
@@ -665,22 +665,22 @@
     <t xml:space="preserve">14.9255456924438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5901412963867</t>
+    <t xml:space="preserve">14.5901393890381</t>
   </si>
   <si>
     <t xml:space="preserve">14.4224367141724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0870313644409</t>
+    <t xml:space="preserve">14.0870323181152</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3385877609253</t>
+    <t xml:space="preserve">14.338586807251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8416938781738</t>
+    <t xml:space="preserve">14.8416948318481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.254734992981</t>
+    <t xml:space="preserve">14.2547359466553</t>
   </si>
   <si>
     <t xml:space="preserve">14.1708822250366</t>
@@ -689,19 +689,19 @@
     <t xml:space="preserve">14.6739902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.506290435791</t>
+    <t xml:space="preserve">14.5062894821167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8354778289795</t>
+    <t xml:space="preserve">13.8354787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9193277359009</t>
+    <t xml:space="preserve">13.9193296432495</t>
   </si>
   <si>
     <t xml:space="preserve">15.0932493209839</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7578430175781</t>
+    <t xml:space="preserve">14.7578420639038</t>
   </si>
   <si>
     <t xml:space="preserve">14.0031814575195</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">13.7516269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6677761077881</t>
+    <t xml:space="preserve">13.6677742004395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839233398438</t>
+    <t xml:space="preserve">13.5839223861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500072479248</t>
+    <t xml:space="preserve">13.5000715255737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162216186523</t>
+    <t xml:space="preserve">13.416220664978</t>
   </si>
   <si>
     <t xml:space="preserve">13.332368850708</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">13.2485189437866</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9969644546509</t>
+    <t xml:space="preserve">12.9969654083252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938545227051</t>
+    <t xml:space="preserve">12.4938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2423009872437</t>
+    <t xml:space="preserve">12.242301940918</t>
   </si>
   <si>
     <t xml:space="preserve">13.1646661758423</t>
@@ -749,46 +749,46 @@
     <t xml:space="preserve">12.6615591049194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7454109191895</t>
+    <t xml:space="preserve">12.7454099655151</t>
   </si>
   <si>
     <t xml:space="preserve">11.6553421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8230457305908</t>
+    <t xml:space="preserve">11.8230438232422</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9907464981079</t>
+    <t xml:space="preserve">11.9907455444336</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1584501266479</t>
+    <t xml:space="preserve">12.1584510803223</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0745983123779</t>
+    <t xml:space="preserve">12.0745992660522</t>
   </si>
   <si>
     <t xml:space="preserve">11.9068956375122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7391939163208</t>
+    <t xml:space="preserve">11.7391929626465</t>
   </si>
   <si>
     <t xml:space="preserve">11.4876384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5714912414551</t>
+    <t xml:space="preserve">11.5714902877808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1522331237793</t>
+    <t xml:space="preserve">11.1522340774536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168277740479</t>
+    <t xml:space="preserve">10.8168287277222</t>
   </si>
   <si>
     <t xml:space="preserve">10.9845304489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9006795883179</t>
+    <t xml:space="preserve">10.9006786346436</t>
   </si>
   <si>
     <t xml:space="preserve">10.7329769134521</t>
@@ -809,31 +809,31 @@
     <t xml:space="preserve">13.4563827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1942453384399</t>
+    <t xml:space="preserve">13.1942462921143</t>
   </si>
   <si>
     <t xml:space="preserve">12.932107925415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5340433120728</t>
+    <t xml:space="preserve">11.5340423583984</t>
   </si>
   <si>
     <t xml:space="preserve">12.2330751419067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4952116012573</t>
+    <t xml:space="preserve">12.495210647583</t>
   </si>
   <si>
     <t xml:space="preserve">12.7573499679565</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0194864273071</t>
+    <t xml:space="preserve">13.0194873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1068658828735</t>
+    <t xml:space="preserve">13.1068668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5437622070312</t>
+    <t xml:space="preserve">13.5437631607056</t>
   </si>
   <si>
     <t xml:space="preserve">13.8058996200562</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">13.9806575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311416625977</t>
+    <t xml:space="preserve">13.6311407089233</t>
   </si>
   <si>
     <t xml:space="preserve">13.3690032958984</t>
@@ -854,46 +854,46 @@
     <t xml:space="preserve">15.4661026000977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2039651870728</t>
+    <t xml:space="preserve">15.2039642333984</t>
   </si>
   <si>
     <t xml:space="preserve">15.5534811019897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.116587638855</t>
+    <t xml:space="preserve">15.1165866851807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8156175613403</t>
+    <t xml:space="preserve">15.8156185150146</t>
   </si>
   <si>
     <t xml:space="preserve">15.6408596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7282409667969</t>
+    <t xml:space="preserve">15.7282400131226</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3787231445312</t>
+    <t xml:space="preserve">15.3787221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2913417816162</t>
+    <t xml:space="preserve">15.2913427352905</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0292053222656</t>
+    <t xml:space="preserve">15.0292062759399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8544492721558</t>
+    <t xml:space="preserve">14.8544502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6796894073486</t>
+    <t xml:space="preserve">14.6796903610229</t>
   </si>
   <si>
     <t xml:space="preserve">14.330174446106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.417552947998</t>
+    <t xml:space="preserve">14.4175539016724</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2427959442139</t>
+    <t xml:space="preserve">14.2427940368652</t>
   </si>
   <si>
     <t xml:space="preserve">14.9418287277222</t>
@@ -902,28 +902,28 @@
     <t xml:space="preserve">14.2154502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4786987304688</t>
+    <t xml:space="preserve">14.4786977767944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9174461364746</t>
+    <t xml:space="preserve">14.9174470901489</t>
   </si>
   <si>
     <t xml:space="preserve">14.3909473419189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6541986465454</t>
+    <t xml:space="preserve">14.6541996002197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5664491653442</t>
+    <t xml:space="preserve">14.5664482116699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0929479598999</t>
+    <t xml:space="preserve">15.0929460525513</t>
   </si>
   <si>
     <t xml:space="preserve">15.2684450149536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8296957015991</t>
+    <t xml:space="preserve">14.8296966552734</t>
   </si>
   <si>
     <t xml:space="preserve">14.3031978607178</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">14.1276998519897</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0051984786987</t>
+    <t xml:space="preserve">15.0051975250244</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561944961548</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5316963195801</t>
+    <t xml:space="preserve">15.5316953659058</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1806945800781</t>
+    <t xml:space="preserve">15.1806936264038</t>
   </si>
   <si>
     <t xml:space="preserve">15.7071933746338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4439458847046</t>
+    <t xml:space="preserve">15.4439449310303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.619441986084</t>
+    <t xml:space="preserve">15.6194429397583</t>
   </si>
   <si>
     <t xml:space="preserve">15.8826951980591</t>
@@ -965,40 +965,40 @@
     <t xml:space="preserve">15.9704446792603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.794942855835</t>
+    <t xml:space="preserve">15.7949447631836</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214435577393</t>
+    <t xml:space="preserve">16.3214416503906</t>
   </si>
   <si>
     <t xml:space="preserve">16.4091930389404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6724414825439</t>
+    <t xml:space="preserve">16.6724395751953</t>
   </si>
   <si>
     <t xml:space="preserve">16.7601909637451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8479423522949</t>
+    <t xml:space="preserve">16.8479404449463</t>
   </si>
   <si>
     <t xml:space="preserve">17.2308483123779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.048511505127</t>
+    <t xml:space="preserve">17.0485134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9573440551758</t>
+    <t xml:space="preserve">16.9573421478271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.866174697876</t>
+    <t xml:space="preserve">16.8661727905273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7750053405762</t>
+    <t xml:space="preserve">16.7750034332275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6838359832764</t>
+    <t xml:space="preserve">16.6838340759277</t>
   </si>
   <si>
     <t xml:space="preserve">16.501501083374</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">16.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5926704406738</t>
+    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">16.3191623687744</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">17.1396789550781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3220157623291</t>
+    <t xml:space="preserve">17.3220176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131851196289</t>
+    <t xml:space="preserve">17.4131870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5043563842773</t>
+    <t xml:space="preserve">17.5043544769287</t>
   </si>
   <si>
     <t xml:space="preserve">17.6866893768311</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">17.7778587341309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160404205322</t>
+    <t xml:space="preserve">18.4160385131836</t>
   </si>
   <si>
     <t xml:space="preserve">19.5100593566895</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">18.5983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7807121276855</t>
+    <t xml:space="preserve">18.7807140350342</t>
   </si>
   <si>
     <t xml:space="preserve">18.1425323486328</t>
@@ -1116,9 +1116,6 @@
   </si>
   <si>
     <t xml:space="preserve">16.8771133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5926685333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.0667457580566</t>
@@ -44684,7 +44681,7 @@
         <v>17.5</v>
       </c>
       <c r="G1657" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44710,7 +44707,7 @@
         <v>18</v>
       </c>
       <c r="G1658" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44762,7 +44759,7 @@
         <v>18</v>
       </c>
       <c r="G1660" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44788,7 +44785,7 @@
         <v>18</v>
       </c>
       <c r="G1661" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44814,7 +44811,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1662" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44840,7 +44837,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44866,7 +44863,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1664" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44892,7 +44889,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44918,7 +44915,7 @@
         <v>18</v>
       </c>
       <c r="G1666" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44944,7 +44941,7 @@
         <v>18</v>
       </c>
       <c r="G1667" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -44970,7 +44967,7 @@
         <v>18</v>
       </c>
       <c r="G1668" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -44996,7 +44993,7 @@
         <v>18</v>
       </c>
       <c r="G1669" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45022,7 +45019,7 @@
         <v>18</v>
       </c>
       <c r="G1670" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45048,7 +45045,7 @@
         <v>18</v>
       </c>
       <c r="G1671" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45074,7 +45071,7 @@
         <v>18</v>
       </c>
       <c r="G1672" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45100,7 +45097,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1673" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45126,7 +45123,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1674" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45152,7 +45149,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G1675" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45178,7 +45175,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45204,7 +45201,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1677" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45230,7 +45227,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1678" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1678